--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44059</v>
+        <v>44066</v>
       </c>
       <c r="B14">
-        <v>101.35</v>
+        <v>120.7</v>
       </c>
       <c r="C14">
         <v>118.73</v>
       </c>
       <c r="D14">
-        <v>-14.64</v>
+        <v>1.65</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D383"/>
+  <dimension ref="A1:D390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5977,6 +5977,104 @@
         <v>22</v>
       </c>
     </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B384">
+        <v>153.78</v>
+      </c>
+      <c r="C384">
+        <v>118.73</v>
+      </c>
+      <c r="D384">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B385">
+        <v>158.61</v>
+      </c>
+      <c r="C385">
+        <v>118.73</v>
+      </c>
+      <c r="D385">
+        <v>33.59</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B386">
+        <v>177.33</v>
+      </c>
+      <c r="C386">
+        <v>118.73</v>
+      </c>
+      <c r="D386">
+        <v>49.36</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B387">
+        <v>183.36</v>
+      </c>
+      <c r="C387">
+        <v>118.73</v>
+      </c>
+      <c r="D387">
+        <v>54.44</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B388">
+        <v>175.84</v>
+      </c>
+      <c r="C388">
+        <v>118.73</v>
+      </c>
+      <c r="D388">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44065</v>
+      </c>
+      <c r="B389">
+        <v>159.39</v>
+      </c>
+      <c r="C389">
+        <v>118.73</v>
+      </c>
+      <c r="D389">
+        <v>34.24</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44066</v>
+      </c>
+      <c r="B390">
+        <v>146.09</v>
+      </c>
+      <c r="C390">
+        <v>118.73</v>
+      </c>
+      <c r="D390">
+        <v>23.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -417,184 +417,184 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43708</v>
+        <v>43738</v>
       </c>
       <c r="B2">
-        <v>75.41</v>
+        <v>70.95</v>
       </c>
       <c r="C2">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D2">
-        <v>-36.49</v>
+        <v>-42.74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B3">
-        <v>70.95</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C3">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D3">
-        <v>-42.74</v>
+        <v>-54.01</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B4">
-        <v>69.34999999999999</v>
+        <v>111.69</v>
       </c>
       <c r="C4">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D4">
-        <v>-54.01</v>
+        <v>-20.57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B5">
-        <v>111.69</v>
+        <v>105.52</v>
       </c>
       <c r="C5">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D5">
-        <v>-20.57</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B6">
-        <v>105.52</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C6">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D6">
-        <v>-13.27</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B7">
-        <v>85.51000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="C7">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D7">
-        <v>-25.46</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B8">
-        <v>94.27</v>
+        <v>78.78</v>
       </c>
       <c r="C8">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D8">
-        <v>-18.6</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B9">
-        <v>78.78</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C9">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D9">
-        <v>-26.56</v>
+        <v>-41.13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B10">
-        <v>64.23999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="C10">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>-41.13</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B11">
-        <v>89.79000000000001</v>
+        <v>151.59</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D11">
-        <v>-29.85</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B12">
-        <v>151.59</v>
+        <v>125.48</v>
       </c>
       <c r="C12">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D12">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B13">
-        <v>125.48</v>
+        <v>120.3</v>
       </c>
       <c r="C13">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D13">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44066</v>
+        <v>44082</v>
       </c>
       <c r="B14">
-        <v>120.7</v>
+        <v>100.29</v>
       </c>
       <c r="C14">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D14">
-        <v>1.65</v>
+        <v>-19.06</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D390"/>
+  <dimension ref="A1:D375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5448 +631,5238 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B2">
-        <v>83.40000000000001</v>
+        <v>72.98</v>
       </c>
       <c r="C2">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D2">
-        <v>-29.76</v>
+        <v>-41.11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43679</v>
+        <v>43710</v>
       </c>
       <c r="B3">
-        <v>82.23</v>
+        <v>76.28</v>
       </c>
       <c r="C3">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D3">
-        <v>-30.74</v>
+        <v>-38.44</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43680</v>
+        <v>43711</v>
       </c>
       <c r="B4">
-        <v>80.55</v>
+        <v>75.2</v>
       </c>
       <c r="C4">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D4">
-        <v>-32.16</v>
+        <v>-39.31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43681</v>
+        <v>43712</v>
       </c>
       <c r="B5">
-        <v>79.7</v>
+        <v>71.55</v>
       </c>
       <c r="C5">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D5">
-        <v>-32.88</v>
+        <v>-42.26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43682</v>
+        <v>43713</v>
       </c>
       <c r="B6">
-        <v>79.83</v>
+        <v>70.19</v>
       </c>
       <c r="C6">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D6">
-        <v>-32.76</v>
+        <v>-43.36</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43683</v>
+        <v>43714</v>
       </c>
       <c r="B7">
-        <v>78.7</v>
+        <v>71.26000000000001</v>
       </c>
       <c r="C7">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D7">
-        <v>-33.72</v>
+        <v>-42.49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43684</v>
+        <v>43715</v>
       </c>
       <c r="B8">
-        <v>79.62</v>
+        <v>69.89</v>
       </c>
       <c r="C8">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D8">
-        <v>-32.94</v>
+        <v>-43.6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43685</v>
+        <v>43716</v>
       </c>
       <c r="B9">
-        <v>77.7</v>
+        <v>68.89</v>
       </c>
       <c r="C9">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D9">
-        <v>-34.56</v>
+        <v>-44.41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43686</v>
+        <v>43717</v>
       </c>
       <c r="B10">
-        <v>77.31</v>
+        <v>67.12</v>
       </c>
       <c r="C10">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D10">
-        <v>-34.88</v>
+        <v>-45.83</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43687</v>
+        <v>43718</v>
       </c>
       <c r="B11">
-        <v>77.78</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C11">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D11">
-        <v>-34.49</v>
+        <v>-43.11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43688</v>
+        <v>43719</v>
       </c>
       <c r="B12">
-        <v>76.23</v>
+        <v>69.06999999999999</v>
       </c>
       <c r="C12">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D12">
-        <v>-35.8</v>
+        <v>-44.26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43689</v>
+        <v>43720</v>
       </c>
       <c r="B13">
-        <v>76.38</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="C13">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D13">
-        <v>-35.67</v>
+        <v>-43.92</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43690</v>
+        <v>43721</v>
       </c>
       <c r="B14">
-        <v>75.45999999999999</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="C14">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D14">
-        <v>-36.45</v>
+        <v>-44.6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43691</v>
+        <v>43722</v>
       </c>
       <c r="B15">
-        <v>75.14</v>
+        <v>67.55</v>
       </c>
       <c r="C15">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D15">
-        <v>-36.72</v>
+        <v>-45.49</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43692</v>
+        <v>43723</v>
       </c>
       <c r="B16">
-        <v>74.67</v>
+        <v>66.92</v>
       </c>
       <c r="C16">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D16">
-        <v>-37.11</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43693</v>
+        <v>43724</v>
       </c>
       <c r="B17">
-        <v>74.51000000000001</v>
+        <v>64.64</v>
       </c>
       <c r="C17">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D17">
-        <v>-37.24</v>
+        <v>-47.84</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43694</v>
+        <v>43725</v>
       </c>
       <c r="B18">
-        <v>71.59999999999999</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="C18">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D18">
-        <v>-39.69</v>
+        <v>-44.6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43695</v>
+        <v>43726</v>
       </c>
       <c r="B19">
-        <v>71.91</v>
+        <v>66.48999999999999</v>
       </c>
       <c r="C19">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D19">
-        <v>-39.44</v>
+        <v>-46.34</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43696</v>
+        <v>43727</v>
       </c>
       <c r="B20">
-        <v>73.75</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="C20">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D20">
-        <v>-37.89</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43697</v>
+        <v>43728</v>
       </c>
       <c r="B21">
-        <v>73.79000000000001</v>
+        <v>73.31</v>
       </c>
       <c r="C21">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D21">
-        <v>-37.85</v>
+        <v>-40.84</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43698</v>
+        <v>43729</v>
       </c>
       <c r="B22">
-        <v>74.95999999999999</v>
+        <v>75.73999999999999</v>
       </c>
       <c r="C22">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D22">
-        <v>-36.87</v>
+        <v>-38.88</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43699</v>
+        <v>43730</v>
       </c>
       <c r="B23">
-        <v>75.09</v>
+        <v>80</v>
       </c>
       <c r="C23">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D23">
-        <v>-36.75</v>
+        <v>-35.44</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43700</v>
+        <v>43731</v>
       </c>
       <c r="B24">
-        <v>73.93000000000001</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C24">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D24">
-        <v>-37.74</v>
+        <v>-37.09</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43701</v>
+        <v>43732</v>
       </c>
       <c r="B25">
-        <v>72.73999999999999</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="C25">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D25">
-        <v>-38.74</v>
+        <v>-38.05</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43702</v>
+        <v>43733</v>
       </c>
       <c r="B26">
-        <v>73.42</v>
+        <v>77.23</v>
       </c>
       <c r="C26">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D26">
-        <v>-38.17</v>
+        <v>-37.68</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43703</v>
+        <v>43734</v>
       </c>
       <c r="B27">
-        <v>72.36</v>
+        <v>73.36</v>
       </c>
       <c r="C27">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D27">
-        <v>-39.05</v>
+        <v>-40.79</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43704</v>
+        <v>43735</v>
       </c>
       <c r="B28">
-        <v>72.17</v>
+        <v>70.51000000000001</v>
       </c>
       <c r="C28">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D28">
-        <v>-39.22</v>
+        <v>-43.1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43705</v>
+        <v>43736</v>
       </c>
       <c r="B29">
-        <v>70.45</v>
+        <v>69.23</v>
       </c>
       <c r="C29">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D29">
-        <v>-40.67</v>
+        <v>-44.13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43706</v>
+        <v>43737</v>
       </c>
       <c r="B30">
-        <v>69.94</v>
+        <v>68.05</v>
       </c>
       <c r="C30">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D30">
-        <v>-41.1</v>
+        <v>-45.08</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43707</v>
+        <v>43738</v>
       </c>
       <c r="B31">
-        <v>71.25</v>
+        <v>66.68000000000001</v>
       </c>
       <c r="C31">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D31">
-        <v>-39.99</v>
+        <v>-46.19</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43708</v>
+        <v>43739</v>
       </c>
       <c r="B32">
-        <v>71.05</v>
+        <v>66.55</v>
       </c>
       <c r="C32">
-        <v>118.73</v>
+        <v>150.79</v>
       </c>
       <c r="D32">
-        <v>-40.16</v>
+        <v>-55.87</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43709</v>
+        <v>43740</v>
       </c>
       <c r="B33">
-        <v>72.98</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C33">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D33">
-        <v>-41.11</v>
+        <v>-56.3</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43710</v>
+        <v>43741</v>
       </c>
       <c r="B34">
-        <v>76.28</v>
+        <v>66.06</v>
       </c>
       <c r="C34">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D34">
-        <v>-38.44</v>
+        <v>-56.19</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43711</v>
+        <v>43742</v>
       </c>
       <c r="B35">
-        <v>75.2</v>
+        <v>70.92</v>
       </c>
       <c r="C35">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D35">
-        <v>-39.31</v>
+        <v>-52.97</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43712</v>
+        <v>43743</v>
       </c>
       <c r="B36">
-        <v>71.55</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="C36">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D36">
-        <v>-42.26</v>
+        <v>-53.39</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43713</v>
+        <v>43744</v>
       </c>
       <c r="B37">
-        <v>70.19</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C37">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D37">
-        <v>-43.36</v>
+        <v>-54.27</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43714</v>
+        <v>43745</v>
       </c>
       <c r="B38">
-        <v>71.26000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C38">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D38">
-        <v>-42.49</v>
+        <v>-53.03</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43715</v>
+        <v>43746</v>
       </c>
       <c r="B39">
-        <v>69.89</v>
+        <v>74.86</v>
       </c>
       <c r="C39">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D39">
-        <v>-43.6</v>
+        <v>-50.35</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43716</v>
+        <v>43747</v>
       </c>
       <c r="B40">
-        <v>68.89</v>
+        <v>71.45</v>
       </c>
       <c r="C40">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D40">
-        <v>-44.41</v>
+        <v>-52.62</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43717</v>
+        <v>43748</v>
       </c>
       <c r="B41">
-        <v>67.12</v>
+        <v>70.22</v>
       </c>
       <c r="C41">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D41">
-        <v>-45.83</v>
+        <v>-53.43</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43718</v>
+        <v>43749</v>
       </c>
       <c r="B42">
-        <v>70.48999999999999</v>
+        <v>70.69</v>
       </c>
       <c r="C42">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D42">
-        <v>-43.11</v>
+        <v>-53.12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43719</v>
+        <v>43750</v>
       </c>
       <c r="B43">
-        <v>69.06999999999999</v>
+        <v>70.47</v>
       </c>
       <c r="C43">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D43">
-        <v>-44.26</v>
+        <v>-53.27</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43720</v>
+        <v>43751</v>
       </c>
       <c r="B44">
-        <v>69.48999999999999</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C44">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D44">
-        <v>-43.92</v>
+        <v>-54.01</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43721</v>
+        <v>43752</v>
       </c>
       <c r="B45">
-        <v>68.65000000000001</v>
+        <v>69.03</v>
       </c>
       <c r="C45">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D45">
-        <v>-44.6</v>
+        <v>-54.22</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43722</v>
+        <v>43753</v>
       </c>
       <c r="B46">
-        <v>67.55</v>
+        <v>66.95</v>
       </c>
       <c r="C46">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D46">
-        <v>-45.49</v>
+        <v>-55.6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43723</v>
+        <v>43754</v>
       </c>
       <c r="B47">
-        <v>66.92</v>
+        <v>66.27</v>
       </c>
       <c r="C47">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D47">
-        <v>-46</v>
+        <v>-56.05</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43724</v>
+        <v>43755</v>
       </c>
       <c r="B48">
-        <v>64.64</v>
+        <v>66.42</v>
       </c>
       <c r="C48">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D48">
-        <v>-47.84</v>
+        <v>-55.96</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43725</v>
+        <v>43756</v>
       </c>
       <c r="B49">
-        <v>68.65000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C49">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D49">
-        <v>-44.6</v>
+        <v>-56.16</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43726</v>
+        <v>43757</v>
       </c>
       <c r="B50">
-        <v>66.48999999999999</v>
+        <v>63.71</v>
       </c>
       <c r="C50">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D50">
-        <v>-46.34</v>
+        <v>-57.75</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43727</v>
+        <v>43758</v>
       </c>
       <c r="B51">
-        <v>64.43000000000001</v>
+        <v>62.65</v>
       </c>
       <c r="C51">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D51">
-        <v>-48</v>
+        <v>-58.45</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43728</v>
+        <v>43759</v>
       </c>
       <c r="B52">
-        <v>73.31</v>
+        <v>67.44</v>
       </c>
       <c r="C52">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D52">
-        <v>-40.84</v>
+        <v>-55.28</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43729</v>
+        <v>43760</v>
       </c>
       <c r="B53">
-        <v>75.73999999999999</v>
+        <v>67.81</v>
       </c>
       <c r="C53">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D53">
-        <v>-38.88</v>
+        <v>-55.03</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43730</v>
+        <v>43761</v>
       </c>
       <c r="B54">
-        <v>80</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="C54">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D54">
-        <v>-35.44</v>
+        <v>-53.7</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43731</v>
+        <v>43762</v>
       </c>
       <c r="B55">
-        <v>77.95999999999999</v>
+        <v>75.14</v>
       </c>
       <c r="C55">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D55">
-        <v>-37.09</v>
+        <v>-50.17</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43732</v>
+        <v>43763</v>
       </c>
       <c r="B56">
-        <v>76.76000000000001</v>
+        <v>70.06</v>
       </c>
       <c r="C56">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D56">
-        <v>-38.05</v>
+        <v>-53.54</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43733</v>
+        <v>43764</v>
       </c>
       <c r="B57">
-        <v>77.23</v>
+        <v>68.89</v>
       </c>
       <c r="C57">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D57">
-        <v>-37.68</v>
+        <v>-54.32</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43734</v>
+        <v>43765</v>
       </c>
       <c r="B58">
-        <v>73.36</v>
+        <v>68.09</v>
       </c>
       <c r="C58">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D58">
-        <v>-40.79</v>
+        <v>-54.84</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43735</v>
+        <v>43766</v>
       </c>
       <c r="B59">
-        <v>70.51000000000001</v>
+        <v>70.55</v>
       </c>
       <c r="C59">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D59">
-        <v>-43.1</v>
+        <v>-53.21</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43736</v>
+        <v>43767</v>
       </c>
       <c r="B60">
-        <v>69.23</v>
+        <v>72.92</v>
       </c>
       <c r="C60">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D60">
-        <v>-44.13</v>
+        <v>-51.64</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43737</v>
+        <v>43768</v>
       </c>
       <c r="B61">
-        <v>68.05</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="C61">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D61">
-        <v>-45.08</v>
+        <v>-49.7</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B62">
-        <v>66.68000000000001</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="C62">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D62">
-        <v>-46.19</v>
+        <v>-49.81</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B63">
-        <v>66.55</v>
+        <v>78.73</v>
       </c>
       <c r="C63">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D63">
-        <v>-55.87</v>
+        <v>-44.01</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B64">
-        <v>65.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C64">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D64">
-        <v>-56.3</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B65">
-        <v>66.06</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="C65">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D65">
-        <v>-56.19</v>
+        <v>-44.41</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B66">
-        <v>70.92</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C66">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D66">
-        <v>-52.97</v>
+        <v>-44.23</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B67">
-        <v>70.29000000000001</v>
+        <v>90.31</v>
       </c>
       <c r="C67">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D67">
-        <v>-53.39</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B68">
-        <v>68.95999999999999</v>
+        <v>102.94</v>
       </c>
       <c r="C68">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D68">
-        <v>-54.27</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B69">
-        <v>70.81999999999999</v>
+        <v>105.12</v>
       </c>
       <c r="C69">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D69">
-        <v>-53.03</v>
+        <v>-25.24</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B70">
-        <v>74.86</v>
+        <v>109.62</v>
       </c>
       <c r="C70">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D70">
-        <v>-50.35</v>
+        <v>-22.04</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B71">
-        <v>71.45</v>
+        <v>106.3</v>
       </c>
       <c r="C71">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D71">
-        <v>-52.62</v>
+        <v>-24.41</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B72">
-        <v>70.22</v>
+        <v>114.33</v>
       </c>
       <c r="C72">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D72">
-        <v>-53.43</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B73">
-        <v>70.69</v>
+        <v>133.14</v>
       </c>
       <c r="C73">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D73">
-        <v>-53.12</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B74">
-        <v>70.47</v>
+        <v>141.71</v>
       </c>
       <c r="C74">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D74">
-        <v>-53.27</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B75">
-        <v>69.34999999999999</v>
+        <v>128.15</v>
       </c>
       <c r="C75">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D75">
-        <v>-54.01</v>
+        <v>-8.869999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B76">
-        <v>69.03</v>
+        <v>136.68</v>
       </c>
       <c r="C76">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D76">
-        <v>-54.22</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B77">
-        <v>66.95</v>
+        <v>155.66</v>
       </c>
       <c r="C77">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D77">
-        <v>-55.6</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B78">
-        <v>66.27</v>
+        <v>159.29</v>
       </c>
       <c r="C78">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D78">
-        <v>-56.05</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B79">
-        <v>66.42</v>
+        <v>142.36</v>
       </c>
       <c r="C79">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D79">
-        <v>-55.96</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B80">
-        <v>66.09999999999999</v>
+        <v>127.58</v>
       </c>
       <c r="C80">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D80">
-        <v>-56.16</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B81">
-        <v>63.71</v>
+        <v>116.22</v>
       </c>
       <c r="C81">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D81">
-        <v>-57.75</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B82">
-        <v>62.65</v>
+        <v>110.39</v>
       </c>
       <c r="C82">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D82">
-        <v>-58.45</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B83">
-        <v>67.44</v>
+        <v>103.69</v>
       </c>
       <c r="C83">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D83">
-        <v>-55.28</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B84">
-        <v>67.81</v>
+        <v>100.17</v>
       </c>
       <c r="C84">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D84">
-        <v>-55.03</v>
+        <v>-28.77</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B85">
-        <v>69.81999999999999</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C85">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D85">
-        <v>-53.7</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B86">
-        <v>75.14</v>
+        <v>94.52</v>
       </c>
       <c r="C86">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D86">
-        <v>-50.17</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B87">
-        <v>70.06</v>
+        <v>91.25</v>
       </c>
       <c r="C87">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D87">
-        <v>-53.54</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B88">
-        <v>68.89</v>
+        <v>89.23</v>
       </c>
       <c r="C88">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D88">
-        <v>-54.32</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B89">
-        <v>68.09</v>
+        <v>95.12</v>
       </c>
       <c r="C89">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D89">
-        <v>-54.84</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B90">
-        <v>70.55</v>
+        <v>119.79</v>
       </c>
       <c r="C90">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D90">
-        <v>-53.21</v>
+        <v>-14.81</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B91">
-        <v>72.92</v>
+        <v>141.33</v>
       </c>
       <c r="C91">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D91">
-        <v>-51.64</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B92">
-        <v>75.84999999999999</v>
+        <v>126.27</v>
       </c>
       <c r="C92">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D92">
-        <v>-49.7</v>
+        <v>-10.21</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B93">
-        <v>75.68000000000001</v>
+        <v>114.39</v>
       </c>
       <c r="C93">
-        <v>150.79</v>
+        <v>121.66</v>
       </c>
       <c r="D93">
-        <v>-49.81</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B94">
-        <v>78.73</v>
+        <v>105.81</v>
       </c>
       <c r="C94">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D94">
-        <v>-44.01</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B95">
-        <v>78</v>
+        <v>98.89</v>
       </c>
       <c r="C95">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D95">
-        <v>-44.53</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B96">
-        <v>78.18000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="C96">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D96">
-        <v>-44.41</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B97">
-        <v>78.43000000000001</v>
+        <v>102.56</v>
       </c>
       <c r="C97">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D97">
-        <v>-44.23</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B98">
-        <v>90.31</v>
+        <v>114.86</v>
       </c>
       <c r="C98">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D98">
-        <v>-35.78</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B99">
-        <v>102.94</v>
+        <v>109.06</v>
       </c>
       <c r="C99">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D99">
-        <v>-26.8</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B100">
-        <v>105.12</v>
+        <v>104.52</v>
       </c>
       <c r="C100">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D100">
-        <v>-25.24</v>
+        <v>-14.09</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B101">
-        <v>109.62</v>
+        <v>100.28</v>
       </c>
       <c r="C101">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D101">
-        <v>-22.04</v>
+        <v>-17.57</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B102">
-        <v>106.3</v>
+        <v>97.44</v>
       </c>
       <c r="C102">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D102">
-        <v>-24.41</v>
+        <v>-19.91</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B103">
-        <v>114.33</v>
+        <v>97.53</v>
       </c>
       <c r="C103">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D103">
-        <v>-18.7</v>
+        <v>-19.83</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B104">
-        <v>133.14</v>
+        <v>97.64</v>
       </c>
       <c r="C104">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D104">
-        <v>-5.33</v>
+        <v>-19.74</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B105">
-        <v>141.71</v>
+        <v>96.66</v>
       </c>
       <c r="C105">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D105">
-        <v>0.77</v>
+        <v>-20.55</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B106">
-        <v>128.15</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="C106">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D106">
-        <v>-8.869999999999999</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B107">
-        <v>136.68</v>
+        <v>96.41</v>
       </c>
       <c r="C107">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D107">
-        <v>-2.81</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B108">
-        <v>155.66</v>
+        <v>113.16</v>
       </c>
       <c r="C108">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D108">
-        <v>10.69</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B109">
-        <v>159.29</v>
+        <v>126.32</v>
       </c>
       <c r="C109">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D109">
-        <v>13.28</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B110">
-        <v>142.36</v>
+        <v>140.45</v>
       </c>
       <c r="C110">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D110">
-        <v>1.24</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43787</v>
+        <v>43818</v>
       </c>
       <c r="B111">
-        <v>127.58</v>
+        <v>134.61</v>
       </c>
       <c r="C111">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D111">
-        <v>-9.27</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43788</v>
+        <v>43819</v>
       </c>
       <c r="B112">
-        <v>116.22</v>
+        <v>125.88</v>
       </c>
       <c r="C112">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D112">
-        <v>-17.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B113">
-        <v>110.39</v>
+        <v>121.88</v>
       </c>
       <c r="C113">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D113">
-        <v>-21.5</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B114">
-        <v>103.69</v>
+        <v>116.14</v>
       </c>
       <c r="C114">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D114">
-        <v>-26.27</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43791</v>
+        <v>43822</v>
       </c>
       <c r="B115">
-        <v>100.17</v>
+        <v>110.85</v>
       </c>
       <c r="C115">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D115">
-        <v>-28.77</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43792</v>
+        <v>43823</v>
       </c>
       <c r="B116">
-        <v>96.31999999999999</v>
+        <v>106.47</v>
       </c>
       <c r="C116">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D116">
-        <v>-31.5</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B117">
-        <v>94.52</v>
+        <v>101.73</v>
       </c>
       <c r="C117">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D117">
-        <v>-32.79</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43794</v>
+        <v>43825</v>
       </c>
       <c r="B118">
-        <v>91.25</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C118">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D118">
-        <v>-35.11</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43795</v>
+        <v>43826</v>
       </c>
       <c r="B119">
-        <v>89.23</v>
+        <v>94.23</v>
       </c>
       <c r="C119">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D119">
-        <v>-36.55</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43796</v>
+        <v>43827</v>
       </c>
       <c r="B120">
-        <v>95.12</v>
+        <v>91.77</v>
       </c>
       <c r="C120">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D120">
-        <v>-32.35</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43797</v>
+        <v>43828</v>
       </c>
       <c r="B121">
-        <v>119.79</v>
+        <v>89.31</v>
       </c>
       <c r="C121">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D121">
-        <v>-14.81</v>
+        <v>-26.59</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B122">
-        <v>141.33</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C122">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D122">
-        <v>0.5</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B123">
-        <v>126.27</v>
+        <v>85.91</v>
       </c>
       <c r="C123">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D123">
-        <v>-10.21</v>
+        <v>-29.39</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B124">
-        <v>114.39</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="C124">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D124">
-        <v>-5.98</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B125">
-        <v>105.81</v>
+        <v>86.78</v>
       </c>
       <c r="C125">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D125">
-        <v>-13.03</v>
+        <v>-24.35</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B126">
-        <v>98.89</v>
+        <v>88.05</v>
       </c>
       <c r="C126">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D126">
-        <v>-18.72</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B127">
-        <v>96.70999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="C127">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D127">
-        <v>-20.51</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B128">
-        <v>102.56</v>
+        <v>85.06</v>
       </c>
       <c r="C128">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D128">
-        <v>-15.69</v>
+        <v>-25.85</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B129">
-        <v>114.86</v>
+        <v>83.14</v>
       </c>
       <c r="C129">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D129">
-        <v>-5.58</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B130">
-        <v>109.06</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C130">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D130">
-        <v>-10.35</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B131">
-        <v>104.52</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C131">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D131">
-        <v>-14.09</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B132">
-        <v>100.28</v>
+        <v>79.84</v>
       </c>
       <c r="C132">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D132">
-        <v>-17.57</v>
+        <v>-30.4</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B133">
-        <v>97.44</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C133">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D133">
-        <v>-19.91</v>
+        <v>-28.31</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B134">
-        <v>97.53</v>
+        <v>92.91</v>
       </c>
       <c r="C134">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D134">
-        <v>-19.83</v>
+        <v>-19.01</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B135">
-        <v>97.64</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C135">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D135">
-        <v>-19.74</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B136">
-        <v>96.66</v>
+        <v>98.19</v>
       </c>
       <c r="C136">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D136">
-        <v>-20.55</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B137">
-        <v>95.23999999999999</v>
+        <v>97.77</v>
       </c>
       <c r="C137">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D137">
-        <v>-21.71</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B138">
-        <v>96.41</v>
+        <v>92.33</v>
       </c>
       <c r="C138">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D138">
-        <v>-20.76</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B139">
-        <v>113.16</v>
+        <v>90.16</v>
       </c>
       <c r="C139">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D139">
-        <v>-6.99</v>
+        <v>-21.41</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B140">
-        <v>126.32</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C140">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D140">
-        <v>3.84</v>
+        <v>-17.44</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B141">
-        <v>140.45</v>
+        <v>92.47</v>
       </c>
       <c r="C141">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D141">
-        <v>15.45</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B142">
-        <v>134.61</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="C142">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D142">
-        <v>10.65</v>
+        <v>-21.42</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B143">
-        <v>125.88</v>
+        <v>85.81</v>
       </c>
       <c r="C143">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D143">
-        <v>3.47</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B144">
-        <v>121.88</v>
+        <v>82.5</v>
       </c>
       <c r="C144">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D144">
-        <v>0.18</v>
+        <v>-28.08</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B145">
-        <v>116.14</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C145">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D145">
-        <v>-4.54</v>
+        <v>-27.18</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B146">
-        <v>110.85</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C146">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D146">
-        <v>-8.880000000000001</v>
+        <v>-29.82</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B147">
-        <v>106.47</v>
+        <v>80.39</v>
       </c>
       <c r="C147">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D147">
-        <v>-12.48</v>
+        <v>-29.93</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B148">
-        <v>101.73</v>
+        <v>79.81</v>
       </c>
       <c r="C148">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D148">
-        <v>-16.38</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B149">
-        <v>97.34999999999999</v>
+        <v>76.78</v>
       </c>
       <c r="C149">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D149">
-        <v>-19.98</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B150">
-        <v>94.23</v>
+        <v>75.11</v>
       </c>
       <c r="C150">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D150">
-        <v>-22.54</v>
+        <v>-34.52</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B151">
-        <v>91.77</v>
+        <v>73.59</v>
       </c>
       <c r="C151">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D151">
-        <v>-24.57</v>
+        <v>-35.85</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B152">
-        <v>89.31</v>
+        <v>73.41</v>
       </c>
       <c r="C152">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D152">
-        <v>-26.59</v>
+        <v>-36.01</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B153">
-        <v>86.98999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="C153">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D153">
-        <v>-28.5</v>
+        <v>-30.86</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B154">
-        <v>85.91</v>
+        <v>93.23</v>
       </c>
       <c r="C154">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D154">
-        <v>-29.39</v>
+        <v>-18.73</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B155">
-        <v>85.73999999999999</v>
+        <v>120.88</v>
       </c>
       <c r="C155">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D155">
-        <v>-25.26</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B156">
-        <v>86.78</v>
+        <v>118.7</v>
       </c>
       <c r="C156">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D156">
-        <v>-24.35</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B157">
-        <v>88.05</v>
+        <v>120.65</v>
       </c>
       <c r="C157">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D157">
-        <v>-23.25</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B158">
-        <v>87.19</v>
+        <v>114.47</v>
       </c>
       <c r="C158">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D158">
-        <v>-24</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B159">
-        <v>85.06</v>
+        <v>107.43</v>
       </c>
       <c r="C159">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D159">
-        <v>-25.85</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B160">
-        <v>83.14</v>
+        <v>100.39</v>
       </c>
       <c r="C160">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D160">
-        <v>-27.53</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B161">
-        <v>81.23999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C161">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D161">
-        <v>-29.18</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B162">
-        <v>79.81999999999999</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C162">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D162">
-        <v>-30.42</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B163">
-        <v>79.84</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C163">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D163">
-        <v>-30.4</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B164">
-        <v>82.23999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="C164">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D164">
-        <v>-28.31</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B165">
-        <v>92.91</v>
+        <v>89.55</v>
       </c>
       <c r="C165">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D165">
-        <v>-19.01</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B166">
-        <v>99.01000000000001</v>
+        <v>91.88</v>
       </c>
       <c r="C166">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D166">
-        <v>-13.69</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B167">
-        <v>98.19</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C167">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D167">
-        <v>-14.41</v>
+        <v>-25.61</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B168">
-        <v>97.77</v>
+        <v>82.5</v>
       </c>
       <c r="C168">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D168">
-        <v>-14.77</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B169">
-        <v>92.33</v>
+        <v>81.14</v>
       </c>
       <c r="C169">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D169">
-        <v>-19.51</v>
+        <v>-29.94</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B170">
-        <v>90.16</v>
+        <v>78.66</v>
       </c>
       <c r="C170">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D170">
-        <v>-21.41</v>
+        <v>-32.08</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B171">
-        <v>94.70999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C171">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D171">
-        <v>-17.44</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B172">
-        <v>92.47</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C172">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D172">
-        <v>-19.4</v>
+        <v>-34.07</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B173">
-        <v>90.15000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C173">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D173">
-        <v>-21.42</v>
+        <v>-31.83</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B174">
-        <v>85.81</v>
+        <v>76.77</v>
       </c>
       <c r="C174">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D174">
-        <v>-25.2</v>
+        <v>-33.71</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B175">
-        <v>82.5</v>
+        <v>74.33</v>
       </c>
       <c r="C175">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D175">
-        <v>-28.08</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B176">
-        <v>83.54000000000001</v>
+        <v>69.28</v>
       </c>
       <c r="C176">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D176">
-        <v>-27.18</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B177">
-        <v>80.51000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C177">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D177">
-        <v>-29.82</v>
+        <v>-37.23</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B178">
-        <v>80.39</v>
+        <v>71.12</v>
       </c>
       <c r="C178">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D178">
-        <v>-29.93</v>
+        <v>-38.58</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B179">
-        <v>79.81</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C179">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D179">
-        <v>-30.43</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B180">
-        <v>76.78</v>
+        <v>121.18</v>
       </c>
       <c r="C180">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D180">
-        <v>-33.07</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B181">
-        <v>75.11</v>
+        <v>154.98</v>
       </c>
       <c r="C181">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D181">
-        <v>-34.52</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B182">
-        <v>73.59</v>
+        <v>127.87</v>
       </c>
       <c r="C182">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D182">
-        <v>-35.85</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B183">
-        <v>73.41</v>
+        <v>112.27</v>
       </c>
       <c r="C183">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D183">
-        <v>-36.01</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B184">
-        <v>79.31</v>
+        <v>104.91</v>
       </c>
       <c r="C184">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D184">
-        <v>-30.86</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B185">
-        <v>93.23</v>
+        <v>97.91</v>
       </c>
       <c r="C185">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D185">
-        <v>-18.73</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B186">
-        <v>120.88</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C186">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D186">
-        <v>4.37</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B187">
-        <v>118.7</v>
+        <v>91.27</v>
       </c>
       <c r="C187">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D187">
-        <v>2.49</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B188">
-        <v>120.65</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="C188">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D188">
-        <v>4.18</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B189">
-        <v>114.47</v>
+        <v>84.34</v>
       </c>
       <c r="C189">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D189">
-        <v>-1.16</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B190">
-        <v>107.43</v>
+        <v>82.19</v>
       </c>
       <c r="C190">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D190">
-        <v>-7.24</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B191">
-        <v>100.39</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C191">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D191">
-        <v>-13.32</v>
+        <v>-24.95</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B192">
-        <v>95.3</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C192">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D192">
-        <v>-17.71</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B193">
-        <v>89.29000000000001</v>
+        <v>78.25</v>
       </c>
       <c r="C193">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D193">
-        <v>-22.9</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B194">
-        <v>87.84999999999999</v>
+        <v>80.05</v>
       </c>
       <c r="C194">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D194">
-        <v>-24.14</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B195">
-        <v>87.42</v>
+        <v>77.22</v>
       </c>
       <c r="C195">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D195">
-        <v>-24.52</v>
+        <v>-28.02</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B196">
-        <v>89.55</v>
+        <v>74.05</v>
       </c>
       <c r="C196">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D196">
-        <v>-22.67</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B197">
-        <v>91.88</v>
+        <v>77.17</v>
       </c>
       <c r="C197">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D197">
-        <v>-20.67</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B198">
-        <v>86.15000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C198">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D198">
-        <v>-25.61</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B199">
-        <v>82.5</v>
+        <v>70.94</v>
       </c>
       <c r="C199">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D199">
-        <v>-28.76</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B200">
-        <v>81.14</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C200">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D200">
-        <v>-29.94</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B201">
-        <v>78.66</v>
+        <v>70.69</v>
       </c>
       <c r="C201">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D201">
-        <v>-32.08</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B202">
-        <v>74.65000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="C202">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D202">
-        <v>-35.54</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B203">
-        <v>76.34999999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C203">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D203">
-        <v>-34.07</v>
+        <v>-20.43</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B204">
-        <v>78.95</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C204">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D204">
-        <v>-31.83</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B205">
-        <v>76.77</v>
+        <v>83</v>
       </c>
       <c r="C205">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D205">
-        <v>-33.71</v>
+        <v>-22.63</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B206">
-        <v>74.33</v>
+        <v>77.03</v>
       </c>
       <c r="C206">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D206">
-        <v>-35.81</v>
+        <v>-28.19</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B207">
-        <v>69.28</v>
+        <v>75.14</v>
       </c>
       <c r="C207">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D207">
-        <v>-40.18</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B208">
-        <v>72.7</v>
+        <v>74.05</v>
       </c>
       <c r="C208">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D208">
-        <v>-37.23</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B209">
-        <v>71.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C209">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D209">
-        <v>-38.58</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B210">
-        <v>71.09999999999999</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C210">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D210">
-        <v>-38.6</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B211">
-        <v>121.18</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C211">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D211">
-        <v>4.63</v>
+        <v>-35.58</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B212">
-        <v>154.98</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C212">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D212">
-        <v>33.82</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B213">
-        <v>127.87</v>
+        <v>63.99</v>
       </c>
       <c r="C213">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D213">
-        <v>10.41</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B214">
-        <v>112.27</v>
+        <v>66.53</v>
       </c>
       <c r="C214">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D214">
-        <v>-3.06</v>
+        <v>-37.98</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B215">
-        <v>104.91</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C215">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D215">
-        <v>-2.21</v>
+        <v>-39.7</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B216">
-        <v>97.91</v>
+        <v>68.42</v>
       </c>
       <c r="C216">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D216">
-        <v>-8.73</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B217">
-        <v>93.18000000000001</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C217">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D217">
-        <v>-13.14</v>
+        <v>-40.27</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B218">
-        <v>91.27</v>
+        <v>63.12</v>
       </c>
       <c r="C218">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D218">
-        <v>-14.92</v>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B219">
-        <v>86.48999999999999</v>
+        <v>62.56</v>
       </c>
       <c r="C219">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D219">
-        <v>-19.37</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B220">
-        <v>84.34</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C220">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D220">
-        <v>-21.38</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B221">
-        <v>82.19</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C221">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D221">
-        <v>-23.39</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B222">
-        <v>80.51000000000001</v>
+        <v>69.75</v>
       </c>
       <c r="C222">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D222">
-        <v>-24.95</v>
+        <v>-36.07</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B223">
-        <v>81.56999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C223">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D223">
-        <v>-23.96</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B224">
-        <v>78.25</v>
+        <v>69.62</v>
       </c>
       <c r="C224">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D224">
-        <v>-27.06</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B225">
-        <v>80.05</v>
+        <v>68.02</v>
       </c>
       <c r="C225">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D225">
-        <v>-25.38</v>
+        <v>-37.66</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B226">
-        <v>77.22</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C226">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D226">
-        <v>-28.02</v>
+        <v>-39.96</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B227">
-        <v>74.05</v>
+        <v>62.9</v>
       </c>
       <c r="C227">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D227">
-        <v>-30.97</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B228">
-        <v>77.17</v>
+        <v>69.23</v>
       </c>
       <c r="C228">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D228">
-        <v>-28.07</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B229">
-        <v>74.3</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C229">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D229">
-        <v>-30.74</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B230">
-        <v>70.94</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C230">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D230">
-        <v>-33.87</v>
+        <v>-38.63</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B231">
-        <v>69.51000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="C231">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D231">
-        <v>-35.2</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B232">
-        <v>70.69</v>
+        <v>65.27</v>
       </c>
       <c r="C232">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D232">
-        <v>-34.11</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B233">
-        <v>76.33</v>
+        <v>65.84</v>
       </c>
       <c r="C233">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D233">
-        <v>-28.84</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B234">
-        <v>85.34999999999999</v>
+        <v>63.15</v>
       </c>
       <c r="C234">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D234">
-        <v>-20.43</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B235">
-        <v>88.31999999999999</v>
+        <v>64</v>
       </c>
       <c r="C235">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D235">
-        <v>-17.67</v>
+        <v>-41.34</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B236">
-        <v>83</v>
+        <v>61.79</v>
       </c>
       <c r="C236">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D236">
-        <v>-22.63</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B237">
-        <v>77.03</v>
+        <v>60.36</v>
       </c>
       <c r="C237">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D237">
-        <v>-28.19</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B238">
-        <v>75.14</v>
+        <v>60.67</v>
       </c>
       <c r="C238">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D238">
-        <v>-29.96</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B239">
-        <v>74.05</v>
+        <v>59.35</v>
       </c>
       <c r="C239">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D239">
-        <v>-30.97</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B240">
-        <v>71.81999999999999</v>
+        <v>59.79</v>
       </c>
       <c r="C240">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D240">
-        <v>-33.05</v>
+        <v>-45.2</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B241">
-        <v>70.84999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C241">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D241">
-        <v>-33.95</v>
+        <v>-44.32</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B242">
-        <v>69.09999999999999</v>
+        <v>57.81</v>
       </c>
       <c r="C242">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D242">
-        <v>-35.58</v>
+        <v>-47.02</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B243">
-        <v>66.06999999999999</v>
+        <v>56.32</v>
       </c>
       <c r="C243">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D243">
-        <v>-38.41</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B244">
-        <v>63.99</v>
+        <v>53.63</v>
       </c>
       <c r="C244">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D244">
-        <v>-40.35</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B245">
-        <v>66.53</v>
+        <v>53.96</v>
       </c>
       <c r="C245">
-        <v>107.27</v>
+        <v>128</v>
       </c>
       <c r="D245">
-        <v>-37.98</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B246">
-        <v>65.79000000000001</v>
+        <v>54.47</v>
       </c>
       <c r="C246">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D246">
-        <v>-39.7</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B247">
-        <v>68.42</v>
+        <v>54.7</v>
       </c>
       <c r="C247">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D247">
-        <v>-37.3</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B248">
-        <v>65.18000000000001</v>
+        <v>53.75</v>
       </c>
       <c r="C248">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D248">
-        <v>-40.27</v>
+        <v>-58.01</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B249">
-        <v>63.12</v>
+        <v>55.35</v>
       </c>
       <c r="C249">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D249">
-        <v>-42.15</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B250">
-        <v>62.56</v>
+        <v>59.28</v>
       </c>
       <c r="C250">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D250">
-        <v>-42.66</v>
+        <v>-53.69</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B251">
-        <v>65.95999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C251">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D251">
-        <v>-39.55</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B252">
-        <v>67.34999999999999</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C252">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D252">
-        <v>-38.27</v>
+        <v>-43.61</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B253">
-        <v>69.75</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C253">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D253">
-        <v>-36.07</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B254">
-        <v>71.09999999999999</v>
+        <v>68.81</v>
       </c>
       <c r="C254">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D254">
-        <v>-34.83</v>
+        <v>-46.24</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B255">
-        <v>69.62</v>
+        <v>69.45</v>
       </c>
       <c r="C255">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D255">
-        <v>-36.19</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B256">
-        <v>68.02</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C256">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D256">
-        <v>-37.66</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B257">
-        <v>65.51000000000001</v>
+        <v>82.03</v>
       </c>
       <c r="C257">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D257">
-        <v>-39.96</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B258">
-        <v>62.9</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C258">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D258">
-        <v>-42.36</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B259">
-        <v>69.23</v>
+        <v>102.78</v>
       </c>
       <c r="C259">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D259">
-        <v>-36.55</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B260">
-        <v>70.06999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="C260">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D260">
-        <v>-35.78</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B261">
-        <v>66.95999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C261">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D261">
-        <v>-38.63</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B262">
-        <v>66.87</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C262">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D262">
-        <v>-38.71</v>
+        <v>-35.74</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B263">
-        <v>65.27</v>
+        <v>77.62</v>
       </c>
       <c r="C263">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D263">
-        <v>-40.18</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B264">
-        <v>65.84</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C264">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D264">
-        <v>-39.65</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B265">
-        <v>63.15</v>
+        <v>73.7</v>
       </c>
       <c r="C265">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D265">
-        <v>-42.13</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B266">
-        <v>64</v>
+        <v>112.64</v>
       </c>
       <c r="C266">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D266">
-        <v>-41.34</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B267">
-        <v>61.79</v>
+        <v>154.82</v>
       </c>
       <c r="C267">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D267">
-        <v>-43.37</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B268">
-        <v>60.36</v>
+        <v>169.34</v>
       </c>
       <c r="C268">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D268">
-        <v>-44.68</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B269">
-        <v>60.67</v>
+        <v>152.41</v>
       </c>
       <c r="C269">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D269">
-        <v>-44.4</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B270">
-        <v>59.35</v>
+        <v>135.22</v>
       </c>
       <c r="C270">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D270">
-        <v>-45.6</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B271">
-        <v>59.79</v>
+        <v>122.32</v>
       </c>
       <c r="C271">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D271">
-        <v>-45.2</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B272">
-        <v>60.75</v>
+        <v>111.53</v>
       </c>
       <c r="C272">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D272">
-        <v>-44.32</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B273">
-        <v>57.81</v>
+        <v>105.05</v>
       </c>
       <c r="C273">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D273">
-        <v>-47.02</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B274">
-        <v>56.32</v>
+        <v>100.22</v>
       </c>
       <c r="C274">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D274">
-        <v>-48.38</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B275">
-        <v>53.63</v>
+        <v>96.67</v>
       </c>
       <c r="C275">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D275">
-        <v>-50.85</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B276">
-        <v>53.96</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C276">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D276">
-        <v>-57.85</v>
+        <v>-31.31</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B277">
-        <v>54.47</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C277">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D277">
-        <v>-57.45</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B278">
-        <v>54.7</v>
+        <v>91.53</v>
       </c>
       <c r="C278">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D278">
-        <v>-57.27</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B279">
-        <v>53.75</v>
+        <v>94.69</v>
       </c>
       <c r="C279">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D279">
-        <v>-58.01</v>
+        <v>-31.57</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B280">
-        <v>55.35</v>
+        <v>125.85</v>
       </c>
       <c r="C280">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D280">
-        <v>-56.76</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B281">
-        <v>59.28</v>
+        <v>153.61</v>
       </c>
       <c r="C281">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D281">
-        <v>-53.69</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B282">
-        <v>69.28</v>
+        <v>163.02</v>
       </c>
       <c r="C282">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D282">
-        <v>-45.88</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B283">
-        <v>72.18000000000001</v>
+        <v>147.54</v>
       </c>
       <c r="C283">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D283">
-        <v>-43.61</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B284">
-        <v>70.73999999999999</v>
+        <v>145.65</v>
       </c>
       <c r="C284">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D284">
-        <v>-44.74</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B285">
-        <v>68.81</v>
+        <v>278</v>
       </c>
       <c r="C285">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D285">
-        <v>-46.24</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B286">
-        <v>69.45</v>
+        <v>259.32</v>
       </c>
       <c r="C286">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D286">
-        <v>-45.75</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B287">
-        <v>66.98999999999999</v>
+        <v>251.39</v>
       </c>
       <c r="C287">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D287">
-        <v>-47.67</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B288">
-        <v>82.03</v>
+        <v>226.04</v>
       </c>
       <c r="C288">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D288">
-        <v>-35.91</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B289">
-        <v>95.04000000000001</v>
+        <v>206.4</v>
       </c>
       <c r="C289">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D289">
-        <v>-25.75</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B290">
-        <v>102.78</v>
+        <v>190</v>
       </c>
       <c r="C290">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D290">
-        <v>-19.7</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B291">
-        <v>96.61</v>
+        <v>176.32</v>
       </c>
       <c r="C291">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D291">
-        <v>-24.52</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B292">
-        <v>87.8</v>
+        <v>163.4</v>
       </c>
       <c r="C292">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D292">
-        <v>-31.41</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B293">
-        <v>82.26000000000001</v>
+        <v>153.78</v>
       </c>
       <c r="C293">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D293">
-        <v>-35.74</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B294">
-        <v>77.62</v>
+        <v>146.42</v>
       </c>
       <c r="C294">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D294">
-        <v>-39.36</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B295">
-        <v>76.56999999999999</v>
+        <v>140.38</v>
       </c>
       <c r="C295">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D295">
-        <v>-40.18</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B296">
-        <v>73.7</v>
+        <v>134.93</v>
       </c>
       <c r="C296">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D296">
-        <v>-42.43</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B297">
-        <v>112.64</v>
+        <v>130.01</v>
       </c>
       <c r="C297">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D297">
-        <v>-12.01</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B298">
-        <v>154.82</v>
+        <v>126.22</v>
       </c>
       <c r="C298">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D298">
-        <v>20.95</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B299">
-        <v>169.34</v>
+        <v>122.99</v>
       </c>
       <c r="C299">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D299">
-        <v>32.3</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B300">
-        <v>152.41</v>
+        <v>120.03</v>
       </c>
       <c r="C300">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D300">
-        <v>19.06</v>
+        <v>-13.25</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B301">
-        <v>135.22</v>
+        <v>123.12</v>
       </c>
       <c r="C301">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D301">
-        <v>5.64</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B302">
-        <v>122.32</v>
+        <v>125.24</v>
       </c>
       <c r="C302">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D302">
-        <v>-4.44</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B303">
-        <v>111.53</v>
+        <v>122.99</v>
       </c>
       <c r="C303">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D303">
-        <v>-12.87</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B304">
-        <v>105.05</v>
+        <v>120.39</v>
       </c>
       <c r="C304">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D304">
-        <v>-17.93</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B305">
-        <v>100.22</v>
+        <v>119.67</v>
       </c>
       <c r="C305">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D305">
-        <v>-21.71</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B306">
-        <v>96.67</v>
+        <v>135.98</v>
       </c>
       <c r="C306">
-        <v>128</v>
+        <v>131.62</v>
       </c>
       <c r="D306">
-        <v>-24.48</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B307">
-        <v>95.04000000000001</v>
+        <v>157.81</v>
       </c>
       <c r="C307">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D307">
-        <v>-31.31</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B308">
-        <v>93.76000000000001</v>
+        <v>147.03</v>
       </c>
       <c r="C308">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D308">
-        <v>-32.24</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B309">
-        <v>91.53</v>
+        <v>137.25</v>
       </c>
       <c r="C309">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D309">
-        <v>-33.85</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B310">
-        <v>94.69</v>
+        <v>128.27</v>
       </c>
       <c r="C310">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D310">
-        <v>-31.57</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B311">
-        <v>125.85</v>
+        <v>122.45</v>
       </c>
       <c r="C311">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D311">
-        <v>-9.050000000000001</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B312">
-        <v>153.61</v>
+        <v>123.52</v>
       </c>
       <c r="C312">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D312">
-        <v>11.02</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B313">
-        <v>163.02</v>
+        <v>140.43</v>
       </c>
       <c r="C313">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D313">
-        <v>17.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B314">
-        <v>147.54</v>
+        <v>158.15</v>
       </c>
       <c r="C314">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D314">
-        <v>6.63</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B315">
-        <v>145.65</v>
+        <v>170.08</v>
       </c>
       <c r="C315">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D315">
-        <v>5.26</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B316">
-        <v>278</v>
+        <v>157.05</v>
       </c>
       <c r="C316">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D316">
-        <v>100.91</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B317">
-        <v>259.32</v>
+        <v>146.65</v>
       </c>
       <c r="C317">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D317">
-        <v>87.41</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B318">
-        <v>251.39</v>
+        <v>140.3</v>
       </c>
       <c r="C318">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D318">
-        <v>81.68000000000001</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B319">
-        <v>226.04</v>
+        <v>134.47</v>
       </c>
       <c r="C319">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D319">
-        <v>63.36</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B320">
-        <v>206.4</v>
+        <v>130.05</v>
       </c>
       <c r="C320">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D320">
-        <v>49.16</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B321">
-        <v>190</v>
+        <v>125.01</v>
       </c>
       <c r="C321">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D321">
-        <v>37.31</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B322">
-        <v>176.32</v>
+        <v>121.39</v>
       </c>
       <c r="C322">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D322">
-        <v>27.43</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B323">
-        <v>163.4</v>
+        <v>119.31</v>
       </c>
       <c r="C323">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D323">
-        <v>18.09</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B324">
-        <v>153.78</v>
+        <v>116.15</v>
       </c>
       <c r="C324">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D324">
-        <v>11.14</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B325">
-        <v>146.42</v>
+        <v>114.07</v>
       </c>
       <c r="C325">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D325">
-        <v>5.81</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B326">
-        <v>140.38</v>
+        <v>111.75</v>
       </c>
       <c r="C326">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D326">
-        <v>1.45</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B327">
-        <v>134.93</v>
+        <v>110.18</v>
       </c>
       <c r="C327">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D327">
-        <v>-2.49</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B328">
-        <v>130.01</v>
+        <v>109</v>
       </c>
       <c r="C328">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D328">
-        <v>-6.04</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B329">
-        <v>126.22</v>
+        <v>106.52</v>
       </c>
       <c r="C329">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D329">
-        <v>-8.779999999999999</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B330">
-        <v>122.99</v>
+        <v>104.51</v>
       </c>
       <c r="C330">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D330">
-        <v>-11.12</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B331">
-        <v>120.03</v>
+        <v>104.66</v>
       </c>
       <c r="C331">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D331">
-        <v>-13.25</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B332">
-        <v>123.12</v>
+        <v>103.49</v>
       </c>
       <c r="C332">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D332">
-        <v>-11.02</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B333">
-        <v>125.24</v>
+        <v>101.41</v>
       </c>
       <c r="C333">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D333">
-        <v>-9.49</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B334">
-        <v>122.99</v>
+        <v>101.25</v>
       </c>
       <c r="C334">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D334">
-        <v>-11.12</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B335">
-        <v>120.39</v>
+        <v>105.68</v>
       </c>
       <c r="C335">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D335">
-        <v>-12.99</v>
+        <v>-19.71</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B336">
-        <v>119.67</v>
+        <v>106.08</v>
       </c>
       <c r="C336">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D336">
-        <v>-13.52</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B337">
-        <v>135.98</v>
+        <v>101.46</v>
       </c>
       <c r="C337">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D337">
-        <v>3.31</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B338">
-        <v>157.81</v>
+        <v>99.94</v>
       </c>
       <c r="C338">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D338">
-        <v>19.9</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B339">
-        <v>147.03</v>
+        <v>98.25</v>
       </c>
       <c r="C339">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D339">
-        <v>11.71</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B340">
-        <v>137.25</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C340">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D340">
-        <v>4.27</v>
+        <v>-18.93</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B341">
-        <v>128.27</v>
+        <v>94</v>
       </c>
       <c r="C341">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D341">
-        <v>-2.55</v>
+        <v>-20.83</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B342">
-        <v>122.45</v>
+        <v>91.13</v>
       </c>
       <c r="C342">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D342">
-        <v>-6.97</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B343">
-        <v>123.52</v>
+        <v>92.3</v>
       </c>
       <c r="C343">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D343">
-        <v>-6.16</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B344">
-        <v>140.43</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C344">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D344">
-        <v>6.69</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B345">
-        <v>158.15</v>
+        <v>90.38</v>
       </c>
       <c r="C345">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D345">
-        <v>20.15</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B346">
-        <v>170.08</v>
+        <v>89.64</v>
       </c>
       <c r="C346">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D346">
-        <v>29.22</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B347">
-        <v>157.05</v>
+        <v>87.31</v>
       </c>
       <c r="C347">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D347">
-        <v>19.32</v>
+        <v>-26.46</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B348">
-        <v>146.65</v>
+        <v>88.31</v>
       </c>
       <c r="C348">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D348">
-        <v>11.41</v>
+        <v>-25.62</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B349">
-        <v>140.3</v>
+        <v>100.71</v>
       </c>
       <c r="C349">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D349">
-        <v>6.59</v>
+        <v>-15.18</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B350">
-        <v>134.47</v>
+        <v>125.19</v>
       </c>
       <c r="C350">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D350">
-        <v>2.16</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B351">
-        <v>130.05</v>
+        <v>129.4</v>
       </c>
       <c r="C351">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D351">
-        <v>-1.19</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B352">
-        <v>125.01</v>
+        <v>144.85</v>
       </c>
       <c r="C352">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D352">
-        <v>-5.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B353">
-        <v>121.39</v>
+        <v>153.78</v>
       </c>
       <c r="C353">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D353">
-        <v>-7.78</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B354">
-        <v>119.31</v>
+        <v>158.61</v>
       </c>
       <c r="C354">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D354">
-        <v>-9.35</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B355">
-        <v>116.15</v>
+        <v>177.33</v>
       </c>
       <c r="C355">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D355">
-        <v>-11.76</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B356">
-        <v>114.07</v>
+        <v>183.36</v>
       </c>
       <c r="C356">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D356">
-        <v>-13.33</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B357">
-        <v>111.75</v>
+        <v>175.84</v>
       </c>
       <c r="C357">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D357">
-        <v>-15.1</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B358">
-        <v>110.18</v>
+        <v>159.39</v>
       </c>
       <c r="C358">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D358">
-        <v>-16.29</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B359">
-        <v>109</v>
+        <v>146.09</v>
       </c>
       <c r="C359">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D359">
-        <v>-17.19</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B360">
-        <v>106.52</v>
+        <v>136.09</v>
       </c>
       <c r="C360">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D360">
-        <v>-19.07</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B361">
-        <v>104.51</v>
+        <v>128.77</v>
       </c>
       <c r="C361">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D361">
-        <v>-20.6</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B362">
-        <v>104.66</v>
+        <v>123.82</v>
       </c>
       <c r="C362">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D362">
-        <v>-20.49</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B363">
-        <v>103.49</v>
+        <v>119.18</v>
       </c>
       <c r="C363">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D363">
-        <v>-21.37</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B364">
-        <v>101.41</v>
+        <v>115.73</v>
       </c>
       <c r="C364">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D364">
-        <v>-22.96</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B365">
-        <v>101.25</v>
+        <v>113.28</v>
       </c>
       <c r="C365">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D365">
-        <v>-23.08</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B366">
-        <v>105.68</v>
+        <v>109.06</v>
       </c>
       <c r="C366">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D366">
-        <v>-19.71</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B367">
-        <v>106.08</v>
+        <v>107.37</v>
       </c>
       <c r="C367">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D367">
-        <v>-19.4</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B368">
-        <v>101.46</v>
+        <v>105.41</v>
       </c>
       <c r="C368">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D368">
-        <v>-14.55</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B369">
-        <v>99.94</v>
+        <v>102.61</v>
       </c>
       <c r="C369">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D369">
-        <v>-15.83</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B370">
-        <v>98.25</v>
+        <v>102.73</v>
       </c>
       <c r="C370">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D370">
-        <v>-17.25</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B371">
-        <v>96.26000000000001</v>
+        <v>102.05</v>
       </c>
       <c r="C371">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D371">
-        <v>-18.93</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B372">
-        <v>94</v>
+        <v>98.3</v>
       </c>
       <c r="C372">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D372">
-        <v>-20.83</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B373">
-        <v>91.13</v>
+        <v>98.48</v>
       </c>
       <c r="C373">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D373">
-        <v>-23.25</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B374">
-        <v>92.3</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="C374">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D374">
-        <v>-22.26</v>
+        <v>-22.29</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B375">
-        <v>92.48999999999999</v>
+        <v>96.48</v>
       </c>
       <c r="C375">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D375">
-        <v>-22.1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44052</v>
-      </c>
-      <c r="B376">
-        <v>90.38</v>
-      </c>
-      <c r="C376">
-        <v>118.73</v>
-      </c>
-      <c r="D376">
-        <v>-23.88</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44053</v>
-      </c>
-      <c r="B377">
-        <v>89.64</v>
-      </c>
-      <c r="C377">
-        <v>118.73</v>
-      </c>
-      <c r="D377">
-        <v>-24.51</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44054</v>
-      </c>
-      <c r="B378">
-        <v>87.31</v>
-      </c>
-      <c r="C378">
-        <v>118.73</v>
-      </c>
-      <c r="D378">
-        <v>-26.46</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44055</v>
-      </c>
-      <c r="B379">
-        <v>88.31</v>
-      </c>
-      <c r="C379">
-        <v>118.73</v>
-      </c>
-      <c r="D379">
-        <v>-25.62</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44056</v>
-      </c>
-      <c r="B380">
-        <v>100.71</v>
-      </c>
-      <c r="C380">
-        <v>118.73</v>
-      </c>
-      <c r="D380">
-        <v>-15.18</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44057</v>
-      </c>
-      <c r="B381">
-        <v>125.19</v>
-      </c>
-      <c r="C381">
-        <v>118.73</v>
-      </c>
-      <c r="D381">
-        <v>5.44</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44058</v>
-      </c>
-      <c r="B382">
-        <v>129.4</v>
-      </c>
-      <c r="C382">
-        <v>118.73</v>
-      </c>
-      <c r="D382">
-        <v>8.98</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44059</v>
-      </c>
-      <c r="B383">
-        <v>144.85</v>
-      </c>
-      <c r="C383">
-        <v>118.73</v>
-      </c>
-      <c r="D383">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44060</v>
-      </c>
-      <c r="B384">
-        <v>153.78</v>
-      </c>
-      <c r="C384">
-        <v>118.73</v>
-      </c>
-      <c r="D384">
-        <v>29.52</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44061</v>
-      </c>
-      <c r="B385">
-        <v>158.61</v>
-      </c>
-      <c r="C385">
-        <v>118.73</v>
-      </c>
-      <c r="D385">
-        <v>33.59</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44062</v>
-      </c>
-      <c r="B386">
-        <v>177.33</v>
-      </c>
-      <c r="C386">
-        <v>118.73</v>
-      </c>
-      <c r="D386">
-        <v>49.36</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44063</v>
-      </c>
-      <c r="B387">
-        <v>183.36</v>
-      </c>
-      <c r="C387">
-        <v>118.73</v>
-      </c>
-      <c r="D387">
-        <v>54.44</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44064</v>
-      </c>
-      <c r="B388">
-        <v>175.84</v>
-      </c>
-      <c r="C388">
-        <v>118.73</v>
-      </c>
-      <c r="D388">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44065</v>
-      </c>
-      <c r="B389">
-        <v>159.39</v>
-      </c>
-      <c r="C389">
-        <v>118.73</v>
-      </c>
-      <c r="D389">
-        <v>34.24</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44066</v>
-      </c>
-      <c r="B390">
-        <v>146.09</v>
-      </c>
-      <c r="C390">
-        <v>118.73</v>
-      </c>
-      <c r="D390">
-        <v>23.05</v>
+        <v>-22.14</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44082</v>
+        <v>44089</v>
       </c>
       <c r="B14">
-        <v>100.29</v>
+        <v>96.5</v>
       </c>
       <c r="C14">
         <v>123.92</v>
       </c>
       <c r="D14">
-        <v>-19.06</v>
+        <v>-22.12</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D375"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5865,6 +5865,104 @@
         <v>-22.14</v>
       </c>
     </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B376">
+        <v>95.38</v>
+      </c>
+      <c r="C376">
+        <v>123.92</v>
+      </c>
+      <c r="D376">
+        <v>-23.03</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B377">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="C377">
+        <v>123.92</v>
+      </c>
+      <c r="D377">
+        <v>-24.38</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B378">
+        <v>92.52</v>
+      </c>
+      <c r="C378">
+        <v>123.92</v>
+      </c>
+      <c r="D378">
+        <v>-25.34</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44086</v>
+      </c>
+      <c r="B379">
+        <v>93.54000000000001</v>
+      </c>
+      <c r="C379">
+        <v>123.92</v>
+      </c>
+      <c r="D379">
+        <v>-24.51</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44087</v>
+      </c>
+      <c r="B380">
+        <v>90.90000000000001</v>
+      </c>
+      <c r="C380">
+        <v>123.92</v>
+      </c>
+      <c r="D380">
+        <v>-26.65</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B381">
+        <v>89.23999999999999</v>
+      </c>
+      <c r="C381">
+        <v>123.92</v>
+      </c>
+      <c r="D381">
+        <v>-27.98</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B382">
+        <v>89.88</v>
+      </c>
+      <c r="C382">
+        <v>123.92</v>
+      </c>
+      <c r="D382">
+        <v>-27.47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44089</v>
+        <v>44095</v>
       </c>
       <c r="B14">
-        <v>96.5</v>
+        <v>93.73999999999999</v>
       </c>
       <c r="C14">
         <v>123.92</v>
       </c>
       <c r="D14">
-        <v>-22.12</v>
+        <v>-24.35</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5963,6 +5963,90 @@
         <v>-27.47</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B383">
+        <v>88.8</v>
+      </c>
+      <c r="C383">
+        <v>123.92</v>
+      </c>
+      <c r="D383">
+        <v>-28.34</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B384">
+        <v>88.20999999999999</v>
+      </c>
+      <c r="C384">
+        <v>123.92</v>
+      </c>
+      <c r="D384">
+        <v>-28.81</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B385">
+        <v>85.75</v>
+      </c>
+      <c r="C385">
+        <v>123.92</v>
+      </c>
+      <c r="D385">
+        <v>-30.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44093</v>
+      </c>
+      <c r="B386">
+        <v>86.56</v>
+      </c>
+      <c r="C386">
+        <v>123.92</v>
+      </c>
+      <c r="D386">
+        <v>-30.15</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44094</v>
+      </c>
+      <c r="B387">
+        <v>87.2</v>
+      </c>
+      <c r="C387">
+        <v>123.92</v>
+      </c>
+      <c r="D387">
+        <v>-29.63</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B388">
+        <v>84.45</v>
+      </c>
+      <c r="C388">
+        <v>123.92</v>
+      </c>
+      <c r="D388">
+        <v>-31.85</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43738</v>
+        <v>43769</v>
       </c>
       <c r="B2">
-        <v>70.95</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C2">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D2">
-        <v>-42.74</v>
+        <v>-54.01</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B3">
-        <v>69.34999999999999</v>
+        <v>111.69</v>
       </c>
       <c r="C3">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D3">
-        <v>-54.01</v>
+        <v>-20.57</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B4">
-        <v>111.69</v>
+        <v>105.52</v>
       </c>
       <c r="C4">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D4">
-        <v>-20.57</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B5">
-        <v>105.52</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C5">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D5">
-        <v>-13.27</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B6">
-        <v>85.51000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="C6">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D6">
-        <v>-25.46</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B7">
-        <v>94.27</v>
+        <v>78.78</v>
       </c>
       <c r="C7">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D7">
-        <v>-18.6</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B8">
-        <v>78.78</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C8">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D8">
-        <v>-26.56</v>
+        <v>-41.13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B9">
-        <v>64.23999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="C9">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D9">
-        <v>-41.13</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B10">
-        <v>89.79000000000001</v>
+        <v>151.59</v>
       </c>
       <c r="C10">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D10">
-        <v>-29.85</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B11">
-        <v>151.59</v>
+        <v>125.48</v>
       </c>
       <c r="C11">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D11">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B12">
-        <v>125.48</v>
+        <v>120.3</v>
       </c>
       <c r="C12">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D12">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B13">
-        <v>120.3</v>
+        <v>90.48</v>
       </c>
       <c r="C13">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D13">
-        <v>1.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B14">
-        <v>93.73999999999999</v>
-      </c>
-      <c r="C14">
-        <v>123.92</v>
-      </c>
-      <c r="D14">
-        <v>-24.35</v>
+        <v>-26.98</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D388"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5420 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B2">
-        <v>72.98</v>
+        <v>66.55</v>
       </c>
       <c r="C2">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D2">
-        <v>-41.11</v>
+        <v>-55.87</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43710</v>
+        <v>43740</v>
       </c>
       <c r="B3">
-        <v>76.28</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C3">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D3">
-        <v>-38.44</v>
+        <v>-56.3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43711</v>
+        <v>43741</v>
       </c>
       <c r="B4">
-        <v>75.2</v>
+        <v>66.06</v>
       </c>
       <c r="C4">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D4">
-        <v>-39.31</v>
+        <v>-56.19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43712</v>
+        <v>43742</v>
       </c>
       <c r="B5">
-        <v>71.55</v>
+        <v>70.92</v>
       </c>
       <c r="C5">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D5">
-        <v>-42.26</v>
+        <v>-52.97</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43713</v>
+        <v>43743</v>
       </c>
       <c r="B6">
-        <v>70.19</v>
+        <v>70.29000000000001</v>
       </c>
       <c r="C6">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D6">
-        <v>-43.36</v>
+        <v>-53.39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43714</v>
+        <v>43744</v>
       </c>
       <c r="B7">
-        <v>71.26000000000001</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C7">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D7">
-        <v>-42.49</v>
+        <v>-54.27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43715</v>
+        <v>43745</v>
       </c>
       <c r="B8">
-        <v>69.89</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C8">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D8">
-        <v>-43.6</v>
+        <v>-53.03</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43716</v>
+        <v>43746</v>
       </c>
       <c r="B9">
-        <v>68.89</v>
+        <v>74.86</v>
       </c>
       <c r="C9">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D9">
-        <v>-44.41</v>
+        <v>-50.35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43717</v>
+        <v>43747</v>
       </c>
       <c r="B10">
-        <v>67.12</v>
+        <v>71.45</v>
       </c>
       <c r="C10">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D10">
-        <v>-45.83</v>
+        <v>-52.62</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43718</v>
+        <v>43748</v>
       </c>
       <c r="B11">
-        <v>70.48999999999999</v>
+        <v>70.22</v>
       </c>
       <c r="C11">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D11">
-        <v>-43.11</v>
+        <v>-53.43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43719</v>
+        <v>43749</v>
       </c>
       <c r="B12">
-        <v>69.06999999999999</v>
+        <v>70.69</v>
       </c>
       <c r="C12">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D12">
-        <v>-44.26</v>
+        <v>-53.12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43720</v>
+        <v>43750</v>
       </c>
       <c r="B13">
-        <v>69.48999999999999</v>
+        <v>70.47</v>
       </c>
       <c r="C13">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D13">
-        <v>-43.92</v>
+        <v>-53.27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43721</v>
+        <v>43751</v>
       </c>
       <c r="B14">
-        <v>68.65000000000001</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C14">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D14">
-        <v>-44.6</v>
+        <v>-54.01</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43722</v>
+        <v>43752</v>
       </c>
       <c r="B15">
-        <v>67.55</v>
+        <v>69.03</v>
       </c>
       <c r="C15">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D15">
-        <v>-45.49</v>
+        <v>-54.22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43723</v>
+        <v>43753</v>
       </c>
       <c r="B16">
-        <v>66.92</v>
+        <v>66.95</v>
       </c>
       <c r="C16">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D16">
-        <v>-46</v>
+        <v>-55.6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43724</v>
+        <v>43754</v>
       </c>
       <c r="B17">
-        <v>64.64</v>
+        <v>66.27</v>
       </c>
       <c r="C17">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D17">
-        <v>-47.84</v>
+        <v>-56.05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43725</v>
+        <v>43755</v>
       </c>
       <c r="B18">
-        <v>68.65000000000001</v>
+        <v>66.42</v>
       </c>
       <c r="C18">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D18">
-        <v>-44.6</v>
+        <v>-55.96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43726</v>
+        <v>43756</v>
       </c>
       <c r="B19">
-        <v>66.48999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C19">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D19">
-        <v>-46.34</v>
+        <v>-56.16</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43727</v>
+        <v>43757</v>
       </c>
       <c r="B20">
-        <v>64.43000000000001</v>
+        <v>63.71</v>
       </c>
       <c r="C20">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D20">
-        <v>-48</v>
+        <v>-57.75</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43728</v>
+        <v>43758</v>
       </c>
       <c r="B21">
-        <v>73.31</v>
+        <v>62.65</v>
       </c>
       <c r="C21">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D21">
-        <v>-40.84</v>
+        <v>-58.45</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43729</v>
+        <v>43759</v>
       </c>
       <c r="B22">
-        <v>75.73999999999999</v>
+        <v>67.44</v>
       </c>
       <c r="C22">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D22">
-        <v>-38.88</v>
+        <v>-55.28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43730</v>
+        <v>43760</v>
       </c>
       <c r="B23">
-        <v>80</v>
+        <v>67.81</v>
       </c>
       <c r="C23">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D23">
-        <v>-35.44</v>
+        <v>-55.03</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43731</v>
+        <v>43761</v>
       </c>
       <c r="B24">
-        <v>77.95999999999999</v>
+        <v>69.81999999999999</v>
       </c>
       <c r="C24">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D24">
-        <v>-37.09</v>
+        <v>-53.7</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43732</v>
+        <v>43762</v>
       </c>
       <c r="B25">
-        <v>76.76000000000001</v>
+        <v>75.14</v>
       </c>
       <c r="C25">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D25">
-        <v>-38.05</v>
+        <v>-50.17</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43733</v>
+        <v>43763</v>
       </c>
       <c r="B26">
-        <v>77.23</v>
+        <v>70.06</v>
       </c>
       <c r="C26">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D26">
-        <v>-37.68</v>
+        <v>-53.54</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43734</v>
+        <v>43764</v>
       </c>
       <c r="B27">
-        <v>73.36</v>
+        <v>68.89</v>
       </c>
       <c r="C27">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D27">
-        <v>-40.79</v>
+        <v>-54.32</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43735</v>
+        <v>43765</v>
       </c>
       <c r="B28">
-        <v>70.51000000000001</v>
+        <v>68.09</v>
       </c>
       <c r="C28">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D28">
-        <v>-43.1</v>
+        <v>-54.84</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43736</v>
+        <v>43766</v>
       </c>
       <c r="B29">
-        <v>69.23</v>
+        <v>70.55</v>
       </c>
       <c r="C29">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D29">
-        <v>-44.13</v>
+        <v>-53.21</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43737</v>
+        <v>43767</v>
       </c>
       <c r="B30">
-        <v>68.05</v>
+        <v>72.92</v>
       </c>
       <c r="C30">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D30">
-        <v>-45.08</v>
+        <v>-51.64</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43738</v>
+        <v>43768</v>
       </c>
       <c r="B31">
-        <v>66.68000000000001</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="C31">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D31">
-        <v>-46.19</v>
+        <v>-49.7</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43739</v>
+        <v>43769</v>
       </c>
       <c r="B32">
-        <v>66.55</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="C32">
         <v>150.79</v>
       </c>
       <c r="D32">
-        <v>-55.87</v>
+        <v>-49.81</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43740</v>
+        <v>43770</v>
       </c>
       <c r="B33">
-        <v>65.90000000000001</v>
+        <v>78.73</v>
       </c>
       <c r="C33">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D33">
-        <v>-56.3</v>
+        <v>-44.01</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43741</v>
+        <v>43771</v>
       </c>
       <c r="B34">
-        <v>66.06</v>
+        <v>78</v>
       </c>
       <c r="C34">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D34">
-        <v>-56.19</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43742</v>
+        <v>43772</v>
       </c>
       <c r="B35">
-        <v>70.92</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="C35">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D35">
-        <v>-52.97</v>
+        <v>-44.41</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43743</v>
+        <v>43773</v>
       </c>
       <c r="B36">
-        <v>70.29000000000001</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C36">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D36">
-        <v>-53.39</v>
+        <v>-44.23</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43744</v>
+        <v>43774</v>
       </c>
       <c r="B37">
-        <v>68.95999999999999</v>
+        <v>90.31</v>
       </c>
       <c r="C37">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D37">
-        <v>-54.27</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43745</v>
+        <v>43775</v>
       </c>
       <c r="B38">
-        <v>70.81999999999999</v>
+        <v>102.94</v>
       </c>
       <c r="C38">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D38">
-        <v>-53.03</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43746</v>
+        <v>43776</v>
       </c>
       <c r="B39">
-        <v>74.86</v>
+        <v>105.12</v>
       </c>
       <c r="C39">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D39">
-        <v>-50.35</v>
+        <v>-25.24</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43747</v>
+        <v>43777</v>
       </c>
       <c r="B40">
-        <v>71.45</v>
+        <v>109.62</v>
       </c>
       <c r="C40">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D40">
-        <v>-52.62</v>
+        <v>-22.04</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43748</v>
+        <v>43778</v>
       </c>
       <c r="B41">
-        <v>70.22</v>
+        <v>106.3</v>
       </c>
       <c r="C41">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D41">
-        <v>-53.43</v>
+        <v>-24.41</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43749</v>
+        <v>43779</v>
       </c>
       <c r="B42">
-        <v>70.69</v>
+        <v>114.33</v>
       </c>
       <c r="C42">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D42">
-        <v>-53.12</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43750</v>
+        <v>43780</v>
       </c>
       <c r="B43">
-        <v>70.47</v>
+        <v>133.14</v>
       </c>
       <c r="C43">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D43">
-        <v>-53.27</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43751</v>
+        <v>43781</v>
       </c>
       <c r="B44">
-        <v>69.34999999999999</v>
+        <v>141.71</v>
       </c>
       <c r="C44">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D44">
-        <v>-54.01</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43752</v>
+        <v>43782</v>
       </c>
       <c r="B45">
-        <v>69.03</v>
+        <v>128.15</v>
       </c>
       <c r="C45">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D45">
-        <v>-54.22</v>
+        <v>-8.869999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43753</v>
+        <v>43783</v>
       </c>
       <c r="B46">
-        <v>66.95</v>
+        <v>136.68</v>
       </c>
       <c r="C46">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D46">
-        <v>-55.6</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43754</v>
+        <v>43784</v>
       </c>
       <c r="B47">
-        <v>66.27</v>
+        <v>155.66</v>
       </c>
       <c r="C47">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D47">
-        <v>-56.05</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43755</v>
+        <v>43785</v>
       </c>
       <c r="B48">
-        <v>66.42</v>
+        <v>159.29</v>
       </c>
       <c r="C48">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D48">
-        <v>-55.96</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43756</v>
+        <v>43786</v>
       </c>
       <c r="B49">
-        <v>66.09999999999999</v>
+        <v>142.36</v>
       </c>
       <c r="C49">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D49">
-        <v>-56.16</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43757</v>
+        <v>43787</v>
       </c>
       <c r="B50">
-        <v>63.71</v>
+        <v>127.58</v>
       </c>
       <c r="C50">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D50">
-        <v>-57.75</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43758</v>
+        <v>43788</v>
       </c>
       <c r="B51">
-        <v>62.65</v>
+        <v>116.22</v>
       </c>
       <c r="C51">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D51">
-        <v>-58.45</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43759</v>
+        <v>43789</v>
       </c>
       <c r="B52">
-        <v>67.44</v>
+        <v>110.39</v>
       </c>
       <c r="C52">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D52">
-        <v>-55.28</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43760</v>
+        <v>43790</v>
       </c>
       <c r="B53">
-        <v>67.81</v>
+        <v>103.69</v>
       </c>
       <c r="C53">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D53">
-        <v>-55.03</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43761</v>
+        <v>43791</v>
       </c>
       <c r="B54">
-        <v>69.81999999999999</v>
+        <v>100.17</v>
       </c>
       <c r="C54">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D54">
-        <v>-53.7</v>
+        <v>-28.77</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43762</v>
+        <v>43792</v>
       </c>
       <c r="B55">
-        <v>75.14</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C55">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D55">
-        <v>-50.17</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43763</v>
+        <v>43793</v>
       </c>
       <c r="B56">
-        <v>70.06</v>
+        <v>94.52</v>
       </c>
       <c r="C56">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D56">
-        <v>-53.54</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43764</v>
+        <v>43794</v>
       </c>
       <c r="B57">
-        <v>68.89</v>
+        <v>91.25</v>
       </c>
       <c r="C57">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D57">
-        <v>-54.32</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43765</v>
+        <v>43795</v>
       </c>
       <c r="B58">
-        <v>68.09</v>
+        <v>89.23</v>
       </c>
       <c r="C58">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D58">
-        <v>-54.84</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43766</v>
+        <v>43796</v>
       </c>
       <c r="B59">
-        <v>70.55</v>
+        <v>95.12</v>
       </c>
       <c r="C59">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D59">
-        <v>-53.21</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43767</v>
+        <v>43797</v>
       </c>
       <c r="B60">
-        <v>72.92</v>
+        <v>119.79</v>
       </c>
       <c r="C60">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D60">
-        <v>-51.64</v>
+        <v>-14.81</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43768</v>
+        <v>43798</v>
       </c>
       <c r="B61">
-        <v>75.84999999999999</v>
+        <v>141.33</v>
       </c>
       <c r="C61">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D61">
-        <v>-49.7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B62">
-        <v>75.68000000000001</v>
+        <v>126.27</v>
       </c>
       <c r="C62">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D62">
-        <v>-49.81</v>
+        <v>-10.21</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B63">
-        <v>78.73</v>
+        <v>114.39</v>
       </c>
       <c r="C63">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D63">
-        <v>-44.01</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B64">
-        <v>78</v>
+        <v>105.81</v>
       </c>
       <c r="C64">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D64">
-        <v>-44.53</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B65">
-        <v>78.18000000000001</v>
+        <v>98.89</v>
       </c>
       <c r="C65">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D65">
-        <v>-44.41</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B66">
-        <v>78.43000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="C66">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D66">
-        <v>-44.23</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B67">
-        <v>90.31</v>
+        <v>102.56</v>
       </c>
       <c r="C67">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D67">
-        <v>-35.78</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B68">
-        <v>102.94</v>
+        <v>114.86</v>
       </c>
       <c r="C68">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D68">
-        <v>-26.8</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B69">
-        <v>105.12</v>
+        <v>109.06</v>
       </c>
       <c r="C69">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D69">
-        <v>-25.24</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B70">
-        <v>109.62</v>
+        <v>104.52</v>
       </c>
       <c r="C70">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D70">
-        <v>-22.04</v>
+        <v>-14.09</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B71">
-        <v>106.3</v>
+        <v>100.28</v>
       </c>
       <c r="C71">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D71">
-        <v>-24.41</v>
+        <v>-17.57</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B72">
-        <v>114.33</v>
+        <v>97.44</v>
       </c>
       <c r="C72">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D72">
-        <v>-18.7</v>
+        <v>-19.91</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B73">
-        <v>133.14</v>
+        <v>97.53</v>
       </c>
       <c r="C73">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D73">
-        <v>-5.33</v>
+        <v>-19.83</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B74">
-        <v>141.71</v>
+        <v>97.64</v>
       </c>
       <c r="C74">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D74">
-        <v>0.77</v>
+        <v>-19.74</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B75">
-        <v>128.15</v>
+        <v>96.66</v>
       </c>
       <c r="C75">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D75">
-        <v>-8.869999999999999</v>
+        <v>-20.55</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B76">
-        <v>136.68</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="C76">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D76">
-        <v>-2.81</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B77">
-        <v>155.66</v>
+        <v>96.41</v>
       </c>
       <c r="C77">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D77">
-        <v>10.69</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B78">
-        <v>159.29</v>
+        <v>113.16</v>
       </c>
       <c r="C78">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D78">
-        <v>13.28</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B79">
-        <v>142.36</v>
+        <v>126.32</v>
       </c>
       <c r="C79">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D79">
-        <v>1.24</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B80">
-        <v>127.58</v>
+        <v>140.45</v>
       </c>
       <c r="C80">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D80">
-        <v>-9.27</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43788</v>
+        <v>43818</v>
       </c>
       <c r="B81">
-        <v>116.22</v>
+        <v>134.61</v>
       </c>
       <c r="C81">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D81">
-        <v>-17.35</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B82">
-        <v>110.39</v>
+        <v>125.88</v>
       </c>
       <c r="C82">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D82">
-        <v>-21.5</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B83">
-        <v>103.69</v>
+        <v>121.88</v>
       </c>
       <c r="C83">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D83">
-        <v>-26.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43791</v>
+        <v>43821</v>
       </c>
       <c r="B84">
-        <v>100.17</v>
+        <v>116.14</v>
       </c>
       <c r="C84">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D84">
-        <v>-28.77</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43792</v>
+        <v>43822</v>
       </c>
       <c r="B85">
-        <v>96.31999999999999</v>
+        <v>110.85</v>
       </c>
       <c r="C85">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D85">
-        <v>-31.5</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43793</v>
+        <v>43823</v>
       </c>
       <c r="B86">
-        <v>94.52</v>
+        <v>106.47</v>
       </c>
       <c r="C86">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D86">
-        <v>-32.79</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43794</v>
+        <v>43824</v>
       </c>
       <c r="B87">
-        <v>91.25</v>
+        <v>101.73</v>
       </c>
       <c r="C87">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D87">
-        <v>-35.11</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="B88">
-        <v>89.23</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C88">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D88">
-        <v>-36.55</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43796</v>
+        <v>43826</v>
       </c>
       <c r="B89">
-        <v>95.12</v>
+        <v>94.23</v>
       </c>
       <c r="C89">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D89">
-        <v>-32.35</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43797</v>
+        <v>43827</v>
       </c>
       <c r="B90">
-        <v>119.79</v>
+        <v>91.77</v>
       </c>
       <c r="C90">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D90">
-        <v>-14.81</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43798</v>
+        <v>43828</v>
       </c>
       <c r="B91">
-        <v>141.33</v>
+        <v>89.31</v>
       </c>
       <c r="C91">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D91">
-        <v>0.5</v>
+        <v>-26.59</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43799</v>
+        <v>43829</v>
       </c>
       <c r="B92">
-        <v>126.27</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C92">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D92">
-        <v>-10.21</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B93">
-        <v>114.39</v>
+        <v>85.91</v>
       </c>
       <c r="C93">
         <v>121.66</v>
       </c>
       <c r="D93">
-        <v>-5.98</v>
+        <v>-29.39</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43801</v>
+        <v>43831</v>
       </c>
       <c r="B94">
-        <v>105.81</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="C94">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D94">
-        <v>-13.03</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B95">
-        <v>98.89</v>
+        <v>86.78</v>
       </c>
       <c r="C95">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D95">
-        <v>-18.72</v>
+        <v>-24.35</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43803</v>
+        <v>43833</v>
       </c>
       <c r="B96">
-        <v>96.70999999999999</v>
+        <v>88.05</v>
       </c>
       <c r="C96">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D96">
-        <v>-20.51</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43804</v>
+        <v>43834</v>
       </c>
       <c r="B97">
-        <v>102.56</v>
+        <v>87.19</v>
       </c>
       <c r="C97">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D97">
-        <v>-15.69</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43805</v>
+        <v>43835</v>
       </c>
       <c r="B98">
-        <v>114.86</v>
+        <v>85.06</v>
       </c>
       <c r="C98">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D98">
-        <v>-5.58</v>
+        <v>-25.85</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43806</v>
+        <v>43836</v>
       </c>
       <c r="B99">
-        <v>109.06</v>
+        <v>83.14</v>
       </c>
       <c r="C99">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D99">
-        <v>-10.35</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43807</v>
+        <v>43837</v>
       </c>
       <c r="B100">
-        <v>104.52</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C100">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D100">
-        <v>-14.09</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B101">
-        <v>100.28</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C101">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D101">
-        <v>-17.57</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B102">
-        <v>97.44</v>
+        <v>79.84</v>
       </c>
       <c r="C102">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D102">
-        <v>-19.91</v>
+        <v>-30.4</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B103">
-        <v>97.53</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C103">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D103">
-        <v>-19.83</v>
+        <v>-28.31</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B104">
-        <v>97.64</v>
+        <v>92.91</v>
       </c>
       <c r="C104">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D104">
-        <v>-19.74</v>
+        <v>-19.01</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B105">
-        <v>96.66</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C105">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D105">
-        <v>-20.55</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B106">
-        <v>95.23999999999999</v>
+        <v>98.19</v>
       </c>
       <c r="C106">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D106">
-        <v>-21.71</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B107">
-        <v>96.41</v>
+        <v>97.77</v>
       </c>
       <c r="C107">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D107">
-        <v>-20.76</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B108">
-        <v>113.16</v>
+        <v>92.33</v>
       </c>
       <c r="C108">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D108">
-        <v>-6.99</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B109">
-        <v>126.32</v>
+        <v>90.16</v>
       </c>
       <c r="C109">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D109">
-        <v>3.84</v>
+        <v>-21.41</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B110">
-        <v>140.45</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C110">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D110">
-        <v>15.45</v>
+        <v>-17.44</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43818</v>
+        <v>43848</v>
       </c>
       <c r="B111">
-        <v>134.61</v>
+        <v>92.47</v>
       </c>
       <c r="C111">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D111">
-        <v>10.65</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43819</v>
+        <v>43849</v>
       </c>
       <c r="B112">
-        <v>125.88</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="C112">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D112">
-        <v>3.47</v>
+        <v>-21.42</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43820</v>
+        <v>43850</v>
       </c>
       <c r="B113">
-        <v>121.88</v>
+        <v>85.81</v>
       </c>
       <c r="C113">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D113">
-        <v>0.18</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="B114">
-        <v>116.14</v>
+        <v>82.5</v>
       </c>
       <c r="C114">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D114">
-        <v>-4.54</v>
+        <v>-28.08</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43822</v>
+        <v>43852</v>
       </c>
       <c r="B115">
-        <v>110.85</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C115">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D115">
-        <v>-8.880000000000001</v>
+        <v>-27.18</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43823</v>
+        <v>43853</v>
       </c>
       <c r="B116">
-        <v>106.47</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C116">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D116">
-        <v>-12.48</v>
+        <v>-29.82</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B117">
-        <v>101.73</v>
+        <v>80.39</v>
       </c>
       <c r="C117">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D117">
-        <v>-16.38</v>
+        <v>-29.93</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B118">
-        <v>97.34999999999999</v>
+        <v>79.81</v>
       </c>
       <c r="C118">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D118">
-        <v>-19.98</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B119">
-        <v>94.23</v>
+        <v>76.78</v>
       </c>
       <c r="C119">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D119">
-        <v>-22.54</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B120">
-        <v>91.77</v>
+        <v>75.11</v>
       </c>
       <c r="C120">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D120">
-        <v>-24.57</v>
+        <v>-34.52</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B121">
-        <v>89.31</v>
+        <v>73.59</v>
       </c>
       <c r="C121">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D121">
-        <v>-26.59</v>
+        <v>-35.85</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B122">
-        <v>86.98999999999999</v>
+        <v>73.41</v>
       </c>
       <c r="C122">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D122">
-        <v>-28.5</v>
+        <v>-36.01</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B123">
-        <v>85.91</v>
+        <v>79.31</v>
       </c>
       <c r="C123">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D123">
-        <v>-29.39</v>
+        <v>-30.86</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B124">
-        <v>85.73999999999999</v>
+        <v>93.23</v>
       </c>
       <c r="C124">
         <v>114.72</v>
       </c>
       <c r="D124">
-        <v>-25.26</v>
+        <v>-18.73</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B125">
-        <v>86.78</v>
+        <v>120.88</v>
       </c>
       <c r="C125">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D125">
-        <v>-24.35</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B126">
-        <v>88.05</v>
+        <v>118.7</v>
       </c>
       <c r="C126">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D126">
-        <v>-23.25</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B127">
-        <v>87.19</v>
+        <v>120.65</v>
       </c>
       <c r="C127">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D127">
-        <v>-24</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B128">
-        <v>85.06</v>
+        <v>114.47</v>
       </c>
       <c r="C128">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D128">
-        <v>-25.85</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B129">
-        <v>83.14</v>
+        <v>107.43</v>
       </c>
       <c r="C129">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D129">
-        <v>-27.53</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B130">
-        <v>81.23999999999999</v>
+        <v>100.39</v>
       </c>
       <c r="C130">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D130">
-        <v>-29.18</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B131">
-        <v>79.81999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C131">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D131">
-        <v>-30.42</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B132">
-        <v>79.84</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C132">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D132">
-        <v>-30.4</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B133">
-        <v>82.23999999999999</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C133">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D133">
-        <v>-28.31</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B134">
-        <v>92.91</v>
+        <v>87.42</v>
       </c>
       <c r="C134">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D134">
-        <v>-19.01</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B135">
-        <v>99.01000000000001</v>
+        <v>89.55</v>
       </c>
       <c r="C135">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D135">
-        <v>-13.69</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B136">
-        <v>98.19</v>
+        <v>91.88</v>
       </c>
       <c r="C136">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D136">
-        <v>-14.41</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B137">
-        <v>97.77</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C137">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D137">
-        <v>-14.77</v>
+        <v>-25.61</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B138">
-        <v>92.33</v>
+        <v>82.5</v>
       </c>
       <c r="C138">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D138">
-        <v>-19.51</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B139">
-        <v>90.16</v>
+        <v>81.14</v>
       </c>
       <c r="C139">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D139">
-        <v>-21.41</v>
+        <v>-29.94</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B140">
-        <v>94.70999999999999</v>
+        <v>78.66</v>
       </c>
       <c r="C140">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D140">
-        <v>-17.44</v>
+        <v>-32.08</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B141">
-        <v>92.47</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C141">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D141">
-        <v>-19.4</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B142">
-        <v>90.15000000000001</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C142">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D142">
-        <v>-21.42</v>
+        <v>-34.07</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B143">
-        <v>85.81</v>
+        <v>78.95</v>
       </c>
       <c r="C143">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D143">
-        <v>-25.2</v>
+        <v>-31.83</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B144">
-        <v>82.5</v>
+        <v>76.77</v>
       </c>
       <c r="C144">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D144">
-        <v>-28.08</v>
+        <v>-33.71</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B145">
-        <v>83.54000000000001</v>
+        <v>74.33</v>
       </c>
       <c r="C145">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D145">
-        <v>-27.18</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B146">
-        <v>80.51000000000001</v>
+        <v>69.28</v>
       </c>
       <c r="C146">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D146">
-        <v>-29.82</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B147">
-        <v>80.39</v>
+        <v>72.7</v>
       </c>
       <c r="C147">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D147">
-        <v>-29.93</v>
+        <v>-37.23</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B148">
-        <v>79.81</v>
+        <v>71.12</v>
       </c>
       <c r="C148">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D148">
-        <v>-30.43</v>
+        <v>-38.58</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B149">
-        <v>76.78</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C149">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D149">
-        <v>-33.07</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B150">
-        <v>75.11</v>
+        <v>121.18</v>
       </c>
       <c r="C150">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D150">
-        <v>-34.52</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B151">
-        <v>73.59</v>
+        <v>154.98</v>
       </c>
       <c r="C151">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D151">
-        <v>-35.85</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B152">
-        <v>73.41</v>
+        <v>127.87</v>
       </c>
       <c r="C152">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D152">
-        <v>-36.01</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B153">
-        <v>79.31</v>
+        <v>112.27</v>
       </c>
       <c r="C153">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D153">
-        <v>-30.86</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B154">
-        <v>93.23</v>
+        <v>104.91</v>
       </c>
       <c r="C154">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D154">
-        <v>-18.73</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B155">
-        <v>120.88</v>
+        <v>97.91</v>
       </c>
       <c r="C155">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D155">
-        <v>4.37</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B156">
-        <v>118.7</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C156">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D156">
-        <v>2.49</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B157">
-        <v>120.65</v>
+        <v>91.27</v>
       </c>
       <c r="C157">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D157">
-        <v>4.18</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B158">
-        <v>114.47</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="C158">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D158">
-        <v>-1.16</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B159">
-        <v>107.43</v>
+        <v>84.34</v>
       </c>
       <c r="C159">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D159">
-        <v>-7.24</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B160">
-        <v>100.39</v>
+        <v>82.19</v>
       </c>
       <c r="C160">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D160">
-        <v>-13.32</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B161">
-        <v>95.3</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C161">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D161">
-        <v>-17.71</v>
+        <v>-24.95</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B162">
-        <v>89.29000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C162">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D162">
-        <v>-22.9</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B163">
-        <v>87.84999999999999</v>
+        <v>78.25</v>
       </c>
       <c r="C163">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D163">
-        <v>-24.14</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B164">
-        <v>87.42</v>
+        <v>80.05</v>
       </c>
       <c r="C164">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D164">
-        <v>-24.52</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B165">
-        <v>89.55</v>
+        <v>77.22</v>
       </c>
       <c r="C165">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D165">
-        <v>-22.67</v>
+        <v>-28.02</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B166">
-        <v>91.88</v>
+        <v>74.05</v>
       </c>
       <c r="C166">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D166">
-        <v>-20.67</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B167">
-        <v>86.15000000000001</v>
+        <v>77.17</v>
       </c>
       <c r="C167">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D167">
-        <v>-25.61</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B168">
-        <v>82.5</v>
+        <v>74.3</v>
       </c>
       <c r="C168">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D168">
-        <v>-28.76</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B169">
-        <v>81.14</v>
+        <v>70.94</v>
       </c>
       <c r="C169">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D169">
-        <v>-29.94</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B170">
-        <v>78.66</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C170">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D170">
-        <v>-32.08</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B171">
-        <v>74.65000000000001</v>
+        <v>70.69</v>
       </c>
       <c r="C171">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D171">
-        <v>-35.54</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B172">
-        <v>76.34999999999999</v>
+        <v>76.33</v>
       </c>
       <c r="C172">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D172">
-        <v>-34.07</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B173">
-        <v>78.95</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C173">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D173">
-        <v>-31.83</v>
+        <v>-20.43</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B174">
-        <v>76.77</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C174">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D174">
-        <v>-33.71</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B175">
-        <v>74.33</v>
+        <v>83</v>
       </c>
       <c r="C175">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D175">
-        <v>-35.81</v>
+        <v>-22.63</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B176">
-        <v>69.28</v>
+        <v>77.03</v>
       </c>
       <c r="C176">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D176">
-        <v>-40.18</v>
+        <v>-28.19</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B177">
-        <v>72.7</v>
+        <v>75.14</v>
       </c>
       <c r="C177">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D177">
-        <v>-37.23</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B178">
-        <v>71.12</v>
+        <v>74.05</v>
       </c>
       <c r="C178">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D178">
-        <v>-38.58</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B179">
-        <v>71.09999999999999</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C179">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D179">
-        <v>-38.6</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B180">
-        <v>121.18</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C180">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D180">
-        <v>4.63</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B181">
-        <v>154.98</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C181">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D181">
-        <v>33.82</v>
+        <v>-35.58</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B182">
-        <v>127.87</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C182">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D182">
-        <v>10.41</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B183">
-        <v>112.27</v>
+        <v>63.99</v>
       </c>
       <c r="C183">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D183">
-        <v>-3.06</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B184">
-        <v>104.91</v>
+        <v>66.53</v>
       </c>
       <c r="C184">
         <v>107.27</v>
       </c>
       <c r="D184">
-        <v>-2.21</v>
+        <v>-37.98</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B185">
-        <v>97.91</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C185">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D185">
-        <v>-8.73</v>
+        <v>-39.7</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B186">
-        <v>93.18000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="C186">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D186">
-        <v>-13.14</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B187">
-        <v>91.27</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C187">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D187">
-        <v>-14.92</v>
+        <v>-40.27</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B188">
-        <v>86.48999999999999</v>
+        <v>63.12</v>
       </c>
       <c r="C188">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D188">
-        <v>-19.37</v>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B189">
-        <v>84.34</v>
+        <v>62.56</v>
       </c>
       <c r="C189">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D189">
-        <v>-21.38</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43897</v>
+        <v>43927</v>
       </c>
       <c r="B190">
-        <v>82.19</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C190">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D190">
-        <v>-23.39</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B191">
-        <v>80.51000000000001</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C191">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D191">
-        <v>-24.95</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B192">
-        <v>81.56999999999999</v>
+        <v>69.75</v>
       </c>
       <c r="C192">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D192">
-        <v>-23.96</v>
+        <v>-36.07</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B193">
-        <v>78.25</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C193">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D193">
-        <v>-27.06</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B194">
-        <v>80.05</v>
+        <v>69.62</v>
       </c>
       <c r="C194">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D194">
-        <v>-25.38</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B195">
-        <v>77.22</v>
+        <v>68.02</v>
       </c>
       <c r="C195">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D195">
-        <v>-28.02</v>
+        <v>-37.66</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B196">
-        <v>74.05</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C196">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D196">
-        <v>-30.97</v>
+        <v>-39.96</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B197">
-        <v>77.17</v>
+        <v>62.9</v>
       </c>
       <c r="C197">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D197">
-        <v>-28.07</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B198">
-        <v>74.3</v>
+        <v>69.23</v>
       </c>
       <c r="C198">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D198">
-        <v>-30.74</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B199">
-        <v>70.94</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C199">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D199">
-        <v>-33.87</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B200">
-        <v>69.51000000000001</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C200">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D200">
-        <v>-35.2</v>
+        <v>-38.63</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B201">
-        <v>70.69</v>
+        <v>66.87</v>
       </c>
       <c r="C201">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D201">
-        <v>-34.11</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B202">
-        <v>76.33</v>
+        <v>65.27</v>
       </c>
       <c r="C202">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D202">
-        <v>-28.84</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B203">
-        <v>85.34999999999999</v>
+        <v>65.84</v>
       </c>
       <c r="C203">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D203">
-        <v>-20.43</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B204">
-        <v>88.31999999999999</v>
+        <v>63.15</v>
       </c>
       <c r="C204">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D204">
-        <v>-17.67</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B205">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C205">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D205">
-        <v>-22.63</v>
+        <v>-41.34</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B206">
-        <v>77.03</v>
+        <v>61.79</v>
       </c>
       <c r="C206">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D206">
-        <v>-28.19</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B207">
-        <v>75.14</v>
+        <v>60.36</v>
       </c>
       <c r="C207">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D207">
-        <v>-29.96</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B208">
-        <v>74.05</v>
+        <v>60.67</v>
       </c>
       <c r="C208">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D208">
-        <v>-30.97</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B209">
-        <v>71.81999999999999</v>
+        <v>59.35</v>
       </c>
       <c r="C209">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D209">
-        <v>-33.05</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B210">
-        <v>70.84999999999999</v>
+        <v>59.79</v>
       </c>
       <c r="C210">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D210">
-        <v>-33.95</v>
+        <v>-45.2</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B211">
-        <v>69.09999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C211">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D211">
-        <v>-35.58</v>
+        <v>-44.32</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B212">
-        <v>66.06999999999999</v>
+        <v>57.81</v>
       </c>
       <c r="C212">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D212">
-        <v>-38.41</v>
+        <v>-47.02</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="B213">
-        <v>63.99</v>
+        <v>56.32</v>
       </c>
       <c r="C213">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D213">
-        <v>-40.35</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B214">
-        <v>66.53</v>
+        <v>53.63</v>
       </c>
       <c r="C214">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D214">
-        <v>-37.98</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B215">
-        <v>65.79000000000001</v>
+        <v>53.96</v>
       </c>
       <c r="C215">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D215">
-        <v>-39.7</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="B216">
-        <v>68.42</v>
+        <v>54.47</v>
       </c>
       <c r="C216">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D216">
-        <v>-37.3</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="B217">
-        <v>65.18000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="C217">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D217">
-        <v>-40.27</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B218">
-        <v>63.12</v>
+        <v>53.75</v>
       </c>
       <c r="C218">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D218">
-        <v>-42.15</v>
+        <v>-58.01</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B219">
-        <v>62.56</v>
+        <v>55.35</v>
       </c>
       <c r="C219">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D219">
-        <v>-42.66</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43927</v>
+        <v>43957</v>
       </c>
       <c r="B220">
-        <v>65.95999999999999</v>
+        <v>59.28</v>
       </c>
       <c r="C220">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D220">
-        <v>-39.55</v>
+        <v>-53.69</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B221">
-        <v>67.34999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C221">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D221">
-        <v>-38.27</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B222">
-        <v>69.75</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C222">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D222">
-        <v>-36.07</v>
+        <v>-43.61</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B223">
-        <v>71.09999999999999</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C223">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D223">
-        <v>-34.83</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B224">
-        <v>69.62</v>
+        <v>68.81</v>
       </c>
       <c r="C224">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D224">
-        <v>-36.19</v>
+        <v>-46.24</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B225">
-        <v>68.02</v>
+        <v>69.45</v>
       </c>
       <c r="C225">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D225">
-        <v>-37.66</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B226">
-        <v>65.51000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C226">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D226">
-        <v>-39.96</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B227">
-        <v>62.9</v>
+        <v>82.03</v>
       </c>
       <c r="C227">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D227">
-        <v>-42.36</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B228">
-        <v>69.23</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C228">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D228">
-        <v>-36.55</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B229">
-        <v>70.06999999999999</v>
+        <v>102.78</v>
       </c>
       <c r="C229">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D229">
-        <v>-35.78</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B230">
-        <v>66.95999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="C230">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D230">
-        <v>-38.63</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B231">
-        <v>66.87</v>
+        <v>87.8</v>
       </c>
       <c r="C231">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D231">
-        <v>-38.71</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B232">
-        <v>65.27</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C232">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D232">
-        <v>-40.18</v>
+        <v>-35.74</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B233">
-        <v>65.84</v>
+        <v>77.62</v>
       </c>
       <c r="C233">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D233">
-        <v>-39.65</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B234">
-        <v>63.15</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C234">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D234">
-        <v>-42.13</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B235">
-        <v>64</v>
+        <v>73.7</v>
       </c>
       <c r="C235">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D235">
-        <v>-41.34</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B236">
-        <v>61.79</v>
+        <v>112.64</v>
       </c>
       <c r="C236">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D236">
-        <v>-43.37</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B237">
-        <v>60.36</v>
+        <v>154.82</v>
       </c>
       <c r="C237">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D237">
-        <v>-44.68</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B238">
-        <v>60.67</v>
+        <v>169.34</v>
       </c>
       <c r="C238">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D238">
-        <v>-44.4</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B239">
-        <v>59.35</v>
+        <v>152.41</v>
       </c>
       <c r="C239">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D239">
-        <v>-45.6</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B240">
-        <v>59.79</v>
+        <v>135.22</v>
       </c>
       <c r="C240">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D240">
-        <v>-45.2</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B241">
-        <v>60.75</v>
+        <v>122.32</v>
       </c>
       <c r="C241">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D241">
-        <v>-44.32</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B242">
-        <v>57.81</v>
+        <v>111.53</v>
       </c>
       <c r="C242">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D242">
-        <v>-47.02</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B243">
-        <v>56.32</v>
+        <v>105.05</v>
       </c>
       <c r="C243">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D243">
-        <v>-48.38</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B244">
-        <v>53.63</v>
+        <v>100.22</v>
       </c>
       <c r="C244">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D244">
-        <v>-50.85</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B245">
-        <v>53.96</v>
+        <v>96.67</v>
       </c>
       <c r="C245">
         <v>128</v>
       </c>
       <c r="D245">
-        <v>-57.85</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B246">
-        <v>54.47</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C246">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D246">
-        <v>-57.45</v>
+        <v>-31.31</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B247">
-        <v>54.7</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C247">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D247">
-        <v>-57.27</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B248">
-        <v>53.75</v>
+        <v>91.53</v>
       </c>
       <c r="C248">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D248">
-        <v>-58.01</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B249">
-        <v>55.35</v>
+        <v>94.69</v>
       </c>
       <c r="C249">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D249">
-        <v>-56.76</v>
+        <v>-31.57</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B250">
-        <v>59.28</v>
+        <v>125.85</v>
       </c>
       <c r="C250">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D250">
-        <v>-53.69</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B251">
-        <v>69.28</v>
+        <v>153.61</v>
       </c>
       <c r="C251">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D251">
-        <v>-45.88</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B252">
-        <v>72.18000000000001</v>
+        <v>163.02</v>
       </c>
       <c r="C252">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D252">
-        <v>-43.61</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B253">
-        <v>70.73999999999999</v>
+        <v>147.54</v>
       </c>
       <c r="C253">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D253">
-        <v>-44.74</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B254">
-        <v>68.81</v>
+        <v>145.65</v>
       </c>
       <c r="C254">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D254">
-        <v>-46.24</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B255">
-        <v>69.45</v>
+        <v>278</v>
       </c>
       <c r="C255">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D255">
-        <v>-45.75</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B256">
-        <v>66.98999999999999</v>
+        <v>259.32</v>
       </c>
       <c r="C256">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D256">
-        <v>-47.67</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B257">
-        <v>82.03</v>
+        <v>251.39</v>
       </c>
       <c r="C257">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D257">
-        <v>-35.91</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B258">
-        <v>95.04000000000001</v>
+        <v>226.04</v>
       </c>
       <c r="C258">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D258">
-        <v>-25.75</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B259">
-        <v>102.78</v>
+        <v>206.4</v>
       </c>
       <c r="C259">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D259">
-        <v>-19.7</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B260">
-        <v>96.61</v>
+        <v>190</v>
       </c>
       <c r="C260">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D260">
-        <v>-24.52</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B261">
-        <v>87.8</v>
+        <v>176.32</v>
       </c>
       <c r="C261">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D261">
-        <v>-31.41</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B262">
-        <v>82.26000000000001</v>
+        <v>163.4</v>
       </c>
       <c r="C262">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D262">
-        <v>-35.74</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B263">
-        <v>77.62</v>
+        <v>153.78</v>
       </c>
       <c r="C263">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D263">
-        <v>-39.36</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B264">
-        <v>76.56999999999999</v>
+        <v>146.42</v>
       </c>
       <c r="C264">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D264">
-        <v>-40.18</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B265">
-        <v>73.7</v>
+        <v>140.38</v>
       </c>
       <c r="C265">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D265">
-        <v>-42.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B266">
-        <v>112.64</v>
+        <v>134.93</v>
       </c>
       <c r="C266">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D266">
-        <v>-12.01</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B267">
-        <v>154.82</v>
+        <v>130.01</v>
       </c>
       <c r="C267">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D267">
-        <v>20.95</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B268">
-        <v>169.34</v>
+        <v>126.22</v>
       </c>
       <c r="C268">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D268">
-        <v>32.3</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B269">
-        <v>152.41</v>
+        <v>122.99</v>
       </c>
       <c r="C269">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D269">
-        <v>19.06</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B270">
-        <v>135.22</v>
+        <v>120.03</v>
       </c>
       <c r="C270">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D270">
-        <v>5.64</v>
+        <v>-13.25</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B271">
-        <v>122.32</v>
+        <v>123.12</v>
       </c>
       <c r="C271">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D271">
-        <v>-4.44</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B272">
-        <v>111.53</v>
+        <v>125.24</v>
       </c>
       <c r="C272">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D272">
-        <v>-12.87</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B273">
-        <v>105.05</v>
+        <v>122.99</v>
       </c>
       <c r="C273">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D273">
-        <v>-17.93</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B274">
-        <v>100.22</v>
+        <v>120.39</v>
       </c>
       <c r="C274">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D274">
-        <v>-21.71</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B275">
-        <v>96.67</v>
+        <v>119.67</v>
       </c>
       <c r="C275">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D275">
-        <v>-24.48</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B276">
-        <v>95.04000000000001</v>
+        <v>135.98</v>
       </c>
       <c r="C276">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D276">
-        <v>-31.31</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B277">
-        <v>93.76000000000001</v>
+        <v>157.81</v>
       </c>
       <c r="C277">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D277">
-        <v>-32.24</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B278">
-        <v>91.53</v>
+        <v>147.03</v>
       </c>
       <c r="C278">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D278">
-        <v>-33.85</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B279">
-        <v>94.69</v>
+        <v>137.25</v>
       </c>
       <c r="C279">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D279">
-        <v>-31.57</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B280">
-        <v>125.85</v>
+        <v>128.27</v>
       </c>
       <c r="C280">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D280">
-        <v>-9.050000000000001</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B281">
-        <v>153.61</v>
+        <v>122.45</v>
       </c>
       <c r="C281">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D281">
-        <v>11.02</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B282">
-        <v>163.02</v>
+        <v>123.52</v>
       </c>
       <c r="C282">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D282">
-        <v>17.82</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B283">
-        <v>147.54</v>
+        <v>140.43</v>
       </c>
       <c r="C283">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D283">
-        <v>6.63</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B284">
-        <v>145.65</v>
+        <v>158.15</v>
       </c>
       <c r="C284">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D284">
-        <v>5.26</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B285">
-        <v>278</v>
+        <v>170.08</v>
       </c>
       <c r="C285">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D285">
-        <v>100.91</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B286">
-        <v>259.32</v>
+        <v>157.05</v>
       </c>
       <c r="C286">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D286">
-        <v>87.41</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B287">
-        <v>251.39</v>
+        <v>146.65</v>
       </c>
       <c r="C287">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D287">
-        <v>81.68000000000001</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B288">
-        <v>226.04</v>
+        <v>140.3</v>
       </c>
       <c r="C288">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D288">
-        <v>63.36</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B289">
-        <v>206.4</v>
+        <v>134.47</v>
       </c>
       <c r="C289">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D289">
-        <v>49.16</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B290">
-        <v>190</v>
+        <v>130.05</v>
       </c>
       <c r="C290">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D290">
-        <v>37.31</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B291">
-        <v>176.32</v>
+        <v>125.01</v>
       </c>
       <c r="C291">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D291">
-        <v>27.43</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B292">
-        <v>163.4</v>
+        <v>121.39</v>
       </c>
       <c r="C292">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D292">
-        <v>18.09</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B293">
-        <v>153.78</v>
+        <v>119.31</v>
       </c>
       <c r="C293">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D293">
-        <v>11.14</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B294">
-        <v>146.42</v>
+        <v>116.15</v>
       </c>
       <c r="C294">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D294">
-        <v>5.81</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B295">
-        <v>140.38</v>
+        <v>114.07</v>
       </c>
       <c r="C295">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D295">
-        <v>1.45</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B296">
-        <v>134.93</v>
+        <v>111.75</v>
       </c>
       <c r="C296">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D296">
-        <v>-2.49</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B297">
-        <v>130.01</v>
+        <v>110.18</v>
       </c>
       <c r="C297">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D297">
-        <v>-6.04</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B298">
-        <v>126.22</v>
+        <v>109</v>
       </c>
       <c r="C298">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D298">
-        <v>-8.779999999999999</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B299">
-        <v>122.99</v>
+        <v>106.52</v>
       </c>
       <c r="C299">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D299">
-        <v>-11.12</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B300">
-        <v>120.03</v>
+        <v>104.51</v>
       </c>
       <c r="C300">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D300">
-        <v>-13.25</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B301">
-        <v>123.12</v>
+        <v>104.66</v>
       </c>
       <c r="C301">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D301">
-        <v>-11.02</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B302">
-        <v>125.24</v>
+        <v>103.49</v>
       </c>
       <c r="C302">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D302">
-        <v>-9.49</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B303">
-        <v>122.99</v>
+        <v>101.41</v>
       </c>
       <c r="C303">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D303">
-        <v>-11.12</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B304">
-        <v>120.39</v>
+        <v>101.25</v>
       </c>
       <c r="C304">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D304">
-        <v>-12.99</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B305">
-        <v>119.67</v>
+        <v>105.68</v>
       </c>
       <c r="C305">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D305">
-        <v>-13.52</v>
+        <v>-19.71</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B306">
-        <v>135.98</v>
+        <v>106.08</v>
       </c>
       <c r="C306">
         <v>131.62</v>
       </c>
       <c r="D306">
-        <v>3.31</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B307">
-        <v>157.81</v>
+        <v>101.46</v>
       </c>
       <c r="C307">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D307">
-        <v>19.9</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B308">
-        <v>147.03</v>
+        <v>99.94</v>
       </c>
       <c r="C308">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D308">
-        <v>11.71</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B309">
-        <v>137.25</v>
+        <v>98.25</v>
       </c>
       <c r="C309">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D309">
-        <v>4.27</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B310">
-        <v>128.27</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C310">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D310">
-        <v>-2.55</v>
+        <v>-18.93</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B311">
-        <v>122.45</v>
+        <v>94</v>
       </c>
       <c r="C311">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D311">
-        <v>-6.97</v>
+        <v>-20.83</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B312">
-        <v>123.52</v>
+        <v>91.13</v>
       </c>
       <c r="C312">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D312">
-        <v>-6.16</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B313">
-        <v>140.43</v>
+        <v>92.3</v>
       </c>
       <c r="C313">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D313">
-        <v>6.69</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B314">
-        <v>158.15</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C314">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D314">
-        <v>20.15</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B315">
-        <v>170.08</v>
+        <v>90.38</v>
       </c>
       <c r="C315">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D315">
-        <v>29.22</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B316">
-        <v>157.05</v>
+        <v>89.64</v>
       </c>
       <c r="C316">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D316">
-        <v>19.32</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B317">
-        <v>146.65</v>
+        <v>87.31</v>
       </c>
       <c r="C317">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D317">
-        <v>11.41</v>
+        <v>-26.46</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B318">
-        <v>140.3</v>
+        <v>88.31</v>
       </c>
       <c r="C318">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D318">
-        <v>6.59</v>
+        <v>-25.62</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B319">
-        <v>134.47</v>
+        <v>100.71</v>
       </c>
       <c r="C319">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D319">
-        <v>2.16</v>
+        <v>-15.18</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B320">
-        <v>130.05</v>
+        <v>125.19</v>
       </c>
       <c r="C320">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D320">
-        <v>-1.19</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B321">
-        <v>125.01</v>
+        <v>129.4</v>
       </c>
       <c r="C321">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D321">
-        <v>-5.02</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B322">
-        <v>121.39</v>
+        <v>144.85</v>
       </c>
       <c r="C322">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D322">
-        <v>-7.78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B323">
-        <v>119.31</v>
+        <v>153.78</v>
       </c>
       <c r="C323">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D323">
-        <v>-9.35</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B324">
-        <v>116.15</v>
+        <v>158.61</v>
       </c>
       <c r="C324">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D324">
-        <v>-11.76</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B325">
-        <v>114.07</v>
+        <v>177.33</v>
       </c>
       <c r="C325">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D325">
-        <v>-13.33</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B326">
-        <v>111.75</v>
+        <v>183.36</v>
       </c>
       <c r="C326">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D326">
-        <v>-15.1</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B327">
-        <v>110.18</v>
+        <v>175.84</v>
       </c>
       <c r="C327">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D327">
-        <v>-16.29</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B328">
-        <v>109</v>
+        <v>159.39</v>
       </c>
       <c r="C328">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D328">
-        <v>-17.19</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B329">
-        <v>106.52</v>
+        <v>146.09</v>
       </c>
       <c r="C329">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D329">
-        <v>-19.07</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B330">
-        <v>104.51</v>
+        <v>136.09</v>
       </c>
       <c r="C330">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D330">
-        <v>-20.6</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B331">
-        <v>104.66</v>
+        <v>128.77</v>
       </c>
       <c r="C331">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D331">
-        <v>-20.49</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B332">
-        <v>103.49</v>
+        <v>123.82</v>
       </c>
       <c r="C332">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D332">
-        <v>-21.37</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B333">
-        <v>101.41</v>
+        <v>119.18</v>
       </c>
       <c r="C333">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D333">
-        <v>-22.96</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B334">
-        <v>101.25</v>
+        <v>115.73</v>
       </c>
       <c r="C334">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D334">
-        <v>-23.08</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B335">
-        <v>105.68</v>
+        <v>113.28</v>
       </c>
       <c r="C335">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D335">
-        <v>-19.71</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B336">
-        <v>106.08</v>
+        <v>109.06</v>
       </c>
       <c r="C336">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D336">
-        <v>-19.4</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B337">
-        <v>101.46</v>
+        <v>107.37</v>
       </c>
       <c r="C337">
         <v>118.73</v>
       </c>
       <c r="D337">
-        <v>-14.55</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B338">
-        <v>99.94</v>
+        <v>105.41</v>
       </c>
       <c r="C338">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D338">
-        <v>-15.83</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B339">
-        <v>98.25</v>
+        <v>102.61</v>
       </c>
       <c r="C339">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D339">
-        <v>-17.25</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B340">
-        <v>96.26000000000001</v>
+        <v>102.73</v>
       </c>
       <c r="C340">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D340">
-        <v>-18.93</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B341">
-        <v>94</v>
+        <v>102.05</v>
       </c>
       <c r="C341">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D341">
-        <v>-20.83</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B342">
-        <v>91.13</v>
+        <v>98.3</v>
       </c>
       <c r="C342">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D342">
-        <v>-23.25</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B343">
-        <v>92.3</v>
+        <v>98.48</v>
       </c>
       <c r="C343">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D343">
-        <v>-22.26</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B344">
-        <v>92.48999999999999</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="C344">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D344">
-        <v>-22.1</v>
+        <v>-22.29</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B345">
-        <v>90.38</v>
+        <v>96.48</v>
       </c>
       <c r="C345">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D345">
-        <v>-23.88</v>
+        <v>-22.14</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B346">
-        <v>89.64</v>
+        <v>95.38</v>
       </c>
       <c r="C346">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D346">
-        <v>-24.51</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B347">
-        <v>87.31</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="C347">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D347">
-        <v>-26.46</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B348">
-        <v>88.31</v>
+        <v>92.52</v>
       </c>
       <c r="C348">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D348">
-        <v>-25.62</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B349">
-        <v>100.71</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="C349">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D349">
-        <v>-15.18</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B350">
-        <v>125.19</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C350">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D350">
-        <v>5.44</v>
+        <v>-26.65</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B351">
-        <v>129.4</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C351">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D351">
-        <v>8.98</v>
+        <v>-27.98</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B352">
-        <v>144.85</v>
+        <v>89.88</v>
       </c>
       <c r="C352">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D352">
-        <v>22</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B353">
-        <v>153.78</v>
+        <v>88.8</v>
       </c>
       <c r="C353">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D353">
-        <v>29.52</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B354">
-        <v>158.61</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="C354">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D354">
-        <v>33.59</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B355">
-        <v>177.33</v>
+        <v>85.75</v>
       </c>
       <c r="C355">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D355">
-        <v>49.36</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B356">
-        <v>183.36</v>
+        <v>86.56</v>
       </c>
       <c r="C356">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D356">
-        <v>54.44</v>
+        <v>-30.15</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B357">
-        <v>175.84</v>
+        <v>87.2</v>
       </c>
       <c r="C357">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D357">
-        <v>48.1</v>
+        <v>-29.63</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B358">
-        <v>159.39</v>
+        <v>84.45</v>
       </c>
       <c r="C358">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D358">
-        <v>34.24</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B359">
-        <v>146.09</v>
+        <v>83.56</v>
       </c>
       <c r="C359">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D359">
-        <v>23.05</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B360">
-        <v>136.09</v>
+        <v>83</v>
       </c>
       <c r="C360">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D360">
-        <v>14.62</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B361">
-        <v>128.77</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C361">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D361">
-        <v>8.460000000000001</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B362">
-        <v>123.82</v>
+        <v>81.36</v>
       </c>
       <c r="C362">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D362">
-        <v>4.29</v>
+        <v>-34.34</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B363">
-        <v>119.18</v>
+        <v>81.66</v>
       </c>
       <c r="C363">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D363">
-        <v>0.37</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B364">
-        <v>115.73</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="C364">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D364">
-        <v>-2.53</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B365">
-        <v>113.28</v>
+        <v>81.08</v>
       </c>
       <c r="C365">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D365">
-        <v>-4.59</v>
+        <v>-34.56</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B366">
-        <v>109.06</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C366">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D366">
-        <v>-8.140000000000001</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B367">
-        <v>107.37</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C367">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D367">
-        <v>-9.57</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44075</v>
-      </c>
-      <c r="B368">
-        <v>105.41</v>
-      </c>
-      <c r="C368">
-        <v>123.92</v>
-      </c>
-      <c r="D368">
-        <v>-14.94</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44076</v>
-      </c>
-      <c r="B369">
-        <v>102.61</v>
-      </c>
-      <c r="C369">
-        <v>123.92</v>
-      </c>
-      <c r="D369">
-        <v>-17.19</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44077</v>
-      </c>
-      <c r="B370">
-        <v>102.73</v>
-      </c>
-      <c r="C370">
-        <v>123.92</v>
-      </c>
-      <c r="D370">
-        <v>-17.1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44078</v>
-      </c>
-      <c r="B371">
-        <v>102.05</v>
-      </c>
-      <c r="C371">
-        <v>123.92</v>
-      </c>
-      <c r="D371">
-        <v>-17.64</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44079</v>
-      </c>
-      <c r="B372">
-        <v>98.3</v>
-      </c>
-      <c r="C372">
-        <v>123.92</v>
-      </c>
-      <c r="D372">
-        <v>-20.67</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44080</v>
-      </c>
-      <c r="B373">
-        <v>98.48</v>
-      </c>
-      <c r="C373">
-        <v>123.92</v>
-      </c>
-      <c r="D373">
-        <v>-20.53</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44081</v>
-      </c>
-      <c r="B374">
-        <v>96.29000000000001</v>
-      </c>
-      <c r="C374">
-        <v>123.92</v>
-      </c>
-      <c r="D374">
-        <v>-22.29</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44082</v>
-      </c>
-      <c r="B375">
-        <v>96.48</v>
-      </c>
-      <c r="C375">
-        <v>123.92</v>
-      </c>
-      <c r="D375">
-        <v>-22.14</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44083</v>
-      </c>
-      <c r="B376">
-        <v>95.38</v>
-      </c>
-      <c r="C376">
-        <v>123.92</v>
-      </c>
-      <c r="D376">
-        <v>-23.03</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44084</v>
-      </c>
-      <c r="B377">
-        <v>93.70999999999999</v>
-      </c>
-      <c r="C377">
-        <v>123.92</v>
-      </c>
-      <c r="D377">
-        <v>-24.38</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44085</v>
-      </c>
-      <c r="B378">
-        <v>92.52</v>
-      </c>
-      <c r="C378">
-        <v>123.92</v>
-      </c>
-      <c r="D378">
-        <v>-25.34</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44086</v>
-      </c>
-      <c r="B379">
-        <v>93.54000000000001</v>
-      </c>
-      <c r="C379">
-        <v>123.92</v>
-      </c>
-      <c r="D379">
-        <v>-24.51</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44087</v>
-      </c>
-      <c r="B380">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="C380">
-        <v>123.92</v>
-      </c>
-      <c r="D380">
-        <v>-26.65</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44088</v>
-      </c>
-      <c r="B381">
-        <v>89.23999999999999</v>
-      </c>
-      <c r="C381">
-        <v>123.92</v>
-      </c>
-      <c r="D381">
-        <v>-27.98</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44089</v>
-      </c>
-      <c r="B382">
-        <v>89.88</v>
-      </c>
-      <c r="C382">
-        <v>123.92</v>
-      </c>
-      <c r="D382">
-        <v>-27.47</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44090</v>
-      </c>
-      <c r="B383">
-        <v>88.8</v>
-      </c>
-      <c r="C383">
-        <v>123.92</v>
-      </c>
-      <c r="D383">
-        <v>-28.34</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44091</v>
-      </c>
-      <c r="B384">
-        <v>88.20999999999999</v>
-      </c>
-      <c r="C384">
-        <v>123.92</v>
-      </c>
-      <c r="D384">
-        <v>-28.81</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44092</v>
-      </c>
-      <c r="B385">
-        <v>85.75</v>
-      </c>
-      <c r="C385">
-        <v>123.92</v>
-      </c>
-      <c r="D385">
-        <v>-30.8</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44093</v>
-      </c>
-      <c r="B386">
-        <v>86.56</v>
-      </c>
-      <c r="C386">
-        <v>123.92</v>
-      </c>
-      <c r="D386">
-        <v>-30.15</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44094</v>
-      </c>
-      <c r="B387">
-        <v>87.2</v>
-      </c>
-      <c r="C387">
-        <v>123.92</v>
-      </c>
-      <c r="D387">
-        <v>-29.63</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44095</v>
-      </c>
-      <c r="B388">
-        <v>84.45</v>
-      </c>
-      <c r="C388">
-        <v>123.92</v>
-      </c>
-      <c r="D388">
-        <v>-31.85</v>
+        <v>-28.59</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -583,6 +583,20 @@
         <v>-26.98</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B14">
+        <v>80.14</v>
+      </c>
+      <c r="C14">
+        <v>150.79</v>
+      </c>
+      <c r="D14">
+        <v>-46.86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5739,6 +5753,146 @@
         <v>-28.59</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B368">
+        <v>85.11</v>
+      </c>
+      <c r="C368">
+        <v>150.79</v>
+      </c>
+      <c r="D368">
+        <v>-43.56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B369">
+        <v>81.95</v>
+      </c>
+      <c r="C369">
+        <v>150.79</v>
+      </c>
+      <c r="D369">
+        <v>-45.66</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44107</v>
+      </c>
+      <c r="B370">
+        <v>81.20999999999999</v>
+      </c>
+      <c r="C370">
+        <v>150.79</v>
+      </c>
+      <c r="D370">
+        <v>-46.15</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44108</v>
+      </c>
+      <c r="B371">
+        <v>79.08</v>
+      </c>
+      <c r="C371">
+        <v>150.79</v>
+      </c>
+      <c r="D371">
+        <v>-47.56</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B372">
+        <v>77.2</v>
+      </c>
+      <c r="C372">
+        <v>150.79</v>
+      </c>
+      <c r="D372">
+        <v>-48.81</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B373">
+        <v>75.48999999999999</v>
+      </c>
+      <c r="C373">
+        <v>150.79</v>
+      </c>
+      <c r="D373">
+        <v>-49.94</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B374">
+        <v>73.41</v>
+      </c>
+      <c r="C374">
+        <v>150.79</v>
+      </c>
+      <c r="D374">
+        <v>-51.32</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B375">
+        <v>78.95</v>
+      </c>
+      <c r="C375">
+        <v>150.79</v>
+      </c>
+      <c r="D375">
+        <v>-47.64</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B376">
+        <v>83.36</v>
+      </c>
+      <c r="C376">
+        <v>150.79</v>
+      </c>
+      <c r="D376">
+        <v>-44.72</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44114</v>
+      </c>
+      <c r="B377">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="C377">
+        <v>150.79</v>
+      </c>
+      <c r="D377">
+        <v>-43.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44114</v>
+        <v>44124</v>
       </c>
       <c r="B14">
-        <v>80.14</v>
+        <v>81.02</v>
       </c>
       <c r="C14">
         <v>150.79</v>
       </c>
       <c r="D14">
-        <v>-46.86</v>
+        <v>-46.27</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D377"/>
+  <dimension ref="A1:D387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5893,6 +5893,146 @@
         <v>-43.23</v>
       </c>
     </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44115</v>
+      </c>
+      <c r="B378">
+        <v>85.34</v>
+      </c>
+      <c r="C378">
+        <v>150.79</v>
+      </c>
+      <c r="D378">
+        <v>-43.4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B379">
+        <v>83.09999999999999</v>
+      </c>
+      <c r="C379">
+        <v>150.79</v>
+      </c>
+      <c r="D379">
+        <v>-44.89</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B380">
+        <v>81.05</v>
+      </c>
+      <c r="C380">
+        <v>150.79</v>
+      </c>
+      <c r="D380">
+        <v>-46.25</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B381">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="C381">
+        <v>150.79</v>
+      </c>
+      <c r="D381">
+        <v>-45.63</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B382">
+        <v>85.15000000000001</v>
+      </c>
+      <c r="C382">
+        <v>150.79</v>
+      </c>
+      <c r="D382">
+        <v>-43.53</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B383">
+        <v>84.45999999999999</v>
+      </c>
+      <c r="C383">
+        <v>150.79</v>
+      </c>
+      <c r="D383">
+        <v>-43.99</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44121</v>
+      </c>
+      <c r="B384">
+        <v>82.84</v>
+      </c>
+      <c r="C384">
+        <v>150.79</v>
+      </c>
+      <c r="D384">
+        <v>-45.06</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44122</v>
+      </c>
+      <c r="B385">
+        <v>79.81999999999999</v>
+      </c>
+      <c r="C385">
+        <v>150.79</v>
+      </c>
+      <c r="D385">
+        <v>-47.06</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B386">
+        <v>79.48999999999999</v>
+      </c>
+      <c r="C386">
+        <v>150.79</v>
+      </c>
+      <c r="D386">
+        <v>-47.29</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B387">
+        <v>75.75</v>
+      </c>
+      <c r="C387">
+        <v>150.79</v>
+      </c>
+      <c r="D387">
+        <v>-49.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44124</v>
+        <v>44129</v>
       </c>
       <c r="B14">
-        <v>81.02</v>
+        <v>79.45</v>
       </c>
       <c r="C14">
         <v>150.79</v>
       </c>
       <c r="D14">
-        <v>-46.27</v>
+        <v>-47.31</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D387"/>
+  <dimension ref="A1:D392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5772,7 +5772,7 @@
         <v>44106</v>
       </c>
       <c r="B369">
-        <v>81.95</v>
+        <v>81.94</v>
       </c>
       <c r="C369">
         <v>150.79</v>
@@ -6031,6 +6031,76 @@
       </c>
       <c r="D387">
         <v>-49.77</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B388">
+        <v>73.7</v>
+      </c>
+      <c r="C388">
+        <v>150.79</v>
+      </c>
+      <c r="D388">
+        <v>-51.13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B389">
+        <v>73.27</v>
+      </c>
+      <c r="C389">
+        <v>150.79</v>
+      </c>
+      <c r="D389">
+        <v>-51.41</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B390">
+        <v>74.39</v>
+      </c>
+      <c r="C390">
+        <v>150.79</v>
+      </c>
+      <c r="D390">
+        <v>-50.67</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
+        <v>44128</v>
+      </c>
+      <c r="B391">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C391">
+        <v>150.79</v>
+      </c>
+      <c r="D391">
+        <v>-51.66</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
+        <v>44129</v>
+      </c>
+      <c r="B392">
+        <v>71.67</v>
+      </c>
+      <c r="C392">
+        <v>150.79</v>
+      </c>
+      <c r="D392">
+        <v>-52.47</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43769</v>
+        <v>43799</v>
       </c>
       <c r="B2">
-        <v>69.34999999999999</v>
+        <v>111.69</v>
       </c>
       <c r="C2">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D2">
-        <v>-54.01</v>
+        <v>-20.57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B3">
-        <v>111.69</v>
+        <v>105.52</v>
       </c>
       <c r="C3">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D3">
-        <v>-20.57</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B4">
-        <v>105.52</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C4">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D4">
-        <v>-13.27</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B5">
-        <v>85.51000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="C5">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D5">
-        <v>-25.46</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B6">
-        <v>94.27</v>
+        <v>78.78</v>
       </c>
       <c r="C6">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D6">
-        <v>-18.6</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B7">
-        <v>78.78</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C7">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D7">
-        <v>-26.56</v>
+        <v>-41.13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B8">
-        <v>64.23999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="C8">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D8">
-        <v>-41.13</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B9">
-        <v>89.79000000000001</v>
+        <v>151.59</v>
       </c>
       <c r="C9">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D9">
-        <v>-29.85</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B10">
-        <v>151.59</v>
+        <v>125.48</v>
       </c>
       <c r="C10">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D10">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B11">
-        <v>125.48</v>
+        <v>120.3</v>
       </c>
       <c r="C11">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D11">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B12">
-        <v>120.3</v>
+        <v>90.48</v>
       </c>
       <c r="C12">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D12">
-        <v>1.32</v>
+        <v>-26.98</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B13">
-        <v>90.48</v>
+        <v>77.83</v>
       </c>
       <c r="C13">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D13">
-        <v>-26.98</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B14">
-        <v>79.45</v>
-      </c>
-      <c r="C14">
-        <v>150.79</v>
-      </c>
-      <c r="D14">
-        <v>-47.31</v>
+        <v>-48.38</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D392"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5476 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B2">
-        <v>66.55</v>
+        <v>78.73</v>
       </c>
       <c r="C2">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D2">
-        <v>-55.87</v>
+        <v>-44.01</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43740</v>
+        <v>43771</v>
       </c>
       <c r="B3">
-        <v>65.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D3">
-        <v>-56.3</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43741</v>
+        <v>43772</v>
       </c>
       <c r="B4">
-        <v>66.06</v>
+        <v>78.18000000000001</v>
       </c>
       <c r="C4">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D4">
-        <v>-56.19</v>
+        <v>-44.41</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43742</v>
+        <v>43773</v>
       </c>
       <c r="B5">
-        <v>70.92</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C5">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D5">
-        <v>-52.97</v>
+        <v>-44.23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43743</v>
+        <v>43774</v>
       </c>
       <c r="B6">
-        <v>70.29000000000001</v>
+        <v>90.31</v>
       </c>
       <c r="C6">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D6">
-        <v>-53.39</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43744</v>
+        <v>43775</v>
       </c>
       <c r="B7">
-        <v>68.95999999999999</v>
+        <v>102.94</v>
       </c>
       <c r="C7">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D7">
-        <v>-54.27</v>
+        <v>-26.8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43745</v>
+        <v>43776</v>
       </c>
       <c r="B8">
-        <v>70.81999999999999</v>
+        <v>105.12</v>
       </c>
       <c r="C8">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D8">
-        <v>-53.03</v>
+        <v>-25.24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43746</v>
+        <v>43777</v>
       </c>
       <c r="B9">
-        <v>74.86</v>
+        <v>109.62</v>
       </c>
       <c r="C9">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D9">
-        <v>-50.35</v>
+        <v>-22.04</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43747</v>
+        <v>43778</v>
       </c>
       <c r="B10">
-        <v>71.45</v>
+        <v>106.3</v>
       </c>
       <c r="C10">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D10">
-        <v>-52.62</v>
+        <v>-24.41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43748</v>
+        <v>43779</v>
       </c>
       <c r="B11">
-        <v>70.22</v>
+        <v>114.33</v>
       </c>
       <c r="C11">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D11">
-        <v>-53.43</v>
+        <v>-18.7</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43749</v>
+        <v>43780</v>
       </c>
       <c r="B12">
-        <v>70.69</v>
+        <v>133.14</v>
       </c>
       <c r="C12">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D12">
-        <v>-53.12</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43750</v>
+        <v>43781</v>
       </c>
       <c r="B13">
-        <v>70.47</v>
+        <v>141.71</v>
       </c>
       <c r="C13">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D13">
-        <v>-53.27</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43751</v>
+        <v>43782</v>
       </c>
       <c r="B14">
-        <v>69.34999999999999</v>
+        <v>128.15</v>
       </c>
       <c r="C14">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D14">
-        <v>-54.01</v>
+        <v>-8.869999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43752</v>
+        <v>43783</v>
       </c>
       <c r="B15">
-        <v>69.03</v>
+        <v>136.68</v>
       </c>
       <c r="C15">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D15">
-        <v>-54.22</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43753</v>
+        <v>43784</v>
       </c>
       <c r="B16">
-        <v>66.95</v>
+        <v>155.66</v>
       </c>
       <c r="C16">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D16">
-        <v>-55.6</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43754</v>
+        <v>43785</v>
       </c>
       <c r="B17">
-        <v>66.27</v>
+        <v>159.29</v>
       </c>
       <c r="C17">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D17">
-        <v>-56.05</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43755</v>
+        <v>43786</v>
       </c>
       <c r="B18">
-        <v>66.42</v>
+        <v>142.36</v>
       </c>
       <c r="C18">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D18">
-        <v>-55.96</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43756</v>
+        <v>43787</v>
       </c>
       <c r="B19">
-        <v>66.09999999999999</v>
+        <v>127.58</v>
       </c>
       <c r="C19">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D19">
-        <v>-56.16</v>
+        <v>-9.27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43757</v>
+        <v>43788</v>
       </c>
       <c r="B20">
-        <v>63.71</v>
+        <v>116.22</v>
       </c>
       <c r="C20">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D20">
-        <v>-57.75</v>
+        <v>-17.35</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43758</v>
+        <v>43789</v>
       </c>
       <c r="B21">
-        <v>62.65</v>
+        <v>110.39</v>
       </c>
       <c r="C21">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D21">
-        <v>-58.45</v>
+        <v>-21.5</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43759</v>
+        <v>43790</v>
       </c>
       <c r="B22">
-        <v>67.44</v>
+        <v>103.69</v>
       </c>
       <c r="C22">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D22">
-        <v>-55.28</v>
+        <v>-26.27</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43760</v>
+        <v>43791</v>
       </c>
       <c r="B23">
-        <v>67.81</v>
+        <v>100.17</v>
       </c>
       <c r="C23">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D23">
-        <v>-55.03</v>
+        <v>-28.77</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43761</v>
+        <v>43792</v>
       </c>
       <c r="B24">
-        <v>69.81999999999999</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C24">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D24">
-        <v>-53.7</v>
+        <v>-31.5</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43762</v>
+        <v>43793</v>
       </c>
       <c r="B25">
-        <v>75.14</v>
+        <v>94.52</v>
       </c>
       <c r="C25">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D25">
-        <v>-50.17</v>
+        <v>-32.79</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43763</v>
+        <v>43794</v>
       </c>
       <c r="B26">
-        <v>70.06</v>
+        <v>91.25</v>
       </c>
       <c r="C26">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D26">
-        <v>-53.54</v>
+        <v>-35.11</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43764</v>
+        <v>43795</v>
       </c>
       <c r="B27">
-        <v>68.89</v>
+        <v>89.23</v>
       </c>
       <c r="C27">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D27">
-        <v>-54.32</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43765</v>
+        <v>43796</v>
       </c>
       <c r="B28">
-        <v>68.09</v>
+        <v>95.12</v>
       </c>
       <c r="C28">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D28">
-        <v>-54.84</v>
+        <v>-32.35</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43766</v>
+        <v>43797</v>
       </c>
       <c r="B29">
-        <v>70.55</v>
+        <v>119.79</v>
       </c>
       <c r="C29">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D29">
-        <v>-53.21</v>
+        <v>-14.81</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43767</v>
+        <v>43798</v>
       </c>
       <c r="B30">
-        <v>72.92</v>
+        <v>141.33</v>
       </c>
       <c r="C30">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D30">
-        <v>-51.64</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43768</v>
+        <v>43799</v>
       </c>
       <c r="B31">
-        <v>75.84999999999999</v>
+        <v>126.27</v>
       </c>
       <c r="C31">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D31">
-        <v>-49.7</v>
+        <v>-10.21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43769</v>
+        <v>43800</v>
       </c>
       <c r="B32">
-        <v>75.68000000000001</v>
+        <v>114.39</v>
       </c>
       <c r="C32">
-        <v>150.79</v>
+        <v>121.66</v>
       </c>
       <c r="D32">
-        <v>-49.81</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43770</v>
+        <v>43801</v>
       </c>
       <c r="B33">
-        <v>78.73</v>
+        <v>105.81</v>
       </c>
       <c r="C33">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D33">
-        <v>-44.01</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43771</v>
+        <v>43802</v>
       </c>
       <c r="B34">
-        <v>78</v>
+        <v>98.89</v>
       </c>
       <c r="C34">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D34">
-        <v>-44.53</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43772</v>
+        <v>43803</v>
       </c>
       <c r="B35">
-        <v>78.18000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="C35">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D35">
-        <v>-44.41</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43773</v>
+        <v>43804</v>
       </c>
       <c r="B36">
-        <v>78.43000000000001</v>
+        <v>102.56</v>
       </c>
       <c r="C36">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D36">
-        <v>-44.23</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43774</v>
+        <v>43805</v>
       </c>
       <c r="B37">
-        <v>90.31</v>
+        <v>114.86</v>
       </c>
       <c r="C37">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D37">
-        <v>-35.78</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43775</v>
+        <v>43806</v>
       </c>
       <c r="B38">
-        <v>102.94</v>
+        <v>109.06</v>
       </c>
       <c r="C38">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D38">
-        <v>-26.8</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43776</v>
+        <v>43807</v>
       </c>
       <c r="B39">
-        <v>105.12</v>
+        <v>104.52</v>
       </c>
       <c r="C39">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D39">
-        <v>-25.24</v>
+        <v>-14.09</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43777</v>
+        <v>43808</v>
       </c>
       <c r="B40">
-        <v>109.62</v>
+        <v>100.28</v>
       </c>
       <c r="C40">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D40">
-        <v>-22.04</v>
+        <v>-17.57</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43778</v>
+        <v>43809</v>
       </c>
       <c r="B41">
-        <v>106.3</v>
+        <v>97.44</v>
       </c>
       <c r="C41">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D41">
-        <v>-24.41</v>
+        <v>-19.91</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43779</v>
+        <v>43810</v>
       </c>
       <c r="B42">
-        <v>114.33</v>
+        <v>97.53</v>
       </c>
       <c r="C42">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D42">
-        <v>-18.7</v>
+        <v>-19.83</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43780</v>
+        <v>43811</v>
       </c>
       <c r="B43">
-        <v>133.14</v>
+        <v>97.64</v>
       </c>
       <c r="C43">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D43">
-        <v>-5.33</v>
+        <v>-19.74</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43781</v>
+        <v>43812</v>
       </c>
       <c r="B44">
-        <v>141.71</v>
+        <v>96.66</v>
       </c>
       <c r="C44">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D44">
-        <v>0.77</v>
+        <v>-20.55</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43782</v>
+        <v>43813</v>
       </c>
       <c r="B45">
-        <v>128.15</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="C45">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D45">
-        <v>-8.869999999999999</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43783</v>
+        <v>43814</v>
       </c>
       <c r="B46">
-        <v>136.68</v>
+        <v>96.41</v>
       </c>
       <c r="C46">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D46">
-        <v>-2.81</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43784</v>
+        <v>43815</v>
       </c>
       <c r="B47">
-        <v>155.66</v>
+        <v>113.16</v>
       </c>
       <c r="C47">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D47">
-        <v>10.69</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43785</v>
+        <v>43816</v>
       </c>
       <c r="B48">
-        <v>159.29</v>
+        <v>126.32</v>
       </c>
       <c r="C48">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D48">
-        <v>13.28</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43786</v>
+        <v>43817</v>
       </c>
       <c r="B49">
-        <v>142.36</v>
+        <v>140.45</v>
       </c>
       <c r="C49">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D49">
-        <v>1.24</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43787</v>
+        <v>43818</v>
       </c>
       <c r="B50">
-        <v>127.58</v>
+        <v>134.61</v>
       </c>
       <c r="C50">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D50">
-        <v>-9.27</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43788</v>
+        <v>43819</v>
       </c>
       <c r="B51">
-        <v>116.22</v>
+        <v>125.88</v>
       </c>
       <c r="C51">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D51">
-        <v>-17.35</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43789</v>
+        <v>43820</v>
       </c>
       <c r="B52">
-        <v>110.39</v>
+        <v>121.88</v>
       </c>
       <c r="C52">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D52">
-        <v>-21.5</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43790</v>
+        <v>43821</v>
       </c>
       <c r="B53">
-        <v>103.69</v>
+        <v>116.14</v>
       </c>
       <c r="C53">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D53">
-        <v>-26.27</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43791</v>
+        <v>43822</v>
       </c>
       <c r="B54">
-        <v>100.17</v>
+        <v>110.85</v>
       </c>
       <c r="C54">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D54">
-        <v>-28.77</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43792</v>
+        <v>43823</v>
       </c>
       <c r="B55">
-        <v>96.31999999999999</v>
+        <v>106.47</v>
       </c>
       <c r="C55">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D55">
-        <v>-31.5</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43793</v>
+        <v>43824</v>
       </c>
       <c r="B56">
-        <v>94.52</v>
+        <v>101.73</v>
       </c>
       <c r="C56">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D56">
-        <v>-32.79</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43794</v>
+        <v>43825</v>
       </c>
       <c r="B57">
-        <v>91.25</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C57">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D57">
-        <v>-35.11</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43795</v>
+        <v>43826</v>
       </c>
       <c r="B58">
-        <v>89.23</v>
+        <v>94.23</v>
       </c>
       <c r="C58">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D58">
-        <v>-36.55</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43796</v>
+        <v>43827</v>
       </c>
       <c r="B59">
-        <v>95.12</v>
+        <v>91.77</v>
       </c>
       <c r="C59">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D59">
-        <v>-32.35</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43797</v>
+        <v>43828</v>
       </c>
       <c r="B60">
-        <v>119.79</v>
+        <v>89.31</v>
       </c>
       <c r="C60">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D60">
-        <v>-14.81</v>
+        <v>-26.59</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43798</v>
+        <v>43829</v>
       </c>
       <c r="B61">
-        <v>141.33</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C61">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D61">
-        <v>0.5</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B62">
-        <v>126.27</v>
+        <v>85.91</v>
       </c>
       <c r="C62">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D62">
-        <v>-10.21</v>
+        <v>-29.39</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B63">
-        <v>114.39</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="C63">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D63">
-        <v>-5.98</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B64">
-        <v>105.81</v>
+        <v>86.78</v>
       </c>
       <c r="C64">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D64">
-        <v>-13.03</v>
+        <v>-24.35</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B65">
-        <v>98.89</v>
+        <v>88.05</v>
       </c>
       <c r="C65">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D65">
-        <v>-18.72</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B66">
-        <v>96.70999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="C66">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D66">
-        <v>-20.51</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B67">
-        <v>102.56</v>
+        <v>85.06</v>
       </c>
       <c r="C67">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D67">
-        <v>-15.69</v>
+        <v>-25.85</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B68">
-        <v>114.86</v>
+        <v>83.14</v>
       </c>
       <c r="C68">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D68">
-        <v>-5.58</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B69">
-        <v>109.06</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C69">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D69">
-        <v>-10.35</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B70">
-        <v>104.52</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C70">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D70">
-        <v>-14.09</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B71">
-        <v>100.28</v>
+        <v>79.84</v>
       </c>
       <c r="C71">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D71">
-        <v>-17.57</v>
+        <v>-30.4</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B72">
-        <v>97.44</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C72">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D72">
-        <v>-19.91</v>
+        <v>-28.31</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B73">
-        <v>97.53</v>
+        <v>92.91</v>
       </c>
       <c r="C73">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D73">
-        <v>-19.83</v>
+        <v>-19.01</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B74">
-        <v>97.64</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C74">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D74">
-        <v>-19.74</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B75">
-        <v>96.66</v>
+        <v>98.19</v>
       </c>
       <c r="C75">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D75">
-        <v>-20.55</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B76">
-        <v>95.23999999999999</v>
+        <v>97.77</v>
       </c>
       <c r="C76">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D76">
-        <v>-21.71</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B77">
-        <v>96.41</v>
+        <v>92.33</v>
       </c>
       <c r="C77">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D77">
-        <v>-20.76</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B78">
-        <v>113.16</v>
+        <v>90.16</v>
       </c>
       <c r="C78">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D78">
-        <v>-6.99</v>
+        <v>-21.41</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B79">
-        <v>126.32</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C79">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D79">
-        <v>3.84</v>
+        <v>-17.44</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B80">
-        <v>140.45</v>
+        <v>92.47</v>
       </c>
       <c r="C80">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D80">
-        <v>15.45</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B81">
-        <v>134.61</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="C81">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D81">
-        <v>10.65</v>
+        <v>-21.42</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B82">
-        <v>125.88</v>
+        <v>85.81</v>
       </c>
       <c r="C82">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D82">
-        <v>3.47</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B83">
-        <v>121.88</v>
+        <v>82.5</v>
       </c>
       <c r="C83">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D83">
-        <v>0.18</v>
+        <v>-28.08</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B84">
-        <v>116.14</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C84">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D84">
-        <v>-4.54</v>
+        <v>-27.18</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B85">
-        <v>110.85</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C85">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D85">
-        <v>-8.880000000000001</v>
+        <v>-29.82</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B86">
-        <v>106.47</v>
+        <v>80.39</v>
       </c>
       <c r="C86">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D86">
-        <v>-12.48</v>
+        <v>-29.93</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B87">
-        <v>101.73</v>
+        <v>79.81</v>
       </c>
       <c r="C87">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D87">
-        <v>-16.38</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B88">
-        <v>97.34999999999999</v>
+        <v>76.78</v>
       </c>
       <c r="C88">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D88">
-        <v>-19.98</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B89">
-        <v>94.23</v>
+        <v>75.11</v>
       </c>
       <c r="C89">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D89">
-        <v>-22.54</v>
+        <v>-34.52</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B90">
-        <v>91.77</v>
+        <v>73.59</v>
       </c>
       <c r="C90">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D90">
-        <v>-24.57</v>
+        <v>-35.85</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B91">
-        <v>89.31</v>
+        <v>73.41</v>
       </c>
       <c r="C91">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D91">
-        <v>-26.59</v>
+        <v>-36.01</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B92">
-        <v>86.98999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="C92">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D92">
-        <v>-28.5</v>
+        <v>-30.86</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B93">
-        <v>85.91</v>
+        <v>93.23</v>
       </c>
       <c r="C93">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D93">
-        <v>-29.39</v>
+        <v>-18.73</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B94">
-        <v>85.73999999999999</v>
+        <v>120.88</v>
       </c>
       <c r="C94">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D94">
-        <v>-25.26</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B95">
-        <v>86.78</v>
+        <v>118.7</v>
       </c>
       <c r="C95">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D95">
-        <v>-24.35</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B96">
-        <v>88.05</v>
+        <v>120.65</v>
       </c>
       <c r="C96">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D96">
-        <v>-23.25</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B97">
-        <v>87.19</v>
+        <v>114.47</v>
       </c>
       <c r="C97">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D97">
-        <v>-24</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B98">
-        <v>85.06</v>
+        <v>107.43</v>
       </c>
       <c r="C98">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D98">
-        <v>-25.85</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B99">
-        <v>83.14</v>
+        <v>100.39</v>
       </c>
       <c r="C99">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D99">
-        <v>-27.53</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B100">
-        <v>81.23999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C100">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D100">
-        <v>-29.18</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B101">
-        <v>79.81999999999999</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C101">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D101">
-        <v>-30.42</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B102">
-        <v>79.84</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C102">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D102">
-        <v>-30.4</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B103">
-        <v>82.23999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="C103">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D103">
-        <v>-28.31</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B104">
-        <v>92.91</v>
+        <v>89.55</v>
       </c>
       <c r="C104">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D104">
-        <v>-19.01</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B105">
-        <v>99.01000000000001</v>
+        <v>91.88</v>
       </c>
       <c r="C105">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D105">
-        <v>-13.69</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B106">
-        <v>98.19</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C106">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D106">
-        <v>-14.41</v>
+        <v>-25.61</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B107">
-        <v>97.77</v>
+        <v>82.5</v>
       </c>
       <c r="C107">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D107">
-        <v>-14.77</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B108">
-        <v>92.33</v>
+        <v>81.14</v>
       </c>
       <c r="C108">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D108">
-        <v>-19.51</v>
+        <v>-29.94</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B109">
-        <v>90.16</v>
+        <v>78.66</v>
       </c>
       <c r="C109">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D109">
-        <v>-21.41</v>
+        <v>-32.08</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B110">
-        <v>94.70999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C110">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D110">
-        <v>-17.44</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B111">
-        <v>92.47</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C111">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D111">
-        <v>-19.4</v>
+        <v>-34.07</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B112">
-        <v>90.15000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C112">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D112">
-        <v>-21.42</v>
+        <v>-31.83</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B113">
-        <v>85.81</v>
+        <v>76.77</v>
       </c>
       <c r="C113">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D113">
-        <v>-25.2</v>
+        <v>-33.71</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B114">
-        <v>82.5</v>
+        <v>74.33</v>
       </c>
       <c r="C114">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D114">
-        <v>-28.08</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B115">
-        <v>83.54000000000001</v>
+        <v>69.28</v>
       </c>
       <c r="C115">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D115">
-        <v>-27.18</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B116">
-        <v>80.51000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C116">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D116">
-        <v>-29.82</v>
+        <v>-37.23</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B117">
-        <v>80.39</v>
+        <v>71.12</v>
       </c>
       <c r="C117">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D117">
-        <v>-29.93</v>
+        <v>-38.58</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B118">
-        <v>79.81</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C118">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D118">
-        <v>-30.43</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B119">
-        <v>76.78</v>
+        <v>121.18</v>
       </c>
       <c r="C119">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D119">
-        <v>-33.07</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B120">
-        <v>75.11</v>
+        <v>154.98</v>
       </c>
       <c r="C120">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D120">
-        <v>-34.52</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B121">
-        <v>73.59</v>
+        <v>127.87</v>
       </c>
       <c r="C121">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D121">
-        <v>-35.85</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B122">
-        <v>73.41</v>
+        <v>112.27</v>
       </c>
       <c r="C122">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D122">
-        <v>-36.01</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B123">
-        <v>79.31</v>
+        <v>104.91</v>
       </c>
       <c r="C123">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D123">
-        <v>-30.86</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B124">
-        <v>93.23</v>
+        <v>97.91</v>
       </c>
       <c r="C124">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D124">
-        <v>-18.73</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B125">
-        <v>120.88</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C125">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D125">
-        <v>4.37</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B126">
-        <v>118.7</v>
+        <v>91.27</v>
       </c>
       <c r="C126">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D126">
-        <v>2.49</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B127">
-        <v>120.65</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="C127">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D127">
-        <v>4.18</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B128">
-        <v>114.47</v>
+        <v>84.34</v>
       </c>
       <c r="C128">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D128">
-        <v>-1.16</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B129">
-        <v>107.43</v>
+        <v>82.19</v>
       </c>
       <c r="C129">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D129">
-        <v>-7.24</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B130">
-        <v>100.39</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C130">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D130">
-        <v>-13.32</v>
+        <v>-24.95</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B131">
-        <v>95.3</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C131">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D131">
-        <v>-17.71</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B132">
-        <v>89.29000000000001</v>
+        <v>78.25</v>
       </c>
       <c r="C132">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D132">
-        <v>-22.9</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B133">
-        <v>87.84999999999999</v>
+        <v>80.05</v>
       </c>
       <c r="C133">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D133">
-        <v>-24.14</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B134">
-        <v>87.42</v>
+        <v>77.22</v>
       </c>
       <c r="C134">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D134">
-        <v>-24.52</v>
+        <v>-28.02</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B135">
-        <v>89.55</v>
+        <v>74.05</v>
       </c>
       <c r="C135">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D135">
-        <v>-22.67</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B136">
-        <v>91.88</v>
+        <v>77.17</v>
       </c>
       <c r="C136">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D136">
-        <v>-20.67</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B137">
-        <v>86.15000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C137">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D137">
-        <v>-25.61</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B138">
-        <v>82.5</v>
+        <v>70.94</v>
       </c>
       <c r="C138">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D138">
-        <v>-28.76</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B139">
-        <v>81.14</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C139">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D139">
-        <v>-29.94</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B140">
-        <v>78.66</v>
+        <v>70.69</v>
       </c>
       <c r="C140">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D140">
-        <v>-32.08</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B141">
-        <v>74.65000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="C141">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D141">
-        <v>-35.54</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B142">
-        <v>76.34999999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C142">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D142">
-        <v>-34.07</v>
+        <v>-20.43</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B143">
-        <v>78.95</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C143">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D143">
-        <v>-31.83</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B144">
-        <v>76.77</v>
+        <v>83</v>
       </c>
       <c r="C144">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D144">
-        <v>-33.71</v>
+        <v>-22.63</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B145">
-        <v>74.33</v>
+        <v>77.03</v>
       </c>
       <c r="C145">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D145">
-        <v>-35.81</v>
+        <v>-28.19</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B146">
-        <v>69.28</v>
+        <v>75.14</v>
       </c>
       <c r="C146">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D146">
-        <v>-40.18</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B147">
-        <v>72.7</v>
+        <v>74.05</v>
       </c>
       <c r="C147">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D147">
-        <v>-37.23</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B148">
-        <v>71.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C148">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D148">
-        <v>-38.58</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B149">
-        <v>71.09999999999999</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C149">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D149">
-        <v>-38.6</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B150">
-        <v>121.18</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C150">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D150">
-        <v>4.63</v>
+        <v>-35.58</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B151">
-        <v>154.98</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C151">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D151">
-        <v>33.82</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B152">
-        <v>127.87</v>
+        <v>63.99</v>
       </c>
       <c r="C152">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D152">
-        <v>10.41</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B153">
-        <v>112.27</v>
+        <v>66.53</v>
       </c>
       <c r="C153">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D153">
-        <v>-3.06</v>
+        <v>-37.98</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B154">
-        <v>104.91</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C154">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D154">
-        <v>-2.21</v>
+        <v>-39.7</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B155">
-        <v>97.91</v>
+        <v>68.42</v>
       </c>
       <c r="C155">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D155">
-        <v>-8.73</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B156">
-        <v>93.18000000000001</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C156">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D156">
-        <v>-13.14</v>
+        <v>-40.27</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B157">
-        <v>91.27</v>
+        <v>63.12</v>
       </c>
       <c r="C157">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D157">
-        <v>-14.92</v>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B158">
-        <v>86.48999999999999</v>
+        <v>62.56</v>
       </c>
       <c r="C158">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D158">
-        <v>-19.37</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B159">
-        <v>84.34</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C159">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D159">
-        <v>-21.38</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B160">
-        <v>82.19</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C160">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D160">
-        <v>-23.39</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B161">
-        <v>80.51000000000001</v>
+        <v>69.75</v>
       </c>
       <c r="C161">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D161">
-        <v>-24.95</v>
+        <v>-36.07</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B162">
-        <v>81.56999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C162">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D162">
-        <v>-23.96</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B163">
-        <v>78.25</v>
+        <v>69.62</v>
       </c>
       <c r="C163">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D163">
-        <v>-27.06</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B164">
-        <v>80.05</v>
+        <v>68.02</v>
       </c>
       <c r="C164">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D164">
-        <v>-25.38</v>
+        <v>-37.66</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B165">
-        <v>77.22</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C165">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D165">
-        <v>-28.02</v>
+        <v>-39.96</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B166">
-        <v>74.05</v>
+        <v>62.9</v>
       </c>
       <c r="C166">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D166">
-        <v>-30.97</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B167">
-        <v>77.17</v>
+        <v>69.23</v>
       </c>
       <c r="C167">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D167">
-        <v>-28.07</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B168">
-        <v>74.3</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C168">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D168">
-        <v>-30.74</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B169">
-        <v>70.94</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C169">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D169">
-        <v>-33.87</v>
+        <v>-38.63</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B170">
-        <v>69.51000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="C170">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D170">
-        <v>-35.2</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B171">
-        <v>70.69</v>
+        <v>65.27</v>
       </c>
       <c r="C171">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D171">
-        <v>-34.11</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B172">
-        <v>76.33</v>
+        <v>65.84</v>
       </c>
       <c r="C172">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D172">
-        <v>-28.84</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B173">
-        <v>85.34999999999999</v>
+        <v>63.15</v>
       </c>
       <c r="C173">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D173">
-        <v>-20.43</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B174">
-        <v>88.31999999999999</v>
+        <v>64</v>
       </c>
       <c r="C174">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D174">
-        <v>-17.67</v>
+        <v>-41.34</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B175">
-        <v>83</v>
+        <v>61.79</v>
       </c>
       <c r="C175">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D175">
-        <v>-22.63</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B176">
-        <v>77.03</v>
+        <v>60.36</v>
       </c>
       <c r="C176">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D176">
-        <v>-28.19</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B177">
-        <v>75.14</v>
+        <v>60.67</v>
       </c>
       <c r="C177">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D177">
-        <v>-29.96</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B178">
-        <v>74.05</v>
+        <v>59.35</v>
       </c>
       <c r="C178">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D178">
-        <v>-30.97</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B179">
-        <v>71.81999999999999</v>
+        <v>59.79</v>
       </c>
       <c r="C179">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D179">
-        <v>-33.05</v>
+        <v>-45.2</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B180">
-        <v>70.84999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C180">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D180">
-        <v>-33.95</v>
+        <v>-44.32</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B181">
-        <v>69.09999999999999</v>
+        <v>57.81</v>
       </c>
       <c r="C181">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D181">
-        <v>-35.58</v>
+        <v>-47.02</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B182">
-        <v>66.06999999999999</v>
+        <v>56.32</v>
       </c>
       <c r="C182">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D182">
-        <v>-38.41</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B183">
-        <v>63.99</v>
+        <v>53.63</v>
       </c>
       <c r="C183">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D183">
-        <v>-40.35</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B184">
-        <v>66.53</v>
+        <v>53.96</v>
       </c>
       <c r="C184">
-        <v>107.27</v>
+        <v>128</v>
       </c>
       <c r="D184">
-        <v>-37.98</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B185">
-        <v>65.79000000000001</v>
+        <v>54.47</v>
       </c>
       <c r="C185">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D185">
-        <v>-39.7</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B186">
-        <v>68.42</v>
+        <v>54.7</v>
       </c>
       <c r="C186">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D186">
-        <v>-37.3</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B187">
-        <v>65.18000000000001</v>
+        <v>53.75</v>
       </c>
       <c r="C187">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D187">
-        <v>-40.27</v>
+        <v>-58.01</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B188">
-        <v>63.12</v>
+        <v>55.35</v>
       </c>
       <c r="C188">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D188">
-        <v>-42.15</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B189">
-        <v>62.56</v>
+        <v>59.28</v>
       </c>
       <c r="C189">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D189">
-        <v>-42.66</v>
+        <v>-53.69</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B190">
-        <v>65.95999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C190">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D190">
-        <v>-39.55</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B191">
-        <v>67.34999999999999</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C191">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D191">
-        <v>-38.27</v>
+        <v>-43.61</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B192">
-        <v>69.75</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C192">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D192">
-        <v>-36.07</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B193">
-        <v>71.09999999999999</v>
+        <v>68.81</v>
       </c>
       <c r="C193">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D193">
-        <v>-34.83</v>
+        <v>-46.24</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B194">
-        <v>69.62</v>
+        <v>69.45</v>
       </c>
       <c r="C194">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D194">
-        <v>-36.19</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B195">
-        <v>68.02</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C195">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D195">
-        <v>-37.66</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B196">
-        <v>65.51000000000001</v>
+        <v>82.03</v>
       </c>
       <c r="C196">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D196">
-        <v>-39.96</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B197">
-        <v>62.9</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C197">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D197">
-        <v>-42.36</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B198">
-        <v>69.23</v>
+        <v>102.78</v>
       </c>
       <c r="C198">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D198">
-        <v>-36.55</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B199">
-        <v>70.06999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="C199">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D199">
-        <v>-35.78</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B200">
-        <v>66.95999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C200">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D200">
-        <v>-38.63</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B201">
-        <v>66.87</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C201">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D201">
-        <v>-38.71</v>
+        <v>-35.74</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B202">
-        <v>65.27</v>
+        <v>77.62</v>
       </c>
       <c r="C202">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D202">
-        <v>-40.18</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B203">
-        <v>65.84</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C203">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D203">
-        <v>-39.65</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B204">
-        <v>63.15</v>
+        <v>73.7</v>
       </c>
       <c r="C204">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D204">
-        <v>-42.13</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B205">
-        <v>64</v>
+        <v>112.64</v>
       </c>
       <c r="C205">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D205">
-        <v>-41.34</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B206">
-        <v>61.79</v>
+        <v>154.82</v>
       </c>
       <c r="C206">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D206">
-        <v>-43.37</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B207">
-        <v>60.36</v>
+        <v>169.34</v>
       </c>
       <c r="C207">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D207">
-        <v>-44.68</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B208">
-        <v>60.67</v>
+        <v>152.41</v>
       </c>
       <c r="C208">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D208">
-        <v>-44.4</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B209">
-        <v>59.35</v>
+        <v>135.22</v>
       </c>
       <c r="C209">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D209">
-        <v>-45.6</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B210">
-        <v>59.79</v>
+        <v>122.32</v>
       </c>
       <c r="C210">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D210">
-        <v>-45.2</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B211">
-        <v>60.75</v>
+        <v>111.53</v>
       </c>
       <c r="C211">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D211">
-        <v>-44.32</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B212">
-        <v>57.81</v>
+        <v>105.05</v>
       </c>
       <c r="C212">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D212">
-        <v>-47.02</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B213">
-        <v>56.32</v>
+        <v>100.22</v>
       </c>
       <c r="C213">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D213">
-        <v>-48.38</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B214">
-        <v>53.63</v>
+        <v>96.67</v>
       </c>
       <c r="C214">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D214">
-        <v>-50.85</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B215">
-        <v>53.96</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C215">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D215">
-        <v>-57.85</v>
+        <v>-31.31</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B216">
-        <v>54.47</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C216">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D216">
-        <v>-57.45</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B217">
-        <v>54.7</v>
+        <v>91.53</v>
       </c>
       <c r="C217">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D217">
-        <v>-57.27</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B218">
-        <v>53.75</v>
+        <v>94.69</v>
       </c>
       <c r="C218">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D218">
-        <v>-58.01</v>
+        <v>-31.57</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B219">
-        <v>55.35</v>
+        <v>125.85</v>
       </c>
       <c r="C219">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D219">
-        <v>-56.76</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B220">
-        <v>59.28</v>
+        <v>153.61</v>
       </c>
       <c r="C220">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D220">
-        <v>-53.69</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B221">
-        <v>69.28</v>
+        <v>163.02</v>
       </c>
       <c r="C221">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D221">
-        <v>-45.88</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B222">
-        <v>72.18000000000001</v>
+        <v>147.54</v>
       </c>
       <c r="C222">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D222">
-        <v>-43.61</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B223">
-        <v>70.73999999999999</v>
+        <v>145.65</v>
       </c>
       <c r="C223">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D223">
-        <v>-44.74</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B224">
-        <v>68.81</v>
+        <v>278</v>
       </c>
       <c r="C224">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D224">
-        <v>-46.24</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B225">
-        <v>69.45</v>
+        <v>259.32</v>
       </c>
       <c r="C225">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D225">
-        <v>-45.75</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B226">
-        <v>66.98999999999999</v>
+        <v>251.39</v>
       </c>
       <c r="C226">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D226">
-        <v>-47.67</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B227">
-        <v>82.03</v>
+        <v>226.04</v>
       </c>
       <c r="C227">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D227">
-        <v>-35.91</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B228">
-        <v>95.04000000000001</v>
+        <v>206.4</v>
       </c>
       <c r="C228">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D228">
-        <v>-25.75</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B229">
-        <v>102.78</v>
+        <v>190</v>
       </c>
       <c r="C229">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D229">
-        <v>-19.7</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B230">
-        <v>96.61</v>
+        <v>176.32</v>
       </c>
       <c r="C230">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D230">
-        <v>-24.52</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B231">
-        <v>87.8</v>
+        <v>163.4</v>
       </c>
       <c r="C231">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D231">
-        <v>-31.41</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B232">
-        <v>82.26000000000001</v>
+        <v>153.78</v>
       </c>
       <c r="C232">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D232">
-        <v>-35.74</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B233">
-        <v>77.62</v>
+        <v>146.42</v>
       </c>
       <c r="C233">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D233">
-        <v>-39.36</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B234">
-        <v>76.56999999999999</v>
+        <v>140.38</v>
       </c>
       <c r="C234">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D234">
-        <v>-40.18</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B235">
-        <v>73.7</v>
+        <v>134.93</v>
       </c>
       <c r="C235">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D235">
-        <v>-42.43</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B236">
-        <v>112.64</v>
+        <v>130.01</v>
       </c>
       <c r="C236">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D236">
-        <v>-12.01</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B237">
-        <v>154.82</v>
+        <v>126.22</v>
       </c>
       <c r="C237">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D237">
-        <v>20.95</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B238">
-        <v>169.34</v>
+        <v>122.99</v>
       </c>
       <c r="C238">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D238">
-        <v>32.3</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B239">
-        <v>152.41</v>
+        <v>120.03</v>
       </c>
       <c r="C239">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D239">
-        <v>19.06</v>
+        <v>-13.25</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B240">
-        <v>135.22</v>
+        <v>123.12</v>
       </c>
       <c r="C240">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D240">
-        <v>5.64</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B241">
-        <v>122.32</v>
+        <v>125.24</v>
       </c>
       <c r="C241">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D241">
-        <v>-4.44</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B242">
-        <v>111.53</v>
+        <v>122.99</v>
       </c>
       <c r="C242">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D242">
-        <v>-12.87</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B243">
-        <v>105.05</v>
+        <v>120.39</v>
       </c>
       <c r="C243">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D243">
-        <v>-17.93</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B244">
-        <v>100.22</v>
+        <v>119.67</v>
       </c>
       <c r="C244">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D244">
-        <v>-21.71</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B245">
-        <v>96.67</v>
+        <v>135.98</v>
       </c>
       <c r="C245">
-        <v>128</v>
+        <v>131.62</v>
       </c>
       <c r="D245">
-        <v>-24.48</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B246">
-        <v>95.04000000000001</v>
+        <v>157.81</v>
       </c>
       <c r="C246">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D246">
-        <v>-31.31</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B247">
-        <v>93.76000000000001</v>
+        <v>147.03</v>
       </c>
       <c r="C247">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D247">
-        <v>-32.24</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B248">
-        <v>91.53</v>
+        <v>137.25</v>
       </c>
       <c r="C248">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D248">
-        <v>-33.85</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B249">
-        <v>94.69</v>
+        <v>128.27</v>
       </c>
       <c r="C249">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D249">
-        <v>-31.57</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B250">
-        <v>125.85</v>
+        <v>122.45</v>
       </c>
       <c r="C250">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D250">
-        <v>-9.050000000000001</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B251">
-        <v>153.61</v>
+        <v>123.52</v>
       </c>
       <c r="C251">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D251">
-        <v>11.02</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B252">
-        <v>163.02</v>
+        <v>140.43</v>
       </c>
       <c r="C252">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D252">
-        <v>17.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B253">
-        <v>147.54</v>
+        <v>158.15</v>
       </c>
       <c r="C253">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D253">
-        <v>6.63</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B254">
-        <v>145.65</v>
+        <v>170.08</v>
       </c>
       <c r="C254">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D254">
-        <v>5.26</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B255">
-        <v>278</v>
+        <v>157.05</v>
       </c>
       <c r="C255">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D255">
-        <v>100.91</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B256">
-        <v>259.32</v>
+        <v>146.65</v>
       </c>
       <c r="C256">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D256">
-        <v>87.41</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B257">
-        <v>251.39</v>
+        <v>140.3</v>
       </c>
       <c r="C257">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D257">
-        <v>81.68000000000001</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B258">
-        <v>226.04</v>
+        <v>134.47</v>
       </c>
       <c r="C258">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D258">
-        <v>63.36</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B259">
-        <v>206.4</v>
+        <v>130.05</v>
       </c>
       <c r="C259">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D259">
-        <v>49.16</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B260">
-        <v>190</v>
+        <v>125.01</v>
       </c>
       <c r="C260">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D260">
-        <v>37.31</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B261">
-        <v>176.32</v>
+        <v>121.39</v>
       </c>
       <c r="C261">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D261">
-        <v>27.43</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B262">
-        <v>163.4</v>
+        <v>119.31</v>
       </c>
       <c r="C262">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D262">
-        <v>18.09</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B263">
-        <v>153.78</v>
+        <v>116.15</v>
       </c>
       <c r="C263">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D263">
-        <v>11.14</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B264">
-        <v>146.42</v>
+        <v>114.07</v>
       </c>
       <c r="C264">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D264">
-        <v>5.81</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B265">
-        <v>140.38</v>
+        <v>111.75</v>
       </c>
       <c r="C265">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D265">
-        <v>1.45</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B266">
-        <v>134.93</v>
+        <v>110.18</v>
       </c>
       <c r="C266">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D266">
-        <v>-2.49</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B267">
-        <v>130.01</v>
+        <v>109</v>
       </c>
       <c r="C267">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D267">
-        <v>-6.04</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B268">
-        <v>126.22</v>
+        <v>106.52</v>
       </c>
       <c r="C268">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D268">
-        <v>-8.779999999999999</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B269">
-        <v>122.99</v>
+        <v>104.51</v>
       </c>
       <c r="C269">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D269">
-        <v>-11.12</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B270">
-        <v>120.03</v>
+        <v>104.66</v>
       </c>
       <c r="C270">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D270">
-        <v>-13.25</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B271">
-        <v>123.12</v>
+        <v>103.49</v>
       </c>
       <c r="C271">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D271">
-        <v>-11.02</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B272">
-        <v>125.24</v>
+        <v>101.41</v>
       </c>
       <c r="C272">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D272">
-        <v>-9.49</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B273">
-        <v>122.99</v>
+        <v>101.25</v>
       </c>
       <c r="C273">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D273">
-        <v>-11.12</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B274">
-        <v>120.39</v>
+        <v>105.68</v>
       </c>
       <c r="C274">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D274">
-        <v>-12.99</v>
+        <v>-19.71</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B275">
-        <v>119.67</v>
+        <v>106.08</v>
       </c>
       <c r="C275">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D275">
-        <v>-13.52</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B276">
-        <v>135.98</v>
+        <v>101.46</v>
       </c>
       <c r="C276">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D276">
-        <v>3.31</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B277">
-        <v>157.81</v>
+        <v>99.94</v>
       </c>
       <c r="C277">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D277">
-        <v>19.9</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B278">
-        <v>147.03</v>
+        <v>98.25</v>
       </c>
       <c r="C278">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D278">
-        <v>11.71</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B279">
-        <v>137.25</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C279">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D279">
-        <v>4.27</v>
+        <v>-18.93</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B280">
-        <v>128.27</v>
+        <v>94</v>
       </c>
       <c r="C280">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D280">
-        <v>-2.55</v>
+        <v>-20.83</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B281">
-        <v>122.45</v>
+        <v>91.13</v>
       </c>
       <c r="C281">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D281">
-        <v>-6.97</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B282">
-        <v>123.52</v>
+        <v>92.3</v>
       </c>
       <c r="C282">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D282">
-        <v>-6.16</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B283">
-        <v>140.43</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C283">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D283">
-        <v>6.69</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B284">
-        <v>158.15</v>
+        <v>90.38</v>
       </c>
       <c r="C284">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D284">
-        <v>20.15</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B285">
-        <v>170.08</v>
+        <v>89.64</v>
       </c>
       <c r="C285">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D285">
-        <v>29.22</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B286">
-        <v>157.05</v>
+        <v>87.31</v>
       </c>
       <c r="C286">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D286">
-        <v>19.32</v>
+        <v>-26.46</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B287">
-        <v>146.65</v>
+        <v>88.31</v>
       </c>
       <c r="C287">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D287">
-        <v>11.41</v>
+        <v>-25.62</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B288">
-        <v>140.3</v>
+        <v>100.71</v>
       </c>
       <c r="C288">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D288">
-        <v>6.59</v>
+        <v>-15.18</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B289">
-        <v>134.47</v>
+        <v>125.19</v>
       </c>
       <c r="C289">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D289">
-        <v>2.16</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B290">
-        <v>130.05</v>
+        <v>129.4</v>
       </c>
       <c r="C290">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D290">
-        <v>-1.19</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B291">
-        <v>125.01</v>
+        <v>144.85</v>
       </c>
       <c r="C291">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D291">
-        <v>-5.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B292">
-        <v>121.39</v>
+        <v>153.78</v>
       </c>
       <c r="C292">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D292">
-        <v>-7.78</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B293">
-        <v>119.31</v>
+        <v>158.61</v>
       </c>
       <c r="C293">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D293">
-        <v>-9.35</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B294">
-        <v>116.15</v>
+        <v>177.33</v>
       </c>
       <c r="C294">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D294">
-        <v>-11.76</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B295">
-        <v>114.07</v>
+        <v>183.36</v>
       </c>
       <c r="C295">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D295">
-        <v>-13.33</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B296">
-        <v>111.75</v>
+        <v>175.84</v>
       </c>
       <c r="C296">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D296">
-        <v>-15.1</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B297">
-        <v>110.18</v>
+        <v>159.39</v>
       </c>
       <c r="C297">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D297">
-        <v>-16.29</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B298">
-        <v>109</v>
+        <v>146.09</v>
       </c>
       <c r="C298">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D298">
-        <v>-17.19</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B299">
-        <v>106.52</v>
+        <v>136.09</v>
       </c>
       <c r="C299">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D299">
-        <v>-19.07</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B300">
-        <v>104.51</v>
+        <v>128.77</v>
       </c>
       <c r="C300">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D300">
-        <v>-20.6</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B301">
-        <v>104.66</v>
+        <v>123.82</v>
       </c>
       <c r="C301">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D301">
-        <v>-20.49</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B302">
-        <v>103.49</v>
+        <v>119.18</v>
       </c>
       <c r="C302">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D302">
-        <v>-21.37</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B303">
-        <v>101.41</v>
+        <v>115.73</v>
       </c>
       <c r="C303">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D303">
-        <v>-22.96</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B304">
-        <v>101.25</v>
+        <v>113.28</v>
       </c>
       <c r="C304">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D304">
-        <v>-23.08</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B305">
-        <v>105.68</v>
+        <v>109.06</v>
       </c>
       <c r="C305">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D305">
-        <v>-19.71</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B306">
-        <v>106.08</v>
+        <v>107.37</v>
       </c>
       <c r="C306">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D306">
-        <v>-19.4</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B307">
-        <v>101.46</v>
+        <v>105.41</v>
       </c>
       <c r="C307">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D307">
-        <v>-14.55</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B308">
-        <v>99.94</v>
+        <v>102.61</v>
       </c>
       <c r="C308">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D308">
-        <v>-15.83</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B309">
-        <v>98.25</v>
+        <v>102.73</v>
       </c>
       <c r="C309">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D309">
-        <v>-17.25</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B310">
-        <v>96.26000000000001</v>
+        <v>102.05</v>
       </c>
       <c r="C310">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D310">
-        <v>-18.93</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B311">
-        <v>94</v>
+        <v>98.3</v>
       </c>
       <c r="C311">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D311">
-        <v>-20.83</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B312">
-        <v>91.13</v>
+        <v>98.48</v>
       </c>
       <c r="C312">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D312">
-        <v>-23.25</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B313">
-        <v>92.3</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="C313">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D313">
-        <v>-22.26</v>
+        <v>-22.29</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B314">
-        <v>92.48999999999999</v>
+        <v>96.48</v>
       </c>
       <c r="C314">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D314">
-        <v>-22.1</v>
+        <v>-22.14</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B315">
-        <v>90.38</v>
+        <v>95.38</v>
       </c>
       <c r="C315">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D315">
-        <v>-23.88</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B316">
-        <v>89.64</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="C316">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D316">
-        <v>-24.51</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B317">
-        <v>87.31</v>
+        <v>92.52</v>
       </c>
       <c r="C317">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D317">
-        <v>-26.46</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B318">
-        <v>88.31</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="C318">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D318">
-        <v>-25.62</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B319">
-        <v>100.71</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C319">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D319">
-        <v>-15.18</v>
+        <v>-26.65</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B320">
-        <v>125.19</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C320">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D320">
-        <v>5.44</v>
+        <v>-27.98</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B321">
-        <v>129.4</v>
+        <v>89.88</v>
       </c>
       <c r="C321">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D321">
-        <v>8.98</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B322">
-        <v>144.85</v>
+        <v>88.8</v>
       </c>
       <c r="C322">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D322">
-        <v>22</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B323">
-        <v>153.78</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="C323">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D323">
-        <v>29.52</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B324">
-        <v>158.61</v>
+        <v>85.75</v>
       </c>
       <c r="C324">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D324">
-        <v>33.59</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B325">
-        <v>177.33</v>
+        <v>86.56</v>
       </c>
       <c r="C325">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D325">
-        <v>49.36</v>
+        <v>-30.15</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B326">
-        <v>183.36</v>
+        <v>87.2</v>
       </c>
       <c r="C326">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D326">
-        <v>54.44</v>
+        <v>-29.63</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B327">
-        <v>175.84</v>
+        <v>84.45</v>
       </c>
       <c r="C327">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D327">
-        <v>48.1</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B328">
-        <v>159.39</v>
+        <v>83.56</v>
       </c>
       <c r="C328">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D328">
-        <v>34.24</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B329">
-        <v>146.09</v>
+        <v>83</v>
       </c>
       <c r="C329">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D329">
-        <v>23.05</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B330">
-        <v>136.09</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C330">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D330">
-        <v>14.62</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B331">
-        <v>128.77</v>
+        <v>81.36</v>
       </c>
       <c r="C331">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D331">
-        <v>8.460000000000001</v>
+        <v>-34.34</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B332">
-        <v>123.82</v>
+        <v>81.66</v>
       </c>
       <c r="C332">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D332">
-        <v>4.29</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B333">
-        <v>119.18</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="C333">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D333">
-        <v>0.37</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B334">
-        <v>115.73</v>
+        <v>81.08</v>
       </c>
       <c r="C334">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D334">
-        <v>-2.53</v>
+        <v>-34.56</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B335">
-        <v>113.28</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C335">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D335">
-        <v>-4.59</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B336">
-        <v>109.06</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C336">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D336">
-        <v>-8.140000000000001</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B337">
-        <v>107.37</v>
+        <v>85.11</v>
       </c>
       <c r="C337">
-        <v>118.73</v>
+        <v>150.79</v>
       </c>
       <c r="D337">
-        <v>-9.57</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B338">
-        <v>105.41</v>
+        <v>81.94</v>
       </c>
       <c r="C338">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D338">
-        <v>-14.94</v>
+        <v>-45.66</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B339">
-        <v>102.61</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="C339">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D339">
-        <v>-17.19</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B340">
-        <v>102.73</v>
+        <v>79.08</v>
       </c>
       <c r="C340">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D340">
-        <v>-17.1</v>
+        <v>-47.56</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B341">
-        <v>102.05</v>
+        <v>77.2</v>
       </c>
       <c r="C341">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D341">
-        <v>-17.64</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B342">
-        <v>98.3</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="C342">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D342">
-        <v>-20.67</v>
+        <v>-49.94</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B343">
-        <v>98.48</v>
+        <v>73.41</v>
       </c>
       <c r="C343">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D343">
-        <v>-20.53</v>
+        <v>-51.32</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B344">
-        <v>96.29000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C344">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D344">
-        <v>-22.29</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B345">
-        <v>96.48</v>
+        <v>83.36</v>
       </c>
       <c r="C345">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D345">
-        <v>-22.14</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B346">
-        <v>95.38</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C346">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D346">
-        <v>-23.03</v>
+        <v>-43.23</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B347">
-        <v>93.70999999999999</v>
+        <v>85.34</v>
       </c>
       <c r="C347">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D347">
-        <v>-24.38</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B348">
-        <v>92.52</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C348">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D348">
-        <v>-25.34</v>
+        <v>-44.89</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B349">
-        <v>93.54000000000001</v>
+        <v>81.05</v>
       </c>
       <c r="C349">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D349">
-        <v>-24.51</v>
+        <v>-46.25</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B350">
-        <v>90.90000000000001</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C350">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D350">
-        <v>-26.65</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B351">
-        <v>89.23999999999999</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C351">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D351">
-        <v>-27.98</v>
+        <v>-43.53</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B352">
-        <v>89.88</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="C352">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D352">
-        <v>-27.47</v>
+        <v>-43.99</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B353">
-        <v>88.8</v>
+        <v>82.84</v>
       </c>
       <c r="C353">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D353">
-        <v>-28.34</v>
+        <v>-45.06</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B354">
-        <v>88.20999999999999</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C354">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D354">
-        <v>-28.81</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B355">
-        <v>85.75</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C355">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D355">
-        <v>-30.8</v>
+        <v>-47.29</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B356">
-        <v>86.56</v>
+        <v>75.75</v>
       </c>
       <c r="C356">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D356">
-        <v>-30.15</v>
+        <v>-49.77</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B357">
-        <v>87.2</v>
+        <v>73.7</v>
       </c>
       <c r="C357">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D357">
-        <v>-29.63</v>
+        <v>-51.13</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B358">
-        <v>84.45</v>
+        <v>73.27</v>
       </c>
       <c r="C358">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D358">
-        <v>-31.85</v>
+        <v>-51.41</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B359">
-        <v>83.56</v>
+        <v>74.39</v>
       </c>
       <c r="C359">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D359">
-        <v>-32.57</v>
+        <v>-50.67</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B360">
-        <v>83</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C360">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D360">
-        <v>-33.02</v>
+        <v>-51.66</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B361">
-        <v>81.90000000000001</v>
+        <v>71.67</v>
       </c>
       <c r="C361">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D361">
-        <v>-33.91</v>
+        <v>-52.47</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B362">
-        <v>81.36</v>
+        <v>70.88</v>
       </c>
       <c r="C362">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D362">
-        <v>-34.34</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B363">
-        <v>81.66</v>
+        <v>73.23</v>
       </c>
       <c r="C363">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D363">
-        <v>-34.1</v>
+        <v>-51.44</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B364">
-        <v>79.54000000000001</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C364">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D364">
-        <v>-35.81</v>
+        <v>-53.53</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B365">
-        <v>81.08</v>
+        <v>71.47</v>
       </c>
       <c r="C365">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D365">
-        <v>-34.56</v>
+        <v>-52.6</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B366">
-        <v>85.40000000000001</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C366">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D366">
-        <v>-31.08</v>
+        <v>-53.41</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B367">
-        <v>88.48999999999999</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="C367">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D367">
-        <v>-28.59</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44105</v>
-      </c>
-      <c r="B368">
-        <v>85.11</v>
-      </c>
-      <c r="C368">
-        <v>150.79</v>
-      </c>
-      <c r="D368">
-        <v>-43.56</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44106</v>
-      </c>
-      <c r="B369">
-        <v>81.94</v>
-      </c>
-      <c r="C369">
-        <v>150.79</v>
-      </c>
-      <c r="D369">
-        <v>-45.66</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44107</v>
-      </c>
-      <c r="B370">
-        <v>81.20999999999999</v>
-      </c>
-      <c r="C370">
-        <v>150.79</v>
-      </c>
-      <c r="D370">
-        <v>-46.15</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44108</v>
-      </c>
-      <c r="B371">
-        <v>79.08</v>
-      </c>
-      <c r="C371">
-        <v>150.79</v>
-      </c>
-      <c r="D371">
-        <v>-47.56</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44109</v>
-      </c>
-      <c r="B372">
-        <v>77.2</v>
-      </c>
-      <c r="C372">
-        <v>150.79</v>
-      </c>
-      <c r="D372">
-        <v>-48.81</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44110</v>
-      </c>
-      <c r="B373">
-        <v>75.48999999999999</v>
-      </c>
-      <c r="C373">
-        <v>150.79</v>
-      </c>
-      <c r="D373">
-        <v>-49.94</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44111</v>
-      </c>
-      <c r="B374">
-        <v>73.41</v>
-      </c>
-      <c r="C374">
-        <v>150.79</v>
-      </c>
-      <c r="D374">
-        <v>-51.32</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44112</v>
-      </c>
-      <c r="B375">
-        <v>78.95</v>
-      </c>
-      <c r="C375">
-        <v>150.79</v>
-      </c>
-      <c r="D375">
-        <v>-47.64</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44113</v>
-      </c>
-      <c r="B376">
-        <v>83.36</v>
-      </c>
-      <c r="C376">
-        <v>150.79</v>
-      </c>
-      <c r="D376">
-        <v>-44.72</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44114</v>
-      </c>
-      <c r="B377">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="C377">
-        <v>150.79</v>
-      </c>
-      <c r="D377">
-        <v>-43.23</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44115</v>
-      </c>
-      <c r="B378">
-        <v>85.34</v>
-      </c>
-      <c r="C378">
-        <v>150.79</v>
-      </c>
-      <c r="D378">
-        <v>-43.4</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44116</v>
-      </c>
-      <c r="B379">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="C379">
-        <v>150.79</v>
-      </c>
-      <c r="D379">
-        <v>-44.89</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44117</v>
-      </c>
-      <c r="B380">
-        <v>81.05</v>
-      </c>
-      <c r="C380">
-        <v>150.79</v>
-      </c>
-      <c r="D380">
-        <v>-46.25</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44118</v>
-      </c>
-      <c r="B381">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="C381">
-        <v>150.79</v>
-      </c>
-      <c r="D381">
-        <v>-45.63</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B382">
-        <v>85.15000000000001</v>
-      </c>
-      <c r="C382">
-        <v>150.79</v>
-      </c>
-      <c r="D382">
-        <v>-43.53</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B383">
-        <v>84.45999999999999</v>
-      </c>
-      <c r="C383">
-        <v>150.79</v>
-      </c>
-      <c r="D383">
-        <v>-43.99</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B384">
-        <v>82.84</v>
-      </c>
-      <c r="C384">
-        <v>150.79</v>
-      </c>
-      <c r="D384">
-        <v>-45.06</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B385">
-        <v>79.81999999999999</v>
-      </c>
-      <c r="C385">
-        <v>150.79</v>
-      </c>
-      <c r="D385">
-        <v>-47.06</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44123</v>
-      </c>
-      <c r="B386">
-        <v>79.48999999999999</v>
-      </c>
-      <c r="C386">
-        <v>150.79</v>
-      </c>
-      <c r="D386">
-        <v>-47.29</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44124</v>
-      </c>
-      <c r="B387">
-        <v>75.75</v>
-      </c>
-      <c r="C387">
-        <v>150.79</v>
-      </c>
-      <c r="D387">
-        <v>-49.77</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B388">
-        <v>73.7</v>
-      </c>
-      <c r="C388">
-        <v>150.79</v>
-      </c>
-      <c r="D388">
-        <v>-51.13</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44126</v>
-      </c>
-      <c r="B389">
-        <v>73.27</v>
-      </c>
-      <c r="C389">
-        <v>150.79</v>
-      </c>
-      <c r="D389">
-        <v>-51.41</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
-        <v>44127</v>
-      </c>
-      <c r="B390">
-        <v>74.39</v>
-      </c>
-      <c r="C390">
-        <v>150.79</v>
-      </c>
-      <c r="D390">
-        <v>-50.67</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B391">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="C391">
-        <v>150.79</v>
-      </c>
-      <c r="D391">
-        <v>-51.66</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B392">
-        <v>71.67</v>
-      </c>
-      <c r="C392">
-        <v>150.79</v>
-      </c>
-      <c r="D392">
-        <v>-52.47</v>
+        <v>-53.15</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -583,6 +583,20 @@
         <v>-48.38</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B14">
+        <v>69.02</v>
+      </c>
+      <c r="C14">
+        <v>140.62</v>
+      </c>
+      <c r="D14">
+        <v>-50.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5739,6 +5753,216 @@
         <v>-53.15</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44136</v>
+      </c>
+      <c r="B368">
+        <v>70.31</v>
+      </c>
+      <c r="C368">
+        <v>140.62</v>
+      </c>
+      <c r="D368">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B369">
+        <v>69.23999999999999</v>
+      </c>
+      <c r="C369">
+        <v>140.62</v>
+      </c>
+      <c r="D369">
+        <v>-50.76</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B370">
+        <v>69.66</v>
+      </c>
+      <c r="C370">
+        <v>140.62</v>
+      </c>
+      <c r="D370">
+        <v>-50.47</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B371">
+        <v>69.95</v>
+      </c>
+      <c r="C371">
+        <v>140.62</v>
+      </c>
+      <c r="D371">
+        <v>-50.26</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B372">
+        <v>67.93000000000001</v>
+      </c>
+      <c r="C372">
+        <v>140.62</v>
+      </c>
+      <c r="D372">
+        <v>-51.7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B373">
+        <v>67.36</v>
+      </c>
+      <c r="C373">
+        <v>140.62</v>
+      </c>
+      <c r="D373">
+        <v>-52.1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44142</v>
+      </c>
+      <c r="B374">
+        <v>66.19</v>
+      </c>
+      <c r="C374">
+        <v>140.62</v>
+      </c>
+      <c r="D374">
+        <v>-52.93</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44143</v>
+      </c>
+      <c r="B375">
+        <v>65.41</v>
+      </c>
+      <c r="C375">
+        <v>140.62</v>
+      </c>
+      <c r="D375">
+        <v>-53.49</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B376">
+        <v>68.23999999999999</v>
+      </c>
+      <c r="C376">
+        <v>140.62</v>
+      </c>
+      <c r="D376">
+        <v>-51.47</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B377">
+        <v>66.95</v>
+      </c>
+      <c r="C377">
+        <v>140.62</v>
+      </c>
+      <c r="D377">
+        <v>-52.39</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B378">
+        <v>67.65000000000001</v>
+      </c>
+      <c r="C378">
+        <v>140.62</v>
+      </c>
+      <c r="D378">
+        <v>-51.9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B379">
+        <v>70.76000000000001</v>
+      </c>
+      <c r="C379">
+        <v>140.62</v>
+      </c>
+      <c r="D379">
+        <v>-49.68</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B380">
+        <v>70.52</v>
+      </c>
+      <c r="C380">
+        <v>140.62</v>
+      </c>
+      <c r="D380">
+        <v>-49.85</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44149</v>
+      </c>
+      <c r="B381">
+        <v>71.98</v>
+      </c>
+      <c r="C381">
+        <v>140.62</v>
+      </c>
+      <c r="D381">
+        <v>-48.81</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44150</v>
+      </c>
+      <c r="B382">
+        <v>73.11</v>
+      </c>
+      <c r="C382">
+        <v>140.62</v>
+      </c>
+      <c r="D382">
+        <v>-48.01</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -585,16 +585,16 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>44150</v>
+        <v>44157</v>
       </c>
       <c r="B14">
-        <v>69.02</v>
+        <v>70.79000000000001</v>
       </c>
       <c r="C14">
         <v>140.62</v>
       </c>
       <c r="D14">
-        <v>-50.92</v>
+        <v>-49.66</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5963,6 +5963,104 @@
         <v>-48.01</v>
       </c>
     </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B383">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="C383">
+        <v>140.62</v>
+      </c>
+      <c r="D383">
+        <v>-47.63</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B384">
+        <v>74.09</v>
+      </c>
+      <c r="C384">
+        <v>140.62</v>
+      </c>
+      <c r="D384">
+        <v>-47.31</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B385">
+        <v>78</v>
+      </c>
+      <c r="C385">
+        <v>140.62</v>
+      </c>
+      <c r="D385">
+        <v>-44.53</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B386">
+        <v>77.68000000000001</v>
+      </c>
+      <c r="C386">
+        <v>140.62</v>
+      </c>
+      <c r="D386">
+        <v>-44.76</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B387">
+        <v>75.48</v>
+      </c>
+      <c r="C387">
+        <v>140.62</v>
+      </c>
+      <c r="D387">
+        <v>-46.33</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
+        <v>44156</v>
+      </c>
+      <c r="B388">
+        <v>72.61</v>
+      </c>
+      <c r="C388">
+        <v>140.62</v>
+      </c>
+      <c r="D388">
+        <v>-48.36</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
+        <v>44157</v>
+      </c>
+      <c r="B389">
+        <v>70.62</v>
+      </c>
+      <c r="C389">
+        <v>140.62</v>
+      </c>
+      <c r="D389">
+        <v>-49.78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43799</v>
+        <v>43830</v>
       </c>
       <c r="B2">
-        <v>111.69</v>
+        <v>105.52</v>
       </c>
       <c r="C2">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D2">
-        <v>-20.57</v>
+        <v>-13.27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B3">
-        <v>105.52</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C3">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D3">
-        <v>-13.27</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B4">
-        <v>85.51000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="C4">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D4">
-        <v>-25.46</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B5">
-        <v>94.27</v>
+        <v>78.78</v>
       </c>
       <c r="C5">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D5">
-        <v>-18.6</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B6">
-        <v>78.78</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C6">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D6">
-        <v>-26.56</v>
+        <v>-41.13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B7">
-        <v>64.23999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="C7">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D7">
-        <v>-41.13</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B8">
-        <v>89.79000000000001</v>
+        <v>151.59</v>
       </c>
       <c r="C8">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D8">
-        <v>-29.85</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B9">
-        <v>151.59</v>
+        <v>125.48</v>
       </c>
       <c r="C9">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D9">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B10">
-        <v>125.48</v>
+        <v>120.3</v>
       </c>
       <c r="C10">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D10">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B11">
-        <v>120.3</v>
+        <v>90.48</v>
       </c>
       <c r="C11">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D11">
-        <v>1.32</v>
+        <v>-26.98</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B12">
-        <v>90.48</v>
+        <v>77.83</v>
       </c>
       <c r="C12">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D12">
-        <v>-26.98</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B13">
-        <v>77.83</v>
+        <v>70.42</v>
       </c>
       <c r="C13">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D13">
-        <v>-48.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B14">
-        <v>70.79000000000001</v>
-      </c>
-      <c r="C14">
-        <v>140.62</v>
-      </c>
-      <c r="D14">
-        <v>-49.66</v>
+        <v>-49.92</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D389"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5434 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B2">
-        <v>78.73</v>
+        <v>114.39</v>
       </c>
       <c r="C2">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D2">
-        <v>-44.01</v>
+        <v>-5.98</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43771</v>
+        <v>43801</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>105.81</v>
       </c>
       <c r="C3">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D3">
-        <v>-44.53</v>
+        <v>-13.03</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43772</v>
+        <v>43802</v>
       </c>
       <c r="B4">
-        <v>78.18000000000001</v>
+        <v>98.89</v>
       </c>
       <c r="C4">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D4">
-        <v>-44.41</v>
+        <v>-18.72</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43773</v>
+        <v>43803</v>
       </c>
       <c r="B5">
-        <v>78.43000000000001</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="C5">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D5">
-        <v>-44.23</v>
+        <v>-20.51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43774</v>
+        <v>43804</v>
       </c>
       <c r="B6">
-        <v>90.31</v>
+        <v>102.56</v>
       </c>
       <c r="C6">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D6">
-        <v>-35.78</v>
+        <v>-15.69</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43775</v>
+        <v>43805</v>
       </c>
       <c r="B7">
-        <v>102.94</v>
+        <v>114.86</v>
       </c>
       <c r="C7">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D7">
-        <v>-26.8</v>
+        <v>-5.58</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43776</v>
+        <v>43806</v>
       </c>
       <c r="B8">
-        <v>105.12</v>
+        <v>109.06</v>
       </c>
       <c r="C8">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D8">
-        <v>-25.24</v>
+        <v>-10.35</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43777</v>
+        <v>43807</v>
       </c>
       <c r="B9">
-        <v>109.62</v>
+        <v>104.52</v>
       </c>
       <c r="C9">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D9">
-        <v>-22.04</v>
+        <v>-14.09</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43778</v>
+        <v>43808</v>
       </c>
       <c r="B10">
-        <v>106.3</v>
+        <v>100.28</v>
       </c>
       <c r="C10">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D10">
-        <v>-24.41</v>
+        <v>-17.57</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43779</v>
+        <v>43809</v>
       </c>
       <c r="B11">
-        <v>114.33</v>
+        <v>97.44</v>
       </c>
       <c r="C11">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D11">
-        <v>-18.7</v>
+        <v>-19.91</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43780</v>
+        <v>43810</v>
       </c>
       <c r="B12">
-        <v>133.14</v>
+        <v>97.53</v>
       </c>
       <c r="C12">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D12">
-        <v>-5.33</v>
+        <v>-19.83</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43781</v>
+        <v>43811</v>
       </c>
       <c r="B13">
-        <v>141.71</v>
+        <v>97.64</v>
       </c>
       <c r="C13">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D13">
-        <v>0.77</v>
+        <v>-19.74</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43782</v>
+        <v>43812</v>
       </c>
       <c r="B14">
-        <v>128.15</v>
+        <v>96.66</v>
       </c>
       <c r="C14">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D14">
-        <v>-8.869999999999999</v>
+        <v>-20.55</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43783</v>
+        <v>43813</v>
       </c>
       <c r="B15">
-        <v>136.68</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="C15">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D15">
-        <v>-2.81</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="B16">
-        <v>155.66</v>
+        <v>96.41</v>
       </c>
       <c r="C16">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D16">
-        <v>10.69</v>
+        <v>-20.76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43785</v>
+        <v>43815</v>
       </c>
       <c r="B17">
-        <v>159.29</v>
+        <v>113.16</v>
       </c>
       <c r="C17">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D17">
-        <v>13.28</v>
+        <v>-6.99</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43786</v>
+        <v>43816</v>
       </c>
       <c r="B18">
-        <v>142.36</v>
+        <v>126.32</v>
       </c>
       <c r="C18">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D18">
-        <v>1.24</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43787</v>
+        <v>43817</v>
       </c>
       <c r="B19">
-        <v>127.58</v>
+        <v>140.45</v>
       </c>
       <c r="C19">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D19">
-        <v>-9.27</v>
+        <v>15.45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43788</v>
+        <v>43818</v>
       </c>
       <c r="B20">
-        <v>116.22</v>
+        <v>134.61</v>
       </c>
       <c r="C20">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D20">
-        <v>-17.35</v>
+        <v>10.65</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43789</v>
+        <v>43819</v>
       </c>
       <c r="B21">
-        <v>110.39</v>
+        <v>125.88</v>
       </c>
       <c r="C21">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D21">
-        <v>-21.5</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43790</v>
+        <v>43820</v>
       </c>
       <c r="B22">
-        <v>103.69</v>
+        <v>121.88</v>
       </c>
       <c r="C22">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D22">
-        <v>-26.27</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43791</v>
+        <v>43821</v>
       </c>
       <c r="B23">
-        <v>100.17</v>
+        <v>116.14</v>
       </c>
       <c r="C23">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D23">
-        <v>-28.77</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43792</v>
+        <v>43822</v>
       </c>
       <c r="B24">
-        <v>96.31999999999999</v>
+        <v>110.85</v>
       </c>
       <c r="C24">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D24">
-        <v>-31.5</v>
+        <v>-8.880000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43793</v>
+        <v>43823</v>
       </c>
       <c r="B25">
-        <v>94.52</v>
+        <v>106.47</v>
       </c>
       <c r="C25">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D25">
-        <v>-32.79</v>
+        <v>-12.48</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43794</v>
+        <v>43824</v>
       </c>
       <c r="B26">
-        <v>91.25</v>
+        <v>101.73</v>
       </c>
       <c r="C26">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D26">
-        <v>-35.11</v>
+        <v>-16.38</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43795</v>
+        <v>43825</v>
       </c>
       <c r="B27">
-        <v>89.23</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C27">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D27">
-        <v>-36.55</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43796</v>
+        <v>43826</v>
       </c>
       <c r="B28">
-        <v>95.12</v>
+        <v>94.23</v>
       </c>
       <c r="C28">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D28">
-        <v>-32.35</v>
+        <v>-22.54</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43797</v>
+        <v>43827</v>
       </c>
       <c r="B29">
-        <v>119.79</v>
+        <v>91.77</v>
       </c>
       <c r="C29">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D29">
-        <v>-14.81</v>
+        <v>-24.57</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43798</v>
+        <v>43828</v>
       </c>
       <c r="B30">
-        <v>141.33</v>
+        <v>89.31</v>
       </c>
       <c r="C30">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D30">
-        <v>0.5</v>
+        <v>-26.59</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43799</v>
+        <v>43829</v>
       </c>
       <c r="B31">
-        <v>126.27</v>
+        <v>86.98999999999999</v>
       </c>
       <c r="C31">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D31">
-        <v>-10.21</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43800</v>
+        <v>43830</v>
       </c>
       <c r="B32">
-        <v>114.39</v>
+        <v>85.91</v>
       </c>
       <c r="C32">
         <v>121.66</v>
       </c>
       <c r="D32">
-        <v>-5.98</v>
+        <v>-29.39</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43801</v>
+        <v>43831</v>
       </c>
       <c r="B33">
-        <v>105.81</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="C33">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D33">
-        <v>-13.03</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43802</v>
+        <v>43832</v>
       </c>
       <c r="B34">
-        <v>98.89</v>
+        <v>86.78</v>
       </c>
       <c r="C34">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D34">
-        <v>-18.72</v>
+        <v>-24.35</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43803</v>
+        <v>43833</v>
       </c>
       <c r="B35">
-        <v>96.70999999999999</v>
+        <v>88.05</v>
       </c>
       <c r="C35">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D35">
-        <v>-20.51</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43804</v>
+        <v>43834</v>
       </c>
       <c r="B36">
-        <v>102.56</v>
+        <v>87.19</v>
       </c>
       <c r="C36">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D36">
-        <v>-15.69</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43805</v>
+        <v>43835</v>
       </c>
       <c r="B37">
-        <v>114.86</v>
+        <v>85.06</v>
       </c>
       <c r="C37">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D37">
-        <v>-5.58</v>
+        <v>-25.85</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43806</v>
+        <v>43836</v>
       </c>
       <c r="B38">
-        <v>109.06</v>
+        <v>83.14</v>
       </c>
       <c r="C38">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D38">
-        <v>-10.35</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43807</v>
+        <v>43837</v>
       </c>
       <c r="B39">
-        <v>104.52</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C39">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D39">
-        <v>-14.09</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43808</v>
+        <v>43838</v>
       </c>
       <c r="B40">
-        <v>100.28</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C40">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D40">
-        <v>-17.57</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43809</v>
+        <v>43839</v>
       </c>
       <c r="B41">
-        <v>97.44</v>
+        <v>79.84</v>
       </c>
       <c r="C41">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D41">
-        <v>-19.91</v>
+        <v>-30.4</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43810</v>
+        <v>43840</v>
       </c>
       <c r="B42">
-        <v>97.53</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C42">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D42">
-        <v>-19.83</v>
+        <v>-28.31</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43811</v>
+        <v>43841</v>
       </c>
       <c r="B43">
-        <v>97.64</v>
+        <v>92.91</v>
       </c>
       <c r="C43">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D43">
-        <v>-19.74</v>
+        <v>-19.01</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43812</v>
+        <v>43842</v>
       </c>
       <c r="B44">
-        <v>96.66</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C44">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D44">
-        <v>-20.55</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43813</v>
+        <v>43843</v>
       </c>
       <c r="B45">
-        <v>95.23999999999999</v>
+        <v>98.19</v>
       </c>
       <c r="C45">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D45">
-        <v>-21.71</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43814</v>
+        <v>43844</v>
       </c>
       <c r="B46">
-        <v>96.41</v>
+        <v>97.77</v>
       </c>
       <c r="C46">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D46">
-        <v>-20.76</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43815</v>
+        <v>43845</v>
       </c>
       <c r="B47">
-        <v>113.16</v>
+        <v>92.33</v>
       </c>
       <c r="C47">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D47">
-        <v>-6.99</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43816</v>
+        <v>43846</v>
       </c>
       <c r="B48">
-        <v>126.32</v>
+        <v>90.16</v>
       </c>
       <c r="C48">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D48">
-        <v>3.84</v>
+        <v>-21.41</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43817</v>
+        <v>43847</v>
       </c>
       <c r="B49">
-        <v>140.45</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C49">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D49">
-        <v>15.45</v>
+        <v>-17.44</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43818</v>
+        <v>43848</v>
       </c>
       <c r="B50">
-        <v>134.61</v>
+        <v>92.47</v>
       </c>
       <c r="C50">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D50">
-        <v>10.65</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43819</v>
+        <v>43849</v>
       </c>
       <c r="B51">
-        <v>125.88</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="C51">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D51">
-        <v>3.47</v>
+        <v>-21.42</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43820</v>
+        <v>43850</v>
       </c>
       <c r="B52">
-        <v>121.88</v>
+        <v>85.81</v>
       </c>
       <c r="C52">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D52">
-        <v>0.18</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43821</v>
+        <v>43851</v>
       </c>
       <c r="B53">
-        <v>116.14</v>
+        <v>82.5</v>
       </c>
       <c r="C53">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D53">
-        <v>-4.54</v>
+        <v>-28.08</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43822</v>
+        <v>43852</v>
       </c>
       <c r="B54">
-        <v>110.85</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C54">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D54">
-        <v>-8.880000000000001</v>
+        <v>-27.18</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43823</v>
+        <v>43853</v>
       </c>
       <c r="B55">
-        <v>106.47</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C55">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D55">
-        <v>-12.48</v>
+        <v>-29.82</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43824</v>
+        <v>43854</v>
       </c>
       <c r="B56">
-        <v>101.73</v>
+        <v>80.39</v>
       </c>
       <c r="C56">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D56">
-        <v>-16.38</v>
+        <v>-29.93</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43825</v>
+        <v>43855</v>
       </c>
       <c r="B57">
-        <v>97.34999999999999</v>
+        <v>79.81</v>
       </c>
       <c r="C57">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D57">
-        <v>-19.98</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43826</v>
+        <v>43856</v>
       </c>
       <c r="B58">
-        <v>94.23</v>
+        <v>76.78</v>
       </c>
       <c r="C58">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D58">
-        <v>-22.54</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43827</v>
+        <v>43857</v>
       </c>
       <c r="B59">
-        <v>91.77</v>
+        <v>75.11</v>
       </c>
       <c r="C59">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D59">
-        <v>-24.57</v>
+        <v>-34.52</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43828</v>
+        <v>43858</v>
       </c>
       <c r="B60">
-        <v>89.31</v>
+        <v>73.59</v>
       </c>
       <c r="C60">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D60">
-        <v>-26.59</v>
+        <v>-35.85</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43829</v>
+        <v>43859</v>
       </c>
       <c r="B61">
-        <v>86.98999999999999</v>
+        <v>73.41</v>
       </c>
       <c r="C61">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D61">
-        <v>-28.5</v>
+        <v>-36.01</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43830</v>
+        <v>43860</v>
       </c>
       <c r="B62">
-        <v>85.91</v>
+        <v>79.31</v>
       </c>
       <c r="C62">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D62">
-        <v>-29.39</v>
+        <v>-30.86</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43831</v>
+        <v>43861</v>
       </c>
       <c r="B63">
-        <v>85.73999999999999</v>
+        <v>93.23</v>
       </c>
       <c r="C63">
         <v>114.72</v>
       </c>
       <c r="D63">
-        <v>-25.26</v>
+        <v>-18.73</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43832</v>
+        <v>43862</v>
       </c>
       <c r="B64">
-        <v>86.78</v>
+        <v>120.88</v>
       </c>
       <c r="C64">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D64">
-        <v>-24.35</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43833</v>
+        <v>43863</v>
       </c>
       <c r="B65">
-        <v>88.05</v>
+        <v>118.7</v>
       </c>
       <c r="C65">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D65">
-        <v>-23.25</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43834</v>
+        <v>43864</v>
       </c>
       <c r="B66">
-        <v>87.19</v>
+        <v>120.65</v>
       </c>
       <c r="C66">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D66">
-        <v>-24</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43835</v>
+        <v>43865</v>
       </c>
       <c r="B67">
-        <v>85.06</v>
+        <v>114.47</v>
       </c>
       <c r="C67">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D67">
-        <v>-25.85</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43836</v>
+        <v>43866</v>
       </c>
       <c r="B68">
-        <v>83.14</v>
+        <v>107.43</v>
       </c>
       <c r="C68">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D68">
-        <v>-27.53</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43837</v>
+        <v>43867</v>
       </c>
       <c r="B69">
-        <v>81.23999999999999</v>
+        <v>100.39</v>
       </c>
       <c r="C69">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D69">
-        <v>-29.18</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43838</v>
+        <v>43868</v>
       </c>
       <c r="B70">
-        <v>79.81999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C70">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D70">
-        <v>-30.42</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43839</v>
+        <v>43869</v>
       </c>
       <c r="B71">
-        <v>79.84</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C71">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D71">
-        <v>-30.4</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43840</v>
+        <v>43870</v>
       </c>
       <c r="B72">
-        <v>82.23999999999999</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C72">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D72">
-        <v>-28.31</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43841</v>
+        <v>43871</v>
       </c>
       <c r="B73">
-        <v>92.91</v>
+        <v>87.42</v>
       </c>
       <c r="C73">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D73">
-        <v>-19.01</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43842</v>
+        <v>43872</v>
       </c>
       <c r="B74">
-        <v>99.01000000000001</v>
+        <v>89.55</v>
       </c>
       <c r="C74">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D74">
-        <v>-13.69</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43843</v>
+        <v>43873</v>
       </c>
       <c r="B75">
-        <v>98.19</v>
+        <v>91.88</v>
       </c>
       <c r="C75">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D75">
-        <v>-14.41</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43844</v>
+        <v>43874</v>
       </c>
       <c r="B76">
-        <v>97.77</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C76">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D76">
-        <v>-14.77</v>
+        <v>-25.61</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43845</v>
+        <v>43875</v>
       </c>
       <c r="B77">
-        <v>92.33</v>
+        <v>82.5</v>
       </c>
       <c r="C77">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D77">
-        <v>-19.51</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43846</v>
+        <v>43876</v>
       </c>
       <c r="B78">
-        <v>90.16</v>
+        <v>81.14</v>
       </c>
       <c r="C78">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D78">
-        <v>-21.41</v>
+        <v>-29.94</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43847</v>
+        <v>43877</v>
       </c>
       <c r="B79">
-        <v>94.70999999999999</v>
+        <v>78.66</v>
       </c>
       <c r="C79">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D79">
-        <v>-17.44</v>
+        <v>-32.08</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43848</v>
+        <v>43878</v>
       </c>
       <c r="B80">
-        <v>92.47</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C80">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D80">
-        <v>-19.4</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43849</v>
+        <v>43879</v>
       </c>
       <c r="B81">
-        <v>90.15000000000001</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C81">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D81">
-        <v>-21.42</v>
+        <v>-34.07</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43850</v>
+        <v>43880</v>
       </c>
       <c r="B82">
-        <v>85.81</v>
+        <v>78.95</v>
       </c>
       <c r="C82">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D82">
-        <v>-25.2</v>
+        <v>-31.83</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43851</v>
+        <v>43881</v>
       </c>
       <c r="B83">
-        <v>82.5</v>
+        <v>76.77</v>
       </c>
       <c r="C83">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D83">
-        <v>-28.08</v>
+        <v>-33.71</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43852</v>
+        <v>43882</v>
       </c>
       <c r="B84">
-        <v>83.54000000000001</v>
+        <v>74.33</v>
       </c>
       <c r="C84">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D84">
-        <v>-27.18</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43853</v>
+        <v>43883</v>
       </c>
       <c r="B85">
-        <v>80.51000000000001</v>
+        <v>69.28</v>
       </c>
       <c r="C85">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D85">
-        <v>-29.82</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43854</v>
+        <v>43884</v>
       </c>
       <c r="B86">
-        <v>80.39</v>
+        <v>72.7</v>
       </c>
       <c r="C86">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D86">
-        <v>-29.93</v>
+        <v>-37.23</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43855</v>
+        <v>43885</v>
       </c>
       <c r="B87">
-        <v>79.81</v>
+        <v>71.12</v>
       </c>
       <c r="C87">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D87">
-        <v>-30.43</v>
+        <v>-38.58</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43856</v>
+        <v>43886</v>
       </c>
       <c r="B88">
-        <v>76.78</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C88">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D88">
-        <v>-33.07</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43857</v>
+        <v>43887</v>
       </c>
       <c r="B89">
-        <v>75.11</v>
+        <v>121.18</v>
       </c>
       <c r="C89">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D89">
-        <v>-34.52</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43858</v>
+        <v>43888</v>
       </c>
       <c r="B90">
-        <v>73.59</v>
+        <v>154.98</v>
       </c>
       <c r="C90">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D90">
-        <v>-35.85</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43859</v>
+        <v>43889</v>
       </c>
       <c r="B91">
-        <v>73.41</v>
+        <v>127.87</v>
       </c>
       <c r="C91">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D91">
-        <v>-36.01</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43860</v>
+        <v>43890</v>
       </c>
       <c r="B92">
-        <v>79.31</v>
+        <v>112.27</v>
       </c>
       <c r="C92">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D92">
-        <v>-30.86</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43861</v>
+        <v>43891</v>
       </c>
       <c r="B93">
-        <v>93.23</v>
+        <v>104.91</v>
       </c>
       <c r="C93">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D93">
-        <v>-18.73</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43862</v>
+        <v>43892</v>
       </c>
       <c r="B94">
-        <v>120.88</v>
+        <v>97.91</v>
       </c>
       <c r="C94">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D94">
-        <v>4.37</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43863</v>
+        <v>43893</v>
       </c>
       <c r="B95">
-        <v>118.7</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C95">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D95">
-        <v>2.49</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43864</v>
+        <v>43894</v>
       </c>
       <c r="B96">
-        <v>120.65</v>
+        <v>91.27</v>
       </c>
       <c r="C96">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D96">
-        <v>4.18</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43865</v>
+        <v>43895</v>
       </c>
       <c r="B97">
-        <v>114.47</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="C97">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D97">
-        <v>-1.16</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43866</v>
+        <v>43896</v>
       </c>
       <c r="B98">
-        <v>107.43</v>
+        <v>84.34</v>
       </c>
       <c r="C98">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D98">
-        <v>-7.24</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43867</v>
+        <v>43897</v>
       </c>
       <c r="B99">
-        <v>100.39</v>
+        <v>82.19</v>
       </c>
       <c r="C99">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D99">
-        <v>-13.32</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43868</v>
+        <v>43898</v>
       </c>
       <c r="B100">
-        <v>95.3</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C100">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D100">
-        <v>-17.71</v>
+        <v>-24.95</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43869</v>
+        <v>43899</v>
       </c>
       <c r="B101">
-        <v>89.29000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C101">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D101">
-        <v>-22.9</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43870</v>
+        <v>43900</v>
       </c>
       <c r="B102">
-        <v>87.84999999999999</v>
+        <v>78.25</v>
       </c>
       <c r="C102">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D102">
-        <v>-24.14</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43871</v>
+        <v>43901</v>
       </c>
       <c r="B103">
-        <v>87.42</v>
+        <v>80.05</v>
       </c>
       <c r="C103">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D103">
-        <v>-24.52</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43872</v>
+        <v>43902</v>
       </c>
       <c r="B104">
-        <v>89.55</v>
+        <v>77.22</v>
       </c>
       <c r="C104">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D104">
-        <v>-22.67</v>
+        <v>-28.02</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43873</v>
+        <v>43903</v>
       </c>
       <c r="B105">
-        <v>91.88</v>
+        <v>74.05</v>
       </c>
       <c r="C105">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D105">
-        <v>-20.67</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43874</v>
+        <v>43904</v>
       </c>
       <c r="B106">
-        <v>86.15000000000001</v>
+        <v>77.17</v>
       </c>
       <c r="C106">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D106">
-        <v>-25.61</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43875</v>
+        <v>43905</v>
       </c>
       <c r="B107">
-        <v>82.5</v>
+        <v>74.3</v>
       </c>
       <c r="C107">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D107">
-        <v>-28.76</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43876</v>
+        <v>43906</v>
       </c>
       <c r="B108">
-        <v>81.14</v>
+        <v>70.94</v>
       </c>
       <c r="C108">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D108">
-        <v>-29.94</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43877</v>
+        <v>43907</v>
       </c>
       <c r="B109">
-        <v>78.66</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C109">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D109">
-        <v>-32.08</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43878</v>
+        <v>43908</v>
       </c>
       <c r="B110">
-        <v>74.65000000000001</v>
+        <v>70.69</v>
       </c>
       <c r="C110">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D110">
-        <v>-35.54</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43879</v>
+        <v>43909</v>
       </c>
       <c r="B111">
-        <v>76.34999999999999</v>
+        <v>76.33</v>
       </c>
       <c r="C111">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D111">
-        <v>-34.07</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43880</v>
+        <v>43910</v>
       </c>
       <c r="B112">
-        <v>78.95</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C112">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D112">
-        <v>-31.83</v>
+        <v>-20.43</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43881</v>
+        <v>43911</v>
       </c>
       <c r="B113">
-        <v>76.77</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C113">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D113">
-        <v>-33.71</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43882</v>
+        <v>43912</v>
       </c>
       <c r="B114">
-        <v>74.33</v>
+        <v>83</v>
       </c>
       <c r="C114">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D114">
-        <v>-35.81</v>
+        <v>-22.63</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43883</v>
+        <v>43913</v>
       </c>
       <c r="B115">
-        <v>69.28</v>
+        <v>77.03</v>
       </c>
       <c r="C115">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D115">
-        <v>-40.18</v>
+        <v>-28.19</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43884</v>
+        <v>43914</v>
       </c>
       <c r="B116">
-        <v>72.7</v>
+        <v>75.14</v>
       </c>
       <c r="C116">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D116">
-        <v>-37.23</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43885</v>
+        <v>43915</v>
       </c>
       <c r="B117">
-        <v>71.12</v>
+        <v>74.05</v>
       </c>
       <c r="C117">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D117">
-        <v>-38.58</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43886</v>
+        <v>43916</v>
       </c>
       <c r="B118">
-        <v>71.09999999999999</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C118">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D118">
-        <v>-38.6</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43887</v>
+        <v>43917</v>
       </c>
       <c r="B119">
-        <v>121.18</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C119">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D119">
-        <v>4.63</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43888</v>
+        <v>43918</v>
       </c>
       <c r="B120">
-        <v>154.98</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C120">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D120">
-        <v>33.82</v>
+        <v>-35.58</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43889</v>
+        <v>43919</v>
       </c>
       <c r="B121">
-        <v>127.87</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C121">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D121">
-        <v>10.41</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43890</v>
+        <v>43920</v>
       </c>
       <c r="B122">
-        <v>112.27</v>
+        <v>63.99</v>
       </c>
       <c r="C122">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D122">
-        <v>-3.06</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43891</v>
+        <v>43921</v>
       </c>
       <c r="B123">
-        <v>104.91</v>
+        <v>66.53</v>
       </c>
       <c r="C123">
         <v>107.27</v>
       </c>
       <c r="D123">
-        <v>-2.21</v>
+        <v>-37.98</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43892</v>
+        <v>43922</v>
       </c>
       <c r="B124">
-        <v>97.91</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C124">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D124">
-        <v>-8.73</v>
+        <v>-39.7</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43893</v>
+        <v>43923</v>
       </c>
       <c r="B125">
-        <v>93.18000000000001</v>
+        <v>68.42</v>
       </c>
       <c r="C125">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D125">
-        <v>-13.14</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43894</v>
+        <v>43924</v>
       </c>
       <c r="B126">
-        <v>91.27</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C126">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D126">
-        <v>-14.92</v>
+        <v>-40.27</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43895</v>
+        <v>43925</v>
       </c>
       <c r="B127">
-        <v>86.48999999999999</v>
+        <v>63.12</v>
       </c>
       <c r="C127">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D127">
-        <v>-19.37</v>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43896</v>
+        <v>43926</v>
       </c>
       <c r="B128">
-        <v>84.34</v>
+        <v>62.56</v>
       </c>
       <c r="C128">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D128">
-        <v>-21.38</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43897</v>
+        <v>43927</v>
       </c>
       <c r="B129">
-        <v>82.19</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C129">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D129">
-        <v>-23.39</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43898</v>
+        <v>43928</v>
       </c>
       <c r="B130">
-        <v>80.51000000000001</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C130">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D130">
-        <v>-24.95</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43899</v>
+        <v>43929</v>
       </c>
       <c r="B131">
-        <v>81.56999999999999</v>
+        <v>69.75</v>
       </c>
       <c r="C131">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D131">
-        <v>-23.96</v>
+        <v>-36.07</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43900</v>
+        <v>43930</v>
       </c>
       <c r="B132">
-        <v>78.25</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C132">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D132">
-        <v>-27.06</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43901</v>
+        <v>43931</v>
       </c>
       <c r="B133">
-        <v>80.05</v>
+        <v>69.62</v>
       </c>
       <c r="C133">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D133">
-        <v>-25.38</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43902</v>
+        <v>43932</v>
       </c>
       <c r="B134">
-        <v>77.22</v>
+        <v>68.02</v>
       </c>
       <c r="C134">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D134">
-        <v>-28.02</v>
+        <v>-37.66</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43903</v>
+        <v>43933</v>
       </c>
       <c r="B135">
-        <v>74.05</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C135">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D135">
-        <v>-30.97</v>
+        <v>-39.96</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43904</v>
+        <v>43934</v>
       </c>
       <c r="B136">
-        <v>77.17</v>
+        <v>62.9</v>
       </c>
       <c r="C136">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D136">
-        <v>-28.07</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43905</v>
+        <v>43935</v>
       </c>
       <c r="B137">
-        <v>74.3</v>
+        <v>69.23</v>
       </c>
       <c r="C137">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D137">
-        <v>-30.74</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43906</v>
+        <v>43936</v>
       </c>
       <c r="B138">
-        <v>70.94</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C138">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D138">
-        <v>-33.87</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43907</v>
+        <v>43937</v>
       </c>
       <c r="B139">
-        <v>69.51000000000001</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C139">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D139">
-        <v>-35.2</v>
+        <v>-38.63</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43908</v>
+        <v>43938</v>
       </c>
       <c r="B140">
-        <v>70.69</v>
+        <v>66.87</v>
       </c>
       <c r="C140">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D140">
-        <v>-34.11</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43909</v>
+        <v>43939</v>
       </c>
       <c r="B141">
-        <v>76.33</v>
+        <v>65.27</v>
       </c>
       <c r="C141">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D141">
-        <v>-28.84</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43910</v>
+        <v>43940</v>
       </c>
       <c r="B142">
-        <v>85.34999999999999</v>
+        <v>65.84</v>
       </c>
       <c r="C142">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D142">
-        <v>-20.43</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43911</v>
+        <v>43941</v>
       </c>
       <c r="B143">
-        <v>88.31999999999999</v>
+        <v>63.15</v>
       </c>
       <c r="C143">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D143">
-        <v>-17.67</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43912</v>
+        <v>43942</v>
       </c>
       <c r="B144">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C144">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D144">
-        <v>-22.63</v>
+        <v>-41.34</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43913</v>
+        <v>43943</v>
       </c>
       <c r="B145">
-        <v>77.03</v>
+        <v>61.79</v>
       </c>
       <c r="C145">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D145">
-        <v>-28.19</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43914</v>
+        <v>43944</v>
       </c>
       <c r="B146">
-        <v>75.14</v>
+        <v>60.36</v>
       </c>
       <c r="C146">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D146">
-        <v>-29.96</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43915</v>
+        <v>43945</v>
       </c>
       <c r="B147">
-        <v>74.05</v>
+        <v>60.67</v>
       </c>
       <c r="C147">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D147">
-        <v>-30.97</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43916</v>
+        <v>43946</v>
       </c>
       <c r="B148">
-        <v>71.81999999999999</v>
+        <v>59.35</v>
       </c>
       <c r="C148">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D148">
-        <v>-33.05</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43917</v>
+        <v>43947</v>
       </c>
       <c r="B149">
-        <v>70.84999999999999</v>
+        <v>59.79</v>
       </c>
       <c r="C149">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D149">
-        <v>-33.95</v>
+        <v>-45.2</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43918</v>
+        <v>43948</v>
       </c>
       <c r="B150">
-        <v>69.09999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C150">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D150">
-        <v>-35.58</v>
+        <v>-44.32</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43919</v>
+        <v>43949</v>
       </c>
       <c r="B151">
-        <v>66.06999999999999</v>
+        <v>57.81</v>
       </c>
       <c r="C151">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D151">
-        <v>-38.41</v>
+        <v>-47.02</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43920</v>
+        <v>43950</v>
       </c>
       <c r="B152">
-        <v>63.99</v>
+        <v>56.32</v>
       </c>
       <c r="C152">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D152">
-        <v>-40.35</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B153">
-        <v>66.53</v>
+        <v>53.63</v>
       </c>
       <c r="C153">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D153">
-        <v>-37.98</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B154">
-        <v>65.79000000000001</v>
+        <v>53.96</v>
       </c>
       <c r="C154">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D154">
-        <v>-39.7</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43923</v>
+        <v>43953</v>
       </c>
       <c r="B155">
-        <v>68.42</v>
+        <v>54.47</v>
       </c>
       <c r="C155">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D155">
-        <v>-37.3</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43924</v>
+        <v>43954</v>
       </c>
       <c r="B156">
-        <v>65.18000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="C156">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D156">
-        <v>-40.27</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43925</v>
+        <v>43955</v>
       </c>
       <c r="B157">
-        <v>63.12</v>
+        <v>53.75</v>
       </c>
       <c r="C157">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D157">
-        <v>-42.15</v>
+        <v>-58.01</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43926</v>
+        <v>43956</v>
       </c>
       <c r="B158">
-        <v>62.56</v>
+        <v>55.35</v>
       </c>
       <c r="C158">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D158">
-        <v>-42.66</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43927</v>
+        <v>43957</v>
       </c>
       <c r="B159">
-        <v>65.95999999999999</v>
+        <v>59.28</v>
       </c>
       <c r="C159">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D159">
-        <v>-39.55</v>
+        <v>-53.69</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43928</v>
+        <v>43958</v>
       </c>
       <c r="B160">
-        <v>67.34999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C160">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D160">
-        <v>-38.27</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43929</v>
+        <v>43959</v>
       </c>
       <c r="B161">
-        <v>69.75</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C161">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D161">
-        <v>-36.07</v>
+        <v>-43.61</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43930</v>
+        <v>43960</v>
       </c>
       <c r="B162">
-        <v>71.09999999999999</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C162">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D162">
-        <v>-34.83</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43931</v>
+        <v>43961</v>
       </c>
       <c r="B163">
-        <v>69.62</v>
+        <v>68.81</v>
       </c>
       <c r="C163">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D163">
-        <v>-36.19</v>
+        <v>-46.24</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43932</v>
+        <v>43962</v>
       </c>
       <c r="B164">
-        <v>68.02</v>
+        <v>69.45</v>
       </c>
       <c r="C164">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D164">
-        <v>-37.66</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43933</v>
+        <v>43963</v>
       </c>
       <c r="B165">
-        <v>65.51000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C165">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D165">
-        <v>-39.96</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43934</v>
+        <v>43964</v>
       </c>
       <c r="B166">
-        <v>62.9</v>
+        <v>82.03</v>
       </c>
       <c r="C166">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D166">
-        <v>-42.36</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43935</v>
+        <v>43965</v>
       </c>
       <c r="B167">
-        <v>69.23</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C167">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D167">
-        <v>-36.55</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43936</v>
+        <v>43966</v>
       </c>
       <c r="B168">
-        <v>70.06999999999999</v>
+        <v>102.78</v>
       </c>
       <c r="C168">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D168">
-        <v>-35.78</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43937</v>
+        <v>43967</v>
       </c>
       <c r="B169">
-        <v>66.95999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="C169">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D169">
-        <v>-38.63</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43938</v>
+        <v>43968</v>
       </c>
       <c r="B170">
-        <v>66.87</v>
+        <v>87.8</v>
       </c>
       <c r="C170">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D170">
-        <v>-38.71</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43939</v>
+        <v>43969</v>
       </c>
       <c r="B171">
-        <v>65.27</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C171">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D171">
-        <v>-40.18</v>
+        <v>-35.74</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43940</v>
+        <v>43970</v>
       </c>
       <c r="B172">
-        <v>65.84</v>
+        <v>77.62</v>
       </c>
       <c r="C172">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D172">
-        <v>-39.65</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43941</v>
+        <v>43971</v>
       </c>
       <c r="B173">
-        <v>63.15</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C173">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D173">
-        <v>-42.13</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43942</v>
+        <v>43972</v>
       </c>
       <c r="B174">
-        <v>64</v>
+        <v>73.7</v>
       </c>
       <c r="C174">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D174">
-        <v>-41.34</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43943</v>
+        <v>43973</v>
       </c>
       <c r="B175">
-        <v>61.79</v>
+        <v>112.64</v>
       </c>
       <c r="C175">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D175">
-        <v>-43.37</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43944</v>
+        <v>43974</v>
       </c>
       <c r="B176">
-        <v>60.36</v>
+        <v>154.82</v>
       </c>
       <c r="C176">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D176">
-        <v>-44.68</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43945</v>
+        <v>43975</v>
       </c>
       <c r="B177">
-        <v>60.67</v>
+        <v>169.34</v>
       </c>
       <c r="C177">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D177">
-        <v>-44.4</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43946</v>
+        <v>43976</v>
       </c>
       <c r="B178">
-        <v>59.35</v>
+        <v>152.41</v>
       </c>
       <c r="C178">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D178">
-        <v>-45.6</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43947</v>
+        <v>43977</v>
       </c>
       <c r="B179">
-        <v>59.79</v>
+        <v>135.22</v>
       </c>
       <c r="C179">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D179">
-        <v>-45.2</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43948</v>
+        <v>43978</v>
       </c>
       <c r="B180">
-        <v>60.75</v>
+        <v>122.32</v>
       </c>
       <c r="C180">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D180">
-        <v>-44.32</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43949</v>
+        <v>43979</v>
       </c>
       <c r="B181">
-        <v>57.81</v>
+        <v>111.53</v>
       </c>
       <c r="C181">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D181">
-        <v>-47.02</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43950</v>
+        <v>43980</v>
       </c>
       <c r="B182">
-        <v>56.32</v>
+        <v>105.05</v>
       </c>
       <c r="C182">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D182">
-        <v>-48.38</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43951</v>
+        <v>43981</v>
       </c>
       <c r="B183">
-        <v>53.63</v>
+        <v>100.22</v>
       </c>
       <c r="C183">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D183">
-        <v>-50.85</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43952</v>
+        <v>43982</v>
       </c>
       <c r="B184">
-        <v>53.96</v>
+        <v>96.67</v>
       </c>
       <c r="C184">
         <v>128</v>
       </c>
       <c r="D184">
-        <v>-57.85</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43953</v>
+        <v>43983</v>
       </c>
       <c r="B185">
-        <v>54.47</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C185">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D185">
-        <v>-57.45</v>
+        <v>-31.31</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43954</v>
+        <v>43984</v>
       </c>
       <c r="B186">
-        <v>54.7</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C186">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D186">
-        <v>-57.27</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43955</v>
+        <v>43985</v>
       </c>
       <c r="B187">
-        <v>53.75</v>
+        <v>91.53</v>
       </c>
       <c r="C187">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D187">
-        <v>-58.01</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43956</v>
+        <v>43986</v>
       </c>
       <c r="B188">
-        <v>55.35</v>
+        <v>94.69</v>
       </c>
       <c r="C188">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D188">
-        <v>-56.76</v>
+        <v>-31.57</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43957</v>
+        <v>43987</v>
       </c>
       <c r="B189">
-        <v>59.28</v>
+        <v>125.85</v>
       </c>
       <c r="C189">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D189">
-        <v>-53.69</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43958</v>
+        <v>43988</v>
       </c>
       <c r="B190">
-        <v>69.28</v>
+        <v>153.61</v>
       </c>
       <c r="C190">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D190">
-        <v>-45.88</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43959</v>
+        <v>43989</v>
       </c>
       <c r="B191">
-        <v>72.18000000000001</v>
+        <v>163.02</v>
       </c>
       <c r="C191">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D191">
-        <v>-43.61</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43960</v>
+        <v>43990</v>
       </c>
       <c r="B192">
-        <v>70.73999999999999</v>
+        <v>147.54</v>
       </c>
       <c r="C192">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D192">
-        <v>-44.74</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43961</v>
+        <v>43991</v>
       </c>
       <c r="B193">
-        <v>68.81</v>
+        <v>145.65</v>
       </c>
       <c r="C193">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D193">
-        <v>-46.24</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43962</v>
+        <v>43992</v>
       </c>
       <c r="B194">
-        <v>69.45</v>
+        <v>278</v>
       </c>
       <c r="C194">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D194">
-        <v>-45.75</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43963</v>
+        <v>43993</v>
       </c>
       <c r="B195">
-        <v>66.98999999999999</v>
+        <v>259.32</v>
       </c>
       <c r="C195">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D195">
-        <v>-47.67</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43964</v>
+        <v>43994</v>
       </c>
       <c r="B196">
-        <v>82.03</v>
+        <v>251.39</v>
       </c>
       <c r="C196">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D196">
-        <v>-35.91</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43965</v>
+        <v>43995</v>
       </c>
       <c r="B197">
-        <v>95.04000000000001</v>
+        <v>226.04</v>
       </c>
       <c r="C197">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D197">
-        <v>-25.75</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43966</v>
+        <v>43996</v>
       </c>
       <c r="B198">
-        <v>102.78</v>
+        <v>206.4</v>
       </c>
       <c r="C198">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D198">
-        <v>-19.7</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43967</v>
+        <v>43997</v>
       </c>
       <c r="B199">
-        <v>96.61</v>
+        <v>190</v>
       </c>
       <c r="C199">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D199">
-        <v>-24.52</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43968</v>
+        <v>43998</v>
       </c>
       <c r="B200">
-        <v>87.8</v>
+        <v>176.32</v>
       </c>
       <c r="C200">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D200">
-        <v>-31.41</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43969</v>
+        <v>43999</v>
       </c>
       <c r="B201">
-        <v>82.26000000000001</v>
+        <v>163.4</v>
       </c>
       <c r="C201">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D201">
-        <v>-35.74</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>43970</v>
+        <v>44000</v>
       </c>
       <c r="B202">
-        <v>77.62</v>
+        <v>153.78</v>
       </c>
       <c r="C202">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D202">
-        <v>-39.36</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>43971</v>
+        <v>44001</v>
       </c>
       <c r="B203">
-        <v>76.56999999999999</v>
+        <v>146.42</v>
       </c>
       <c r="C203">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D203">
-        <v>-40.18</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>43972</v>
+        <v>44002</v>
       </c>
       <c r="B204">
-        <v>73.7</v>
+        <v>140.38</v>
       </c>
       <c r="C204">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D204">
-        <v>-42.43</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>43973</v>
+        <v>44003</v>
       </c>
       <c r="B205">
-        <v>112.64</v>
+        <v>134.93</v>
       </c>
       <c r="C205">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D205">
-        <v>-12.01</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>43974</v>
+        <v>44004</v>
       </c>
       <c r="B206">
-        <v>154.82</v>
+        <v>130.01</v>
       </c>
       <c r="C206">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D206">
-        <v>20.95</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>43975</v>
+        <v>44005</v>
       </c>
       <c r="B207">
-        <v>169.34</v>
+        <v>126.22</v>
       </c>
       <c r="C207">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D207">
-        <v>32.3</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>43976</v>
+        <v>44006</v>
       </c>
       <c r="B208">
-        <v>152.41</v>
+        <v>122.99</v>
       </c>
       <c r="C208">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D208">
-        <v>19.06</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>43977</v>
+        <v>44007</v>
       </c>
       <c r="B209">
-        <v>135.22</v>
+        <v>120.03</v>
       </c>
       <c r="C209">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D209">
-        <v>5.64</v>
+        <v>-13.25</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>43978</v>
+        <v>44008</v>
       </c>
       <c r="B210">
-        <v>122.32</v>
+        <v>123.12</v>
       </c>
       <c r="C210">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D210">
-        <v>-4.44</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>43979</v>
+        <v>44009</v>
       </c>
       <c r="B211">
-        <v>111.53</v>
+        <v>125.24</v>
       </c>
       <c r="C211">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D211">
-        <v>-12.87</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>43980</v>
+        <v>44010</v>
       </c>
       <c r="B212">
-        <v>105.05</v>
+        <v>122.99</v>
       </c>
       <c r="C212">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D212">
-        <v>-17.93</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>43981</v>
+        <v>44011</v>
       </c>
       <c r="B213">
-        <v>100.22</v>
+        <v>120.39</v>
       </c>
       <c r="C213">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D213">
-        <v>-21.71</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B214">
-        <v>96.67</v>
+        <v>119.67</v>
       </c>
       <c r="C214">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D214">
-        <v>-24.48</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B215">
-        <v>95.04000000000001</v>
+        <v>135.98</v>
       </c>
       <c r="C215">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D215">
-        <v>-31.31</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B216">
-        <v>93.76000000000001</v>
+        <v>157.81</v>
       </c>
       <c r="C216">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D216">
-        <v>-32.24</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B217">
-        <v>91.53</v>
+        <v>147.03</v>
       </c>
       <c r="C217">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D217">
-        <v>-33.85</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B218">
-        <v>94.69</v>
+        <v>137.25</v>
       </c>
       <c r="C218">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D218">
-        <v>-31.57</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B219">
-        <v>125.85</v>
+        <v>128.27</v>
       </c>
       <c r="C219">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D219">
-        <v>-9.050000000000001</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B220">
-        <v>153.61</v>
+        <v>122.45</v>
       </c>
       <c r="C220">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D220">
-        <v>11.02</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B221">
-        <v>163.02</v>
+        <v>123.52</v>
       </c>
       <c r="C221">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D221">
-        <v>17.82</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B222">
-        <v>147.54</v>
+        <v>140.43</v>
       </c>
       <c r="C222">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D222">
-        <v>6.63</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B223">
-        <v>145.65</v>
+        <v>158.15</v>
       </c>
       <c r="C223">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D223">
-        <v>5.26</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B224">
-        <v>278</v>
+        <v>170.08</v>
       </c>
       <c r="C224">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D224">
-        <v>100.91</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B225">
-        <v>259.32</v>
+        <v>157.05</v>
       </c>
       <c r="C225">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D225">
-        <v>87.41</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B226">
-        <v>251.39</v>
+        <v>146.65</v>
       </c>
       <c r="C226">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D226">
-        <v>81.68000000000001</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B227">
-        <v>226.04</v>
+        <v>140.3</v>
       </c>
       <c r="C227">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D227">
-        <v>63.36</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B228">
-        <v>206.4</v>
+        <v>134.47</v>
       </c>
       <c r="C228">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D228">
-        <v>49.16</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B229">
-        <v>190</v>
+        <v>130.05</v>
       </c>
       <c r="C229">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D229">
-        <v>37.31</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B230">
-        <v>176.32</v>
+        <v>125.01</v>
       </c>
       <c r="C230">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D230">
-        <v>27.43</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B231">
-        <v>163.4</v>
+        <v>121.39</v>
       </c>
       <c r="C231">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D231">
-        <v>18.09</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B232">
-        <v>153.78</v>
+        <v>119.31</v>
       </c>
       <c r="C232">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D232">
-        <v>11.14</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B233">
-        <v>146.42</v>
+        <v>116.15</v>
       </c>
       <c r="C233">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D233">
-        <v>5.81</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B234">
-        <v>140.38</v>
+        <v>114.07</v>
       </c>
       <c r="C234">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D234">
-        <v>1.45</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B235">
-        <v>134.93</v>
+        <v>111.75</v>
       </c>
       <c r="C235">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D235">
-        <v>-2.49</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B236">
-        <v>130.01</v>
+        <v>110.18</v>
       </c>
       <c r="C236">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D236">
-        <v>-6.04</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B237">
-        <v>126.22</v>
+        <v>109</v>
       </c>
       <c r="C237">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D237">
-        <v>-8.779999999999999</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B238">
-        <v>122.99</v>
+        <v>106.52</v>
       </c>
       <c r="C238">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D238">
-        <v>-11.12</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B239">
-        <v>120.03</v>
+        <v>104.51</v>
       </c>
       <c r="C239">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D239">
-        <v>-13.25</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B240">
-        <v>123.12</v>
+        <v>104.66</v>
       </c>
       <c r="C240">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D240">
-        <v>-11.02</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B241">
-        <v>125.24</v>
+        <v>103.49</v>
       </c>
       <c r="C241">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D241">
-        <v>-9.49</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B242">
-        <v>122.99</v>
+        <v>101.41</v>
       </c>
       <c r="C242">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D242">
-        <v>-11.12</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B243">
-        <v>120.39</v>
+        <v>101.25</v>
       </c>
       <c r="C243">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D243">
-        <v>-12.99</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B244">
-        <v>119.67</v>
+        <v>105.68</v>
       </c>
       <c r="C244">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D244">
-        <v>-13.52</v>
+        <v>-19.71</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B245">
-        <v>135.98</v>
+        <v>106.08</v>
       </c>
       <c r="C245">
         <v>131.62</v>
       </c>
       <c r="D245">
-        <v>3.31</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B246">
-        <v>157.81</v>
+        <v>101.46</v>
       </c>
       <c r="C246">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D246">
-        <v>19.9</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B247">
-        <v>147.03</v>
+        <v>99.94</v>
       </c>
       <c r="C247">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D247">
-        <v>11.71</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B248">
-        <v>137.25</v>
+        <v>98.25</v>
       </c>
       <c r="C248">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D248">
-        <v>4.27</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B249">
-        <v>128.27</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C249">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D249">
-        <v>-2.55</v>
+        <v>-18.93</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B250">
-        <v>122.45</v>
+        <v>94</v>
       </c>
       <c r="C250">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D250">
-        <v>-6.97</v>
+        <v>-20.83</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B251">
-        <v>123.52</v>
+        <v>91.13</v>
       </c>
       <c r="C251">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D251">
-        <v>-6.16</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B252">
-        <v>140.43</v>
+        <v>92.3</v>
       </c>
       <c r="C252">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D252">
-        <v>6.69</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B253">
-        <v>158.15</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C253">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D253">
-        <v>20.15</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B254">
-        <v>170.08</v>
+        <v>90.38</v>
       </c>
       <c r="C254">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D254">
-        <v>29.22</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B255">
-        <v>157.05</v>
+        <v>89.64</v>
       </c>
       <c r="C255">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D255">
-        <v>19.32</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B256">
-        <v>146.65</v>
+        <v>87.31</v>
       </c>
       <c r="C256">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D256">
-        <v>11.41</v>
+        <v>-26.46</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B257">
-        <v>140.3</v>
+        <v>88.31</v>
       </c>
       <c r="C257">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D257">
-        <v>6.59</v>
+        <v>-25.62</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B258">
-        <v>134.47</v>
+        <v>100.71</v>
       </c>
       <c r="C258">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D258">
-        <v>2.16</v>
+        <v>-15.18</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B259">
-        <v>130.05</v>
+        <v>125.19</v>
       </c>
       <c r="C259">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D259">
-        <v>-1.19</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B260">
-        <v>125.01</v>
+        <v>129.4</v>
       </c>
       <c r="C260">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D260">
-        <v>-5.02</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B261">
-        <v>121.39</v>
+        <v>144.85</v>
       </c>
       <c r="C261">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D261">
-        <v>-7.78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B262">
-        <v>119.31</v>
+        <v>153.78</v>
       </c>
       <c r="C262">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D262">
-        <v>-9.35</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B263">
-        <v>116.15</v>
+        <v>158.61</v>
       </c>
       <c r="C263">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D263">
-        <v>-11.76</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B264">
-        <v>114.07</v>
+        <v>177.33</v>
       </c>
       <c r="C264">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D264">
-        <v>-13.33</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B265">
-        <v>111.75</v>
+        <v>183.36</v>
       </c>
       <c r="C265">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D265">
-        <v>-15.1</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B266">
-        <v>110.18</v>
+        <v>175.84</v>
       </c>
       <c r="C266">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D266">
-        <v>-16.29</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B267">
-        <v>109</v>
+        <v>159.39</v>
       </c>
       <c r="C267">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D267">
-        <v>-17.19</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B268">
-        <v>106.52</v>
+        <v>146.09</v>
       </c>
       <c r="C268">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D268">
-        <v>-19.07</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B269">
-        <v>104.51</v>
+        <v>136.09</v>
       </c>
       <c r="C269">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D269">
-        <v>-20.6</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B270">
-        <v>104.66</v>
+        <v>128.77</v>
       </c>
       <c r="C270">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D270">
-        <v>-20.49</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B271">
-        <v>103.49</v>
+        <v>123.82</v>
       </c>
       <c r="C271">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D271">
-        <v>-21.37</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B272">
-        <v>101.41</v>
+        <v>119.18</v>
       </c>
       <c r="C272">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D272">
-        <v>-22.96</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B273">
-        <v>101.25</v>
+        <v>115.73</v>
       </c>
       <c r="C273">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D273">
-        <v>-23.08</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B274">
-        <v>105.68</v>
+        <v>113.28</v>
       </c>
       <c r="C274">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D274">
-        <v>-19.71</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B275">
-        <v>106.08</v>
+        <v>109.06</v>
       </c>
       <c r="C275">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D275">
-        <v>-19.4</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B276">
-        <v>101.46</v>
+        <v>107.37</v>
       </c>
       <c r="C276">
         <v>118.73</v>
       </c>
       <c r="D276">
-        <v>-14.55</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B277">
-        <v>99.94</v>
+        <v>105.41</v>
       </c>
       <c r="C277">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D277">
-        <v>-15.83</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B278">
-        <v>98.25</v>
+        <v>102.61</v>
       </c>
       <c r="C278">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D278">
-        <v>-17.25</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B279">
-        <v>96.26000000000001</v>
+        <v>102.73</v>
       </c>
       <c r="C279">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D279">
-        <v>-18.93</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B280">
-        <v>94</v>
+        <v>102.05</v>
       </c>
       <c r="C280">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D280">
-        <v>-20.83</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B281">
-        <v>91.13</v>
+        <v>98.3</v>
       </c>
       <c r="C281">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D281">
-        <v>-23.25</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B282">
-        <v>92.3</v>
+        <v>98.48</v>
       </c>
       <c r="C282">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D282">
-        <v>-22.26</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B283">
-        <v>92.48999999999999</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="C283">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D283">
-        <v>-22.1</v>
+        <v>-22.29</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B284">
-        <v>90.38</v>
+        <v>96.48</v>
       </c>
       <c r="C284">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D284">
-        <v>-23.88</v>
+        <v>-22.14</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B285">
-        <v>89.64</v>
+        <v>95.38</v>
       </c>
       <c r="C285">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D285">
-        <v>-24.51</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B286">
-        <v>87.31</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="C286">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D286">
-        <v>-26.46</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B287">
-        <v>88.31</v>
+        <v>92.52</v>
       </c>
       <c r="C287">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D287">
-        <v>-25.62</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B288">
-        <v>100.71</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="C288">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D288">
-        <v>-15.18</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B289">
-        <v>125.19</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C289">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D289">
-        <v>5.44</v>
+        <v>-26.65</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B290">
-        <v>129.4</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C290">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D290">
-        <v>8.98</v>
+        <v>-27.98</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B291">
-        <v>144.85</v>
+        <v>89.88</v>
       </c>
       <c r="C291">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D291">
-        <v>22</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B292">
-        <v>153.78</v>
+        <v>88.8</v>
       </c>
       <c r="C292">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D292">
-        <v>29.52</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B293">
-        <v>158.61</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="C293">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D293">
-        <v>33.59</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B294">
-        <v>177.33</v>
+        <v>85.75</v>
       </c>
       <c r="C294">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D294">
-        <v>49.36</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B295">
-        <v>183.36</v>
+        <v>86.56</v>
       </c>
       <c r="C295">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D295">
-        <v>54.44</v>
+        <v>-30.15</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B296">
-        <v>175.84</v>
+        <v>87.2</v>
       </c>
       <c r="C296">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D296">
-        <v>48.1</v>
+        <v>-29.63</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B297">
-        <v>159.39</v>
+        <v>84.45</v>
       </c>
       <c r="C297">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D297">
-        <v>34.24</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B298">
-        <v>146.09</v>
+        <v>83.56</v>
       </c>
       <c r="C298">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D298">
-        <v>23.05</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B299">
-        <v>136.09</v>
+        <v>83</v>
       </c>
       <c r="C299">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D299">
-        <v>14.62</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B300">
-        <v>128.77</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C300">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D300">
-        <v>8.460000000000001</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B301">
-        <v>123.82</v>
+        <v>81.36</v>
       </c>
       <c r="C301">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D301">
-        <v>4.29</v>
+        <v>-34.34</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B302">
-        <v>119.18</v>
+        <v>81.66</v>
       </c>
       <c r="C302">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D302">
-        <v>0.37</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B303">
-        <v>115.73</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="C303">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D303">
-        <v>-2.53</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B304">
-        <v>113.28</v>
+        <v>81.08</v>
       </c>
       <c r="C304">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D304">
-        <v>-4.59</v>
+        <v>-34.56</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B305">
-        <v>109.06</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C305">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D305">
-        <v>-8.140000000000001</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B306">
-        <v>107.37</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C306">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D306">
-        <v>-9.57</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B307">
-        <v>105.41</v>
+        <v>85.11</v>
       </c>
       <c r="C307">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D307">
-        <v>-14.94</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B308">
-        <v>102.61</v>
+        <v>81.94</v>
       </c>
       <c r="C308">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D308">
-        <v>-17.19</v>
+        <v>-45.66</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B309">
-        <v>102.73</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="C309">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D309">
-        <v>-17.1</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B310">
-        <v>102.05</v>
+        <v>79.08</v>
       </c>
       <c r="C310">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D310">
-        <v>-17.64</v>
+        <v>-47.56</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B311">
-        <v>98.3</v>
+        <v>77.2</v>
       </c>
       <c r="C311">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D311">
-        <v>-20.67</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B312">
-        <v>98.48</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="C312">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D312">
-        <v>-20.53</v>
+        <v>-49.94</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B313">
-        <v>96.29000000000001</v>
+        <v>73.41</v>
       </c>
       <c r="C313">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D313">
-        <v>-22.29</v>
+        <v>-51.32</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B314">
-        <v>96.48</v>
+        <v>78.95</v>
       </c>
       <c r="C314">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D314">
-        <v>-22.14</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B315">
-        <v>95.38</v>
+        <v>83.36</v>
       </c>
       <c r="C315">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D315">
-        <v>-23.03</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B316">
-        <v>93.70999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C316">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D316">
-        <v>-24.38</v>
+        <v>-43.23</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B317">
-        <v>92.52</v>
+        <v>85.34</v>
       </c>
       <c r="C317">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D317">
-        <v>-25.34</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B318">
-        <v>93.54000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C318">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D318">
-        <v>-24.51</v>
+        <v>-44.89</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B319">
-        <v>90.90000000000001</v>
+        <v>81.05</v>
       </c>
       <c r="C319">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D319">
-        <v>-26.65</v>
+        <v>-46.25</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B320">
-        <v>89.23999999999999</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C320">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D320">
-        <v>-27.98</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B321">
-        <v>89.88</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C321">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D321">
-        <v>-27.47</v>
+        <v>-43.53</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B322">
-        <v>88.8</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="C322">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D322">
-        <v>-28.34</v>
+        <v>-43.99</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B323">
-        <v>88.20999999999999</v>
+        <v>82.84</v>
       </c>
       <c r="C323">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D323">
-        <v>-28.81</v>
+        <v>-45.06</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B324">
-        <v>85.75</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C324">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D324">
-        <v>-30.8</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B325">
-        <v>86.56</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C325">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D325">
-        <v>-30.15</v>
+        <v>-47.29</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B326">
-        <v>87.2</v>
+        <v>75.75</v>
       </c>
       <c r="C326">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D326">
-        <v>-29.63</v>
+        <v>-49.77</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B327">
-        <v>84.45</v>
+        <v>73.7</v>
       </c>
       <c r="C327">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D327">
-        <v>-31.85</v>
+        <v>-51.13</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B328">
-        <v>83.56</v>
+        <v>73.27</v>
       </c>
       <c r="C328">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D328">
-        <v>-32.57</v>
+        <v>-51.41</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B329">
-        <v>83</v>
+        <v>74.39</v>
       </c>
       <c r="C329">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D329">
-        <v>-33.02</v>
+        <v>-50.67</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B330">
-        <v>81.90000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C330">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D330">
-        <v>-33.91</v>
+        <v>-51.66</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B331">
-        <v>81.36</v>
+        <v>71.67</v>
       </c>
       <c r="C331">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D331">
-        <v>-34.34</v>
+        <v>-52.47</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B332">
-        <v>81.66</v>
+        <v>70.88</v>
       </c>
       <c r="C332">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D332">
-        <v>-34.1</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B333">
-        <v>79.54000000000001</v>
+        <v>73.23</v>
       </c>
       <c r="C333">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D333">
-        <v>-35.81</v>
+        <v>-51.44</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B334">
-        <v>81.08</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C334">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D334">
-        <v>-34.56</v>
+        <v>-53.53</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B335">
-        <v>85.40000000000001</v>
+        <v>71.47</v>
       </c>
       <c r="C335">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D335">
-        <v>-31.08</v>
+        <v>-52.6</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B336">
-        <v>88.48999999999999</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C336">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D336">
-        <v>-28.59</v>
+        <v>-53.41</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B337">
-        <v>85.11</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="C337">
         <v>150.79</v>
       </c>
       <c r="D337">
-        <v>-43.56</v>
+        <v>-53.15</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B338">
-        <v>81.94</v>
+        <v>70.31</v>
       </c>
       <c r="C338">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D338">
-        <v>-45.66</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B339">
-        <v>81.20999999999999</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="C339">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D339">
-        <v>-46.15</v>
+        <v>-50.76</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B340">
-        <v>79.08</v>
+        <v>69.66</v>
       </c>
       <c r="C340">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D340">
-        <v>-47.56</v>
+        <v>-50.47</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B341">
-        <v>77.2</v>
+        <v>69.95</v>
       </c>
       <c r="C341">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D341">
-        <v>-48.81</v>
+        <v>-50.26</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B342">
-        <v>75.48999999999999</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="C342">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D342">
-        <v>-49.94</v>
+        <v>-51.7</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B343">
-        <v>73.41</v>
+        <v>67.36</v>
       </c>
       <c r="C343">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D343">
-        <v>-51.32</v>
+        <v>-52.1</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B344">
-        <v>78.95</v>
+        <v>66.19</v>
       </c>
       <c r="C344">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D344">
-        <v>-47.64</v>
+        <v>-52.93</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B345">
-        <v>83.36</v>
+        <v>65.41</v>
       </c>
       <c r="C345">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D345">
-        <v>-44.72</v>
+        <v>-53.49</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B346">
-        <v>85.59999999999999</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="C346">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D346">
-        <v>-43.23</v>
+        <v>-51.47</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B347">
-        <v>85.34</v>
+        <v>66.95</v>
       </c>
       <c r="C347">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D347">
-        <v>-43.4</v>
+        <v>-52.39</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B348">
-        <v>83.09999999999999</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C348">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D348">
-        <v>-44.89</v>
+        <v>-51.9</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B349">
-        <v>81.05</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C349">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D349">
-        <v>-46.25</v>
+        <v>-49.68</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B350">
-        <v>81.98999999999999</v>
+        <v>70.52</v>
       </c>
       <c r="C350">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D350">
-        <v>-45.63</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B351">
-        <v>85.15000000000001</v>
+        <v>71.98</v>
       </c>
       <c r="C351">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D351">
-        <v>-43.53</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B352">
-        <v>84.45999999999999</v>
+        <v>73.11</v>
       </c>
       <c r="C352">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D352">
-        <v>-43.99</v>
+        <v>-48.01</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B353">
-        <v>82.84</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="C353">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D353">
-        <v>-45.06</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B354">
-        <v>79.81999999999999</v>
+        <v>74.09</v>
       </c>
       <c r="C354">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D354">
-        <v>-47.06</v>
+        <v>-47.31</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B355">
-        <v>79.48999999999999</v>
+        <v>78</v>
       </c>
       <c r="C355">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D355">
-        <v>-47.29</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B356">
-        <v>75.75</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="C356">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D356">
-        <v>-49.77</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B357">
-        <v>73.7</v>
+        <v>75.48</v>
       </c>
       <c r="C357">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D357">
-        <v>-51.13</v>
+        <v>-46.33</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B358">
-        <v>73.27</v>
+        <v>72.61</v>
       </c>
       <c r="C358">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D358">
-        <v>-51.41</v>
+        <v>-48.36</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B359">
-        <v>74.39</v>
+        <v>70.62</v>
       </c>
       <c r="C359">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D359">
-        <v>-50.67</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B360">
-        <v>72.90000000000001</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C360">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D360">
-        <v>-51.66</v>
+        <v>-48.44</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B361">
-        <v>71.67</v>
+        <v>72.83</v>
       </c>
       <c r="C361">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D361">
-        <v>-52.47</v>
+        <v>-48.21</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B362">
-        <v>70.88</v>
+        <v>69.14</v>
       </c>
       <c r="C362">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D362">
-        <v>-53</v>
+        <v>-50.84</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B363">
-        <v>73.23</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C363">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D363">
-        <v>-51.44</v>
+        <v>-52.88</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B364">
-        <v>70.06999999999999</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C364">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D364">
-        <v>-53.53</v>
+        <v>-52.53</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B365">
-        <v>71.47</v>
+        <v>68.23</v>
       </c>
       <c r="C365">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D365">
-        <v>-52.6</v>
+        <v>-51.48</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B366">
-        <v>70.26000000000001</v>
+        <v>66.03</v>
       </c>
       <c r="C366">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D366">
-        <v>-53.41</v>
+        <v>-53.04</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B367">
-        <v>70.65000000000001</v>
+        <v>73.44</v>
       </c>
       <c r="C367">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D367">
-        <v>-53.15</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B368">
-        <v>70.31</v>
-      </c>
-      <c r="C368">
-        <v>140.62</v>
-      </c>
-      <c r="D368">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B369">
-        <v>69.23999999999999</v>
-      </c>
-      <c r="C369">
-        <v>140.62</v>
-      </c>
-      <c r="D369">
-        <v>-50.76</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B370">
-        <v>69.66</v>
-      </c>
-      <c r="C370">
-        <v>140.62</v>
-      </c>
-      <c r="D370">
-        <v>-50.47</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B371">
-        <v>69.95</v>
-      </c>
-      <c r="C371">
-        <v>140.62</v>
-      </c>
-      <c r="D371">
-        <v>-50.26</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B372">
-        <v>67.93000000000001</v>
-      </c>
-      <c r="C372">
-        <v>140.62</v>
-      </c>
-      <c r="D372">
-        <v>-51.7</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B373">
-        <v>67.36</v>
-      </c>
-      <c r="C373">
-        <v>140.62</v>
-      </c>
-      <c r="D373">
-        <v>-52.1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B374">
-        <v>66.19</v>
-      </c>
-      <c r="C374">
-        <v>140.62</v>
-      </c>
-      <c r="D374">
-        <v>-52.93</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B375">
-        <v>65.41</v>
-      </c>
-      <c r="C375">
-        <v>140.62</v>
-      </c>
-      <c r="D375">
-        <v>-53.49</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44144</v>
-      </c>
-      <c r="B376">
-        <v>68.23999999999999</v>
-      </c>
-      <c r="C376">
-        <v>140.62</v>
-      </c>
-      <c r="D376">
-        <v>-51.47</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44145</v>
-      </c>
-      <c r="B377">
-        <v>66.95</v>
-      </c>
-      <c r="C377">
-        <v>140.62</v>
-      </c>
-      <c r="D377">
-        <v>-52.39</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B378">
-        <v>67.65000000000001</v>
-      </c>
-      <c r="C378">
-        <v>140.62</v>
-      </c>
-      <c r="D378">
-        <v>-51.9</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B379">
-        <v>70.76000000000001</v>
-      </c>
-      <c r="C379">
-        <v>140.62</v>
-      </c>
-      <c r="D379">
-        <v>-49.68</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B380">
-        <v>70.52</v>
-      </c>
-      <c r="C380">
-        <v>140.62</v>
-      </c>
-      <c r="D380">
-        <v>-49.85</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B381">
-        <v>71.98</v>
-      </c>
-      <c r="C381">
-        <v>140.62</v>
-      </c>
-      <c r="D381">
-        <v>-48.81</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B382">
-        <v>73.11</v>
-      </c>
-      <c r="C382">
-        <v>140.62</v>
-      </c>
-      <c r="D382">
-        <v>-48.01</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B383">
-        <v>73.65000000000001</v>
-      </c>
-      <c r="C383">
-        <v>140.62</v>
-      </c>
-      <c r="D383">
-        <v>-47.63</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B384">
-        <v>74.09</v>
-      </c>
-      <c r="C384">
-        <v>140.62</v>
-      </c>
-      <c r="D384">
-        <v>-47.31</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B385">
-        <v>78</v>
-      </c>
-      <c r="C385">
-        <v>140.62</v>
-      </c>
-      <c r="D385">
-        <v>-44.53</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B386">
-        <v>77.68000000000001</v>
-      </c>
-      <c r="C386">
-        <v>140.62</v>
-      </c>
-      <c r="D386">
-        <v>-44.76</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B387">
-        <v>75.48</v>
-      </c>
-      <c r="C387">
-        <v>140.62</v>
-      </c>
-      <c r="D387">
-        <v>-46.33</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B388">
-        <v>72.61</v>
-      </c>
-      <c r="C388">
-        <v>140.62</v>
-      </c>
-      <c r="D388">
-        <v>-48.36</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B389">
-        <v>70.62</v>
-      </c>
-      <c r="C389">
-        <v>140.62</v>
-      </c>
-      <c r="D389">
-        <v>-49.78</v>
+        <v>-47.78</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -417,170 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B2">
-        <v>105.52</v>
+        <v>85.51000000000001</v>
       </c>
       <c r="C2">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D2">
-        <v>-13.27</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B3">
-        <v>85.51000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="C3">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D3">
-        <v>-25.46</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B4">
-        <v>94.27</v>
+        <v>78.78</v>
       </c>
       <c r="C4">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D4">
-        <v>-18.6</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B5">
-        <v>78.78</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C5">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D5">
-        <v>-26.56</v>
+        <v>-41.13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B6">
-        <v>64.23999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="C6">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D6">
-        <v>-41.13</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B7">
-        <v>89.79000000000001</v>
+        <v>151.59</v>
       </c>
       <c r="C7">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D7">
-        <v>-29.85</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B8">
-        <v>151.59</v>
+        <v>125.48</v>
       </c>
       <c r="C8">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D8">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B9">
-        <v>125.48</v>
+        <v>120.3</v>
       </c>
       <c r="C9">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D9">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B10">
-        <v>120.3</v>
+        <v>90.48</v>
       </c>
       <c r="C10">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D10">
-        <v>1.32</v>
+        <v>-26.98</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B11">
-        <v>90.48</v>
+        <v>77.83</v>
       </c>
       <c r="C11">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D11">
-        <v>-26.98</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B12">
-        <v>77.83</v>
+        <v>70.42</v>
       </c>
       <c r="C12">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D12">
-        <v>-48.38</v>
+        <v>-49.92</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B13">
-        <v>70.42</v>
+        <v>106.63</v>
       </c>
       <c r="C13">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D13">
-        <v>-49.92</v>
+        <v>-12.35</v>
       </c>
     </row>
   </sheetData>
@@ -617,5126 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B2">
-        <v>114.39</v>
+        <v>85.73999999999999</v>
       </c>
       <c r="C2">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D2">
-        <v>-5.98</v>
+        <v>-25.26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43801</v>
+        <v>43832</v>
       </c>
       <c r="B3">
-        <v>105.81</v>
+        <v>86.78</v>
       </c>
       <c r="C3">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D3">
-        <v>-13.03</v>
+        <v>-24.35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43802</v>
+        <v>43833</v>
       </c>
       <c r="B4">
-        <v>98.89</v>
+        <v>88.05</v>
       </c>
       <c r="C4">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D4">
-        <v>-18.72</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43803</v>
+        <v>43834</v>
       </c>
       <c r="B5">
-        <v>96.70999999999999</v>
+        <v>87.19</v>
       </c>
       <c r="C5">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D5">
-        <v>-20.51</v>
+        <v>-24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43804</v>
+        <v>43835</v>
       </c>
       <c r="B6">
-        <v>102.56</v>
+        <v>85.06</v>
       </c>
       <c r="C6">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D6">
-        <v>-15.69</v>
+        <v>-25.85</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43805</v>
+        <v>43836</v>
       </c>
       <c r="B7">
-        <v>114.86</v>
+        <v>83.14</v>
       </c>
       <c r="C7">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D7">
-        <v>-5.58</v>
+        <v>-27.53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43806</v>
+        <v>43837</v>
       </c>
       <c r="B8">
-        <v>109.06</v>
+        <v>81.23999999999999</v>
       </c>
       <c r="C8">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D8">
-        <v>-10.35</v>
+        <v>-29.18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43807</v>
+        <v>43838</v>
       </c>
       <c r="B9">
-        <v>104.52</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C9">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D9">
-        <v>-14.09</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43808</v>
+        <v>43839</v>
       </c>
       <c r="B10">
-        <v>100.28</v>
+        <v>79.84</v>
       </c>
       <c r="C10">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D10">
-        <v>-17.57</v>
+        <v>-30.4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43809</v>
+        <v>43840</v>
       </c>
       <c r="B11">
-        <v>97.44</v>
+        <v>82.23999999999999</v>
       </c>
       <c r="C11">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D11">
-        <v>-19.91</v>
+        <v>-28.31</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43810</v>
+        <v>43841</v>
       </c>
       <c r="B12">
-        <v>97.53</v>
+        <v>92.91</v>
       </c>
       <c r="C12">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D12">
-        <v>-19.83</v>
+        <v>-19.01</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43811</v>
+        <v>43842</v>
       </c>
       <c r="B13">
-        <v>97.64</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="C13">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D13">
-        <v>-19.74</v>
+        <v>-13.69</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43812</v>
+        <v>43843</v>
       </c>
       <c r="B14">
-        <v>96.66</v>
+        <v>98.19</v>
       </c>
       <c r="C14">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D14">
-        <v>-20.55</v>
+        <v>-14.41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43813</v>
+        <v>43844</v>
       </c>
       <c r="B15">
-        <v>95.23999999999999</v>
+        <v>97.77</v>
       </c>
       <c r="C15">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D15">
-        <v>-21.71</v>
+        <v>-14.77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43814</v>
+        <v>43845</v>
       </c>
       <c r="B16">
-        <v>96.41</v>
+        <v>92.33</v>
       </c>
       <c r="C16">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D16">
-        <v>-20.76</v>
+        <v>-19.51</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43815</v>
+        <v>43846</v>
       </c>
       <c r="B17">
-        <v>113.16</v>
+        <v>90.16</v>
       </c>
       <c r="C17">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D17">
-        <v>-6.99</v>
+        <v>-21.41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43816</v>
+        <v>43847</v>
       </c>
       <c r="B18">
-        <v>126.32</v>
+        <v>94.70999999999999</v>
       </c>
       <c r="C18">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D18">
-        <v>3.84</v>
+        <v>-17.44</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43817</v>
+        <v>43848</v>
       </c>
       <c r="B19">
-        <v>140.45</v>
+        <v>92.47</v>
       </c>
       <c r="C19">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D19">
-        <v>15.45</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43818</v>
+        <v>43849</v>
       </c>
       <c r="B20">
-        <v>134.61</v>
+        <v>90.15000000000001</v>
       </c>
       <c r="C20">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D20">
-        <v>10.65</v>
+        <v>-21.42</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43819</v>
+        <v>43850</v>
       </c>
       <c r="B21">
-        <v>125.88</v>
+        <v>85.81</v>
       </c>
       <c r="C21">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D21">
-        <v>3.47</v>
+        <v>-25.2</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43820</v>
+        <v>43851</v>
       </c>
       <c r="B22">
-        <v>121.88</v>
+        <v>82.5</v>
       </c>
       <c r="C22">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D22">
-        <v>0.18</v>
+        <v>-28.08</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43821</v>
+        <v>43852</v>
       </c>
       <c r="B23">
-        <v>116.14</v>
+        <v>83.54000000000001</v>
       </c>
       <c r="C23">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D23">
-        <v>-4.54</v>
+        <v>-27.18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43822</v>
+        <v>43853</v>
       </c>
       <c r="B24">
-        <v>110.85</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C24">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D24">
-        <v>-8.880000000000001</v>
+        <v>-29.82</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43823</v>
+        <v>43854</v>
       </c>
       <c r="B25">
-        <v>106.47</v>
+        <v>80.39</v>
       </c>
       <c r="C25">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D25">
-        <v>-12.48</v>
+        <v>-29.93</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43824</v>
+        <v>43855</v>
       </c>
       <c r="B26">
-        <v>101.73</v>
+        <v>79.81</v>
       </c>
       <c r="C26">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D26">
-        <v>-16.38</v>
+        <v>-30.43</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43825</v>
+        <v>43856</v>
       </c>
       <c r="B27">
-        <v>97.34999999999999</v>
+        <v>76.78</v>
       </c>
       <c r="C27">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D27">
-        <v>-19.98</v>
+        <v>-33.07</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43826</v>
+        <v>43857</v>
       </c>
       <c r="B28">
-        <v>94.23</v>
+        <v>75.11</v>
       </c>
       <c r="C28">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D28">
-        <v>-22.54</v>
+        <v>-34.52</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43827</v>
+        <v>43858</v>
       </c>
       <c r="B29">
-        <v>91.77</v>
+        <v>73.59</v>
       </c>
       <c r="C29">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D29">
-        <v>-24.57</v>
+        <v>-35.85</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43828</v>
+        <v>43859</v>
       </c>
       <c r="B30">
-        <v>89.31</v>
+        <v>73.41</v>
       </c>
       <c r="C30">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D30">
-        <v>-26.59</v>
+        <v>-36.01</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43829</v>
+        <v>43860</v>
       </c>
       <c r="B31">
-        <v>86.98999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="C31">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D31">
-        <v>-28.5</v>
+        <v>-30.86</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43830</v>
+        <v>43861</v>
       </c>
       <c r="B32">
-        <v>85.91</v>
+        <v>93.23</v>
       </c>
       <c r="C32">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D32">
-        <v>-29.39</v>
+        <v>-18.73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B33">
-        <v>85.73999999999999</v>
+        <v>120.88</v>
       </c>
       <c r="C33">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D33">
-        <v>-25.26</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B34">
-        <v>86.78</v>
+        <v>118.7</v>
       </c>
       <c r="C34">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D34">
-        <v>-24.35</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B35">
-        <v>88.05</v>
+        <v>120.65</v>
       </c>
       <c r="C35">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D35">
-        <v>-23.25</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B36">
-        <v>87.19</v>
+        <v>114.47</v>
       </c>
       <c r="C36">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D36">
-        <v>-24</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B37">
-        <v>85.06</v>
+        <v>107.43</v>
       </c>
       <c r="C37">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D37">
-        <v>-25.85</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B38">
-        <v>83.14</v>
+        <v>100.39</v>
       </c>
       <c r="C38">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D38">
-        <v>-27.53</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B39">
-        <v>81.23999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C39">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D39">
-        <v>-29.18</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B40">
-        <v>79.81999999999999</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C40">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D40">
-        <v>-30.42</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B41">
-        <v>79.84</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C41">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D41">
-        <v>-30.4</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B42">
-        <v>82.23999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="C42">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D42">
-        <v>-28.31</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B43">
-        <v>92.91</v>
+        <v>89.55</v>
       </c>
       <c r="C43">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D43">
-        <v>-19.01</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B44">
-        <v>99.01000000000001</v>
+        <v>91.88</v>
       </c>
       <c r="C44">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D44">
-        <v>-13.69</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B45">
-        <v>98.19</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C45">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D45">
-        <v>-14.41</v>
+        <v>-25.61</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B46">
-        <v>97.77</v>
+        <v>82.5</v>
       </c>
       <c r="C46">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D46">
-        <v>-14.77</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B47">
-        <v>92.33</v>
+        <v>81.14</v>
       </c>
       <c r="C47">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D47">
-        <v>-19.51</v>
+        <v>-29.94</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B48">
-        <v>90.16</v>
+        <v>78.66</v>
       </c>
       <c r="C48">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D48">
-        <v>-21.41</v>
+        <v>-32.08</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B49">
-        <v>94.70999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C49">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D49">
-        <v>-17.44</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B50">
-        <v>92.47</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C50">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D50">
-        <v>-19.4</v>
+        <v>-34.07</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B51">
-        <v>90.15000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C51">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D51">
-        <v>-21.42</v>
+        <v>-31.83</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B52">
-        <v>85.81</v>
+        <v>76.77</v>
       </c>
       <c r="C52">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D52">
-        <v>-25.2</v>
+        <v>-33.71</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B53">
-        <v>82.5</v>
+        <v>74.33</v>
       </c>
       <c r="C53">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D53">
-        <v>-28.08</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B54">
-        <v>83.54000000000001</v>
+        <v>69.28</v>
       </c>
       <c r="C54">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D54">
-        <v>-27.18</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B55">
-        <v>80.51000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C55">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D55">
-        <v>-29.82</v>
+        <v>-37.23</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B56">
-        <v>80.39</v>
+        <v>71.12</v>
       </c>
       <c r="C56">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D56">
-        <v>-29.93</v>
+        <v>-38.58</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B57">
-        <v>79.81</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C57">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D57">
-        <v>-30.43</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B58">
-        <v>76.78</v>
+        <v>121.18</v>
       </c>
       <c r="C58">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D58">
-        <v>-33.07</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B59">
-        <v>75.11</v>
+        <v>154.98</v>
       </c>
       <c r="C59">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D59">
-        <v>-34.52</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B60">
-        <v>73.59</v>
+        <v>127.87</v>
       </c>
       <c r="C60">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D60">
-        <v>-35.85</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B61">
-        <v>73.41</v>
+        <v>112.27</v>
       </c>
       <c r="C61">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D61">
-        <v>-36.01</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B62">
-        <v>79.31</v>
+        <v>104.91</v>
       </c>
       <c r="C62">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D62">
-        <v>-30.86</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B63">
-        <v>93.23</v>
+        <v>97.91</v>
       </c>
       <c r="C63">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D63">
-        <v>-18.73</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B64">
-        <v>120.88</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C64">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D64">
-        <v>4.37</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B65">
-        <v>118.7</v>
+        <v>91.27</v>
       </c>
       <c r="C65">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D65">
-        <v>2.49</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B66">
-        <v>120.65</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="C66">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D66">
-        <v>4.18</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B67">
-        <v>114.47</v>
+        <v>84.34</v>
       </c>
       <c r="C67">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D67">
-        <v>-1.16</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B68">
-        <v>107.43</v>
+        <v>82.19</v>
       </c>
       <c r="C68">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D68">
-        <v>-7.24</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B69">
-        <v>100.39</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C69">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D69">
-        <v>-13.32</v>
+        <v>-24.95</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B70">
-        <v>95.3</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C70">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D70">
-        <v>-17.71</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B71">
-        <v>89.29000000000001</v>
+        <v>78.25</v>
       </c>
       <c r="C71">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D71">
-        <v>-22.9</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B72">
-        <v>87.84999999999999</v>
+        <v>80.05</v>
       </c>
       <c r="C72">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D72">
-        <v>-24.14</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B73">
-        <v>87.42</v>
+        <v>77.22</v>
       </c>
       <c r="C73">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D73">
-        <v>-24.52</v>
+        <v>-28.02</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B74">
-        <v>89.55</v>
+        <v>74.05</v>
       </c>
       <c r="C74">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D74">
-        <v>-22.67</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B75">
-        <v>91.88</v>
+        <v>77.17</v>
       </c>
       <c r="C75">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D75">
-        <v>-20.67</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B76">
-        <v>86.15000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C76">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D76">
-        <v>-25.61</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B77">
-        <v>82.5</v>
+        <v>70.94</v>
       </c>
       <c r="C77">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D77">
-        <v>-28.76</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B78">
-        <v>81.14</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C78">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D78">
-        <v>-29.94</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B79">
-        <v>78.66</v>
+        <v>70.69</v>
       </c>
       <c r="C79">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D79">
-        <v>-32.08</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B80">
-        <v>74.65000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="C80">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D80">
-        <v>-35.54</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B81">
-        <v>76.34999999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C81">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D81">
-        <v>-34.07</v>
+        <v>-20.43</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B82">
-        <v>78.95</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C82">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D82">
-        <v>-31.83</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B83">
-        <v>76.77</v>
+        <v>83</v>
       </c>
       <c r="C83">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D83">
-        <v>-33.71</v>
+        <v>-22.63</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B84">
-        <v>74.33</v>
+        <v>77.03</v>
       </c>
       <c r="C84">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D84">
-        <v>-35.81</v>
+        <v>-28.19</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B85">
-        <v>69.28</v>
+        <v>75.14</v>
       </c>
       <c r="C85">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D85">
-        <v>-40.18</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B86">
-        <v>72.7</v>
+        <v>74.05</v>
       </c>
       <c r="C86">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D86">
-        <v>-37.23</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B87">
-        <v>71.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C87">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D87">
-        <v>-38.58</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B88">
-        <v>71.09999999999999</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C88">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D88">
-        <v>-38.6</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B89">
-        <v>121.18</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C89">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D89">
-        <v>4.63</v>
+        <v>-35.58</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B90">
-        <v>154.98</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C90">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D90">
-        <v>33.82</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B91">
-        <v>127.87</v>
+        <v>63.99</v>
       </c>
       <c r="C91">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D91">
-        <v>10.41</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B92">
-        <v>112.27</v>
+        <v>66.53</v>
       </c>
       <c r="C92">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D92">
-        <v>-3.06</v>
+        <v>-37.98</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B93">
-        <v>104.91</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C93">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D93">
-        <v>-2.21</v>
+        <v>-39.7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B94">
-        <v>97.91</v>
+        <v>68.42</v>
       </c>
       <c r="C94">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D94">
-        <v>-8.73</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B95">
-        <v>93.18000000000001</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C95">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D95">
-        <v>-13.14</v>
+        <v>-40.27</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B96">
-        <v>91.27</v>
+        <v>63.12</v>
       </c>
       <c r="C96">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D96">
-        <v>-14.92</v>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B97">
-        <v>86.48999999999999</v>
+        <v>62.56</v>
       </c>
       <c r="C97">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D97">
-        <v>-19.37</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B98">
-        <v>84.34</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C98">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D98">
-        <v>-21.38</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B99">
-        <v>82.19</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C99">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D99">
-        <v>-23.39</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B100">
-        <v>80.51000000000001</v>
+        <v>69.75</v>
       </c>
       <c r="C100">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D100">
-        <v>-24.95</v>
+        <v>-36.07</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B101">
-        <v>81.56999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C101">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D101">
-        <v>-23.96</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B102">
-        <v>78.25</v>
+        <v>69.62</v>
       </c>
       <c r="C102">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D102">
-        <v>-27.06</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B103">
-        <v>80.05</v>
+        <v>68.02</v>
       </c>
       <c r="C103">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D103">
-        <v>-25.38</v>
+        <v>-37.66</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B104">
-        <v>77.22</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C104">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D104">
-        <v>-28.02</v>
+        <v>-39.96</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B105">
-        <v>74.05</v>
+        <v>62.9</v>
       </c>
       <c r="C105">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D105">
-        <v>-30.97</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B106">
-        <v>77.17</v>
+        <v>69.23</v>
       </c>
       <c r="C106">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D106">
-        <v>-28.07</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B107">
-        <v>74.3</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C107">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D107">
-        <v>-30.74</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B108">
-        <v>70.94</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C108">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D108">
-        <v>-33.87</v>
+        <v>-38.63</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B109">
-        <v>69.51000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="C109">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D109">
-        <v>-35.2</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B110">
-        <v>70.69</v>
+        <v>65.27</v>
       </c>
       <c r="C110">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D110">
-        <v>-34.11</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B111">
-        <v>76.33</v>
+        <v>65.84</v>
       </c>
       <c r="C111">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D111">
-        <v>-28.84</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B112">
-        <v>85.34999999999999</v>
+        <v>63.15</v>
       </c>
       <c r="C112">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D112">
-        <v>-20.43</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B113">
-        <v>88.31999999999999</v>
+        <v>64</v>
       </c>
       <c r="C113">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D113">
-        <v>-17.67</v>
+        <v>-41.34</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B114">
-        <v>83</v>
+        <v>61.79</v>
       </c>
       <c r="C114">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D114">
-        <v>-22.63</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B115">
-        <v>77.03</v>
+        <v>60.36</v>
       </c>
       <c r="C115">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D115">
-        <v>-28.19</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B116">
-        <v>75.14</v>
+        <v>60.67</v>
       </c>
       <c r="C116">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D116">
-        <v>-29.96</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B117">
-        <v>74.05</v>
+        <v>59.35</v>
       </c>
       <c r="C117">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D117">
-        <v>-30.97</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B118">
-        <v>71.81999999999999</v>
+        <v>59.79</v>
       </c>
       <c r="C118">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D118">
-        <v>-33.05</v>
+        <v>-45.2</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B119">
-        <v>70.84999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C119">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D119">
-        <v>-33.95</v>
+        <v>-44.32</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B120">
-        <v>69.09999999999999</v>
+        <v>57.81</v>
       </c>
       <c r="C120">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D120">
-        <v>-35.58</v>
+        <v>-47.02</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B121">
-        <v>66.06999999999999</v>
+        <v>56.32</v>
       </c>
       <c r="C121">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D121">
-        <v>-38.41</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B122">
-        <v>63.99</v>
+        <v>53.63</v>
       </c>
       <c r="C122">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D122">
-        <v>-40.35</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B123">
-        <v>66.53</v>
+        <v>53.96</v>
       </c>
       <c r="C123">
-        <v>107.27</v>
+        <v>128</v>
       </c>
       <c r="D123">
-        <v>-37.98</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B124">
-        <v>65.79000000000001</v>
+        <v>54.47</v>
       </c>
       <c r="C124">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D124">
-        <v>-39.7</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B125">
-        <v>68.42</v>
+        <v>54.7</v>
       </c>
       <c r="C125">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D125">
-        <v>-37.3</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B126">
-        <v>65.18000000000001</v>
+        <v>53.75</v>
       </c>
       <c r="C126">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D126">
-        <v>-40.27</v>
+        <v>-58.01</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B127">
-        <v>63.12</v>
+        <v>55.35</v>
       </c>
       <c r="C127">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D127">
-        <v>-42.15</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B128">
-        <v>62.56</v>
+        <v>59.28</v>
       </c>
       <c r="C128">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D128">
-        <v>-42.66</v>
+        <v>-53.69</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B129">
-        <v>65.95999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C129">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D129">
-        <v>-39.55</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B130">
-        <v>67.34999999999999</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C130">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D130">
-        <v>-38.27</v>
+        <v>-43.61</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B131">
-        <v>69.75</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C131">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D131">
-        <v>-36.07</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B132">
-        <v>71.09999999999999</v>
+        <v>68.81</v>
       </c>
       <c r="C132">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D132">
-        <v>-34.83</v>
+        <v>-46.24</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B133">
-        <v>69.62</v>
+        <v>69.45</v>
       </c>
       <c r="C133">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D133">
-        <v>-36.19</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B134">
-        <v>68.02</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C134">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D134">
-        <v>-37.66</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B135">
-        <v>65.51000000000001</v>
+        <v>82.03</v>
       </c>
       <c r="C135">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D135">
-        <v>-39.96</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B136">
-        <v>62.9</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C136">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D136">
-        <v>-42.36</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B137">
-        <v>69.23</v>
+        <v>102.78</v>
       </c>
       <c r="C137">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D137">
-        <v>-36.55</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B138">
-        <v>70.06999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="C138">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D138">
-        <v>-35.78</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B139">
-        <v>66.95999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C139">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D139">
-        <v>-38.63</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B140">
-        <v>66.87</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C140">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D140">
-        <v>-38.71</v>
+        <v>-35.74</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B141">
-        <v>65.27</v>
+        <v>77.62</v>
       </c>
       <c r="C141">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D141">
-        <v>-40.18</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B142">
-        <v>65.84</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C142">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D142">
-        <v>-39.65</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B143">
-        <v>63.15</v>
+        <v>73.7</v>
       </c>
       <c r="C143">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D143">
-        <v>-42.13</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B144">
-        <v>64</v>
+        <v>112.64</v>
       </c>
       <c r="C144">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D144">
-        <v>-41.34</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B145">
-        <v>61.79</v>
+        <v>154.82</v>
       </c>
       <c r="C145">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D145">
-        <v>-43.37</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B146">
-        <v>60.36</v>
+        <v>169.34</v>
       </c>
       <c r="C146">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D146">
-        <v>-44.68</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B147">
-        <v>60.67</v>
+        <v>152.41</v>
       </c>
       <c r="C147">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D147">
-        <v>-44.4</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B148">
-        <v>59.35</v>
+        <v>135.22</v>
       </c>
       <c r="C148">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D148">
-        <v>-45.6</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B149">
-        <v>59.79</v>
+        <v>122.32</v>
       </c>
       <c r="C149">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D149">
-        <v>-45.2</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B150">
-        <v>60.75</v>
+        <v>111.53</v>
       </c>
       <c r="C150">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D150">
-        <v>-44.32</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B151">
-        <v>57.81</v>
+        <v>105.05</v>
       </c>
       <c r="C151">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D151">
-        <v>-47.02</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B152">
-        <v>56.32</v>
+        <v>100.22</v>
       </c>
       <c r="C152">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D152">
-        <v>-48.38</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B153">
-        <v>53.63</v>
+        <v>96.67</v>
       </c>
       <c r="C153">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D153">
-        <v>-50.85</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B154">
-        <v>53.96</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C154">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D154">
-        <v>-57.85</v>
+        <v>-31.31</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B155">
-        <v>54.47</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C155">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D155">
-        <v>-57.45</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B156">
-        <v>54.7</v>
+        <v>91.53</v>
       </c>
       <c r="C156">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D156">
-        <v>-57.27</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B157">
-        <v>53.75</v>
+        <v>94.69</v>
       </c>
       <c r="C157">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D157">
-        <v>-58.01</v>
+        <v>-31.57</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B158">
-        <v>55.35</v>
+        <v>125.85</v>
       </c>
       <c r="C158">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D158">
-        <v>-56.76</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B159">
-        <v>59.28</v>
+        <v>153.61</v>
       </c>
       <c r="C159">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D159">
-        <v>-53.69</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B160">
-        <v>69.28</v>
+        <v>163.02</v>
       </c>
       <c r="C160">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D160">
-        <v>-45.88</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B161">
-        <v>72.18000000000001</v>
+        <v>147.54</v>
       </c>
       <c r="C161">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D161">
-        <v>-43.61</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B162">
-        <v>70.73999999999999</v>
+        <v>145.65</v>
       </c>
       <c r="C162">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D162">
-        <v>-44.74</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B163">
-        <v>68.81</v>
+        <v>278</v>
       </c>
       <c r="C163">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D163">
-        <v>-46.24</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B164">
-        <v>69.45</v>
+        <v>259.32</v>
       </c>
       <c r="C164">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D164">
-        <v>-45.75</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B165">
-        <v>66.98999999999999</v>
+        <v>251.39</v>
       </c>
       <c r="C165">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D165">
-        <v>-47.67</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B166">
-        <v>82.03</v>
+        <v>226.04</v>
       </c>
       <c r="C166">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D166">
-        <v>-35.91</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B167">
-        <v>95.04000000000001</v>
+        <v>206.4</v>
       </c>
       <c r="C167">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D167">
-        <v>-25.75</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B168">
-        <v>102.78</v>
+        <v>190</v>
       </c>
       <c r="C168">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D168">
-        <v>-19.7</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B169">
-        <v>96.61</v>
+        <v>176.32</v>
       </c>
       <c r="C169">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D169">
-        <v>-24.52</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B170">
-        <v>87.8</v>
+        <v>163.4</v>
       </c>
       <c r="C170">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D170">
-        <v>-31.41</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B171">
-        <v>82.26000000000001</v>
+        <v>153.78</v>
       </c>
       <c r="C171">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D171">
-        <v>-35.74</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B172">
-        <v>77.62</v>
+        <v>146.42</v>
       </c>
       <c r="C172">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D172">
-        <v>-39.36</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B173">
-        <v>76.56999999999999</v>
+        <v>140.38</v>
       </c>
       <c r="C173">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D173">
-        <v>-40.18</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B174">
-        <v>73.7</v>
+        <v>134.93</v>
       </c>
       <c r="C174">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D174">
-        <v>-42.43</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B175">
-        <v>112.64</v>
+        <v>130.01</v>
       </c>
       <c r="C175">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D175">
-        <v>-12.01</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B176">
-        <v>154.82</v>
+        <v>126.22</v>
       </c>
       <c r="C176">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D176">
-        <v>20.95</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B177">
-        <v>169.34</v>
+        <v>122.99</v>
       </c>
       <c r="C177">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D177">
-        <v>32.3</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B178">
-        <v>152.41</v>
+        <v>120.03</v>
       </c>
       <c r="C178">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D178">
-        <v>19.06</v>
+        <v>-13.25</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B179">
-        <v>135.22</v>
+        <v>123.12</v>
       </c>
       <c r="C179">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D179">
-        <v>5.64</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B180">
-        <v>122.32</v>
+        <v>125.24</v>
       </c>
       <c r="C180">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D180">
-        <v>-4.44</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B181">
-        <v>111.53</v>
+        <v>122.99</v>
       </c>
       <c r="C181">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D181">
-        <v>-12.87</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B182">
-        <v>105.05</v>
+        <v>120.39</v>
       </c>
       <c r="C182">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D182">
-        <v>-17.93</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B183">
-        <v>100.22</v>
+        <v>119.67</v>
       </c>
       <c r="C183">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D183">
-        <v>-21.71</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B184">
-        <v>96.67</v>
+        <v>135.98</v>
       </c>
       <c r="C184">
-        <v>128</v>
+        <v>131.62</v>
       </c>
       <c r="D184">
-        <v>-24.48</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B185">
-        <v>95.04000000000001</v>
+        <v>157.81</v>
       </c>
       <c r="C185">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D185">
-        <v>-31.31</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B186">
-        <v>93.76000000000001</v>
+        <v>147.03</v>
       </c>
       <c r="C186">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D186">
-        <v>-32.24</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B187">
-        <v>91.53</v>
+        <v>137.25</v>
       </c>
       <c r="C187">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D187">
-        <v>-33.85</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B188">
-        <v>94.69</v>
+        <v>128.27</v>
       </c>
       <c r="C188">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D188">
-        <v>-31.57</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B189">
-        <v>125.85</v>
+        <v>122.45</v>
       </c>
       <c r="C189">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D189">
-        <v>-9.050000000000001</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B190">
-        <v>153.61</v>
+        <v>123.52</v>
       </c>
       <c r="C190">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D190">
-        <v>11.02</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B191">
-        <v>163.02</v>
+        <v>140.43</v>
       </c>
       <c r="C191">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D191">
-        <v>17.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B192">
-        <v>147.54</v>
+        <v>158.15</v>
       </c>
       <c r="C192">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D192">
-        <v>6.63</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B193">
-        <v>145.65</v>
+        <v>170.08</v>
       </c>
       <c r="C193">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D193">
-        <v>5.26</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B194">
-        <v>278</v>
+        <v>157.05</v>
       </c>
       <c r="C194">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D194">
-        <v>100.91</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B195">
-        <v>259.32</v>
+        <v>146.65</v>
       </c>
       <c r="C195">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D195">
-        <v>87.41</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B196">
-        <v>251.39</v>
+        <v>140.3</v>
       </c>
       <c r="C196">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D196">
-        <v>81.68000000000001</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B197">
-        <v>226.04</v>
+        <v>134.47</v>
       </c>
       <c r="C197">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D197">
-        <v>63.36</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B198">
-        <v>206.4</v>
+        <v>130.05</v>
       </c>
       <c r="C198">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D198">
-        <v>49.16</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B199">
-        <v>190</v>
+        <v>125.01</v>
       </c>
       <c r="C199">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D199">
-        <v>37.31</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B200">
-        <v>176.32</v>
+        <v>121.39</v>
       </c>
       <c r="C200">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D200">
-        <v>27.43</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B201">
-        <v>163.4</v>
+        <v>119.31</v>
       </c>
       <c r="C201">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D201">
-        <v>18.09</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B202">
-        <v>153.78</v>
+        <v>116.15</v>
       </c>
       <c r="C202">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D202">
-        <v>11.14</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B203">
-        <v>146.42</v>
+        <v>114.07</v>
       </c>
       <c r="C203">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D203">
-        <v>5.81</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B204">
-        <v>140.38</v>
+        <v>111.75</v>
       </c>
       <c r="C204">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D204">
-        <v>1.45</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B205">
-        <v>134.93</v>
+        <v>110.18</v>
       </c>
       <c r="C205">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D205">
-        <v>-2.49</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B206">
-        <v>130.01</v>
+        <v>109</v>
       </c>
       <c r="C206">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D206">
-        <v>-6.04</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B207">
-        <v>126.22</v>
+        <v>106.52</v>
       </c>
       <c r="C207">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D207">
-        <v>-8.779999999999999</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B208">
-        <v>122.99</v>
+        <v>104.51</v>
       </c>
       <c r="C208">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D208">
-        <v>-11.12</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B209">
-        <v>120.03</v>
+        <v>104.66</v>
       </c>
       <c r="C209">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D209">
-        <v>-13.25</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B210">
-        <v>123.12</v>
+        <v>103.49</v>
       </c>
       <c r="C210">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D210">
-        <v>-11.02</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B211">
-        <v>125.24</v>
+        <v>101.41</v>
       </c>
       <c r="C211">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D211">
-        <v>-9.49</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B212">
-        <v>122.99</v>
+        <v>101.25</v>
       </c>
       <c r="C212">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D212">
-        <v>-11.12</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B213">
-        <v>120.39</v>
+        <v>105.68</v>
       </c>
       <c r="C213">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D213">
-        <v>-12.99</v>
+        <v>-19.71</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B214">
-        <v>119.67</v>
+        <v>106.08</v>
       </c>
       <c r="C214">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D214">
-        <v>-13.52</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B215">
-        <v>135.98</v>
+        <v>101.46</v>
       </c>
       <c r="C215">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D215">
-        <v>3.31</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B216">
-        <v>157.81</v>
+        <v>99.94</v>
       </c>
       <c r="C216">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D216">
-        <v>19.9</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B217">
-        <v>147.03</v>
+        <v>98.25</v>
       </c>
       <c r="C217">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D217">
-        <v>11.71</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B218">
-        <v>137.25</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C218">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D218">
-        <v>4.27</v>
+        <v>-18.93</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B219">
-        <v>128.27</v>
+        <v>94</v>
       </c>
       <c r="C219">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D219">
-        <v>-2.55</v>
+        <v>-20.83</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B220">
-        <v>122.45</v>
+        <v>91.13</v>
       </c>
       <c r="C220">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D220">
-        <v>-6.97</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B221">
-        <v>123.52</v>
+        <v>92.3</v>
       </c>
       <c r="C221">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D221">
-        <v>-6.16</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B222">
-        <v>140.43</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C222">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D222">
-        <v>6.69</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B223">
-        <v>158.15</v>
+        <v>90.38</v>
       </c>
       <c r="C223">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D223">
-        <v>20.15</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B224">
-        <v>170.08</v>
+        <v>89.64</v>
       </c>
       <c r="C224">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D224">
-        <v>29.22</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B225">
-        <v>157.05</v>
+        <v>87.31</v>
       </c>
       <c r="C225">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D225">
-        <v>19.32</v>
+        <v>-26.46</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B226">
-        <v>146.65</v>
+        <v>88.31</v>
       </c>
       <c r="C226">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D226">
-        <v>11.41</v>
+        <v>-25.62</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B227">
-        <v>140.3</v>
+        <v>100.71</v>
       </c>
       <c r="C227">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D227">
-        <v>6.59</v>
+        <v>-15.18</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B228">
-        <v>134.47</v>
+        <v>125.19</v>
       </c>
       <c r="C228">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D228">
-        <v>2.16</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B229">
-        <v>130.05</v>
+        <v>129.4</v>
       </c>
       <c r="C229">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D229">
-        <v>-1.19</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B230">
-        <v>125.01</v>
+        <v>144.85</v>
       </c>
       <c r="C230">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D230">
-        <v>-5.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B231">
-        <v>121.39</v>
+        <v>153.78</v>
       </c>
       <c r="C231">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D231">
-        <v>-7.78</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B232">
-        <v>119.31</v>
+        <v>158.61</v>
       </c>
       <c r="C232">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D232">
-        <v>-9.35</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B233">
-        <v>116.15</v>
+        <v>177.33</v>
       </c>
       <c r="C233">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D233">
-        <v>-11.76</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B234">
-        <v>114.07</v>
+        <v>183.36</v>
       </c>
       <c r="C234">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D234">
-        <v>-13.33</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B235">
-        <v>111.75</v>
+        <v>175.84</v>
       </c>
       <c r="C235">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D235">
-        <v>-15.1</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B236">
-        <v>110.18</v>
+        <v>159.39</v>
       </c>
       <c r="C236">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D236">
-        <v>-16.29</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B237">
-        <v>109</v>
+        <v>146.09</v>
       </c>
       <c r="C237">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D237">
-        <v>-17.19</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B238">
-        <v>106.52</v>
+        <v>136.09</v>
       </c>
       <c r="C238">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D238">
-        <v>-19.07</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B239">
-        <v>104.51</v>
+        <v>128.77</v>
       </c>
       <c r="C239">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D239">
-        <v>-20.6</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B240">
-        <v>104.66</v>
+        <v>123.82</v>
       </c>
       <c r="C240">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D240">
-        <v>-20.49</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B241">
-        <v>103.49</v>
+        <v>119.18</v>
       </c>
       <c r="C241">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D241">
-        <v>-21.37</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B242">
-        <v>101.41</v>
+        <v>115.73</v>
       </c>
       <c r="C242">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D242">
-        <v>-22.96</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B243">
-        <v>101.25</v>
+        <v>113.28</v>
       </c>
       <c r="C243">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D243">
-        <v>-23.08</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B244">
-        <v>105.68</v>
+        <v>109.06</v>
       </c>
       <c r="C244">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D244">
-        <v>-19.71</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B245">
-        <v>106.08</v>
+        <v>107.37</v>
       </c>
       <c r="C245">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D245">
-        <v>-19.4</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B246">
-        <v>101.46</v>
+        <v>105.41</v>
       </c>
       <c r="C246">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D246">
-        <v>-14.55</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B247">
-        <v>99.94</v>
+        <v>102.61</v>
       </c>
       <c r="C247">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D247">
-        <v>-15.83</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B248">
-        <v>98.25</v>
+        <v>102.73</v>
       </c>
       <c r="C248">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D248">
-        <v>-17.25</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B249">
-        <v>96.26000000000001</v>
+        <v>102.05</v>
       </c>
       <c r="C249">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D249">
-        <v>-18.93</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B250">
-        <v>94</v>
+        <v>98.3</v>
       </c>
       <c r="C250">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D250">
-        <v>-20.83</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B251">
-        <v>91.13</v>
+        <v>98.48</v>
       </c>
       <c r="C251">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D251">
-        <v>-23.25</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B252">
-        <v>92.3</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="C252">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D252">
-        <v>-22.26</v>
+        <v>-22.29</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B253">
-        <v>92.48999999999999</v>
+        <v>96.48</v>
       </c>
       <c r="C253">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D253">
-        <v>-22.1</v>
+        <v>-22.14</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B254">
-        <v>90.38</v>
+        <v>95.38</v>
       </c>
       <c r="C254">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D254">
-        <v>-23.88</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B255">
-        <v>89.64</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="C255">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D255">
-        <v>-24.51</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B256">
-        <v>87.31</v>
+        <v>92.52</v>
       </c>
       <c r="C256">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D256">
-        <v>-26.46</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B257">
-        <v>88.31</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="C257">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D257">
-        <v>-25.62</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B258">
-        <v>100.71</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C258">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D258">
-        <v>-15.18</v>
+        <v>-26.65</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B259">
-        <v>125.19</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C259">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D259">
-        <v>5.44</v>
+        <v>-27.98</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B260">
-        <v>129.4</v>
+        <v>89.88</v>
       </c>
       <c r="C260">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D260">
-        <v>8.98</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B261">
-        <v>144.85</v>
+        <v>88.8</v>
       </c>
       <c r="C261">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D261">
-        <v>22</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B262">
-        <v>153.78</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="C262">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D262">
-        <v>29.52</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B263">
-        <v>158.61</v>
+        <v>85.75</v>
       </c>
       <c r="C263">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D263">
-        <v>33.59</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B264">
-        <v>177.33</v>
+        <v>86.56</v>
       </c>
       <c r="C264">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D264">
-        <v>49.36</v>
+        <v>-30.15</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B265">
-        <v>183.36</v>
+        <v>87.2</v>
       </c>
       <c r="C265">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D265">
-        <v>54.44</v>
+        <v>-29.63</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B266">
-        <v>175.84</v>
+        <v>84.45</v>
       </c>
       <c r="C266">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D266">
-        <v>48.1</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B267">
-        <v>159.39</v>
+        <v>83.56</v>
       </c>
       <c r="C267">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D267">
-        <v>34.24</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B268">
-        <v>146.09</v>
+        <v>83</v>
       </c>
       <c r="C268">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D268">
-        <v>23.05</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B269">
-        <v>136.09</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C269">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D269">
-        <v>14.62</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B270">
-        <v>128.77</v>
+        <v>81.36</v>
       </c>
       <c r="C270">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D270">
-        <v>8.460000000000001</v>
+        <v>-34.34</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B271">
-        <v>123.82</v>
+        <v>81.66</v>
       </c>
       <c r="C271">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D271">
-        <v>4.29</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B272">
-        <v>119.18</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="C272">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D272">
-        <v>0.37</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B273">
-        <v>115.73</v>
+        <v>81.08</v>
       </c>
       <c r="C273">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D273">
-        <v>-2.53</v>
+        <v>-34.56</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B274">
-        <v>113.28</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C274">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D274">
-        <v>-4.59</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B275">
-        <v>109.06</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C275">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D275">
-        <v>-8.140000000000001</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B276">
-        <v>107.37</v>
+        <v>85.11</v>
       </c>
       <c r="C276">
-        <v>118.73</v>
+        <v>150.79</v>
       </c>
       <c r="D276">
-        <v>-9.57</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B277">
-        <v>105.41</v>
+        <v>81.94</v>
       </c>
       <c r="C277">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D277">
-        <v>-14.94</v>
+        <v>-45.66</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B278">
-        <v>102.61</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="C278">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D278">
-        <v>-17.19</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B279">
-        <v>102.73</v>
+        <v>79.08</v>
       </c>
       <c r="C279">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D279">
-        <v>-17.1</v>
+        <v>-47.56</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B280">
-        <v>102.05</v>
+        <v>77.2</v>
       </c>
       <c r="C280">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D280">
-        <v>-17.64</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B281">
-        <v>98.3</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="C281">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D281">
-        <v>-20.67</v>
+        <v>-49.94</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B282">
-        <v>98.48</v>
+        <v>73.41</v>
       </c>
       <c r="C282">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D282">
-        <v>-20.53</v>
+        <v>-51.32</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B283">
-        <v>96.29000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C283">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D283">
-        <v>-22.29</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B284">
-        <v>96.48</v>
+        <v>83.36</v>
       </c>
       <c r="C284">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D284">
-        <v>-22.14</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B285">
-        <v>95.38</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C285">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D285">
-        <v>-23.03</v>
+        <v>-43.23</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B286">
-        <v>93.70999999999999</v>
+        <v>85.34</v>
       </c>
       <c r="C286">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D286">
-        <v>-24.38</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B287">
-        <v>92.52</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C287">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D287">
-        <v>-25.34</v>
+        <v>-44.89</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B288">
-        <v>93.54000000000001</v>
+        <v>81.05</v>
       </c>
       <c r="C288">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D288">
-        <v>-24.51</v>
+        <v>-46.25</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B289">
-        <v>90.90000000000001</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C289">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D289">
-        <v>-26.65</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B290">
-        <v>89.23999999999999</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C290">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D290">
-        <v>-27.98</v>
+        <v>-43.53</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B291">
-        <v>89.88</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="C291">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D291">
-        <v>-27.47</v>
+        <v>-43.99</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B292">
-        <v>88.8</v>
+        <v>82.84</v>
       </c>
       <c r="C292">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D292">
-        <v>-28.34</v>
+        <v>-45.06</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B293">
-        <v>88.20999999999999</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C293">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D293">
-        <v>-28.81</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B294">
-        <v>85.75</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C294">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D294">
-        <v>-30.8</v>
+        <v>-47.29</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B295">
-        <v>86.56</v>
+        <v>75.75</v>
       </c>
       <c r="C295">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D295">
-        <v>-30.15</v>
+        <v>-49.77</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B296">
-        <v>87.2</v>
+        <v>73.7</v>
       </c>
       <c r="C296">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D296">
-        <v>-29.63</v>
+        <v>-51.13</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B297">
-        <v>84.45</v>
+        <v>73.27</v>
       </c>
       <c r="C297">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D297">
-        <v>-31.85</v>
+        <v>-51.41</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B298">
-        <v>83.56</v>
+        <v>74.39</v>
       </c>
       <c r="C298">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D298">
-        <v>-32.57</v>
+        <v>-50.67</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B299">
-        <v>83</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C299">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D299">
-        <v>-33.02</v>
+        <v>-51.66</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B300">
-        <v>81.90000000000001</v>
+        <v>71.67</v>
       </c>
       <c r="C300">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D300">
-        <v>-33.91</v>
+        <v>-52.47</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B301">
-        <v>81.36</v>
+        <v>70.88</v>
       </c>
       <c r="C301">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D301">
-        <v>-34.34</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B302">
-        <v>81.66</v>
+        <v>73.23</v>
       </c>
       <c r="C302">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D302">
-        <v>-34.1</v>
+        <v>-51.44</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B303">
-        <v>79.54000000000001</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C303">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D303">
-        <v>-35.81</v>
+        <v>-53.53</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B304">
-        <v>81.08</v>
+        <v>71.47</v>
       </c>
       <c r="C304">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D304">
-        <v>-34.56</v>
+        <v>-52.6</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B305">
-        <v>85.40000000000001</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C305">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D305">
-        <v>-31.08</v>
+        <v>-53.41</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B306">
-        <v>88.48999999999999</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="C306">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D306">
-        <v>-28.59</v>
+        <v>-53.15</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B307">
-        <v>85.11</v>
+        <v>70.31</v>
       </c>
       <c r="C307">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D307">
-        <v>-43.56</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B308">
-        <v>81.94</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="C308">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D308">
-        <v>-45.66</v>
+        <v>-50.76</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B309">
-        <v>81.20999999999999</v>
+        <v>69.66</v>
       </c>
       <c r="C309">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D309">
-        <v>-46.15</v>
+        <v>-50.47</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B310">
-        <v>79.08</v>
+        <v>69.95</v>
       </c>
       <c r="C310">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D310">
-        <v>-47.56</v>
+        <v>-50.26</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B311">
-        <v>77.2</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="C311">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D311">
-        <v>-48.81</v>
+        <v>-51.7</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B312">
-        <v>75.48999999999999</v>
+        <v>67.36</v>
       </c>
       <c r="C312">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D312">
-        <v>-49.94</v>
+        <v>-52.1</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B313">
-        <v>73.41</v>
+        <v>66.19</v>
       </c>
       <c r="C313">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D313">
-        <v>-51.32</v>
+        <v>-52.93</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B314">
-        <v>78.95</v>
+        <v>65.41</v>
       </c>
       <c r="C314">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D314">
-        <v>-47.64</v>
+        <v>-53.49</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B315">
-        <v>83.36</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="C315">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D315">
-        <v>-44.72</v>
+        <v>-51.47</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B316">
-        <v>85.59999999999999</v>
+        <v>66.95</v>
       </c>
       <c r="C316">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D316">
-        <v>-43.23</v>
+        <v>-52.39</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B317">
-        <v>85.34</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C317">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D317">
-        <v>-43.4</v>
+        <v>-51.9</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B318">
-        <v>83.09999999999999</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C318">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D318">
-        <v>-44.89</v>
+        <v>-49.68</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B319">
-        <v>81.05</v>
+        <v>70.52</v>
       </c>
       <c r="C319">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D319">
-        <v>-46.25</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B320">
-        <v>81.98999999999999</v>
+        <v>71.98</v>
       </c>
       <c r="C320">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D320">
-        <v>-45.63</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B321">
-        <v>85.15000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="C321">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D321">
-        <v>-43.53</v>
+        <v>-48.01</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B322">
-        <v>84.45999999999999</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="C322">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D322">
-        <v>-43.99</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B323">
-        <v>82.84</v>
+        <v>74.09</v>
       </c>
       <c r="C323">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D323">
-        <v>-45.06</v>
+        <v>-47.31</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B324">
-        <v>79.81999999999999</v>
+        <v>78</v>
       </c>
       <c r="C324">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D324">
-        <v>-47.06</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B325">
-        <v>79.48999999999999</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="C325">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D325">
-        <v>-47.29</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B326">
-        <v>75.75</v>
+        <v>75.48</v>
       </c>
       <c r="C326">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D326">
-        <v>-49.77</v>
+        <v>-46.33</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B327">
-        <v>73.7</v>
+        <v>72.61</v>
       </c>
       <c r="C327">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D327">
-        <v>-51.13</v>
+        <v>-48.36</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B328">
-        <v>73.27</v>
+        <v>70.62</v>
       </c>
       <c r="C328">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D328">
-        <v>-51.41</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B329">
-        <v>74.39</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C329">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D329">
-        <v>-50.67</v>
+        <v>-48.44</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B330">
-        <v>72.90000000000001</v>
+        <v>72.83</v>
       </c>
       <c r="C330">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D330">
-        <v>-51.66</v>
+        <v>-48.21</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B331">
-        <v>71.67</v>
+        <v>69.14</v>
       </c>
       <c r="C331">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D331">
-        <v>-52.47</v>
+        <v>-50.84</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B332">
-        <v>70.88</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C332">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D332">
-        <v>-53</v>
+        <v>-52.88</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B333">
-        <v>73.23</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C333">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D333">
-        <v>-51.44</v>
+        <v>-52.53</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B334">
-        <v>70.06999999999999</v>
+        <v>68.23</v>
       </c>
       <c r="C334">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D334">
-        <v>-53.53</v>
+        <v>-51.48</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B335">
-        <v>71.47</v>
+        <v>66.03</v>
       </c>
       <c r="C335">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D335">
-        <v>-52.6</v>
+        <v>-53.04</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B336">
-        <v>70.26000000000001</v>
+        <v>73.44</v>
       </c>
       <c r="C336">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D336">
-        <v>-53.41</v>
+        <v>-47.78</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B337">
-        <v>70.65000000000001</v>
+        <v>78.08</v>
       </c>
       <c r="C337">
-        <v>150.79</v>
+        <v>121.66</v>
       </c>
       <c r="D337">
-        <v>-53.15</v>
+        <v>-35.82</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B338">
-        <v>70.31</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C338">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D338">
-        <v>-50</v>
+        <v>-35.53</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B339">
-        <v>69.23999999999999</v>
+        <v>95.66</v>
       </c>
       <c r="C339">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D339">
-        <v>-50.76</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B340">
-        <v>69.66</v>
+        <v>115.23</v>
       </c>
       <c r="C340">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D340">
-        <v>-50.47</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B341">
-        <v>69.95</v>
+        <v>122.95</v>
       </c>
       <c r="C341">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D341">
-        <v>-50.26</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B342">
-        <v>67.93000000000001</v>
+        <v>142.25</v>
       </c>
       <c r="C342">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D342">
-        <v>-51.7</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B343">
-        <v>67.36</v>
+        <v>135.89</v>
       </c>
       <c r="C343">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D343">
-        <v>-52.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B344">
-        <v>66.19</v>
+        <v>122.79</v>
       </c>
       <c r="C344">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D344">
-        <v>-52.93</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B345">
-        <v>65.41</v>
+        <v>115.17</v>
       </c>
       <c r="C345">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D345">
-        <v>-53.49</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B346">
-        <v>68.23999999999999</v>
+        <v>107.43</v>
       </c>
       <c r="C346">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D346">
-        <v>-51.47</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B347">
-        <v>66.95</v>
+        <v>100.91</v>
       </c>
       <c r="C347">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D347">
-        <v>-52.39</v>
+        <v>-17.06</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B348">
-        <v>67.65000000000001</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C348">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D348">
-        <v>-51.9</v>
+        <v>-20.82</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B349">
-        <v>70.76000000000001</v>
+        <v>92.23</v>
       </c>
       <c r="C349">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D349">
-        <v>-49.68</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B350">
-        <v>70.52</v>
+        <v>92.42</v>
       </c>
       <c r="C350">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D350">
-        <v>-49.85</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B351">
-        <v>71.98</v>
+        <v>90.61</v>
       </c>
       <c r="C351">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D351">
-        <v>-48.81</v>
+        <v>-25.52</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B352">
-        <v>73.11</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C352">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D352">
-        <v>-48.01</v>
+        <v>-25.37</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B353">
-        <v>73.65000000000001</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="C353">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D353">
-        <v>-47.63</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B354">
-        <v>74.09</v>
+        <v>92.98</v>
       </c>
       <c r="C354">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D354">
-        <v>-47.31</v>
+        <v>-23.57</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B355">
-        <v>78</v>
+        <v>90.91</v>
       </c>
       <c r="C355">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D355">
-        <v>-44.53</v>
+        <v>-25.28</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B356">
-        <v>77.68000000000001</v>
+        <v>89.09</v>
       </c>
       <c r="C356">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D356">
-        <v>-44.76</v>
+        <v>-26.77</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B357">
-        <v>75.48</v>
+        <v>97.3</v>
       </c>
       <c r="C357">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D357">
-        <v>-46.33</v>
+        <v>-20.02</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B358">
-        <v>72.61</v>
+        <v>133.65</v>
       </c>
       <c r="C358">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D358">
-        <v>-48.36</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B359">
-        <v>70.62</v>
+        <v>172.9</v>
       </c>
       <c r="C359">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D359">
-        <v>-49.78</v>
+        <v>42.12</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B360">
-        <v>72.51000000000001</v>
+        <v>137</v>
       </c>
       <c r="C360">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D360">
-        <v>-48.44</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B361">
-        <v>72.83</v>
+        <v>119.89</v>
       </c>
       <c r="C361">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D361">
-        <v>-48.21</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B362">
-        <v>69.14</v>
+        <v>109.28</v>
       </c>
       <c r="C362">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D362">
-        <v>-50.84</v>
+        <v>-10.17</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B363">
-        <v>66.26000000000001</v>
+        <v>101.94</v>
       </c>
       <c r="C363">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D363">
-        <v>-52.88</v>
+        <v>-16.21</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B364">
-        <v>66.76000000000001</v>
+        <v>97.55</v>
       </c>
       <c r="C364">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D364">
-        <v>-52.53</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B365">
-        <v>68.23</v>
+        <v>94.14</v>
       </c>
       <c r="C365">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D365">
-        <v>-51.48</v>
+        <v>-22.62</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B366">
-        <v>66.03</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C366">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D366">
-        <v>-53.04</v>
+        <v>-20.88</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B367">
-        <v>73.44</v>
+        <v>104.03</v>
       </c>
       <c r="C367">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D367">
-        <v>-47.78</v>
+        <v>-14.49</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -583,6 +583,20 @@
         <v>-12.35</v>
       </c>
     </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B14">
+        <v>100.05</v>
+      </c>
+      <c r="C14">
+        <v>114.72</v>
+      </c>
+      <c r="D14">
+        <v>-12.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -590,7 +604,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5739,6 +5753,216 @@
         <v>-14.49</v>
       </c>
     </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44197</v>
+      </c>
+      <c r="B368">
+        <v>100.2</v>
+      </c>
+      <c r="C368">
+        <v>114.72</v>
+      </c>
+      <c r="D368">
+        <v>-12.66</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44198</v>
+      </c>
+      <c r="B369">
+        <v>97.20999999999999</v>
+      </c>
+      <c r="C369">
+        <v>114.72</v>
+      </c>
+      <c r="D369">
+        <v>-15.26</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44199</v>
+      </c>
+      <c r="B370">
+        <v>99</v>
+      </c>
+      <c r="C370">
+        <v>114.72</v>
+      </c>
+      <c r="D370">
+        <v>-13.7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44200</v>
+      </c>
+      <c r="B371">
+        <v>98.55</v>
+      </c>
+      <c r="C371">
+        <v>114.72</v>
+      </c>
+      <c r="D371">
+        <v>-14.09</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44201</v>
+      </c>
+      <c r="B372">
+        <v>95.48</v>
+      </c>
+      <c r="C372">
+        <v>114.72</v>
+      </c>
+      <c r="D372">
+        <v>-16.77</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44202</v>
+      </c>
+      <c r="B373">
+        <v>99.95</v>
+      </c>
+      <c r="C373">
+        <v>114.72</v>
+      </c>
+      <c r="D373">
+        <v>-12.88</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44203</v>
+      </c>
+      <c r="B374">
+        <v>101.69</v>
+      </c>
+      <c r="C374">
+        <v>114.72</v>
+      </c>
+      <c r="D374">
+        <v>-11.36</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44204</v>
+      </c>
+      <c r="B375">
+        <v>104.56</v>
+      </c>
+      <c r="C375">
+        <v>114.72</v>
+      </c>
+      <c r="D375">
+        <v>-8.85</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44205</v>
+      </c>
+      <c r="B376">
+        <v>107.21</v>
+      </c>
+      <c r="C376">
+        <v>114.72</v>
+      </c>
+      <c r="D376">
+        <v>-6.55</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44206</v>
+      </c>
+      <c r="B377">
+        <v>102.62</v>
+      </c>
+      <c r="C377">
+        <v>114.72</v>
+      </c>
+      <c r="D377">
+        <v>-10.54</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44207</v>
+      </c>
+      <c r="B378">
+        <v>96.44</v>
+      </c>
+      <c r="C378">
+        <v>114.72</v>
+      </c>
+      <c r="D378">
+        <v>-15.94</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44208</v>
+      </c>
+      <c r="B379">
+        <v>99.79000000000001</v>
+      </c>
+      <c r="C379">
+        <v>114.72</v>
+      </c>
+      <c r="D379">
+        <v>-13.01</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44209</v>
+      </c>
+      <c r="B380">
+        <v>104.5</v>
+      </c>
+      <c r="C380">
+        <v>114.72</v>
+      </c>
+      <c r="D380">
+        <v>-8.91</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44210</v>
+      </c>
+      <c r="B381">
+        <v>97.34999999999999</v>
+      </c>
+      <c r="C381">
+        <v>114.72</v>
+      </c>
+      <c r="D381">
+        <v>-15.14</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44211</v>
+      </c>
+      <c r="B382">
+        <v>96.18000000000001</v>
+      </c>
+      <c r="C382">
+        <v>114.72</v>
+      </c>
+      <c r="D382">
+        <v>-16.16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -390,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -417,184 +417,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43861</v>
+        <v>43890</v>
       </c>
       <c r="B2">
-        <v>85.51000000000001</v>
+        <v>94.27</v>
       </c>
       <c r="C2">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D2">
-        <v>-25.46</v>
+        <v>-18.6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B3">
-        <v>94.27</v>
+        <v>78.78</v>
       </c>
       <c r="C3">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D3">
-        <v>-18.6</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43921</v>
+        <v>43951</v>
       </c>
       <c r="B4">
-        <v>78.78</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="C4">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D4">
-        <v>-26.56</v>
+        <v>-41.13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B5">
-        <v>64.23999999999999</v>
+        <v>89.79000000000001</v>
       </c>
       <c r="C5">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D5">
-        <v>-41.13</v>
+        <v>-29.85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43982</v>
+        <v>44012</v>
       </c>
       <c r="B6">
-        <v>89.79000000000001</v>
+        <v>151.59</v>
       </c>
       <c r="C6">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D6">
-        <v>-29.85</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B7">
-        <v>151.59</v>
+        <v>125.48</v>
       </c>
       <c r="C7">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D7">
-        <v>9.550000000000001</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B8">
-        <v>125.48</v>
+        <v>120.3</v>
       </c>
       <c r="C8">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D8">
-        <v>-4.67</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B9">
-        <v>120.3</v>
+        <v>90.48</v>
       </c>
       <c r="C9">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D9">
-        <v>1.32</v>
+        <v>-26.98</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B10">
-        <v>90.48</v>
+        <v>77.83</v>
       </c>
       <c r="C10">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D10">
-        <v>-26.98</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B11">
-        <v>77.83</v>
+        <v>70.42</v>
       </c>
       <c r="C11">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D11">
-        <v>-48.38</v>
+        <v>-49.92</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B12">
-        <v>70.42</v>
+        <v>106.63</v>
       </c>
       <c r="C12">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D12">
-        <v>-49.92</v>
+        <v>-12.35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B13">
-        <v>106.63</v>
+        <v>142.46</v>
       </c>
       <c r="C13">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D13">
-        <v>-12.35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B14">
-        <v>100.05</v>
-      </c>
-      <c r="C14">
-        <v>114.72</v>
-      </c>
-      <c r="D14">
-        <v>-12.79</v>
+        <v>24.18</v>
       </c>
     </row>
   </sheetData>
@@ -604,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -631,5336 +617,5126 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B2">
-        <v>85.73999999999999</v>
+        <v>120.88</v>
       </c>
       <c r="C2">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D2">
-        <v>-25.26</v>
+        <v>4.37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43832</v>
+        <v>43863</v>
       </c>
       <c r="B3">
-        <v>86.78</v>
+        <v>118.7</v>
       </c>
       <c r="C3">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D3">
-        <v>-24.35</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43833</v>
+        <v>43864</v>
       </c>
       <c r="B4">
-        <v>88.05</v>
+        <v>120.65</v>
       </c>
       <c r="C4">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D4">
-        <v>-23.25</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43834</v>
+        <v>43865</v>
       </c>
       <c r="B5">
-        <v>87.19</v>
+        <v>114.47</v>
       </c>
       <c r="C5">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D5">
-        <v>-24</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43835</v>
+        <v>43866</v>
       </c>
       <c r="B6">
-        <v>85.06</v>
+        <v>107.43</v>
       </c>
       <c r="C6">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D6">
-        <v>-25.85</v>
+        <v>-7.24</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43836</v>
+        <v>43867</v>
       </c>
       <c r="B7">
-        <v>83.14</v>
+        <v>100.39</v>
       </c>
       <c r="C7">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D7">
-        <v>-27.53</v>
+        <v>-13.32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43837</v>
+        <v>43868</v>
       </c>
       <c r="B8">
-        <v>81.23999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="C8">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D8">
-        <v>-29.18</v>
+        <v>-17.71</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43838</v>
+        <v>43869</v>
       </c>
       <c r="B9">
-        <v>79.81999999999999</v>
+        <v>89.29000000000001</v>
       </c>
       <c r="C9">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D9">
-        <v>-30.42</v>
+        <v>-22.9</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43839</v>
+        <v>43870</v>
       </c>
       <c r="B10">
-        <v>79.84</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="C10">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D10">
-        <v>-30.4</v>
+        <v>-24.14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43840</v>
+        <v>43871</v>
       </c>
       <c r="B11">
-        <v>82.23999999999999</v>
+        <v>87.42</v>
       </c>
       <c r="C11">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D11">
-        <v>-28.31</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43841</v>
+        <v>43872</v>
       </c>
       <c r="B12">
-        <v>92.91</v>
+        <v>89.55</v>
       </c>
       <c r="C12">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D12">
-        <v>-19.01</v>
+        <v>-22.67</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43842</v>
+        <v>43873</v>
       </c>
       <c r="B13">
-        <v>99.01000000000001</v>
+        <v>91.88</v>
       </c>
       <c r="C13">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D13">
-        <v>-13.69</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43843</v>
+        <v>43874</v>
       </c>
       <c r="B14">
-        <v>98.19</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="C14">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D14">
-        <v>-14.41</v>
+        <v>-25.61</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43844</v>
+        <v>43875</v>
       </c>
       <c r="B15">
-        <v>97.77</v>
+        <v>82.5</v>
       </c>
       <c r="C15">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D15">
-        <v>-14.77</v>
+        <v>-28.76</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43845</v>
+        <v>43876</v>
       </c>
       <c r="B16">
-        <v>92.33</v>
+        <v>81.14</v>
       </c>
       <c r="C16">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D16">
-        <v>-19.51</v>
+        <v>-29.94</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43846</v>
+        <v>43877</v>
       </c>
       <c r="B17">
-        <v>90.16</v>
+        <v>78.66</v>
       </c>
       <c r="C17">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D17">
-        <v>-21.41</v>
+        <v>-32.08</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43847</v>
+        <v>43878</v>
       </c>
       <c r="B18">
-        <v>94.70999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C18">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D18">
-        <v>-17.44</v>
+        <v>-35.54</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43848</v>
+        <v>43879</v>
       </c>
       <c r="B19">
-        <v>92.47</v>
+        <v>76.34999999999999</v>
       </c>
       <c r="C19">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D19">
-        <v>-19.4</v>
+        <v>-34.07</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43849</v>
+        <v>43880</v>
       </c>
       <c r="B20">
-        <v>90.15000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C20">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D20">
-        <v>-21.42</v>
+        <v>-31.83</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43850</v>
+        <v>43881</v>
       </c>
       <c r="B21">
-        <v>85.81</v>
+        <v>76.77</v>
       </c>
       <c r="C21">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D21">
-        <v>-25.2</v>
+        <v>-33.71</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43851</v>
+        <v>43882</v>
       </c>
       <c r="B22">
-        <v>82.5</v>
+        <v>74.33</v>
       </c>
       <c r="C22">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D22">
-        <v>-28.08</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43852</v>
+        <v>43883</v>
       </c>
       <c r="B23">
-        <v>83.54000000000001</v>
+        <v>69.28</v>
       </c>
       <c r="C23">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D23">
-        <v>-27.18</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43853</v>
+        <v>43884</v>
       </c>
       <c r="B24">
-        <v>80.51000000000001</v>
+        <v>72.7</v>
       </c>
       <c r="C24">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D24">
-        <v>-29.82</v>
+        <v>-37.23</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43854</v>
+        <v>43885</v>
       </c>
       <c r="B25">
-        <v>80.39</v>
+        <v>71.12</v>
       </c>
       <c r="C25">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D25">
-        <v>-29.93</v>
+        <v>-38.58</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43855</v>
+        <v>43886</v>
       </c>
       <c r="B26">
-        <v>79.81</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C26">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D26">
-        <v>-30.43</v>
+        <v>-38.6</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43856</v>
+        <v>43887</v>
       </c>
       <c r="B27">
-        <v>76.78</v>
+        <v>121.18</v>
       </c>
       <c r="C27">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D27">
-        <v>-33.07</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43857</v>
+        <v>43888</v>
       </c>
       <c r="B28">
-        <v>75.11</v>
+        <v>154.98</v>
       </c>
       <c r="C28">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D28">
-        <v>-34.52</v>
+        <v>33.82</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43858</v>
+        <v>43889</v>
       </c>
       <c r="B29">
-        <v>73.59</v>
+        <v>127.87</v>
       </c>
       <c r="C29">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D29">
-        <v>-35.85</v>
+        <v>10.41</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43859</v>
+        <v>43890</v>
       </c>
       <c r="B30">
-        <v>73.41</v>
+        <v>112.27</v>
       </c>
       <c r="C30">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D30">
-        <v>-36.01</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43860</v>
+        <v>43891</v>
       </c>
       <c r="B31">
-        <v>79.31</v>
+        <v>104.91</v>
       </c>
       <c r="C31">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D31">
-        <v>-30.86</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43861</v>
+        <v>43892</v>
       </c>
       <c r="B32">
-        <v>93.23</v>
+        <v>97.91</v>
       </c>
       <c r="C32">
-        <v>114.72</v>
+        <v>107.27</v>
       </c>
       <c r="D32">
-        <v>-18.73</v>
+        <v>-8.73</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43862</v>
+        <v>43893</v>
       </c>
       <c r="B33">
-        <v>120.88</v>
+        <v>93.18000000000001</v>
       </c>
       <c r="C33">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D33">
-        <v>4.37</v>
+        <v>-13.14</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43863</v>
+        <v>43894</v>
       </c>
       <c r="B34">
-        <v>118.7</v>
+        <v>91.27</v>
       </c>
       <c r="C34">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D34">
-        <v>2.49</v>
+        <v>-14.92</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43864</v>
+        <v>43895</v>
       </c>
       <c r="B35">
-        <v>120.65</v>
+        <v>86.48999999999999</v>
       </c>
       <c r="C35">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D35">
-        <v>4.18</v>
+        <v>-19.37</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43865</v>
+        <v>43896</v>
       </c>
       <c r="B36">
-        <v>114.47</v>
+        <v>84.34</v>
       </c>
       <c r="C36">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D36">
-        <v>-1.16</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43866</v>
+        <v>43897</v>
       </c>
       <c r="B37">
-        <v>107.43</v>
+        <v>82.19</v>
       </c>
       <c r="C37">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D37">
-        <v>-7.24</v>
+        <v>-23.39</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43867</v>
+        <v>43898</v>
       </c>
       <c r="B38">
-        <v>100.39</v>
+        <v>80.51000000000001</v>
       </c>
       <c r="C38">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D38">
-        <v>-13.32</v>
+        <v>-24.95</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43868</v>
+        <v>43899</v>
       </c>
       <c r="B39">
-        <v>95.3</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C39">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D39">
-        <v>-17.71</v>
+        <v>-23.96</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43869</v>
+        <v>43900</v>
       </c>
       <c r="B40">
-        <v>89.29000000000001</v>
+        <v>78.25</v>
       </c>
       <c r="C40">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D40">
-        <v>-22.9</v>
+        <v>-27.06</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43870</v>
+        <v>43901</v>
       </c>
       <c r="B41">
-        <v>87.84999999999999</v>
+        <v>80.05</v>
       </c>
       <c r="C41">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D41">
-        <v>-24.14</v>
+        <v>-25.38</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43871</v>
+        <v>43902</v>
       </c>
       <c r="B42">
-        <v>87.42</v>
+        <v>77.22</v>
       </c>
       <c r="C42">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D42">
-        <v>-24.52</v>
+        <v>-28.02</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43872</v>
+        <v>43903</v>
       </c>
       <c r="B43">
-        <v>89.55</v>
+        <v>74.05</v>
       </c>
       <c r="C43">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D43">
-        <v>-22.67</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43873</v>
+        <v>43904</v>
       </c>
       <c r="B44">
-        <v>91.88</v>
+        <v>77.17</v>
       </c>
       <c r="C44">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D44">
-        <v>-20.67</v>
+        <v>-28.07</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43874</v>
+        <v>43905</v>
       </c>
       <c r="B45">
-        <v>86.15000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C45">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D45">
-        <v>-25.61</v>
+        <v>-30.74</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43875</v>
+        <v>43906</v>
       </c>
       <c r="B46">
-        <v>82.5</v>
+        <v>70.94</v>
       </c>
       <c r="C46">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D46">
-        <v>-28.76</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="B47">
-        <v>81.14</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="C47">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D47">
-        <v>-29.94</v>
+        <v>-35.2</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="B48">
-        <v>78.66</v>
+        <v>70.69</v>
       </c>
       <c r="C48">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D48">
-        <v>-32.08</v>
+        <v>-34.11</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="B49">
-        <v>74.65000000000001</v>
+        <v>76.33</v>
       </c>
       <c r="C49">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D49">
-        <v>-35.54</v>
+        <v>-28.84</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="B50">
-        <v>76.34999999999999</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="C50">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D50">
-        <v>-34.07</v>
+        <v>-20.43</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="B51">
-        <v>78.95</v>
+        <v>88.31999999999999</v>
       </c>
       <c r="C51">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D51">
-        <v>-31.83</v>
+        <v>-17.67</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="B52">
-        <v>76.77</v>
+        <v>83</v>
       </c>
       <c r="C52">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D52">
-        <v>-33.71</v>
+        <v>-22.63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="B53">
-        <v>74.33</v>
+        <v>77.03</v>
       </c>
       <c r="C53">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D53">
-        <v>-35.81</v>
+        <v>-28.19</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="B54">
-        <v>69.28</v>
+        <v>75.14</v>
       </c>
       <c r="C54">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D54">
-        <v>-40.18</v>
+        <v>-29.96</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="B55">
-        <v>72.7</v>
+        <v>74.05</v>
       </c>
       <c r="C55">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D55">
-        <v>-37.23</v>
+        <v>-30.97</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="B56">
-        <v>71.12</v>
+        <v>71.81999999999999</v>
       </c>
       <c r="C56">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D56">
-        <v>-38.58</v>
+        <v>-33.05</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="B57">
-        <v>71.09999999999999</v>
+        <v>70.84999999999999</v>
       </c>
       <c r="C57">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D57">
-        <v>-38.6</v>
+        <v>-33.95</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="B58">
-        <v>121.18</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C58">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D58">
-        <v>4.63</v>
+        <v>-35.58</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="B59">
-        <v>154.98</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C59">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D59">
-        <v>33.82</v>
+        <v>-38.41</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="B60">
-        <v>127.87</v>
+        <v>63.99</v>
       </c>
       <c r="C60">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D60">
-        <v>10.41</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="B61">
-        <v>112.27</v>
+        <v>66.53</v>
       </c>
       <c r="C61">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D61">
-        <v>-3.06</v>
+        <v>-37.98</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B62">
-        <v>104.91</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C62">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D62">
-        <v>-2.21</v>
+        <v>-39.7</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="B63">
-        <v>97.91</v>
+        <v>68.42</v>
       </c>
       <c r="C63">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D63">
-        <v>-8.73</v>
+        <v>-37.3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="B64">
-        <v>93.18000000000001</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="C64">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D64">
-        <v>-13.14</v>
+        <v>-40.27</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="B65">
-        <v>91.27</v>
+        <v>63.12</v>
       </c>
       <c r="C65">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D65">
-        <v>-14.92</v>
+        <v>-42.15</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="B66">
-        <v>86.48999999999999</v>
+        <v>62.56</v>
       </c>
       <c r="C66">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D66">
-        <v>-19.37</v>
+        <v>-42.66</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="B67">
-        <v>84.34</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="C67">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D67">
-        <v>-21.38</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="B68">
-        <v>82.19</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="C68">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D68">
-        <v>-23.39</v>
+        <v>-38.27</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="B69">
-        <v>80.51000000000001</v>
+        <v>69.75</v>
       </c>
       <c r="C69">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D69">
-        <v>-24.95</v>
+        <v>-36.07</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="B70">
-        <v>81.56999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C70">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D70">
-        <v>-23.96</v>
+        <v>-34.83</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="B71">
-        <v>78.25</v>
+        <v>69.62</v>
       </c>
       <c r="C71">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D71">
-        <v>-27.06</v>
+        <v>-36.19</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="B72">
-        <v>80.05</v>
+        <v>68.02</v>
       </c>
       <c r="C72">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D72">
-        <v>-25.38</v>
+        <v>-37.66</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="B73">
-        <v>77.22</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C73">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D73">
-        <v>-28.02</v>
+        <v>-39.96</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="B74">
-        <v>74.05</v>
+        <v>62.9</v>
       </c>
       <c r="C74">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D74">
-        <v>-30.97</v>
+        <v>-42.36</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="B75">
-        <v>77.17</v>
+        <v>69.23</v>
       </c>
       <c r="C75">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D75">
-        <v>-28.07</v>
+        <v>-36.55</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="B76">
-        <v>74.3</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C76">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D76">
-        <v>-30.74</v>
+        <v>-35.78</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="B77">
-        <v>70.94</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C77">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D77">
-        <v>-33.87</v>
+        <v>-38.63</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="B78">
-        <v>69.51000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="C78">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D78">
-        <v>-35.2</v>
+        <v>-38.71</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="B79">
-        <v>70.69</v>
+        <v>65.27</v>
       </c>
       <c r="C79">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D79">
-        <v>-34.11</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="B80">
-        <v>76.33</v>
+        <v>65.84</v>
       </c>
       <c r="C80">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D80">
-        <v>-28.84</v>
+        <v>-39.65</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="B81">
-        <v>85.34999999999999</v>
+        <v>63.15</v>
       </c>
       <c r="C81">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D81">
-        <v>-20.43</v>
+        <v>-42.13</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="B82">
-        <v>88.31999999999999</v>
+        <v>64</v>
       </c>
       <c r="C82">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D82">
-        <v>-17.67</v>
+        <v>-41.34</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="B83">
-        <v>83</v>
+        <v>61.79</v>
       </c>
       <c r="C83">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D83">
-        <v>-22.63</v>
+        <v>-43.37</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="B84">
-        <v>77.03</v>
+        <v>60.36</v>
       </c>
       <c r="C84">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D84">
-        <v>-28.19</v>
+        <v>-44.68</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="B85">
-        <v>75.14</v>
+        <v>60.67</v>
       </c>
       <c r="C85">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D85">
-        <v>-29.96</v>
+        <v>-44.4</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="B86">
-        <v>74.05</v>
+        <v>59.35</v>
       </c>
       <c r="C86">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D86">
-        <v>-30.97</v>
+        <v>-45.6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="B87">
-        <v>71.81999999999999</v>
+        <v>59.79</v>
       </c>
       <c r="C87">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D87">
-        <v>-33.05</v>
+        <v>-45.2</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="B88">
-        <v>70.84999999999999</v>
+        <v>60.75</v>
       </c>
       <c r="C88">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D88">
-        <v>-33.95</v>
+        <v>-44.32</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="B89">
-        <v>69.09999999999999</v>
+        <v>57.81</v>
       </c>
       <c r="C89">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D89">
-        <v>-35.58</v>
+        <v>-47.02</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="B90">
-        <v>66.06999999999999</v>
+        <v>56.32</v>
       </c>
       <c r="C90">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D90">
-        <v>-38.41</v>
+        <v>-48.38</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="B91">
-        <v>63.99</v>
+        <v>53.63</v>
       </c>
       <c r="C91">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D91">
-        <v>-40.35</v>
+        <v>-50.85</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="B92">
-        <v>66.53</v>
+        <v>53.96</v>
       </c>
       <c r="C92">
-        <v>107.27</v>
+        <v>128</v>
       </c>
       <c r="D92">
-        <v>-37.98</v>
+        <v>-57.85</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="B93">
-        <v>65.79000000000001</v>
+        <v>54.47</v>
       </c>
       <c r="C93">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D93">
-        <v>-39.7</v>
+        <v>-57.45</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="B94">
-        <v>68.42</v>
+        <v>54.7</v>
       </c>
       <c r="C94">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D94">
-        <v>-37.3</v>
+        <v>-57.27</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="B95">
-        <v>65.18000000000001</v>
+        <v>53.75</v>
       </c>
       <c r="C95">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D95">
-        <v>-40.27</v>
+        <v>-58.01</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="B96">
-        <v>63.12</v>
+        <v>55.35</v>
       </c>
       <c r="C96">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D96">
-        <v>-42.15</v>
+        <v>-56.76</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="B97">
-        <v>62.56</v>
+        <v>59.28</v>
       </c>
       <c r="C97">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D97">
-        <v>-42.66</v>
+        <v>-53.69</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="B98">
-        <v>65.95999999999999</v>
+        <v>69.28</v>
       </c>
       <c r="C98">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D98">
-        <v>-39.55</v>
+        <v>-45.88</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="B99">
-        <v>67.34999999999999</v>
+        <v>72.18000000000001</v>
       </c>
       <c r="C99">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D99">
-        <v>-38.27</v>
+        <v>-43.61</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="B100">
-        <v>69.75</v>
+        <v>70.73999999999999</v>
       </c>
       <c r="C100">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D100">
-        <v>-36.07</v>
+        <v>-44.74</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43930</v>
+        <v>43961</v>
       </c>
       <c r="B101">
-        <v>71.09999999999999</v>
+        <v>68.81</v>
       </c>
       <c r="C101">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D101">
-        <v>-34.83</v>
+        <v>-46.24</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43931</v>
+        <v>43962</v>
       </c>
       <c r="B102">
-        <v>69.62</v>
+        <v>69.45</v>
       </c>
       <c r="C102">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D102">
-        <v>-36.19</v>
+        <v>-45.75</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43932</v>
+        <v>43963</v>
       </c>
       <c r="B103">
-        <v>68.02</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C103">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D103">
-        <v>-37.66</v>
+        <v>-47.67</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43933</v>
+        <v>43964</v>
       </c>
       <c r="B104">
-        <v>65.51000000000001</v>
+        <v>82.03</v>
       </c>
       <c r="C104">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D104">
-        <v>-39.96</v>
+        <v>-35.91</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43934</v>
+        <v>43965</v>
       </c>
       <c r="B105">
-        <v>62.9</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C105">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D105">
-        <v>-42.36</v>
+        <v>-25.75</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43935</v>
+        <v>43966</v>
       </c>
       <c r="B106">
-        <v>69.23</v>
+        <v>102.78</v>
       </c>
       <c r="C106">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D106">
-        <v>-36.55</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43936</v>
+        <v>43967</v>
       </c>
       <c r="B107">
-        <v>70.06999999999999</v>
+        <v>96.61</v>
       </c>
       <c r="C107">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D107">
-        <v>-35.78</v>
+        <v>-24.52</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43937</v>
+        <v>43968</v>
       </c>
       <c r="B108">
-        <v>66.95999999999999</v>
+        <v>87.8</v>
       </c>
       <c r="C108">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D108">
-        <v>-38.63</v>
+        <v>-31.41</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43938</v>
+        <v>43969</v>
       </c>
       <c r="B109">
-        <v>66.87</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="C109">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D109">
-        <v>-38.71</v>
+        <v>-35.74</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43939</v>
+        <v>43970</v>
       </c>
       <c r="B110">
-        <v>65.27</v>
+        <v>77.62</v>
       </c>
       <c r="C110">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D110">
-        <v>-40.18</v>
+        <v>-39.36</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43940</v>
+        <v>43971</v>
       </c>
       <c r="B111">
-        <v>65.84</v>
+        <v>76.56999999999999</v>
       </c>
       <c r="C111">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D111">
-        <v>-39.65</v>
+        <v>-40.18</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43941</v>
+        <v>43972</v>
       </c>
       <c r="B112">
-        <v>63.15</v>
+        <v>73.7</v>
       </c>
       <c r="C112">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D112">
-        <v>-42.13</v>
+        <v>-42.43</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43942</v>
+        <v>43973</v>
       </c>
       <c r="B113">
-        <v>64</v>
+        <v>112.64</v>
       </c>
       <c r="C113">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D113">
-        <v>-41.34</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43943</v>
+        <v>43974</v>
       </c>
       <c r="B114">
-        <v>61.79</v>
+        <v>154.82</v>
       </c>
       <c r="C114">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D114">
-        <v>-43.37</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43944</v>
+        <v>43975</v>
       </c>
       <c r="B115">
-        <v>60.36</v>
+        <v>169.34</v>
       </c>
       <c r="C115">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D115">
-        <v>-44.68</v>
+        <v>32.3</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43945</v>
+        <v>43976</v>
       </c>
       <c r="B116">
-        <v>60.67</v>
+        <v>152.41</v>
       </c>
       <c r="C116">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D116">
-        <v>-44.4</v>
+        <v>19.06</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43946</v>
+        <v>43977</v>
       </c>
       <c r="B117">
-        <v>59.35</v>
+        <v>135.22</v>
       </c>
       <c r="C117">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D117">
-        <v>-45.6</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43947</v>
+        <v>43978</v>
       </c>
       <c r="B118">
-        <v>59.79</v>
+        <v>122.32</v>
       </c>
       <c r="C118">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D118">
-        <v>-45.2</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43948</v>
+        <v>43979</v>
       </c>
       <c r="B119">
-        <v>60.75</v>
+        <v>111.53</v>
       </c>
       <c r="C119">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D119">
-        <v>-44.32</v>
+        <v>-12.87</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43949</v>
+        <v>43980</v>
       </c>
       <c r="B120">
-        <v>57.81</v>
+        <v>105.05</v>
       </c>
       <c r="C120">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D120">
-        <v>-47.02</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43950</v>
+        <v>43981</v>
       </c>
       <c r="B121">
-        <v>56.32</v>
+        <v>100.22</v>
       </c>
       <c r="C121">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D121">
-        <v>-48.38</v>
+        <v>-21.71</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43951</v>
+        <v>43982</v>
       </c>
       <c r="B122">
-        <v>53.63</v>
+        <v>96.67</v>
       </c>
       <c r="C122">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D122">
-        <v>-50.85</v>
+        <v>-24.48</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B123">
-        <v>53.96</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="C123">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D123">
-        <v>-57.85</v>
+        <v>-31.31</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43953</v>
+        <v>43984</v>
       </c>
       <c r="B124">
-        <v>54.47</v>
+        <v>93.76000000000001</v>
       </c>
       <c r="C124">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D124">
-        <v>-57.45</v>
+        <v>-32.24</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43954</v>
+        <v>43985</v>
       </c>
       <c r="B125">
-        <v>54.7</v>
+        <v>91.53</v>
       </c>
       <c r="C125">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D125">
-        <v>-57.27</v>
+        <v>-33.85</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43955</v>
+        <v>43986</v>
       </c>
       <c r="B126">
-        <v>53.75</v>
+        <v>94.69</v>
       </c>
       <c r="C126">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D126">
-        <v>-58.01</v>
+        <v>-31.57</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43956</v>
+        <v>43987</v>
       </c>
       <c r="B127">
-        <v>55.35</v>
+        <v>125.85</v>
       </c>
       <c r="C127">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D127">
-        <v>-56.76</v>
+        <v>-9.050000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43957</v>
+        <v>43988</v>
       </c>
       <c r="B128">
-        <v>59.28</v>
+        <v>153.61</v>
       </c>
       <c r="C128">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D128">
-        <v>-53.69</v>
+        <v>11.02</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43958</v>
+        <v>43989</v>
       </c>
       <c r="B129">
-        <v>69.28</v>
+        <v>163.02</v>
       </c>
       <c r="C129">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D129">
-        <v>-45.88</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43959</v>
+        <v>43990</v>
       </c>
       <c r="B130">
-        <v>72.18000000000001</v>
+        <v>147.54</v>
       </c>
       <c r="C130">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D130">
-        <v>-43.61</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43960</v>
+        <v>43991</v>
       </c>
       <c r="B131">
-        <v>70.73999999999999</v>
+        <v>145.65</v>
       </c>
       <c r="C131">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D131">
-        <v>-44.74</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43961</v>
+        <v>43992</v>
       </c>
       <c r="B132">
-        <v>68.81</v>
+        <v>278</v>
       </c>
       <c r="C132">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D132">
-        <v>-46.24</v>
+        <v>100.91</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43962</v>
+        <v>43993</v>
       </c>
       <c r="B133">
-        <v>69.45</v>
+        <v>259.32</v>
       </c>
       <c r="C133">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D133">
-        <v>-45.75</v>
+        <v>87.41</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43963</v>
+        <v>43994</v>
       </c>
       <c r="B134">
-        <v>66.98999999999999</v>
+        <v>251.39</v>
       </c>
       <c r="C134">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D134">
-        <v>-47.67</v>
+        <v>81.68000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43964</v>
+        <v>43995</v>
       </c>
       <c r="B135">
-        <v>82.03</v>
+        <v>226.04</v>
       </c>
       <c r="C135">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D135">
-        <v>-35.91</v>
+        <v>63.36</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43965</v>
+        <v>43996</v>
       </c>
       <c r="B136">
-        <v>95.04000000000001</v>
+        <v>206.4</v>
       </c>
       <c r="C136">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D136">
-        <v>-25.75</v>
+        <v>49.16</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43966</v>
+        <v>43997</v>
       </c>
       <c r="B137">
-        <v>102.78</v>
+        <v>190</v>
       </c>
       <c r="C137">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D137">
-        <v>-19.7</v>
+        <v>37.31</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43967</v>
+        <v>43998</v>
       </c>
       <c r="B138">
-        <v>96.61</v>
+        <v>176.32</v>
       </c>
       <c r="C138">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D138">
-        <v>-24.52</v>
+        <v>27.43</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43968</v>
+        <v>43999</v>
       </c>
       <c r="B139">
-        <v>87.8</v>
+        <v>163.4</v>
       </c>
       <c r="C139">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D139">
-        <v>-31.41</v>
+        <v>18.09</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>43969</v>
+        <v>44000</v>
       </c>
       <c r="B140">
-        <v>82.26000000000001</v>
+        <v>153.78</v>
       </c>
       <c r="C140">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D140">
-        <v>-35.74</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>43970</v>
+        <v>44001</v>
       </c>
       <c r="B141">
-        <v>77.62</v>
+        <v>146.42</v>
       </c>
       <c r="C141">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D141">
-        <v>-39.36</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>43971</v>
+        <v>44002</v>
       </c>
       <c r="B142">
-        <v>76.56999999999999</v>
+        <v>140.38</v>
       </c>
       <c r="C142">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D142">
-        <v>-40.18</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>43972</v>
+        <v>44003</v>
       </c>
       <c r="B143">
-        <v>73.7</v>
+        <v>134.93</v>
       </c>
       <c r="C143">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D143">
-        <v>-42.43</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>43973</v>
+        <v>44004</v>
       </c>
       <c r="B144">
-        <v>112.64</v>
+        <v>130.01</v>
       </c>
       <c r="C144">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D144">
-        <v>-12.01</v>
+        <v>-6.04</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>43974</v>
+        <v>44005</v>
       </c>
       <c r="B145">
-        <v>154.82</v>
+        <v>126.22</v>
       </c>
       <c r="C145">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D145">
-        <v>20.95</v>
+        <v>-8.779999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>43975</v>
+        <v>44006</v>
       </c>
       <c r="B146">
-        <v>169.34</v>
+        <v>122.99</v>
       </c>
       <c r="C146">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D146">
-        <v>32.3</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>43976</v>
+        <v>44007</v>
       </c>
       <c r="B147">
-        <v>152.41</v>
+        <v>120.03</v>
       </c>
       <c r="C147">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D147">
-        <v>19.06</v>
+        <v>-13.25</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>43977</v>
+        <v>44008</v>
       </c>
       <c r="B148">
-        <v>135.22</v>
+        <v>123.12</v>
       </c>
       <c r="C148">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D148">
-        <v>5.64</v>
+        <v>-11.02</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>43978</v>
+        <v>44009</v>
       </c>
       <c r="B149">
-        <v>122.32</v>
+        <v>125.24</v>
       </c>
       <c r="C149">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D149">
-        <v>-4.44</v>
+        <v>-9.49</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>43979</v>
+        <v>44010</v>
       </c>
       <c r="B150">
-        <v>111.53</v>
+        <v>122.99</v>
       </c>
       <c r="C150">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D150">
-        <v>-12.87</v>
+        <v>-11.12</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>43980</v>
+        <v>44011</v>
       </c>
       <c r="B151">
-        <v>105.05</v>
+        <v>120.39</v>
       </c>
       <c r="C151">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D151">
-        <v>-17.93</v>
+        <v>-12.99</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>43981</v>
+        <v>44012</v>
       </c>
       <c r="B152">
-        <v>100.22</v>
+        <v>119.67</v>
       </c>
       <c r="C152">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D152">
-        <v>-21.71</v>
+        <v>-13.52</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>43982</v>
+        <v>44013</v>
       </c>
       <c r="B153">
-        <v>96.67</v>
+        <v>135.98</v>
       </c>
       <c r="C153">
-        <v>128</v>
+        <v>131.62</v>
       </c>
       <c r="D153">
-        <v>-24.48</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>43983</v>
+        <v>44014</v>
       </c>
       <c r="B154">
-        <v>95.04000000000001</v>
+        <v>157.81</v>
       </c>
       <c r="C154">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D154">
-        <v>-31.31</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>43984</v>
+        <v>44015</v>
       </c>
       <c r="B155">
-        <v>93.76000000000001</v>
+        <v>147.03</v>
       </c>
       <c r="C155">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D155">
-        <v>-32.24</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>43985</v>
+        <v>44016</v>
       </c>
       <c r="B156">
-        <v>91.53</v>
+        <v>137.25</v>
       </c>
       <c r="C156">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D156">
-        <v>-33.85</v>
+        <v>4.27</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>43986</v>
+        <v>44017</v>
       </c>
       <c r="B157">
-        <v>94.69</v>
+        <v>128.27</v>
       </c>
       <c r="C157">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D157">
-        <v>-31.57</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>43987</v>
+        <v>44018</v>
       </c>
       <c r="B158">
-        <v>125.85</v>
+        <v>122.45</v>
       </c>
       <c r="C158">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D158">
-        <v>-9.050000000000001</v>
+        <v>-6.97</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>43988</v>
+        <v>44019</v>
       </c>
       <c r="B159">
-        <v>153.61</v>
+        <v>123.52</v>
       </c>
       <c r="C159">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D159">
-        <v>11.02</v>
+        <v>-6.16</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>43989</v>
+        <v>44020</v>
       </c>
       <c r="B160">
-        <v>163.02</v>
+        <v>140.43</v>
       </c>
       <c r="C160">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D160">
-        <v>17.82</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>43990</v>
+        <v>44021</v>
       </c>
       <c r="B161">
-        <v>147.54</v>
+        <v>158.15</v>
       </c>
       <c r="C161">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D161">
-        <v>6.63</v>
+        <v>20.15</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>43991</v>
+        <v>44022</v>
       </c>
       <c r="B162">
-        <v>145.65</v>
+        <v>170.08</v>
       </c>
       <c r="C162">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D162">
-        <v>5.26</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>43992</v>
+        <v>44023</v>
       </c>
       <c r="B163">
-        <v>278</v>
+        <v>157.05</v>
       </c>
       <c r="C163">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D163">
-        <v>100.91</v>
+        <v>19.32</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>43993</v>
+        <v>44024</v>
       </c>
       <c r="B164">
-        <v>259.32</v>
+        <v>146.65</v>
       </c>
       <c r="C164">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D164">
-        <v>87.41</v>
+        <v>11.41</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>43994</v>
+        <v>44025</v>
       </c>
       <c r="B165">
-        <v>251.39</v>
+        <v>140.3</v>
       </c>
       <c r="C165">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D165">
-        <v>81.68000000000001</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>43995</v>
+        <v>44026</v>
       </c>
       <c r="B166">
-        <v>226.04</v>
+        <v>134.47</v>
       </c>
       <c r="C166">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D166">
-        <v>63.36</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>43996</v>
+        <v>44027</v>
       </c>
       <c r="B167">
-        <v>206.4</v>
+        <v>130.05</v>
       </c>
       <c r="C167">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D167">
-        <v>49.16</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>43997</v>
+        <v>44028</v>
       </c>
       <c r="B168">
-        <v>190</v>
+        <v>125.01</v>
       </c>
       <c r="C168">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D168">
-        <v>37.31</v>
+        <v>-5.02</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>43998</v>
+        <v>44029</v>
       </c>
       <c r="B169">
-        <v>176.32</v>
+        <v>121.39</v>
       </c>
       <c r="C169">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D169">
-        <v>27.43</v>
+        <v>-7.78</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>43999</v>
+        <v>44030</v>
       </c>
       <c r="B170">
-        <v>163.4</v>
+        <v>119.31</v>
       </c>
       <c r="C170">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D170">
-        <v>18.09</v>
+        <v>-9.35</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44000</v>
+        <v>44031</v>
       </c>
       <c r="B171">
-        <v>153.78</v>
+        <v>116.15</v>
       </c>
       <c r="C171">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D171">
-        <v>11.14</v>
+        <v>-11.76</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44001</v>
+        <v>44032</v>
       </c>
       <c r="B172">
-        <v>146.42</v>
+        <v>114.07</v>
       </c>
       <c r="C172">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D172">
-        <v>5.81</v>
+        <v>-13.33</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44002</v>
+        <v>44033</v>
       </c>
       <c r="B173">
-        <v>140.38</v>
+        <v>111.75</v>
       </c>
       <c r="C173">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D173">
-        <v>1.45</v>
+        <v>-15.1</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44003</v>
+        <v>44034</v>
       </c>
       <c r="B174">
-        <v>134.93</v>
+        <v>110.18</v>
       </c>
       <c r="C174">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D174">
-        <v>-2.49</v>
+        <v>-16.29</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44004</v>
+        <v>44035</v>
       </c>
       <c r="B175">
-        <v>130.01</v>
+        <v>109</v>
       </c>
       <c r="C175">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D175">
-        <v>-6.04</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44005</v>
+        <v>44036</v>
       </c>
       <c r="B176">
-        <v>126.22</v>
+        <v>106.52</v>
       </c>
       <c r="C176">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D176">
-        <v>-8.779999999999999</v>
+        <v>-19.07</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44006</v>
+        <v>44037</v>
       </c>
       <c r="B177">
-        <v>122.99</v>
+        <v>104.51</v>
       </c>
       <c r="C177">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D177">
-        <v>-11.12</v>
+        <v>-20.6</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44007</v>
+        <v>44038</v>
       </c>
       <c r="B178">
-        <v>120.03</v>
+        <v>104.66</v>
       </c>
       <c r="C178">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D178">
-        <v>-13.25</v>
+        <v>-20.49</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44008</v>
+        <v>44039</v>
       </c>
       <c r="B179">
-        <v>123.12</v>
+        <v>103.49</v>
       </c>
       <c r="C179">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D179">
-        <v>-11.02</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44009</v>
+        <v>44040</v>
       </c>
       <c r="B180">
-        <v>125.24</v>
+        <v>101.41</v>
       </c>
       <c r="C180">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D180">
-        <v>-9.49</v>
+        <v>-22.96</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44010</v>
+        <v>44041</v>
       </c>
       <c r="B181">
-        <v>122.99</v>
+        <v>101.25</v>
       </c>
       <c r="C181">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D181">
-        <v>-11.12</v>
+        <v>-23.08</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44011</v>
+        <v>44042</v>
       </c>
       <c r="B182">
-        <v>120.39</v>
+        <v>105.68</v>
       </c>
       <c r="C182">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D182">
-        <v>-12.99</v>
+        <v>-19.71</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B183">
-        <v>119.67</v>
+        <v>106.08</v>
       </c>
       <c r="C183">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D183">
-        <v>-13.52</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B184">
-        <v>135.98</v>
+        <v>101.46</v>
       </c>
       <c r="C184">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D184">
-        <v>3.31</v>
+        <v>-14.55</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44014</v>
+        <v>44045</v>
       </c>
       <c r="B185">
-        <v>157.81</v>
+        <v>99.94</v>
       </c>
       <c r="C185">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D185">
-        <v>19.9</v>
+        <v>-15.83</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44015</v>
+        <v>44046</v>
       </c>
       <c r="B186">
-        <v>147.03</v>
+        <v>98.25</v>
       </c>
       <c r="C186">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D186">
-        <v>11.71</v>
+        <v>-17.25</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44016</v>
+        <v>44047</v>
       </c>
       <c r="B187">
-        <v>137.25</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C187">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D187">
-        <v>4.27</v>
+        <v>-18.93</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44017</v>
+        <v>44048</v>
       </c>
       <c r="B188">
-        <v>128.27</v>
+        <v>94</v>
       </c>
       <c r="C188">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D188">
-        <v>-2.55</v>
+        <v>-20.83</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44018</v>
+        <v>44049</v>
       </c>
       <c r="B189">
-        <v>122.45</v>
+        <v>91.13</v>
       </c>
       <c r="C189">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D189">
-        <v>-6.97</v>
+        <v>-23.25</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44019</v>
+        <v>44050</v>
       </c>
       <c r="B190">
-        <v>123.52</v>
+        <v>92.3</v>
       </c>
       <c r="C190">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D190">
-        <v>-6.16</v>
+        <v>-22.26</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44020</v>
+        <v>44051</v>
       </c>
       <c r="B191">
-        <v>140.43</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="C191">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D191">
-        <v>6.69</v>
+        <v>-22.1</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44021</v>
+        <v>44052</v>
       </c>
       <c r="B192">
-        <v>158.15</v>
+        <v>90.38</v>
       </c>
       <c r="C192">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D192">
-        <v>20.15</v>
+        <v>-23.88</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44022</v>
+        <v>44053</v>
       </c>
       <c r="B193">
-        <v>170.08</v>
+        <v>89.64</v>
       </c>
       <c r="C193">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D193">
-        <v>29.22</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44023</v>
+        <v>44054</v>
       </c>
       <c r="B194">
-        <v>157.05</v>
+        <v>87.31</v>
       </c>
       <c r="C194">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D194">
-        <v>19.32</v>
+        <v>-26.46</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44024</v>
+        <v>44055</v>
       </c>
       <c r="B195">
-        <v>146.65</v>
+        <v>88.31</v>
       </c>
       <c r="C195">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D195">
-        <v>11.41</v>
+        <v>-25.62</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44025</v>
+        <v>44056</v>
       </c>
       <c r="B196">
-        <v>140.3</v>
+        <v>100.71</v>
       </c>
       <c r="C196">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D196">
-        <v>6.59</v>
+        <v>-15.18</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44026</v>
+        <v>44057</v>
       </c>
       <c r="B197">
-        <v>134.47</v>
+        <v>125.19</v>
       </c>
       <c r="C197">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D197">
-        <v>2.16</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44027</v>
+        <v>44058</v>
       </c>
       <c r="B198">
-        <v>130.05</v>
+        <v>129.4</v>
       </c>
       <c r="C198">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D198">
-        <v>-1.19</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44028</v>
+        <v>44059</v>
       </c>
       <c r="B199">
-        <v>125.01</v>
+        <v>144.85</v>
       </c>
       <c r="C199">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D199">
-        <v>-5.02</v>
+        <v>22</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44029</v>
+        <v>44060</v>
       </c>
       <c r="B200">
-        <v>121.39</v>
+        <v>153.78</v>
       </c>
       <c r="C200">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D200">
-        <v>-7.78</v>
+        <v>29.52</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44030</v>
+        <v>44061</v>
       </c>
       <c r="B201">
-        <v>119.31</v>
+        <v>158.61</v>
       </c>
       <c r="C201">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D201">
-        <v>-9.35</v>
+        <v>33.59</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44031</v>
+        <v>44062</v>
       </c>
       <c r="B202">
-        <v>116.15</v>
+        <v>177.33</v>
       </c>
       <c r="C202">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D202">
-        <v>-11.76</v>
+        <v>49.36</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44032</v>
+        <v>44063</v>
       </c>
       <c r="B203">
-        <v>114.07</v>
+        <v>183.36</v>
       </c>
       <c r="C203">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D203">
-        <v>-13.33</v>
+        <v>54.44</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44033</v>
+        <v>44064</v>
       </c>
       <c r="B204">
-        <v>111.75</v>
+        <v>175.84</v>
       </c>
       <c r="C204">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D204">
-        <v>-15.1</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44034</v>
+        <v>44065</v>
       </c>
       <c r="B205">
-        <v>110.18</v>
+        <v>159.39</v>
       </c>
       <c r="C205">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D205">
-        <v>-16.29</v>
+        <v>34.24</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44035</v>
+        <v>44066</v>
       </c>
       <c r="B206">
-        <v>109</v>
+        <v>146.09</v>
       </c>
       <c r="C206">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D206">
-        <v>-17.19</v>
+        <v>23.05</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44036</v>
+        <v>44067</v>
       </c>
       <c r="B207">
-        <v>106.52</v>
+        <v>136.09</v>
       </c>
       <c r="C207">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D207">
-        <v>-19.07</v>
+        <v>14.62</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44037</v>
+        <v>44068</v>
       </c>
       <c r="B208">
-        <v>104.51</v>
+        <v>128.77</v>
       </c>
       <c r="C208">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D208">
-        <v>-20.6</v>
+        <v>8.460000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44038</v>
+        <v>44069</v>
       </c>
       <c r="B209">
-        <v>104.66</v>
+        <v>123.82</v>
       </c>
       <c r="C209">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D209">
-        <v>-20.49</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44039</v>
+        <v>44070</v>
       </c>
       <c r="B210">
-        <v>103.49</v>
+        <v>119.18</v>
       </c>
       <c r="C210">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D210">
-        <v>-21.37</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44040</v>
+        <v>44071</v>
       </c>
       <c r="B211">
-        <v>101.41</v>
+        <v>115.73</v>
       </c>
       <c r="C211">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D211">
-        <v>-22.96</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44041</v>
+        <v>44072</v>
       </c>
       <c r="B212">
-        <v>101.25</v>
+        <v>113.28</v>
       </c>
       <c r="C212">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D212">
-        <v>-23.08</v>
+        <v>-4.59</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44042</v>
+        <v>44073</v>
       </c>
       <c r="B213">
-        <v>105.68</v>
+        <v>109.06</v>
       </c>
       <c r="C213">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D213">
-        <v>-19.71</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B214">
-        <v>106.08</v>
+        <v>107.37</v>
       </c>
       <c r="C214">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D214">
-        <v>-19.4</v>
+        <v>-9.57</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B215">
-        <v>101.46</v>
+        <v>105.41</v>
       </c>
       <c r="C215">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D215">
-        <v>-14.55</v>
+        <v>-14.94</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44045</v>
+        <v>44076</v>
       </c>
       <c r="B216">
-        <v>99.94</v>
+        <v>102.61</v>
       </c>
       <c r="C216">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D216">
-        <v>-15.83</v>
+        <v>-17.19</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44046</v>
+        <v>44077</v>
       </c>
       <c r="B217">
-        <v>98.25</v>
+        <v>102.73</v>
       </c>
       <c r="C217">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D217">
-        <v>-17.25</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44047</v>
+        <v>44078</v>
       </c>
       <c r="B218">
-        <v>96.26000000000001</v>
+        <v>102.05</v>
       </c>
       <c r="C218">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D218">
-        <v>-18.93</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44048</v>
+        <v>44079</v>
       </c>
       <c r="B219">
-        <v>94</v>
+        <v>98.3</v>
       </c>
       <c r="C219">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D219">
-        <v>-20.83</v>
+        <v>-20.67</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44049</v>
+        <v>44080</v>
       </c>
       <c r="B220">
-        <v>91.13</v>
+        <v>98.48</v>
       </c>
       <c r="C220">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D220">
-        <v>-23.25</v>
+        <v>-20.53</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44050</v>
+        <v>44081</v>
       </c>
       <c r="B221">
-        <v>92.3</v>
+        <v>96.29000000000001</v>
       </c>
       <c r="C221">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D221">
-        <v>-22.26</v>
+        <v>-22.29</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44051</v>
+        <v>44082</v>
       </c>
       <c r="B222">
-        <v>92.48999999999999</v>
+        <v>96.48</v>
       </c>
       <c r="C222">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D222">
-        <v>-22.1</v>
+        <v>-22.14</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44052</v>
+        <v>44083</v>
       </c>
       <c r="B223">
-        <v>90.38</v>
+        <v>95.38</v>
       </c>
       <c r="C223">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D223">
-        <v>-23.88</v>
+        <v>-23.03</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44053</v>
+        <v>44084</v>
       </c>
       <c r="B224">
-        <v>89.64</v>
+        <v>93.70999999999999</v>
       </c>
       <c r="C224">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D224">
-        <v>-24.51</v>
+        <v>-24.38</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44054</v>
+        <v>44085</v>
       </c>
       <c r="B225">
-        <v>87.31</v>
+        <v>92.52</v>
       </c>
       <c r="C225">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D225">
-        <v>-26.46</v>
+        <v>-25.34</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44055</v>
+        <v>44086</v>
       </c>
       <c r="B226">
-        <v>88.31</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="C226">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D226">
-        <v>-25.62</v>
+        <v>-24.51</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44056</v>
+        <v>44087</v>
       </c>
       <c r="B227">
-        <v>100.71</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C227">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D227">
-        <v>-15.18</v>
+        <v>-26.65</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44057</v>
+        <v>44088</v>
       </c>
       <c r="B228">
-        <v>125.19</v>
+        <v>89.23999999999999</v>
       </c>
       <c r="C228">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D228">
-        <v>5.44</v>
+        <v>-27.98</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44058</v>
+        <v>44089</v>
       </c>
       <c r="B229">
-        <v>129.4</v>
+        <v>89.88</v>
       </c>
       <c r="C229">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D229">
-        <v>8.98</v>
+        <v>-27.47</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44059</v>
+        <v>44090</v>
       </c>
       <c r="B230">
-        <v>144.85</v>
+        <v>88.8</v>
       </c>
       <c r="C230">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D230">
-        <v>22</v>
+        <v>-28.34</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44060</v>
+        <v>44091</v>
       </c>
       <c r="B231">
-        <v>153.78</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="C231">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D231">
-        <v>29.52</v>
+        <v>-28.81</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44061</v>
+        <v>44092</v>
       </c>
       <c r="B232">
-        <v>158.61</v>
+        <v>85.75</v>
       </c>
       <c r="C232">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D232">
-        <v>33.59</v>
+        <v>-30.8</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44062</v>
+        <v>44093</v>
       </c>
       <c r="B233">
-        <v>177.33</v>
+        <v>86.56</v>
       </c>
       <c r="C233">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D233">
-        <v>49.36</v>
+        <v>-30.15</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44063</v>
+        <v>44094</v>
       </c>
       <c r="B234">
-        <v>183.36</v>
+        <v>87.2</v>
       </c>
       <c r="C234">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D234">
-        <v>54.44</v>
+        <v>-29.63</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44064</v>
+        <v>44095</v>
       </c>
       <c r="B235">
-        <v>175.84</v>
+        <v>84.45</v>
       </c>
       <c r="C235">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D235">
-        <v>48.1</v>
+        <v>-31.85</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44065</v>
+        <v>44096</v>
       </c>
       <c r="B236">
-        <v>159.39</v>
+        <v>83.56</v>
       </c>
       <c r="C236">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D236">
-        <v>34.24</v>
+        <v>-32.57</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44066</v>
+        <v>44097</v>
       </c>
       <c r="B237">
-        <v>146.09</v>
+        <v>83</v>
       </c>
       <c r="C237">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D237">
-        <v>23.05</v>
+        <v>-33.02</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44067</v>
+        <v>44098</v>
       </c>
       <c r="B238">
-        <v>136.09</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C238">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D238">
-        <v>14.62</v>
+        <v>-33.91</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44068</v>
+        <v>44099</v>
       </c>
       <c r="B239">
-        <v>128.77</v>
+        <v>81.36</v>
       </c>
       <c r="C239">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D239">
-        <v>8.460000000000001</v>
+        <v>-34.34</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44069</v>
+        <v>44100</v>
       </c>
       <c r="B240">
-        <v>123.82</v>
+        <v>81.66</v>
       </c>
       <c r="C240">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D240">
-        <v>4.29</v>
+        <v>-34.1</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44070</v>
+        <v>44101</v>
       </c>
       <c r="B241">
-        <v>119.18</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="C241">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D241">
-        <v>0.37</v>
+        <v>-35.81</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44071</v>
+        <v>44102</v>
       </c>
       <c r="B242">
-        <v>115.73</v>
+        <v>81.08</v>
       </c>
       <c r="C242">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D242">
-        <v>-2.53</v>
+        <v>-34.56</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44072</v>
+        <v>44103</v>
       </c>
       <c r="B243">
-        <v>113.28</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="C243">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D243">
-        <v>-4.59</v>
+        <v>-31.08</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44073</v>
+        <v>44104</v>
       </c>
       <c r="B244">
-        <v>109.06</v>
+        <v>88.48999999999999</v>
       </c>
       <c r="C244">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D244">
-        <v>-8.140000000000001</v>
+        <v>-28.59</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44074</v>
+        <v>44105</v>
       </c>
       <c r="B245">
-        <v>107.37</v>
+        <v>85.11</v>
       </c>
       <c r="C245">
-        <v>118.73</v>
+        <v>150.79</v>
       </c>
       <c r="D245">
-        <v>-9.57</v>
+        <v>-43.56</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44075</v>
+        <v>44106</v>
       </c>
       <c r="B246">
-        <v>105.41</v>
+        <v>81.94</v>
       </c>
       <c r="C246">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D246">
-        <v>-14.94</v>
+        <v>-45.66</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44076</v>
+        <v>44107</v>
       </c>
       <c r="B247">
-        <v>102.61</v>
+        <v>81.20999999999999</v>
       </c>
       <c r="C247">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D247">
-        <v>-17.19</v>
+        <v>-46.15</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44077</v>
+        <v>44108</v>
       </c>
       <c r="B248">
-        <v>102.73</v>
+        <v>79.08</v>
       </c>
       <c r="C248">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D248">
-        <v>-17.1</v>
+        <v>-47.56</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44078</v>
+        <v>44109</v>
       </c>
       <c r="B249">
-        <v>102.05</v>
+        <v>77.2</v>
       </c>
       <c r="C249">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D249">
-        <v>-17.64</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44079</v>
+        <v>44110</v>
       </c>
       <c r="B250">
-        <v>98.3</v>
+        <v>75.48999999999999</v>
       </c>
       <c r="C250">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D250">
-        <v>-20.67</v>
+        <v>-49.94</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44080</v>
+        <v>44111</v>
       </c>
       <c r="B251">
-        <v>98.48</v>
+        <v>73.41</v>
       </c>
       <c r="C251">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D251">
-        <v>-20.53</v>
+        <v>-51.32</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44081</v>
+        <v>44112</v>
       </c>
       <c r="B252">
-        <v>96.29000000000001</v>
+        <v>78.95</v>
       </c>
       <c r="C252">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D252">
-        <v>-22.29</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44082</v>
+        <v>44113</v>
       </c>
       <c r="B253">
-        <v>96.48</v>
+        <v>83.36</v>
       </c>
       <c r="C253">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D253">
-        <v>-22.14</v>
+        <v>-44.72</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44083</v>
+        <v>44114</v>
       </c>
       <c r="B254">
-        <v>95.38</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="C254">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D254">
-        <v>-23.03</v>
+        <v>-43.23</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44084</v>
+        <v>44115</v>
       </c>
       <c r="B255">
-        <v>93.70999999999999</v>
+        <v>85.34</v>
       </c>
       <c r="C255">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D255">
-        <v>-24.38</v>
+        <v>-43.4</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44085</v>
+        <v>44116</v>
       </c>
       <c r="B256">
-        <v>92.52</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="C256">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D256">
-        <v>-25.34</v>
+        <v>-44.89</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44086</v>
+        <v>44117</v>
       </c>
       <c r="B257">
-        <v>93.54000000000001</v>
+        <v>81.05</v>
       </c>
       <c r="C257">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D257">
-        <v>-24.51</v>
+        <v>-46.25</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44087</v>
+        <v>44118</v>
       </c>
       <c r="B258">
-        <v>90.90000000000001</v>
+        <v>81.98999999999999</v>
       </c>
       <c r="C258">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D258">
-        <v>-26.65</v>
+        <v>-45.63</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44088</v>
+        <v>44119</v>
       </c>
       <c r="B259">
-        <v>89.23999999999999</v>
+        <v>85.15000000000001</v>
       </c>
       <c r="C259">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D259">
-        <v>-27.98</v>
+        <v>-43.53</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44089</v>
+        <v>44120</v>
       </c>
       <c r="B260">
-        <v>89.88</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="C260">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D260">
-        <v>-27.47</v>
+        <v>-43.99</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44090</v>
+        <v>44121</v>
       </c>
       <c r="B261">
-        <v>88.8</v>
+        <v>82.84</v>
       </c>
       <c r="C261">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D261">
-        <v>-28.34</v>
+        <v>-45.06</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44091</v>
+        <v>44122</v>
       </c>
       <c r="B262">
-        <v>88.20999999999999</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C262">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D262">
-        <v>-28.81</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44092</v>
+        <v>44123</v>
       </c>
       <c r="B263">
-        <v>85.75</v>
+        <v>79.48999999999999</v>
       </c>
       <c r="C263">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D263">
-        <v>-30.8</v>
+        <v>-47.29</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44093</v>
+        <v>44124</v>
       </c>
       <c r="B264">
-        <v>86.56</v>
+        <v>75.75</v>
       </c>
       <c r="C264">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D264">
-        <v>-30.15</v>
+        <v>-49.77</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44094</v>
+        <v>44125</v>
       </c>
       <c r="B265">
-        <v>87.2</v>
+        <v>73.7</v>
       </c>
       <c r="C265">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D265">
-        <v>-29.63</v>
+        <v>-51.13</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44095</v>
+        <v>44126</v>
       </c>
       <c r="B266">
-        <v>84.45</v>
+        <v>73.27</v>
       </c>
       <c r="C266">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D266">
-        <v>-31.85</v>
+        <v>-51.41</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44096</v>
+        <v>44127</v>
       </c>
       <c r="B267">
-        <v>83.56</v>
+        <v>74.39</v>
       </c>
       <c r="C267">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D267">
-        <v>-32.57</v>
+        <v>-50.67</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44097</v>
+        <v>44128</v>
       </c>
       <c r="B268">
-        <v>83</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C268">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D268">
-        <v>-33.02</v>
+        <v>-51.66</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44098</v>
+        <v>44129</v>
       </c>
       <c r="B269">
-        <v>81.90000000000001</v>
+        <v>71.67</v>
       </c>
       <c r="C269">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D269">
-        <v>-33.91</v>
+        <v>-52.47</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44099</v>
+        <v>44130</v>
       </c>
       <c r="B270">
-        <v>81.36</v>
+        <v>70.88</v>
       </c>
       <c r="C270">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D270">
-        <v>-34.34</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44100</v>
+        <v>44131</v>
       </c>
       <c r="B271">
-        <v>81.66</v>
+        <v>73.23</v>
       </c>
       <c r="C271">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D271">
-        <v>-34.1</v>
+        <v>-51.44</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44101</v>
+        <v>44132</v>
       </c>
       <c r="B272">
-        <v>79.54000000000001</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C272">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D272">
-        <v>-35.81</v>
+        <v>-53.53</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44102</v>
+        <v>44133</v>
       </c>
       <c r="B273">
-        <v>81.08</v>
+        <v>71.47</v>
       </c>
       <c r="C273">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D273">
-        <v>-34.56</v>
+        <v>-52.6</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44103</v>
+        <v>44134</v>
       </c>
       <c r="B274">
-        <v>85.40000000000001</v>
+        <v>70.26000000000001</v>
       </c>
       <c r="C274">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D274">
-        <v>-31.08</v>
+        <v>-53.41</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B275">
-        <v>88.48999999999999</v>
+        <v>70.65000000000001</v>
       </c>
       <c r="C275">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D275">
-        <v>-28.59</v>
+        <v>-53.15</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B276">
-        <v>85.11</v>
+        <v>70.31</v>
       </c>
       <c r="C276">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D276">
-        <v>-43.56</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44106</v>
+        <v>44137</v>
       </c>
       <c r="B277">
-        <v>81.94</v>
+        <v>69.23999999999999</v>
       </c>
       <c r="C277">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D277">
-        <v>-45.66</v>
+        <v>-50.76</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44107</v>
+        <v>44138</v>
       </c>
       <c r="B278">
-        <v>81.20999999999999</v>
+        <v>69.66</v>
       </c>
       <c r="C278">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D278">
-        <v>-46.15</v>
+        <v>-50.47</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44108</v>
+        <v>44139</v>
       </c>
       <c r="B279">
-        <v>79.08</v>
+        <v>69.95</v>
       </c>
       <c r="C279">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D279">
-        <v>-47.56</v>
+        <v>-50.26</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44109</v>
+        <v>44140</v>
       </c>
       <c r="B280">
-        <v>77.2</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="C280">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D280">
-        <v>-48.81</v>
+        <v>-51.7</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44110</v>
+        <v>44141</v>
       </c>
       <c r="B281">
-        <v>75.48999999999999</v>
+        <v>67.36</v>
       </c>
       <c r="C281">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D281">
-        <v>-49.94</v>
+        <v>-52.1</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44111</v>
+        <v>44142</v>
       </c>
       <c r="B282">
-        <v>73.41</v>
+        <v>66.19</v>
       </c>
       <c r="C282">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D282">
-        <v>-51.32</v>
+        <v>-52.93</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44112</v>
+        <v>44143</v>
       </c>
       <c r="B283">
-        <v>78.95</v>
+        <v>65.41</v>
       </c>
       <c r="C283">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D283">
-        <v>-47.64</v>
+        <v>-53.49</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44113</v>
+        <v>44144</v>
       </c>
       <c r="B284">
-        <v>83.36</v>
+        <v>68.23999999999999</v>
       </c>
       <c r="C284">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D284">
-        <v>-44.72</v>
+        <v>-51.47</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44114</v>
+        <v>44145</v>
       </c>
       <c r="B285">
-        <v>85.59999999999999</v>
+        <v>66.95</v>
       </c>
       <c r="C285">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D285">
-        <v>-43.23</v>
+        <v>-52.39</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44115</v>
+        <v>44146</v>
       </c>
       <c r="B286">
-        <v>85.34</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C286">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D286">
-        <v>-43.4</v>
+        <v>-51.9</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44116</v>
+        <v>44147</v>
       </c>
       <c r="B287">
-        <v>83.09999999999999</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C287">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D287">
-        <v>-44.89</v>
+        <v>-49.68</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44117</v>
+        <v>44148</v>
       </c>
       <c r="B288">
-        <v>81.05</v>
+        <v>70.52</v>
       </c>
       <c r="C288">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D288">
-        <v>-46.25</v>
+        <v>-49.85</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44118</v>
+        <v>44149</v>
       </c>
       <c r="B289">
-        <v>81.98999999999999</v>
+        <v>71.98</v>
       </c>
       <c r="C289">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D289">
-        <v>-45.63</v>
+        <v>-48.81</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44119</v>
+        <v>44150</v>
       </c>
       <c r="B290">
-        <v>85.15000000000001</v>
+        <v>73.11</v>
       </c>
       <c r="C290">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D290">
-        <v>-43.53</v>
+        <v>-48.01</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44120</v>
+        <v>44151</v>
       </c>
       <c r="B291">
-        <v>84.45999999999999</v>
+        <v>73.65000000000001</v>
       </c>
       <c r="C291">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D291">
-        <v>-43.99</v>
+        <v>-47.63</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44121</v>
+        <v>44152</v>
       </c>
       <c r="B292">
-        <v>82.84</v>
+        <v>74.09</v>
       </c>
       <c r="C292">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D292">
-        <v>-45.06</v>
+        <v>-47.31</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44122</v>
+        <v>44153</v>
       </c>
       <c r="B293">
-        <v>79.81999999999999</v>
+        <v>78</v>
       </c>
       <c r="C293">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D293">
-        <v>-47.06</v>
+        <v>-44.53</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44123</v>
+        <v>44154</v>
       </c>
       <c r="B294">
-        <v>79.48999999999999</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="C294">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D294">
-        <v>-47.29</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44124</v>
+        <v>44155</v>
       </c>
       <c r="B295">
-        <v>75.75</v>
+        <v>75.48</v>
       </c>
       <c r="C295">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D295">
-        <v>-49.77</v>
+        <v>-46.33</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44125</v>
+        <v>44156</v>
       </c>
       <c r="B296">
-        <v>73.7</v>
+        <v>72.61</v>
       </c>
       <c r="C296">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D296">
-        <v>-51.13</v>
+        <v>-48.36</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44126</v>
+        <v>44157</v>
       </c>
       <c r="B297">
-        <v>73.27</v>
+        <v>70.62</v>
       </c>
       <c r="C297">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D297">
-        <v>-51.41</v>
+        <v>-49.78</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44127</v>
+        <v>44158</v>
       </c>
       <c r="B298">
-        <v>74.39</v>
+        <v>72.51000000000001</v>
       </c>
       <c r="C298">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D298">
-        <v>-50.67</v>
+        <v>-48.44</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44128</v>
+        <v>44159</v>
       </c>
       <c r="B299">
-        <v>72.90000000000001</v>
+        <v>72.83</v>
       </c>
       <c r="C299">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D299">
-        <v>-51.66</v>
+        <v>-48.21</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44129</v>
+        <v>44160</v>
       </c>
       <c r="B300">
-        <v>71.67</v>
+        <v>69.14</v>
       </c>
       <c r="C300">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D300">
-        <v>-52.47</v>
+        <v>-50.84</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44130</v>
+        <v>44161</v>
       </c>
       <c r="B301">
-        <v>70.88</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C301">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D301">
-        <v>-53</v>
+        <v>-52.88</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44131</v>
+        <v>44162</v>
       </c>
       <c r="B302">
-        <v>73.23</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C302">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D302">
-        <v>-51.44</v>
+        <v>-52.53</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44132</v>
+        <v>44163</v>
       </c>
       <c r="B303">
-        <v>70.06999999999999</v>
+        <v>68.23</v>
       </c>
       <c r="C303">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D303">
-        <v>-53.53</v>
+        <v>-51.48</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44133</v>
+        <v>44164</v>
       </c>
       <c r="B304">
-        <v>71.47</v>
+        <v>66.03</v>
       </c>
       <c r="C304">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D304">
-        <v>-52.6</v>
+        <v>-53.04</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44134</v>
+        <v>44165</v>
       </c>
       <c r="B305">
-        <v>70.26000000000001</v>
+        <v>73.44</v>
       </c>
       <c r="C305">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D305">
-        <v>-53.41</v>
+        <v>-47.78</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44135</v>
+        <v>44166</v>
       </c>
       <c r="B306">
-        <v>70.65000000000001</v>
+        <v>78.08</v>
       </c>
       <c r="C306">
-        <v>150.79</v>
+        <v>121.66</v>
       </c>
       <c r="D306">
-        <v>-53.15</v>
+        <v>-35.82</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44136</v>
+        <v>44167</v>
       </c>
       <c r="B307">
-        <v>70.31</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="C307">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D307">
-        <v>-50</v>
+        <v>-35.53</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44137</v>
+        <v>44168</v>
       </c>
       <c r="B308">
-        <v>69.23999999999999</v>
+        <v>95.66</v>
       </c>
       <c r="C308">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D308">
-        <v>-50.76</v>
+        <v>-21.37</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44138</v>
+        <v>44169</v>
       </c>
       <c r="B309">
-        <v>69.66</v>
+        <v>115.23</v>
       </c>
       <c r="C309">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D309">
-        <v>-50.47</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44139</v>
+        <v>44170</v>
       </c>
       <c r="B310">
-        <v>69.95</v>
+        <v>122.95</v>
       </c>
       <c r="C310">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D310">
-        <v>-50.26</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44140</v>
+        <v>44171</v>
       </c>
       <c r="B311">
-        <v>67.93000000000001</v>
+        <v>142.25</v>
       </c>
       <c r="C311">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D311">
-        <v>-51.7</v>
+        <v>16.93</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44141</v>
+        <v>44172</v>
       </c>
       <c r="B312">
-        <v>67.36</v>
+        <v>135.89</v>
       </c>
       <c r="C312">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D312">
-        <v>-52.1</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44142</v>
+        <v>44173</v>
       </c>
       <c r="B313">
-        <v>66.19</v>
+        <v>122.79</v>
       </c>
       <c r="C313">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D313">
-        <v>-52.93</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44143</v>
+        <v>44174</v>
       </c>
       <c r="B314">
-        <v>65.41</v>
+        <v>115.17</v>
       </c>
       <c r="C314">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D314">
-        <v>-53.49</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44144</v>
+        <v>44175</v>
       </c>
       <c r="B315">
-        <v>68.23999999999999</v>
+        <v>107.43</v>
       </c>
       <c r="C315">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D315">
-        <v>-51.47</v>
+        <v>-11.7</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44145</v>
+        <v>44176</v>
       </c>
       <c r="B316">
-        <v>66.95</v>
+        <v>100.91</v>
       </c>
       <c r="C316">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D316">
-        <v>-52.39</v>
+        <v>-17.06</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44146</v>
+        <v>44177</v>
       </c>
       <c r="B317">
-        <v>67.65000000000001</v>
+        <v>96.31999999999999</v>
       </c>
       <c r="C317">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D317">
-        <v>-51.9</v>
+        <v>-20.82</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44147</v>
+        <v>44178</v>
       </c>
       <c r="B318">
-        <v>70.76000000000001</v>
+        <v>92.23</v>
       </c>
       <c r="C318">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D318">
-        <v>-49.68</v>
+        <v>-24.19</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44148</v>
+        <v>44179</v>
       </c>
       <c r="B319">
-        <v>70.52</v>
+        <v>92.42</v>
       </c>
       <c r="C319">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D319">
-        <v>-49.85</v>
+        <v>-24.03</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44149</v>
+        <v>44180</v>
       </c>
       <c r="B320">
-        <v>71.98</v>
+        <v>90.61</v>
       </c>
       <c r="C320">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D320">
-        <v>-48.81</v>
+        <v>-25.52</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44150</v>
+        <v>44181</v>
       </c>
       <c r="B321">
-        <v>73.11</v>
+        <v>90.79000000000001</v>
       </c>
       <c r="C321">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D321">
-        <v>-48.01</v>
+        <v>-25.37</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44151</v>
+        <v>44182</v>
       </c>
       <c r="B322">
-        <v>73.65000000000001</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="C322">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D322">
-        <v>-47.63</v>
+        <v>-24.8</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44152</v>
+        <v>44183</v>
       </c>
       <c r="B323">
-        <v>74.09</v>
+        <v>92.98</v>
       </c>
       <c r="C323">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D323">
-        <v>-47.31</v>
+        <v>-23.57</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44153</v>
+        <v>44184</v>
       </c>
       <c r="B324">
-        <v>78</v>
+        <v>90.91</v>
       </c>
       <c r="C324">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D324">
-        <v>-44.53</v>
+        <v>-25.28</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44154</v>
+        <v>44185</v>
       </c>
       <c r="B325">
-        <v>77.68000000000001</v>
+        <v>89.09</v>
       </c>
       <c r="C325">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D325">
-        <v>-44.76</v>
+        <v>-26.77</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44155</v>
+        <v>44186</v>
       </c>
       <c r="B326">
-        <v>75.48</v>
+        <v>97.3</v>
       </c>
       <c r="C326">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D326">
-        <v>-46.33</v>
+        <v>-20.02</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44156</v>
+        <v>44187</v>
       </c>
       <c r="B327">
-        <v>72.61</v>
+        <v>133.65</v>
       </c>
       <c r="C327">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D327">
-        <v>-48.36</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44157</v>
+        <v>44188</v>
       </c>
       <c r="B328">
-        <v>70.62</v>
+        <v>172.9</v>
       </c>
       <c r="C328">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D328">
-        <v>-49.78</v>
+        <v>42.12</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44158</v>
+        <v>44189</v>
       </c>
       <c r="B329">
-        <v>72.51000000000001</v>
+        <v>137</v>
       </c>
       <c r="C329">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D329">
-        <v>-48.44</v>
+        <v>12.61</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44159</v>
+        <v>44190</v>
       </c>
       <c r="B330">
-        <v>72.83</v>
+        <v>119.89</v>
       </c>
       <c r="C330">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D330">
-        <v>-48.21</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44160</v>
+        <v>44191</v>
       </c>
       <c r="B331">
-        <v>69.14</v>
+        <v>109.28</v>
       </c>
       <c r="C331">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D331">
-        <v>-50.84</v>
+        <v>-10.17</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44161</v>
+        <v>44192</v>
       </c>
       <c r="B332">
-        <v>66.26000000000001</v>
+        <v>101.94</v>
       </c>
       <c r="C332">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D332">
-        <v>-52.88</v>
+        <v>-16.21</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44162</v>
+        <v>44193</v>
       </c>
       <c r="B333">
-        <v>66.76000000000001</v>
+        <v>97.55</v>
       </c>
       <c r="C333">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D333">
-        <v>-52.53</v>
+        <v>-19.81</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44163</v>
+        <v>44194</v>
       </c>
       <c r="B334">
-        <v>68.23</v>
+        <v>94.14</v>
       </c>
       <c r="C334">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D334">
-        <v>-51.48</v>
+        <v>-22.62</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44164</v>
+        <v>44195</v>
       </c>
       <c r="B335">
-        <v>66.03</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="C335">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D335">
-        <v>-53.04</v>
+        <v>-20.88</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B336">
-        <v>73.44</v>
+        <v>104.03</v>
       </c>
       <c r="C336">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D336">
-        <v>-47.78</v>
+        <v>-14.49</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B337">
-        <v>78.08</v>
+        <v>100.2</v>
       </c>
       <c r="C337">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D337">
-        <v>-35.82</v>
+        <v>-12.66</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44167</v>
+        <v>44198</v>
       </c>
       <c r="B338">
-        <v>78.43000000000001</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C338">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D338">
-        <v>-35.53</v>
+        <v>-15.26</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44168</v>
+        <v>44199</v>
       </c>
       <c r="B339">
-        <v>95.66</v>
+        <v>99</v>
       </c>
       <c r="C339">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D339">
-        <v>-21.37</v>
+        <v>-13.7</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44169</v>
+        <v>44200</v>
       </c>
       <c r="B340">
-        <v>115.23</v>
+        <v>98.55</v>
       </c>
       <c r="C340">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D340">
-        <v>-5.28</v>
+        <v>-14.09</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44170</v>
+        <v>44201</v>
       </c>
       <c r="B341">
-        <v>122.95</v>
+        <v>95.48</v>
       </c>
       <c r="C341">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D341">
-        <v>1.06</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44171</v>
+        <v>44202</v>
       </c>
       <c r="B342">
-        <v>142.25</v>
+        <v>99.95</v>
       </c>
       <c r="C342">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D342">
-        <v>16.93</v>
+        <v>-12.88</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44172</v>
+        <v>44203</v>
       </c>
       <c r="B343">
-        <v>135.89</v>
+        <v>101.69</v>
       </c>
       <c r="C343">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D343">
-        <v>11.7</v>
+        <v>-11.36</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44173</v>
+        <v>44204</v>
       </c>
       <c r="B344">
-        <v>122.79</v>
+        <v>104.56</v>
       </c>
       <c r="C344">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D344">
-        <v>0.93</v>
+        <v>-8.85</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44174</v>
+        <v>44205</v>
       </c>
       <c r="B345">
-        <v>115.17</v>
+        <v>107.21</v>
       </c>
       <c r="C345">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D345">
-        <v>-5.33</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44175</v>
+        <v>44206</v>
       </c>
       <c r="B346">
-        <v>107.43</v>
+        <v>102.62</v>
       </c>
       <c r="C346">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D346">
-        <v>-11.7</v>
+        <v>-10.54</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44176</v>
+        <v>44207</v>
       </c>
       <c r="B347">
-        <v>100.91</v>
+        <v>96.44</v>
       </c>
       <c r="C347">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D347">
-        <v>-17.06</v>
+        <v>-15.94</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44177</v>
+        <v>44208</v>
       </c>
       <c r="B348">
-        <v>96.31999999999999</v>
+        <v>99.79000000000001</v>
       </c>
       <c r="C348">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D348">
-        <v>-20.82</v>
+        <v>-13.01</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44178</v>
+        <v>44209</v>
       </c>
       <c r="B349">
-        <v>92.23</v>
+        <v>104.5</v>
       </c>
       <c r="C349">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D349">
-        <v>-24.19</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44179</v>
+        <v>44210</v>
       </c>
       <c r="B350">
-        <v>92.42</v>
+        <v>97.34999999999999</v>
       </c>
       <c r="C350">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D350">
-        <v>-24.03</v>
+        <v>-15.14</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44180</v>
+        <v>44211</v>
       </c>
       <c r="B351">
-        <v>90.61</v>
+        <v>96.18000000000001</v>
       </c>
       <c r="C351">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D351">
-        <v>-25.52</v>
+        <v>-16.16</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44181</v>
+        <v>44212</v>
       </c>
       <c r="B352">
-        <v>90.79000000000001</v>
+        <v>93.02</v>
       </c>
       <c r="C352">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D352">
-        <v>-25.37</v>
+        <v>-18.91</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44182</v>
+        <v>44213</v>
       </c>
       <c r="B353">
-        <v>91.48999999999999</v>
+        <v>94.15000000000001</v>
       </c>
       <c r="C353">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D353">
-        <v>-24.8</v>
+        <v>-17.93</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44183</v>
+        <v>44214</v>
       </c>
       <c r="B354">
-        <v>92.98</v>
+        <v>98.08</v>
       </c>
       <c r="C354">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D354">
-        <v>-23.57</v>
+        <v>-14.5</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44184</v>
+        <v>44215</v>
       </c>
       <c r="B355">
-        <v>90.91</v>
+        <v>105.72</v>
       </c>
       <c r="C355">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D355">
-        <v>-25.28</v>
+        <v>-7.85</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44185</v>
+        <v>44216</v>
       </c>
       <c r="B356">
-        <v>89.09</v>
+        <v>116.24</v>
       </c>
       <c r="C356">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D356">
-        <v>-26.77</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44186</v>
+        <v>44217</v>
       </c>
       <c r="B357">
-        <v>97.3</v>
+        <v>135.23</v>
       </c>
       <c r="C357">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D357">
-        <v>-20.02</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44187</v>
+        <v>44218</v>
       </c>
       <c r="B358">
-        <v>133.65</v>
+        <v>146.02</v>
       </c>
       <c r="C358">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D358">
-        <v>9.859999999999999</v>
+        <v>27.29</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44188</v>
+        <v>44219</v>
       </c>
       <c r="B359">
-        <v>172.9</v>
+        <v>150.61</v>
       </c>
       <c r="C359">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D359">
-        <v>42.12</v>
+        <v>31.29</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44189</v>
+        <v>44220</v>
       </c>
       <c r="B360">
-        <v>137</v>
+        <v>169.72</v>
       </c>
       <c r="C360">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D360">
-        <v>12.61</v>
+        <v>47.94</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44190</v>
+        <v>44221</v>
       </c>
       <c r="B361">
-        <v>119.89</v>
+        <v>188.6</v>
       </c>
       <c r="C361">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D361">
-        <v>-1.46</v>
+        <v>64.41</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44191</v>
+        <v>44222</v>
       </c>
       <c r="B362">
-        <v>109.28</v>
+        <v>267.25</v>
       </c>
       <c r="C362">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D362">
-        <v>-10.17</v>
+        <v>132.96</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44192</v>
+        <v>44223</v>
       </c>
       <c r="B363">
-        <v>101.94</v>
+        <v>267.93</v>
       </c>
       <c r="C363">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D363">
-        <v>-16.21</v>
+        <v>133.55</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44193</v>
+        <v>44224</v>
       </c>
       <c r="B364">
-        <v>97.55</v>
+        <v>225.1</v>
       </c>
       <c r="C364">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D364">
-        <v>-19.81</v>
+        <v>96.22</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44194</v>
+        <v>44225</v>
       </c>
       <c r="B365">
-        <v>94.14</v>
+        <v>225.34</v>
       </c>
       <c r="C365">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D365">
-        <v>-22.62</v>
+        <v>96.43000000000001</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44195</v>
+        <v>44226</v>
       </c>
       <c r="B366">
-        <v>96.26000000000001</v>
+        <v>308.57</v>
       </c>
       <c r="C366">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D366">
-        <v>-20.88</v>
+        <v>168.98</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B367">
-        <v>104.03</v>
+        <v>323.99</v>
       </c>
       <c r="C367">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D367">
-        <v>-14.49</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B368">
-        <v>100.2</v>
-      </c>
-      <c r="C368">
-        <v>114.72</v>
-      </c>
-      <c r="D368">
-        <v>-12.66</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B369">
-        <v>97.20999999999999</v>
-      </c>
-      <c r="C369">
-        <v>114.72</v>
-      </c>
-      <c r="D369">
-        <v>-15.26</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B370">
-        <v>99</v>
-      </c>
-      <c r="C370">
-        <v>114.72</v>
-      </c>
-      <c r="D370">
-        <v>-13.7</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B371">
-        <v>98.55</v>
-      </c>
-      <c r="C371">
-        <v>114.72</v>
-      </c>
-      <c r="D371">
-        <v>-14.09</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B372">
-        <v>95.48</v>
-      </c>
-      <c r="C372">
-        <v>114.72</v>
-      </c>
-      <c r="D372">
-        <v>-16.77</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B373">
-        <v>99.95</v>
-      </c>
-      <c r="C373">
-        <v>114.72</v>
-      </c>
-      <c r="D373">
-        <v>-12.88</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B374">
-        <v>101.69</v>
-      </c>
-      <c r="C374">
-        <v>114.72</v>
-      </c>
-      <c r="D374">
-        <v>-11.36</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B375">
-        <v>104.56</v>
-      </c>
-      <c r="C375">
-        <v>114.72</v>
-      </c>
-      <c r="D375">
-        <v>-8.85</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B376">
-        <v>107.21</v>
-      </c>
-      <c r="C376">
-        <v>114.72</v>
-      </c>
-      <c r="D376">
-        <v>-6.55</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B377">
-        <v>102.62</v>
-      </c>
-      <c r="C377">
-        <v>114.72</v>
-      </c>
-      <c r="D377">
-        <v>-10.54</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B378">
-        <v>96.44</v>
-      </c>
-      <c r="C378">
-        <v>114.72</v>
-      </c>
-      <c r="D378">
-        <v>-15.94</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B379">
-        <v>99.79000000000001</v>
-      </c>
-      <c r="C379">
-        <v>114.72</v>
-      </c>
-      <c r="D379">
-        <v>-13.01</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B380">
-        <v>104.5</v>
-      </c>
-      <c r="C380">
-        <v>114.72</v>
-      </c>
-      <c r="D380">
-        <v>-8.91</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B381">
-        <v>97.34999999999999</v>
-      </c>
-      <c r="C381">
-        <v>114.72</v>
-      </c>
-      <c r="D381">
-        <v>-15.14</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B382">
-        <v>96.18000000000001</v>
-      </c>
-      <c r="C382">
-        <v>114.72</v>
-      </c>
-      <c r="D382">
-        <v>-16.16</v>
+        <v>182.42</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>data</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -434,13 +437,13 @@
         <v>43921</v>
       </c>
       <c r="B3">
-        <v>78.78</v>
+        <v>78.61</v>
       </c>
       <c r="C3">
         <v>107.27</v>
       </c>
       <c r="D3">
-        <v>-26.56</v>
+        <v>-26.72</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,13 +451,13 @@
         <v>43951</v>
       </c>
       <c r="B4">
-        <v>64.23999999999999</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="C4">
         <v>109.11</v>
       </c>
       <c r="D4">
-        <v>-41.13</v>
+        <v>-41.18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,13 +465,13 @@
         <v>43982</v>
       </c>
       <c r="B5">
-        <v>89.79000000000001</v>
+        <v>89.97</v>
       </c>
       <c r="C5">
         <v>128</v>
       </c>
       <c r="D5">
-        <v>-29.85</v>
+        <v>-29.71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,13 +479,13 @@
         <v>44012</v>
       </c>
       <c r="B6">
-        <v>151.59</v>
+        <v>151.35</v>
       </c>
       <c r="C6">
         <v>138.37</v>
       </c>
       <c r="D6">
-        <v>9.550000000000001</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,13 +493,13 @@
         <v>44043</v>
       </c>
       <c r="B7">
-        <v>125.48</v>
+        <v>125.37</v>
       </c>
       <c r="C7">
         <v>131.62</v>
       </c>
       <c r="D7">
-        <v>-4.67</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,13 +507,13 @@
         <v>44074</v>
       </c>
       <c r="B8">
-        <v>120.3</v>
+        <v>120.31</v>
       </c>
       <c r="C8">
         <v>118.73</v>
       </c>
       <c r="D8">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,13 +521,13 @@
         <v>44104</v>
       </c>
       <c r="B9">
-        <v>90.48</v>
+        <v>90.39</v>
       </c>
       <c r="C9">
         <v>123.92</v>
       </c>
       <c r="D9">
-        <v>-26.98</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,13 +535,13 @@
         <v>44135</v>
       </c>
       <c r="B10">
-        <v>77.83</v>
+        <v>77.77</v>
       </c>
       <c r="C10">
         <v>150.79</v>
       </c>
       <c r="D10">
-        <v>-48.38</v>
+        <v>-48.42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,13 +549,13 @@
         <v>44165</v>
       </c>
       <c r="B11">
-        <v>70.42</v>
+        <v>70.45</v>
       </c>
       <c r="C11">
         <v>140.62</v>
       </c>
       <c r="D11">
-        <v>-49.92</v>
+        <v>-49.9</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,13 +563,13 @@
         <v>44196</v>
       </c>
       <c r="B12">
-        <v>106.63</v>
+        <v>106.74</v>
       </c>
       <c r="C12">
         <v>121.66</v>
       </c>
       <c r="D12">
-        <v>-12.35</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,13 +577,27 @@
         <v>44227</v>
       </c>
       <c r="B13">
-        <v>142.46</v>
+        <v>143.35</v>
       </c>
       <c r="C13">
         <v>114.72</v>
       </c>
       <c r="D13">
-        <v>24.18</v>
+        <v>24.96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B14">
+        <v>202.92</v>
+      </c>
+      <c r="C14">
+        <v>115.81</v>
+      </c>
+      <c r="D14">
+        <v>75.22</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D367"/>
+  <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -620,13 +637,13 @@
         <v>43862</v>
       </c>
       <c r="B2">
-        <v>120.88</v>
+        <v>122.73</v>
       </c>
       <c r="C2">
         <v>115.81</v>
       </c>
       <c r="D2">
-        <v>4.37</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -634,13 +651,13 @@
         <v>43863</v>
       </c>
       <c r="B3">
-        <v>118.7</v>
+        <v>119.35</v>
       </c>
       <c r="C3">
         <v>115.81</v>
       </c>
       <c r="D3">
-        <v>2.49</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -648,13 +665,13 @@
         <v>43864</v>
       </c>
       <c r="B4">
-        <v>120.65</v>
+        <v>119.62</v>
       </c>
       <c r="C4">
         <v>115.81</v>
       </c>
       <c r="D4">
-        <v>4.18</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -662,13 +679,13 @@
         <v>43865</v>
       </c>
       <c r="B5">
-        <v>114.47</v>
+        <v>113.86</v>
       </c>
       <c r="C5">
         <v>115.81</v>
       </c>
       <c r="D5">
-        <v>-1.16</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -676,13 +693,13 @@
         <v>43866</v>
       </c>
       <c r="B6">
-        <v>107.43</v>
+        <v>106.22</v>
       </c>
       <c r="C6">
         <v>115.81</v>
       </c>
       <c r="D6">
-        <v>-7.24</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -690,13 +707,13 @@
         <v>43867</v>
       </c>
       <c r="B7">
-        <v>100.39</v>
+        <v>99.83</v>
       </c>
       <c r="C7">
         <v>115.81</v>
       </c>
       <c r="D7">
-        <v>-13.32</v>
+        <v>-13.8</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -704,13 +721,13 @@
         <v>43868</v>
       </c>
       <c r="B8">
-        <v>95.3</v>
+        <v>94.65000000000001</v>
       </c>
       <c r="C8">
         <v>115.81</v>
       </c>
       <c r="D8">
-        <v>-17.71</v>
+        <v>-18.27</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -718,13 +735,13 @@
         <v>43869</v>
       </c>
       <c r="B9">
-        <v>89.29000000000001</v>
+        <v>88.81999999999999</v>
       </c>
       <c r="C9">
         <v>115.81</v>
       </c>
       <c r="D9">
-        <v>-22.9</v>
+        <v>-23.3</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -732,13 +749,13 @@
         <v>43870</v>
       </c>
       <c r="B10">
-        <v>87.84999999999999</v>
+        <v>87.56</v>
       </c>
       <c r="C10">
         <v>115.81</v>
       </c>
       <c r="D10">
-        <v>-24.14</v>
+        <v>-24.39</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -746,13 +763,13 @@
         <v>43871</v>
       </c>
       <c r="B11">
-        <v>87.42</v>
+        <v>87.95</v>
       </c>
       <c r="C11">
         <v>115.81</v>
       </c>
       <c r="D11">
-        <v>-24.52</v>
+        <v>-24.06</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -760,13 +777,13 @@
         <v>43872</v>
       </c>
       <c r="B12">
-        <v>89.55</v>
+        <v>89.93000000000001</v>
       </c>
       <c r="C12">
         <v>115.81</v>
       </c>
       <c r="D12">
-        <v>-22.67</v>
+        <v>-22.35</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -774,13 +791,13 @@
         <v>43873</v>
       </c>
       <c r="B13">
-        <v>91.88</v>
+        <v>91.23</v>
       </c>
       <c r="C13">
         <v>115.81</v>
       </c>
       <c r="D13">
-        <v>-20.67</v>
+        <v>-21.23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -788,13 +805,13 @@
         <v>43874</v>
       </c>
       <c r="B14">
-        <v>86.15000000000001</v>
+        <v>85.52</v>
       </c>
       <c r="C14">
         <v>115.81</v>
       </c>
       <c r="D14">
-        <v>-25.61</v>
+        <v>-26.15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -802,13 +819,13 @@
         <v>43875</v>
       </c>
       <c r="B15">
-        <v>82.5</v>
+        <v>82.42</v>
       </c>
       <c r="C15">
         <v>115.81</v>
       </c>
       <c r="D15">
-        <v>-28.76</v>
+        <v>-28.83</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -816,13 +833,13 @@
         <v>43876</v>
       </c>
       <c r="B16">
-        <v>81.14</v>
+        <v>80.64</v>
       </c>
       <c r="C16">
         <v>115.81</v>
       </c>
       <c r="D16">
-        <v>-29.94</v>
+        <v>-30.37</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -830,13 +847,13 @@
         <v>43877</v>
       </c>
       <c r="B17">
-        <v>78.66</v>
+        <v>78.42</v>
       </c>
       <c r="C17">
         <v>115.81</v>
       </c>
       <c r="D17">
-        <v>-32.08</v>
+        <v>-32.29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -844,13 +861,13 @@
         <v>43878</v>
       </c>
       <c r="B18">
-        <v>74.65000000000001</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="C18">
         <v>115.81</v>
       </c>
       <c r="D18">
-        <v>-35.54</v>
+        <v>-35.95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -858,13 +875,13 @@
         <v>43879</v>
       </c>
       <c r="B19">
-        <v>76.34999999999999</v>
+        <v>77.29000000000001</v>
       </c>
       <c r="C19">
         <v>115.81</v>
       </c>
       <c r="D19">
-        <v>-34.07</v>
+        <v>-33.26</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -872,13 +889,13 @@
         <v>43880</v>
       </c>
       <c r="B20">
-        <v>78.95</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="C20">
         <v>115.81</v>
       </c>
       <c r="D20">
-        <v>-31.83</v>
+        <v>-32.34</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -900,13 +917,13 @@
         <v>43882</v>
       </c>
       <c r="B22">
-        <v>74.33</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C22">
         <v>115.81</v>
       </c>
       <c r="D22">
-        <v>-35.81</v>
+        <v>-36.28</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -914,13 +931,13 @@
         <v>43883</v>
       </c>
       <c r="B23">
-        <v>69.28</v>
+        <v>69.17</v>
       </c>
       <c r="C23">
         <v>115.81</v>
       </c>
       <c r="D23">
-        <v>-40.18</v>
+        <v>-40.28</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -928,13 +945,13 @@
         <v>43884</v>
       </c>
       <c r="B24">
-        <v>72.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C24">
         <v>115.81</v>
       </c>
       <c r="D24">
-        <v>-37.23</v>
+        <v>-36.88</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -942,13 +959,13 @@
         <v>43885</v>
       </c>
       <c r="B25">
-        <v>71.12</v>
+        <v>70.45999999999999</v>
       </c>
       <c r="C25">
         <v>115.81</v>
       </c>
       <c r="D25">
-        <v>-38.58</v>
+        <v>-39.16</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -956,13 +973,13 @@
         <v>43886</v>
       </c>
       <c r="B26">
-        <v>71.09999999999999</v>
+        <v>72.78</v>
       </c>
       <c r="C26">
         <v>115.81</v>
       </c>
       <c r="D26">
-        <v>-38.6</v>
+        <v>-37.15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -970,13 +987,13 @@
         <v>43887</v>
       </c>
       <c r="B27">
-        <v>121.18</v>
+        <v>131.66</v>
       </c>
       <c r="C27">
         <v>115.81</v>
       </c>
       <c r="D27">
-        <v>4.63</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -984,13 +1001,13 @@
         <v>43888</v>
       </c>
       <c r="B28">
-        <v>154.98</v>
+        <v>151.41</v>
       </c>
       <c r="C28">
         <v>115.81</v>
       </c>
       <c r="D28">
-        <v>33.82</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -998,13 +1015,13 @@
         <v>43889</v>
       </c>
       <c r="B29">
-        <v>127.87</v>
+        <v>125.11</v>
       </c>
       <c r="C29">
         <v>115.81</v>
       </c>
       <c r="D29">
-        <v>10.41</v>
+        <v>8.029999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1012,13 +1029,13 @@
         <v>43890</v>
       </c>
       <c r="B30">
-        <v>112.27</v>
+        <v>111.05</v>
       </c>
       <c r="C30">
         <v>115.81</v>
       </c>
       <c r="D30">
-        <v>-3.06</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1026,13 +1043,13 @@
         <v>43891</v>
       </c>
       <c r="B31">
-        <v>104.91</v>
+        <v>103.91</v>
       </c>
       <c r="C31">
         <v>107.27</v>
       </c>
       <c r="D31">
-        <v>-2.21</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1040,13 +1057,13 @@
         <v>43892</v>
       </c>
       <c r="B32">
-        <v>97.91</v>
+        <v>97.15000000000001</v>
       </c>
       <c r="C32">
         <v>107.27</v>
       </c>
       <c r="D32">
-        <v>-8.73</v>
+        <v>-9.44</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1054,13 +1071,13 @@
         <v>43893</v>
       </c>
       <c r="B33">
-        <v>93.18000000000001</v>
+        <v>92.8</v>
       </c>
       <c r="C33">
         <v>107.27</v>
       </c>
       <c r="D33">
-        <v>-13.14</v>
+        <v>-13.49</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1068,13 +1085,13 @@
         <v>43894</v>
       </c>
       <c r="B34">
-        <v>91.27</v>
+        <v>90.86</v>
       </c>
       <c r="C34">
         <v>107.27</v>
       </c>
       <c r="D34">
-        <v>-14.92</v>
+        <v>-15.3</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1082,13 +1099,13 @@
         <v>43895</v>
       </c>
       <c r="B35">
-        <v>86.48999999999999</v>
+        <v>86.16</v>
       </c>
       <c r="C35">
         <v>107.27</v>
       </c>
       <c r="D35">
-        <v>-19.37</v>
+        <v>-19.69</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1096,13 +1113,13 @@
         <v>43896</v>
       </c>
       <c r="B36">
-        <v>84.34</v>
+        <v>83.89</v>
       </c>
       <c r="C36">
         <v>107.27</v>
       </c>
       <c r="D36">
-        <v>-21.38</v>
+        <v>-21.8</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1110,13 +1127,13 @@
         <v>43897</v>
       </c>
       <c r="B37">
-        <v>82.19</v>
+        <v>82.01000000000001</v>
       </c>
       <c r="C37">
         <v>107.27</v>
       </c>
       <c r="D37">
-        <v>-23.39</v>
+        <v>-23.55</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1124,13 +1141,13 @@
         <v>43898</v>
       </c>
       <c r="B38">
-        <v>80.51000000000001</v>
+        <v>80.52</v>
       </c>
       <c r="C38">
         <v>107.27</v>
       </c>
       <c r="D38">
-        <v>-24.95</v>
+        <v>-24.94</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1138,13 +1155,13 @@
         <v>43899</v>
       </c>
       <c r="B39">
-        <v>81.56999999999999</v>
+        <v>81.45</v>
       </c>
       <c r="C39">
         <v>107.27</v>
       </c>
       <c r="D39">
-        <v>-23.96</v>
+        <v>-24.08</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1152,13 +1169,13 @@
         <v>43900</v>
       </c>
       <c r="B40">
-        <v>78.25</v>
+        <v>78.34</v>
       </c>
       <c r="C40">
         <v>107.27</v>
       </c>
       <c r="D40">
-        <v>-27.06</v>
+        <v>-26.97</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1166,13 +1183,13 @@
         <v>43901</v>
       </c>
       <c r="B41">
-        <v>80.05</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="C41">
         <v>107.27</v>
       </c>
       <c r="D41">
-        <v>-25.38</v>
+        <v>-25.52</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1180,13 +1197,13 @@
         <v>43902</v>
       </c>
       <c r="B42">
-        <v>77.22</v>
+        <v>76.91</v>
       </c>
       <c r="C42">
         <v>107.27</v>
       </c>
       <c r="D42">
-        <v>-28.02</v>
+        <v>-28.31</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1194,13 +1211,13 @@
         <v>43903</v>
       </c>
       <c r="B43">
-        <v>74.05</v>
+        <v>74.36</v>
       </c>
       <c r="C43">
         <v>107.27</v>
       </c>
       <c r="D43">
-        <v>-30.97</v>
+        <v>-30.68</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1208,13 +1225,13 @@
         <v>43904</v>
       </c>
       <c r="B44">
-        <v>77.17</v>
+        <v>76.66</v>
       </c>
       <c r="C44">
         <v>107.27</v>
       </c>
       <c r="D44">
-        <v>-28.07</v>
+        <v>-28.54</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1222,13 +1239,13 @@
         <v>43905</v>
       </c>
       <c r="B45">
-        <v>74.3</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="C45">
         <v>107.27</v>
       </c>
       <c r="D45">
-        <v>-30.74</v>
+        <v>-30.92</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1236,13 +1253,13 @@
         <v>43906</v>
       </c>
       <c r="B46">
-        <v>70.94</v>
+        <v>70.52</v>
       </c>
       <c r="C46">
         <v>107.27</v>
       </c>
       <c r="D46">
-        <v>-33.87</v>
+        <v>-34.26</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1250,13 +1267,13 @@
         <v>43907</v>
       </c>
       <c r="B47">
-        <v>69.51000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="C47">
         <v>107.27</v>
       </c>
       <c r="D47">
-        <v>-35.2</v>
+        <v>-34.93</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1264,13 +1281,13 @@
         <v>43908</v>
       </c>
       <c r="B48">
-        <v>70.69</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="C48">
         <v>107.27</v>
       </c>
       <c r="D48">
-        <v>-34.11</v>
+        <v>-34.38</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1278,13 +1295,13 @@
         <v>43909</v>
       </c>
       <c r="B49">
-        <v>76.33</v>
+        <v>78.06999999999999</v>
       </c>
       <c r="C49">
         <v>107.27</v>
       </c>
       <c r="D49">
-        <v>-28.84</v>
+        <v>-27.22</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1292,13 +1309,13 @@
         <v>43910</v>
       </c>
       <c r="B50">
-        <v>85.34999999999999</v>
+        <v>85.83</v>
       </c>
       <c r="C50">
         <v>107.27</v>
       </c>
       <c r="D50">
-        <v>-20.43</v>
+        <v>-19.99</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1306,13 +1323,13 @@
         <v>43911</v>
       </c>
       <c r="B51">
-        <v>88.31999999999999</v>
+        <v>88.34999999999999</v>
       </c>
       <c r="C51">
         <v>107.27</v>
       </c>
       <c r="D51">
-        <v>-17.67</v>
+        <v>-17.64</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1320,13 +1337,13 @@
         <v>43912</v>
       </c>
       <c r="B52">
-        <v>83</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C52">
         <v>107.27</v>
       </c>
       <c r="D52">
-        <v>-22.63</v>
+        <v>-23.66</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1334,13 +1351,13 @@
         <v>43913</v>
       </c>
       <c r="B53">
-        <v>77.03</v>
+        <v>76.64</v>
       </c>
       <c r="C53">
         <v>107.27</v>
       </c>
       <c r="D53">
-        <v>-28.19</v>
+        <v>-28.56</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1348,13 +1365,13 @@
         <v>43914</v>
       </c>
       <c r="B54">
-        <v>75.14</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="C54">
         <v>107.27</v>
       </c>
       <c r="D54">
-        <v>-29.96</v>
+        <v>-30.42</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1362,13 +1379,13 @@
         <v>43915</v>
       </c>
       <c r="B55">
-        <v>74.05</v>
+        <v>74.04000000000001</v>
       </c>
       <c r="C55">
         <v>107.27</v>
       </c>
       <c r="D55">
-        <v>-30.97</v>
+        <v>-30.98</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1376,13 +1393,13 @@
         <v>43916</v>
       </c>
       <c r="B56">
-        <v>71.81999999999999</v>
+        <v>71.48999999999999</v>
       </c>
       <c r="C56">
         <v>107.27</v>
       </c>
       <c r="D56">
-        <v>-33.05</v>
+        <v>-33.36</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1390,13 +1407,13 @@
         <v>43917</v>
       </c>
       <c r="B57">
-        <v>70.84999999999999</v>
+        <v>70.94</v>
       </c>
       <c r="C57">
         <v>107.27</v>
       </c>
       <c r="D57">
-        <v>-33.95</v>
+        <v>-33.87</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1404,13 +1421,13 @@
         <v>43918</v>
       </c>
       <c r="B58">
-        <v>69.09999999999999</v>
+        <v>68.72</v>
       </c>
       <c r="C58">
         <v>107.27</v>
       </c>
       <c r="D58">
-        <v>-35.58</v>
+        <v>-35.94</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1418,13 +1435,13 @@
         <v>43919</v>
       </c>
       <c r="B59">
-        <v>66.06999999999999</v>
+        <v>65.73</v>
       </c>
       <c r="C59">
         <v>107.27</v>
       </c>
       <c r="D59">
-        <v>-38.41</v>
+        <v>-38.73</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1432,13 +1449,13 @@
         <v>43920</v>
       </c>
       <c r="B60">
-        <v>63.99</v>
+        <v>64.18000000000001</v>
       </c>
       <c r="C60">
         <v>107.27</v>
       </c>
       <c r="D60">
-        <v>-40.35</v>
+        <v>-40.17</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1446,13 +1463,13 @@
         <v>43921</v>
       </c>
       <c r="B61">
-        <v>66.53</v>
+        <v>66.77</v>
       </c>
       <c r="C61">
         <v>107.27</v>
       </c>
       <c r="D61">
-        <v>-37.98</v>
+        <v>-37.76</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1460,13 +1477,13 @@
         <v>43922</v>
       </c>
       <c r="B62">
-        <v>65.79000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="C62">
         <v>109.11</v>
       </c>
       <c r="D62">
-        <v>-39.7</v>
+        <v>-39.66</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1474,13 +1491,13 @@
         <v>43923</v>
       </c>
       <c r="B63">
-        <v>68.42</v>
+        <v>68.31999999999999</v>
       </c>
       <c r="C63">
         <v>109.11</v>
       </c>
       <c r="D63">
-        <v>-37.3</v>
+        <v>-37.38</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1488,13 +1505,13 @@
         <v>43924</v>
       </c>
       <c r="B64">
-        <v>65.18000000000001</v>
+        <v>64.73</v>
       </c>
       <c r="C64">
         <v>109.11</v>
       </c>
       <c r="D64">
-        <v>-40.27</v>
+        <v>-40.68</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1502,13 +1519,13 @@
         <v>43925</v>
       </c>
       <c r="B65">
-        <v>63.12</v>
+        <v>63.17</v>
       </c>
       <c r="C65">
         <v>109.11</v>
       </c>
       <c r="D65">
-        <v>-42.15</v>
+        <v>-42.11</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1516,13 +1533,13 @@
         <v>43926</v>
       </c>
       <c r="B66">
-        <v>62.56</v>
+        <v>62.53</v>
       </c>
       <c r="C66">
         <v>109.11</v>
       </c>
       <c r="D66">
-        <v>-42.66</v>
+        <v>-42.69</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1530,13 +1547,13 @@
         <v>43927</v>
       </c>
       <c r="B67">
-        <v>65.95999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C67">
         <v>109.11</v>
       </c>
       <c r="D67">
-        <v>-39.55</v>
+        <v>-39.24</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1544,13 +1561,13 @@
         <v>43928</v>
       </c>
       <c r="B68">
-        <v>67.34999999999999</v>
+        <v>67.34</v>
       </c>
       <c r="C68">
         <v>109.11</v>
       </c>
       <c r="D68">
-        <v>-38.27</v>
+        <v>-38.28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1558,13 +1575,13 @@
         <v>43929</v>
       </c>
       <c r="B69">
-        <v>69.75</v>
+        <v>70.22</v>
       </c>
       <c r="C69">
         <v>109.11</v>
       </c>
       <c r="D69">
-        <v>-36.07</v>
+        <v>-35.65</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1572,13 +1589,13 @@
         <v>43930</v>
       </c>
       <c r="B70">
-        <v>71.09999999999999</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C70">
         <v>109.11</v>
       </c>
       <c r="D70">
-        <v>-34.83</v>
+        <v>-35.15</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1586,13 +1603,13 @@
         <v>43931</v>
       </c>
       <c r="B71">
-        <v>69.62</v>
+        <v>69.52</v>
       </c>
       <c r="C71">
         <v>109.11</v>
       </c>
       <c r="D71">
-        <v>-36.19</v>
+        <v>-36.28</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1600,13 +1617,13 @@
         <v>43932</v>
       </c>
       <c r="B72">
-        <v>68.02</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="C72">
         <v>109.11</v>
       </c>
       <c r="D72">
-        <v>-37.66</v>
+        <v>-37.81</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1614,13 +1631,13 @@
         <v>43933</v>
       </c>
       <c r="B73">
-        <v>65.51000000000001</v>
+        <v>65.08</v>
       </c>
       <c r="C73">
         <v>109.11</v>
       </c>
       <c r="D73">
-        <v>-39.96</v>
+        <v>-40.35</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1628,13 +1645,13 @@
         <v>43934</v>
       </c>
       <c r="B74">
-        <v>62.9</v>
+        <v>62.92</v>
       </c>
       <c r="C74">
         <v>109.11</v>
       </c>
       <c r="D74">
-        <v>-42.36</v>
+        <v>-42.34</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1642,13 +1659,13 @@
         <v>43935</v>
       </c>
       <c r="B75">
-        <v>69.23</v>
+        <v>70.16</v>
       </c>
       <c r="C75">
         <v>109.11</v>
       </c>
       <c r="D75">
-        <v>-36.55</v>
+        <v>-35.7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1656,13 +1673,13 @@
         <v>43936</v>
       </c>
       <c r="B76">
-        <v>70.06999999999999</v>
+        <v>69.8</v>
       </c>
       <c r="C76">
         <v>109.11</v>
       </c>
       <c r="D76">
-        <v>-35.78</v>
+        <v>-36.03</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1670,13 +1687,13 @@
         <v>43937</v>
       </c>
       <c r="B77">
-        <v>66.95999999999999</v>
+        <v>66.59</v>
       </c>
       <c r="C77">
         <v>109.11</v>
       </c>
       <c r="D77">
-        <v>-38.63</v>
+        <v>-38.97</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1684,13 +1701,13 @@
         <v>43938</v>
       </c>
       <c r="B78">
-        <v>66.87</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C78">
         <v>109.11</v>
       </c>
       <c r="D78">
-        <v>-38.71</v>
+        <v>-39.02</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1698,13 +1715,13 @@
         <v>43939</v>
       </c>
       <c r="B79">
-        <v>65.27</v>
+        <v>65.61</v>
       </c>
       <c r="C79">
         <v>109.11</v>
       </c>
       <c r="D79">
-        <v>-40.18</v>
+        <v>-39.86</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1712,13 +1729,13 @@
         <v>43940</v>
       </c>
       <c r="B80">
-        <v>65.84</v>
+        <v>65.56</v>
       </c>
       <c r="C80">
         <v>109.11</v>
       </c>
       <c r="D80">
-        <v>-39.65</v>
+        <v>-39.91</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1726,13 +1743,13 @@
         <v>43941</v>
       </c>
       <c r="B81">
-        <v>63.15</v>
+        <v>63.29</v>
       </c>
       <c r="C81">
         <v>109.11</v>
       </c>
       <c r="D81">
-        <v>-42.13</v>
+        <v>-41.99</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1740,13 +1757,13 @@
         <v>43942</v>
       </c>
       <c r="B82">
-        <v>64</v>
+        <v>63.78</v>
       </c>
       <c r="C82">
         <v>109.11</v>
       </c>
       <c r="D82">
-        <v>-41.34</v>
+        <v>-41.55</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1754,13 +1771,13 @@
         <v>43943</v>
       </c>
       <c r="B83">
-        <v>61.79</v>
+        <v>61.65</v>
       </c>
       <c r="C83">
         <v>109.11</v>
       </c>
       <c r="D83">
-        <v>-43.37</v>
+        <v>-43.5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1782,13 +1799,13 @@
         <v>43945</v>
       </c>
       <c r="B85">
-        <v>60.67</v>
+        <v>60.42</v>
       </c>
       <c r="C85">
         <v>109.11</v>
       </c>
       <c r="D85">
-        <v>-44.4</v>
+        <v>-44.63</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1796,13 +1813,13 @@
         <v>43946</v>
       </c>
       <c r="B86">
-        <v>59.35</v>
+        <v>59.48</v>
       </c>
       <c r="C86">
         <v>109.11</v>
       </c>
       <c r="D86">
-        <v>-45.6</v>
+        <v>-45.49</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1810,13 +1827,13 @@
         <v>43947</v>
       </c>
       <c r="B87">
-        <v>59.79</v>
+        <v>59.92</v>
       </c>
       <c r="C87">
         <v>109.11</v>
       </c>
       <c r="D87">
-        <v>-45.2</v>
+        <v>-45.09</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1824,13 +1841,13 @@
         <v>43948</v>
       </c>
       <c r="B88">
-        <v>60.75</v>
+        <v>60.38</v>
       </c>
       <c r="C88">
         <v>109.11</v>
       </c>
       <c r="D88">
-        <v>-44.32</v>
+        <v>-44.67</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1838,13 +1855,13 @@
         <v>43949</v>
       </c>
       <c r="B89">
-        <v>57.81</v>
+        <v>57.56</v>
       </c>
       <c r="C89">
         <v>109.11</v>
       </c>
       <c r="D89">
-        <v>-47.02</v>
+        <v>-47.24</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1852,13 +1869,13 @@
         <v>43950</v>
       </c>
       <c r="B90">
-        <v>56.32</v>
+        <v>56.06</v>
       </c>
       <c r="C90">
         <v>109.11</v>
       </c>
       <c r="D90">
-        <v>-48.38</v>
+        <v>-48.62</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1866,13 +1883,13 @@
         <v>43951</v>
       </c>
       <c r="B91">
-        <v>53.63</v>
+        <v>53.72</v>
       </c>
       <c r="C91">
         <v>109.11</v>
       </c>
       <c r="D91">
-        <v>-50.85</v>
+        <v>-50.76</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1880,13 +1897,13 @@
         <v>43952</v>
       </c>
       <c r="B92">
-        <v>53.96</v>
+        <v>54.05</v>
       </c>
       <c r="C92">
         <v>128</v>
       </c>
       <c r="D92">
-        <v>-57.85</v>
+        <v>-57.77</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1894,13 +1911,13 @@
         <v>43953</v>
       </c>
       <c r="B93">
-        <v>54.47</v>
+        <v>54.46</v>
       </c>
       <c r="C93">
         <v>128</v>
       </c>
       <c r="D93">
-        <v>-57.45</v>
+        <v>-57.46</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1908,13 +1925,13 @@
         <v>43954</v>
       </c>
       <c r="B94">
-        <v>54.7</v>
+        <v>54.49</v>
       </c>
       <c r="C94">
         <v>128</v>
       </c>
       <c r="D94">
-        <v>-57.27</v>
+        <v>-57.43</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1922,13 +1939,13 @@
         <v>43955</v>
       </c>
       <c r="B95">
-        <v>53.75</v>
+        <v>54.02</v>
       </c>
       <c r="C95">
         <v>128</v>
       </c>
       <c r="D95">
-        <v>-58.01</v>
+        <v>-57.8</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1936,13 +1953,13 @@
         <v>43956</v>
       </c>
       <c r="B96">
-        <v>55.35</v>
+        <v>55.33</v>
       </c>
       <c r="C96">
         <v>128</v>
       </c>
       <c r="D96">
-        <v>-56.76</v>
+        <v>-56.77</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1950,13 +1967,13 @@
         <v>43957</v>
       </c>
       <c r="B97">
-        <v>59.28</v>
+        <v>60.95</v>
       </c>
       <c r="C97">
         <v>128</v>
       </c>
       <c r="D97">
-        <v>-53.69</v>
+        <v>-52.39</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1964,13 +1981,13 @@
         <v>43958</v>
       </c>
       <c r="B98">
-        <v>69.28</v>
+        <v>69.61</v>
       </c>
       <c r="C98">
         <v>128</v>
       </c>
       <c r="D98">
-        <v>-45.88</v>
+        <v>-45.62</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1978,13 +1995,13 @@
         <v>43959</v>
       </c>
       <c r="B99">
-        <v>72.18000000000001</v>
+        <v>72.43000000000001</v>
       </c>
       <c r="C99">
         <v>128</v>
       </c>
       <c r="D99">
-        <v>-43.61</v>
+        <v>-43.42</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1992,13 +2009,13 @@
         <v>43960</v>
       </c>
       <c r="B100">
-        <v>70.73999999999999</v>
+        <v>70.11</v>
       </c>
       <c r="C100">
         <v>128</v>
       </c>
       <c r="D100">
-        <v>-44.74</v>
+        <v>-45.22</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2006,13 +2023,13 @@
         <v>43961</v>
       </c>
       <c r="B101">
-        <v>68.81</v>
+        <v>69.25</v>
       </c>
       <c r="C101">
         <v>128</v>
       </c>
       <c r="D101">
-        <v>-46.24</v>
+        <v>-45.9</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2020,13 +2037,13 @@
         <v>43962</v>
       </c>
       <c r="B102">
-        <v>69.45</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C102">
         <v>128</v>
       </c>
       <c r="D102">
-        <v>-45.75</v>
+        <v>-46.09</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2034,13 +2051,13 @@
         <v>43963</v>
       </c>
       <c r="B103">
-        <v>66.98999999999999</v>
+        <v>67</v>
       </c>
       <c r="C103">
         <v>128</v>
       </c>
       <c r="D103">
-        <v>-47.67</v>
+        <v>-47.66</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2048,13 +2065,13 @@
         <v>43964</v>
       </c>
       <c r="B104">
-        <v>82.03</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="C104">
         <v>128</v>
       </c>
       <c r="D104">
-        <v>-35.91</v>
+        <v>-33.04</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2062,13 +2079,13 @@
         <v>43965</v>
       </c>
       <c r="B105">
-        <v>95.04000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="C105">
         <v>128</v>
       </c>
       <c r="D105">
-        <v>-25.75</v>
+        <v>-25.31</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2090,13 +2107,13 @@
         <v>43967</v>
       </c>
       <c r="B107">
-        <v>96.61</v>
+        <v>95.17</v>
       </c>
       <c r="C107">
         <v>128</v>
       </c>
       <c r="D107">
-        <v>-24.52</v>
+        <v>-25.65</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2104,13 +2121,13 @@
         <v>43968</v>
       </c>
       <c r="B108">
-        <v>87.8</v>
+        <v>87.12</v>
       </c>
       <c r="C108">
         <v>128</v>
       </c>
       <c r="D108">
-        <v>-31.41</v>
+        <v>-31.94</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2118,13 +2135,13 @@
         <v>43969</v>
       </c>
       <c r="B109">
-        <v>82.26000000000001</v>
+        <v>81.39</v>
       </c>
       <c r="C109">
         <v>128</v>
       </c>
       <c r="D109">
-        <v>-35.74</v>
+        <v>-36.42</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2132,13 +2149,13 @@
         <v>43970</v>
       </c>
       <c r="B110">
-        <v>77.62</v>
+        <v>77.38</v>
       </c>
       <c r="C110">
         <v>128</v>
       </c>
       <c r="D110">
-        <v>-39.36</v>
+        <v>-39.55</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2146,13 +2163,13 @@
         <v>43971</v>
       </c>
       <c r="B111">
-        <v>76.56999999999999</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="C111">
         <v>128</v>
       </c>
       <c r="D111">
-        <v>-40.18</v>
+        <v>-40.37</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2160,13 +2177,13 @@
         <v>43972</v>
       </c>
       <c r="B112">
-        <v>73.7</v>
+        <v>73.47</v>
       </c>
       <c r="C112">
         <v>128</v>
       </c>
       <c r="D112">
-        <v>-42.43</v>
+        <v>-42.6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2174,13 +2191,13 @@
         <v>43973</v>
       </c>
       <c r="B113">
-        <v>112.64</v>
+        <v>121.47</v>
       </c>
       <c r="C113">
         <v>128</v>
       </c>
       <c r="D113">
-        <v>-12.01</v>
+        <v>-5.11</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2188,13 +2205,13 @@
         <v>43974</v>
       </c>
       <c r="B114">
-        <v>154.82</v>
+        <v>158.4</v>
       </c>
       <c r="C114">
         <v>128</v>
       </c>
       <c r="D114">
-        <v>20.95</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2202,13 +2219,13 @@
         <v>43975</v>
       </c>
       <c r="B115">
-        <v>169.34</v>
+        <v>167.32</v>
       </c>
       <c r="C115">
         <v>128</v>
       </c>
       <c r="D115">
-        <v>32.3</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2216,13 +2233,13 @@
         <v>43976</v>
       </c>
       <c r="B116">
-        <v>152.41</v>
+        <v>150.76</v>
       </c>
       <c r="C116">
         <v>128</v>
       </c>
       <c r="D116">
-        <v>19.06</v>
+        <v>17.78</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2230,13 +2247,13 @@
         <v>43977</v>
       </c>
       <c r="B117">
-        <v>135.22</v>
+        <v>133.4</v>
       </c>
       <c r="C117">
         <v>128</v>
       </c>
       <c r="D117">
-        <v>5.64</v>
+        <v>4.21</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2244,13 +2261,13 @@
         <v>43978</v>
       </c>
       <c r="B118">
-        <v>122.32</v>
+        <v>120.84</v>
       </c>
       <c r="C118">
         <v>128</v>
       </c>
       <c r="D118">
-        <v>-4.44</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2258,13 +2275,13 @@
         <v>43979</v>
       </c>
       <c r="B119">
-        <v>111.53</v>
+        <v>110.6</v>
       </c>
       <c r="C119">
         <v>128</v>
       </c>
       <c r="D119">
-        <v>-12.87</v>
+        <v>-13.59</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2272,13 +2289,13 @@
         <v>43980</v>
       </c>
       <c r="B120">
-        <v>105.05</v>
+        <v>104.27</v>
       </c>
       <c r="C120">
         <v>128</v>
       </c>
       <c r="D120">
-        <v>-17.93</v>
+        <v>-18.54</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2286,13 +2303,13 @@
         <v>43981</v>
       </c>
       <c r="B121">
-        <v>100.22</v>
+        <v>99.59</v>
       </c>
       <c r="C121">
         <v>128</v>
       </c>
       <c r="D121">
-        <v>-21.71</v>
+        <v>-22.19</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2300,13 +2317,13 @@
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>96.67</v>
+        <v>96.76000000000001</v>
       </c>
       <c r="C122">
         <v>128</v>
       </c>
       <c r="D122">
-        <v>-24.48</v>
+        <v>-24.41</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2314,13 +2331,13 @@
         <v>43983</v>
       </c>
       <c r="B123">
-        <v>95.04000000000001</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="C123">
         <v>138.37</v>
       </c>
       <c r="D123">
-        <v>-31.31</v>
+        <v>-31.45</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2328,13 +2345,13 @@
         <v>43984</v>
       </c>
       <c r="B124">
-        <v>93.76000000000001</v>
+        <v>93.45</v>
       </c>
       <c r="C124">
         <v>138.37</v>
       </c>
       <c r="D124">
-        <v>-32.24</v>
+        <v>-32.47</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2342,13 +2359,13 @@
         <v>43985</v>
       </c>
       <c r="B125">
-        <v>91.53</v>
+        <v>91.22</v>
       </c>
       <c r="C125">
         <v>138.37</v>
       </c>
       <c r="D125">
-        <v>-33.85</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2356,13 +2373,13 @@
         <v>43986</v>
       </c>
       <c r="B126">
-        <v>94.69</v>
+        <v>97.05</v>
       </c>
       <c r="C126">
         <v>138.37</v>
       </c>
       <c r="D126">
-        <v>-31.57</v>
+        <v>-29.86</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2370,13 +2387,13 @@
         <v>43987</v>
       </c>
       <c r="B127">
-        <v>125.85</v>
+        <v>130.35</v>
       </c>
       <c r="C127">
         <v>138.37</v>
       </c>
       <c r="D127">
-        <v>-9.050000000000001</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2384,13 +2401,13 @@
         <v>43988</v>
       </c>
       <c r="B128">
-        <v>153.61</v>
+        <v>155.75</v>
       </c>
       <c r="C128">
         <v>138.37</v>
       </c>
       <c r="D128">
-        <v>11.02</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2398,13 +2415,13 @@
         <v>43989</v>
       </c>
       <c r="B129">
-        <v>163.02</v>
+        <v>162.36</v>
       </c>
       <c r="C129">
         <v>138.37</v>
       </c>
       <c r="D129">
-        <v>17.82</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2412,13 +2429,13 @@
         <v>43990</v>
       </c>
       <c r="B130">
-        <v>147.54</v>
+        <v>145.77</v>
       </c>
       <c r="C130">
         <v>138.37</v>
       </c>
       <c r="D130">
-        <v>6.63</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2426,13 +2443,13 @@
         <v>43991</v>
       </c>
       <c r="B131">
-        <v>145.65</v>
+        <v>149.22</v>
       </c>
       <c r="C131">
         <v>138.37</v>
       </c>
       <c r="D131">
-        <v>5.26</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2440,13 +2457,13 @@
         <v>43992</v>
       </c>
       <c r="B132">
-        <v>278</v>
+        <v>280.96</v>
       </c>
       <c r="C132">
         <v>138.37</v>
       </c>
       <c r="D132">
-        <v>100.91</v>
+        <v>103.05</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2454,13 +2471,13 @@
         <v>43993</v>
       </c>
       <c r="B133">
-        <v>259.32</v>
+        <v>255.56</v>
       </c>
       <c r="C133">
         <v>138.37</v>
       </c>
       <c r="D133">
-        <v>87.41</v>
+        <v>84.69</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2468,13 +2485,13 @@
         <v>43994</v>
       </c>
       <c r="B134">
-        <v>251.39</v>
+        <v>250.56</v>
       </c>
       <c r="C134">
         <v>138.37</v>
       </c>
       <c r="D134">
-        <v>81.68000000000001</v>
+        <v>81.08</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2482,13 +2499,13 @@
         <v>43995</v>
       </c>
       <c r="B135">
-        <v>226.04</v>
+        <v>222.59</v>
       </c>
       <c r="C135">
         <v>138.37</v>
       </c>
       <c r="D135">
-        <v>63.36</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2496,13 +2513,13 @@
         <v>43996</v>
       </c>
       <c r="B136">
-        <v>206.4</v>
+        <v>204.24</v>
       </c>
       <c r="C136">
         <v>138.37</v>
       </c>
       <c r="D136">
-        <v>49.16</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2510,13 +2527,13 @@
         <v>43997</v>
       </c>
       <c r="B137">
-        <v>190</v>
+        <v>188.28</v>
       </c>
       <c r="C137">
         <v>138.37</v>
       </c>
       <c r="D137">
-        <v>37.31</v>
+        <v>36.07</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2524,13 +2541,13 @@
         <v>43998</v>
       </c>
       <c r="B138">
-        <v>176.32</v>
+        <v>174.54</v>
       </c>
       <c r="C138">
         <v>138.37</v>
       </c>
       <c r="D138">
-        <v>27.43</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2538,13 +2555,13 @@
         <v>43999</v>
       </c>
       <c r="B139">
-        <v>163.4</v>
+        <v>162.07</v>
       </c>
       <c r="C139">
         <v>138.37</v>
       </c>
       <c r="D139">
-        <v>18.09</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2552,13 +2569,13 @@
         <v>44000</v>
       </c>
       <c r="B140">
-        <v>153.78</v>
+        <v>152.71</v>
       </c>
       <c r="C140">
         <v>138.37</v>
       </c>
       <c r="D140">
-        <v>11.14</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2566,13 +2583,13 @@
         <v>44001</v>
       </c>
       <c r="B141">
-        <v>146.42</v>
+        <v>145.79</v>
       </c>
       <c r="C141">
         <v>138.37</v>
       </c>
       <c r="D141">
-        <v>5.81</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2580,13 +2597,13 @@
         <v>44002</v>
       </c>
       <c r="B142">
-        <v>140.38</v>
+        <v>139.61</v>
       </c>
       <c r="C142">
         <v>138.37</v>
       </c>
       <c r="D142">
-        <v>1.45</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2594,13 +2611,13 @@
         <v>44003</v>
       </c>
       <c r="B143">
-        <v>134.93</v>
+        <v>134.19</v>
       </c>
       <c r="C143">
         <v>138.37</v>
       </c>
       <c r="D143">
-        <v>-2.49</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2608,13 +2625,13 @@
         <v>44004</v>
       </c>
       <c r="B144">
-        <v>130.01</v>
+        <v>129.51</v>
       </c>
       <c r="C144">
         <v>138.37</v>
       </c>
       <c r="D144">
-        <v>-6.04</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2622,13 +2639,13 @@
         <v>44005</v>
       </c>
       <c r="B145">
-        <v>126.22</v>
+        <v>125.72</v>
       </c>
       <c r="C145">
         <v>138.37</v>
       </c>
       <c r="D145">
-        <v>-8.779999999999999</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2636,13 +2653,13 @@
         <v>44006</v>
       </c>
       <c r="B146">
-        <v>122.99</v>
+        <v>122.71</v>
       </c>
       <c r="C146">
         <v>138.37</v>
       </c>
       <c r="D146">
-        <v>-11.12</v>
+        <v>-11.32</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2650,13 +2667,13 @@
         <v>44007</v>
       </c>
       <c r="B147">
-        <v>120.03</v>
+        <v>120.06</v>
       </c>
       <c r="C147">
         <v>138.37</v>
       </c>
       <c r="D147">
-        <v>-13.25</v>
+        <v>-13.23</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2664,13 +2681,13 @@
         <v>44008</v>
       </c>
       <c r="B148">
-        <v>123.12</v>
+        <v>123.74</v>
       </c>
       <c r="C148">
         <v>138.37</v>
       </c>
       <c r="D148">
-        <v>-11.02</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2678,13 +2695,13 @@
         <v>44009</v>
       </c>
       <c r="B149">
-        <v>125.24</v>
+        <v>124.93</v>
       </c>
       <c r="C149">
         <v>138.37</v>
       </c>
       <c r="D149">
-        <v>-9.49</v>
+        <v>-9.720000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2692,13 +2709,13 @@
         <v>44010</v>
       </c>
       <c r="B150">
-        <v>122.99</v>
+        <v>122.84</v>
       </c>
       <c r="C150">
         <v>138.37</v>
       </c>
       <c r="D150">
-        <v>-11.12</v>
+        <v>-11.22</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2706,13 +2723,13 @@
         <v>44011</v>
       </c>
       <c r="B151">
-        <v>120.39</v>
+        <v>119.72</v>
       </c>
       <c r="C151">
         <v>138.37</v>
       </c>
       <c r="D151">
-        <v>-12.99</v>
+        <v>-13.48</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2720,13 +2737,13 @@
         <v>44012</v>
       </c>
       <c r="B152">
-        <v>119.67</v>
+        <v>120.27</v>
       </c>
       <c r="C152">
         <v>138.37</v>
       </c>
       <c r="D152">
-        <v>-13.52</v>
+        <v>-13.08</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2734,13 +2751,13 @@
         <v>44013</v>
       </c>
       <c r="B153">
-        <v>135.98</v>
+        <v>139.58</v>
       </c>
       <c r="C153">
         <v>131.62</v>
       </c>
       <c r="D153">
-        <v>3.31</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2748,13 +2765,13 @@
         <v>44014</v>
       </c>
       <c r="B154">
-        <v>157.81</v>
+        <v>157.79</v>
       </c>
       <c r="C154">
         <v>131.62</v>
       </c>
       <c r="D154">
-        <v>19.9</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2762,13 +2779,13 @@
         <v>44015</v>
       </c>
       <c r="B155">
-        <v>147.03</v>
+        <v>145.82</v>
       </c>
       <c r="C155">
         <v>131.62</v>
       </c>
       <c r="D155">
-        <v>11.71</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2776,13 +2793,13 @@
         <v>44016</v>
       </c>
       <c r="B156">
-        <v>137.25</v>
+        <v>135.96</v>
       </c>
       <c r="C156">
         <v>131.62</v>
       </c>
       <c r="D156">
-        <v>4.27</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2790,13 +2807,13 @@
         <v>44017</v>
       </c>
       <c r="B157">
-        <v>128.27</v>
+        <v>127.46</v>
       </c>
       <c r="C157">
         <v>131.62</v>
       </c>
       <c r="D157">
-        <v>-2.55</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2804,13 +2821,13 @@
         <v>44018</v>
       </c>
       <c r="B158">
-        <v>122.45</v>
+        <v>122.11</v>
       </c>
       <c r="C158">
         <v>131.62</v>
       </c>
       <c r="D158">
-        <v>-6.97</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2818,13 +2835,13 @@
         <v>44019</v>
       </c>
       <c r="B159">
-        <v>123.52</v>
+        <v>124.35</v>
       </c>
       <c r="C159">
         <v>131.62</v>
       </c>
       <c r="D159">
-        <v>-6.16</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2832,13 +2849,13 @@
         <v>44020</v>
       </c>
       <c r="B160">
-        <v>140.43</v>
+        <v>141.34</v>
       </c>
       <c r="C160">
         <v>131.62</v>
       </c>
       <c r="D160">
-        <v>6.69</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2846,13 +2863,13 @@
         <v>44021</v>
       </c>
       <c r="B161">
-        <v>158.15</v>
+        <v>161.7</v>
       </c>
       <c r="C161">
         <v>131.62</v>
       </c>
       <c r="D161">
-        <v>20.15</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2860,13 +2877,13 @@
         <v>44022</v>
       </c>
       <c r="B162">
-        <v>170.08</v>
+        <v>168.71</v>
       </c>
       <c r="C162">
         <v>131.62</v>
       </c>
       <c r="D162">
-        <v>29.22</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2874,13 +2891,13 @@
         <v>44023</v>
       </c>
       <c r="B163">
-        <v>157.05</v>
+        <v>155.47</v>
       </c>
       <c r="C163">
         <v>131.62</v>
       </c>
       <c r="D163">
-        <v>19.32</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2888,13 +2905,13 @@
         <v>44024</v>
       </c>
       <c r="B164">
-        <v>146.65</v>
+        <v>145.78</v>
       </c>
       <c r="C164">
         <v>131.62</v>
       </c>
       <c r="D164">
-        <v>11.41</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2902,13 +2919,13 @@
         <v>44025</v>
       </c>
       <c r="B165">
-        <v>140.3</v>
+        <v>139.44</v>
       </c>
       <c r="C165">
         <v>131.62</v>
       </c>
       <c r="D165">
-        <v>6.59</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2916,13 +2933,13 @@
         <v>44026</v>
       </c>
       <c r="B166">
-        <v>134.47</v>
+        <v>134.04</v>
       </c>
       <c r="C166">
         <v>131.62</v>
       </c>
       <c r="D166">
-        <v>2.16</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2930,13 +2947,13 @@
         <v>44027</v>
       </c>
       <c r="B167">
-        <v>130.05</v>
+        <v>129.23</v>
       </c>
       <c r="C167">
         <v>131.62</v>
       </c>
       <c r="D167">
-        <v>-1.19</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2944,13 +2961,13 @@
         <v>44028</v>
       </c>
       <c r="B168">
-        <v>125.01</v>
+        <v>124.51</v>
       </c>
       <c r="C168">
         <v>131.62</v>
       </c>
       <c r="D168">
-        <v>-5.02</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2958,13 +2975,13 @@
         <v>44029</v>
       </c>
       <c r="B169">
-        <v>121.39</v>
+        <v>121.2</v>
       </c>
       <c r="C169">
         <v>131.62</v>
       </c>
       <c r="D169">
-        <v>-7.78</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2972,13 +2989,13 @@
         <v>44030</v>
       </c>
       <c r="B170">
-        <v>119.31</v>
+        <v>119</v>
       </c>
       <c r="C170">
         <v>131.62</v>
       </c>
       <c r="D170">
-        <v>-9.35</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2986,13 +3003,13 @@
         <v>44031</v>
       </c>
       <c r="B171">
-        <v>116.15</v>
+        <v>115.81</v>
       </c>
       <c r="C171">
         <v>131.62</v>
       </c>
       <c r="D171">
-        <v>-11.76</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3000,13 +3017,13 @@
         <v>44032</v>
       </c>
       <c r="B172">
-        <v>114.07</v>
+        <v>113.72</v>
       </c>
       <c r="C172">
         <v>131.62</v>
       </c>
       <c r="D172">
-        <v>-13.33</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3014,13 +3031,13 @@
         <v>44033</v>
       </c>
       <c r="B173">
-        <v>111.75</v>
+        <v>111.56</v>
       </c>
       <c r="C173">
         <v>131.62</v>
       </c>
       <c r="D173">
-        <v>-15.1</v>
+        <v>-15.24</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3028,13 +3045,13 @@
         <v>44034</v>
       </c>
       <c r="B174">
-        <v>110.18</v>
+        <v>110.03</v>
       </c>
       <c r="C174">
         <v>131.62</v>
       </c>
       <c r="D174">
-        <v>-16.29</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3042,13 +3059,13 @@
         <v>44035</v>
       </c>
       <c r="B175">
-        <v>109</v>
+        <v>108.77</v>
       </c>
       <c r="C175">
         <v>131.62</v>
       </c>
       <c r="D175">
-        <v>-17.19</v>
+        <v>-17.36</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3056,13 +3073,13 @@
         <v>44036</v>
       </c>
       <c r="B176">
-        <v>106.52</v>
+        <v>106.08</v>
       </c>
       <c r="C176">
         <v>131.62</v>
       </c>
       <c r="D176">
-        <v>-19.07</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3070,13 +3087,13 @@
         <v>44037</v>
       </c>
       <c r="B177">
-        <v>104.51</v>
+        <v>104.48</v>
       </c>
       <c r="C177">
         <v>131.62</v>
       </c>
       <c r="D177">
-        <v>-20.6</v>
+        <v>-20.62</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3084,13 +3101,13 @@
         <v>44038</v>
       </c>
       <c r="B178">
-        <v>104.66</v>
+        <v>104.69</v>
       </c>
       <c r="C178">
         <v>131.62</v>
       </c>
       <c r="D178">
-        <v>-20.49</v>
+        <v>-20.46</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3098,13 +3115,13 @@
         <v>44039</v>
       </c>
       <c r="B179">
-        <v>103.49</v>
+        <v>103.12</v>
       </c>
       <c r="C179">
         <v>131.62</v>
       </c>
       <c r="D179">
-        <v>-21.37</v>
+        <v>-21.65</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3112,13 +3129,13 @@
         <v>44040</v>
       </c>
       <c r="B180">
-        <v>101.41</v>
+        <v>101.46</v>
       </c>
       <c r="C180">
         <v>131.62</v>
       </c>
       <c r="D180">
-        <v>-22.96</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3126,13 +3143,13 @@
         <v>44041</v>
       </c>
       <c r="B181">
-        <v>101.25</v>
+        <v>101.3</v>
       </c>
       <c r="C181">
         <v>131.62</v>
       </c>
       <c r="D181">
-        <v>-23.08</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3140,13 +3157,13 @@
         <v>44042</v>
       </c>
       <c r="B182">
-        <v>105.68</v>
+        <v>106.25</v>
       </c>
       <c r="C182">
         <v>131.62</v>
       </c>
       <c r="D182">
-        <v>-19.71</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3154,13 +3171,13 @@
         <v>44043</v>
       </c>
       <c r="B183">
-        <v>106.08</v>
+        <v>105.6</v>
       </c>
       <c r="C183">
         <v>131.62</v>
       </c>
       <c r="D183">
-        <v>-19.4</v>
+        <v>-19.77</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3168,13 +3185,13 @@
         <v>44044</v>
       </c>
       <c r="B184">
-        <v>101.46</v>
+        <v>100.94</v>
       </c>
       <c r="C184">
         <v>118.73</v>
       </c>
       <c r="D184">
-        <v>-14.55</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3182,13 +3199,13 @@
         <v>44045</v>
       </c>
       <c r="B185">
-        <v>99.94</v>
+        <v>100.17</v>
       </c>
       <c r="C185">
         <v>118.73</v>
       </c>
       <c r="D185">
-        <v>-15.83</v>
+        <v>-15.64</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3196,13 +3213,13 @@
         <v>44046</v>
       </c>
       <c r="B186">
-        <v>98.25</v>
+        <v>97.37</v>
       </c>
       <c r="C186">
         <v>118.73</v>
       </c>
       <c r="D186">
-        <v>-17.25</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3210,13 +3227,13 @@
         <v>44047</v>
       </c>
       <c r="B187">
-        <v>96.26000000000001</v>
+        <v>96.39</v>
       </c>
       <c r="C187">
         <v>118.73</v>
       </c>
       <c r="D187">
-        <v>-18.93</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3224,13 +3241,13 @@
         <v>44048</v>
       </c>
       <c r="B188">
-        <v>94</v>
+        <v>93.48</v>
       </c>
       <c r="C188">
         <v>118.73</v>
       </c>
       <c r="D188">
-        <v>-20.83</v>
+        <v>-21.26</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3238,13 +3255,13 @@
         <v>44049</v>
       </c>
       <c r="B189">
-        <v>91.13</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="C189">
         <v>118.73</v>
       </c>
       <c r="D189">
-        <v>-23.25</v>
+        <v>-23.35</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3252,13 +3269,13 @@
         <v>44050</v>
       </c>
       <c r="B190">
-        <v>92.3</v>
+        <v>92.81</v>
       </c>
       <c r="C190">
         <v>118.73</v>
       </c>
       <c r="D190">
-        <v>-22.26</v>
+        <v>-21.83</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3266,13 +3283,13 @@
         <v>44051</v>
       </c>
       <c r="B191">
-        <v>92.48999999999999</v>
+        <v>92.11</v>
       </c>
       <c r="C191">
         <v>118.73</v>
       </c>
       <c r="D191">
-        <v>-22.1</v>
+        <v>-22.42</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3280,13 +3297,13 @@
         <v>44052</v>
       </c>
       <c r="B192">
-        <v>90.38</v>
+        <v>90.12</v>
       </c>
       <c r="C192">
         <v>118.73</v>
       </c>
       <c r="D192">
-        <v>-23.88</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3294,13 +3311,13 @@
         <v>44053</v>
       </c>
       <c r="B193">
-        <v>89.64</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="C193">
         <v>118.73</v>
       </c>
       <c r="D193">
-        <v>-24.51</v>
+        <v>-24.61</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3308,13 +3325,13 @@
         <v>44054</v>
       </c>
       <c r="B194">
-        <v>87.31</v>
+        <v>87.06</v>
       </c>
       <c r="C194">
         <v>118.73</v>
       </c>
       <c r="D194">
-        <v>-26.46</v>
+        <v>-26.67</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3322,13 +3339,13 @@
         <v>44055</v>
       </c>
       <c r="B195">
-        <v>88.31</v>
+        <v>89.5</v>
       </c>
       <c r="C195">
         <v>118.73</v>
       </c>
       <c r="D195">
-        <v>-25.62</v>
+        <v>-24.62</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3336,13 +3353,13 @@
         <v>44056</v>
       </c>
       <c r="B196">
-        <v>100.71</v>
+        <v>103.19</v>
       </c>
       <c r="C196">
         <v>118.73</v>
       </c>
       <c r="D196">
-        <v>-15.18</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3350,13 +3367,13 @@
         <v>44057</v>
       </c>
       <c r="B197">
-        <v>125.19</v>
+        <v>126.78</v>
       </c>
       <c r="C197">
         <v>118.73</v>
       </c>
       <c r="D197">
-        <v>5.44</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3364,13 +3381,13 @@
         <v>44058</v>
       </c>
       <c r="B198">
-        <v>129.4</v>
+        <v>130.44</v>
       </c>
       <c r="C198">
         <v>118.73</v>
       </c>
       <c r="D198">
-        <v>8.98</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3378,13 +3395,13 @@
         <v>44059</v>
       </c>
       <c r="B199">
-        <v>144.85</v>
+        <v>147.31</v>
       </c>
       <c r="C199">
         <v>118.73</v>
       </c>
       <c r="D199">
-        <v>22</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3392,13 +3409,13 @@
         <v>44060</v>
       </c>
       <c r="B200">
-        <v>153.78</v>
+        <v>153.32</v>
       </c>
       <c r="C200">
         <v>118.73</v>
       </c>
       <c r="D200">
-        <v>29.52</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3406,13 +3423,13 @@
         <v>44061</v>
       </c>
       <c r="B201">
-        <v>158.61</v>
+        <v>161.42</v>
       </c>
       <c r="C201">
         <v>118.73</v>
       </c>
       <c r="D201">
-        <v>33.59</v>
+        <v>35.95</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3420,13 +3437,13 @@
         <v>44062</v>
       </c>
       <c r="B202">
-        <v>177.33</v>
+        <v>178.33</v>
       </c>
       <c r="C202">
         <v>118.73</v>
       </c>
       <c r="D202">
-        <v>49.36</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3434,13 +3451,13 @@
         <v>44063</v>
       </c>
       <c r="B203">
-        <v>183.36</v>
+        <v>183.23</v>
       </c>
       <c r="C203">
         <v>118.73</v>
       </c>
       <c r="D203">
-        <v>54.44</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3448,13 +3465,13 @@
         <v>44064</v>
       </c>
       <c r="B204">
-        <v>175.84</v>
+        <v>174.01</v>
       </c>
       <c r="C204">
         <v>118.73</v>
       </c>
       <c r="D204">
-        <v>48.1</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3462,13 +3479,13 @@
         <v>44065</v>
       </c>
       <c r="B205">
-        <v>159.39</v>
+        <v>157.53</v>
       </c>
       <c r="C205">
         <v>118.73</v>
       </c>
       <c r="D205">
-        <v>34.24</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3476,13 +3493,13 @@
         <v>44066</v>
       </c>
       <c r="B206">
-        <v>146.09</v>
+        <v>144.66</v>
       </c>
       <c r="C206">
         <v>118.73</v>
       </c>
       <c r="D206">
-        <v>23.05</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3490,13 +3507,13 @@
         <v>44067</v>
       </c>
       <c r="B207">
-        <v>136.09</v>
+        <v>135</v>
       </c>
       <c r="C207">
         <v>118.73</v>
       </c>
       <c r="D207">
-        <v>14.62</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3504,13 +3521,13 @@
         <v>44068</v>
       </c>
       <c r="B208">
-        <v>128.77</v>
+        <v>127.99</v>
       </c>
       <c r="C208">
         <v>118.73</v>
       </c>
       <c r="D208">
-        <v>8.460000000000001</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3518,13 +3535,13 @@
         <v>44069</v>
       </c>
       <c r="B209">
-        <v>123.82</v>
+        <v>123.23</v>
       </c>
       <c r="C209">
         <v>118.73</v>
       </c>
       <c r="D209">
-        <v>4.29</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3532,13 +3549,13 @@
         <v>44070</v>
       </c>
       <c r="B210">
-        <v>119.18</v>
+        <v>118.66</v>
       </c>
       <c r="C210">
         <v>118.73</v>
       </c>
       <c r="D210">
-        <v>0.37</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3546,13 +3563,13 @@
         <v>44071</v>
       </c>
       <c r="B211">
-        <v>115.73</v>
+        <v>115.66</v>
       </c>
       <c r="C211">
         <v>118.73</v>
       </c>
       <c r="D211">
-        <v>-2.53</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3560,13 +3577,13 @@
         <v>44072</v>
       </c>
       <c r="B212">
-        <v>113.28</v>
+        <v>112.79</v>
       </c>
       <c r="C212">
         <v>118.73</v>
       </c>
       <c r="D212">
-        <v>-4.59</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3574,13 +3591,13 @@
         <v>44073</v>
       </c>
       <c r="B213">
-        <v>109.06</v>
+        <v>108.73</v>
       </c>
       <c r="C213">
         <v>118.73</v>
       </c>
       <c r="D213">
-        <v>-8.140000000000001</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3588,13 +3605,13 @@
         <v>44074</v>
       </c>
       <c r="B214">
-        <v>107.37</v>
+        <v>106.92</v>
       </c>
       <c r="C214">
         <v>118.73</v>
       </c>
       <c r="D214">
-        <v>-9.57</v>
+        <v>-9.949999999999999</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3602,13 +3619,13 @@
         <v>44075</v>
       </c>
       <c r="B215">
-        <v>105.41</v>
+        <v>105.34</v>
       </c>
       <c r="C215">
         <v>123.92</v>
       </c>
       <c r="D215">
-        <v>-14.94</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3616,13 +3633,13 @@
         <v>44076</v>
       </c>
       <c r="B216">
-        <v>102.61</v>
+        <v>102.17</v>
       </c>
       <c r="C216">
         <v>123.92</v>
       </c>
       <c r="D216">
-        <v>-17.19</v>
+        <v>-17.55</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3644,13 +3661,13 @@
         <v>44078</v>
       </c>
       <c r="B218">
-        <v>102.05</v>
+        <v>101.86</v>
       </c>
       <c r="C218">
         <v>123.92</v>
       </c>
       <c r="D218">
-        <v>-17.64</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3658,13 +3675,13 @@
         <v>44079</v>
       </c>
       <c r="B219">
-        <v>98.3</v>
+        <v>97.95</v>
       </c>
       <c r="C219">
         <v>123.92</v>
       </c>
       <c r="D219">
-        <v>-20.67</v>
+        <v>-20.96</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3672,13 +3689,13 @@
         <v>44080</v>
       </c>
       <c r="B220">
-        <v>98.48</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="C220">
         <v>123.92</v>
       </c>
       <c r="D220">
-        <v>-20.53</v>
+        <v>-20.54</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3686,13 +3703,13 @@
         <v>44081</v>
       </c>
       <c r="B221">
-        <v>96.29000000000001</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C221">
         <v>123.92</v>
       </c>
       <c r="D221">
-        <v>-22.29</v>
+        <v>-22.52</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3700,13 +3717,13 @@
         <v>44082</v>
       </c>
       <c r="B222">
-        <v>96.48</v>
+        <v>96.89</v>
       </c>
       <c r="C222">
         <v>123.92</v>
       </c>
       <c r="D222">
-        <v>-22.14</v>
+        <v>-21.81</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3714,13 +3731,13 @@
         <v>44083</v>
       </c>
       <c r="B223">
-        <v>95.38</v>
+        <v>94.87</v>
       </c>
       <c r="C223">
         <v>123.92</v>
       </c>
       <c r="D223">
-        <v>-23.03</v>
+        <v>-23.44</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3728,13 +3745,13 @@
         <v>44084</v>
       </c>
       <c r="B224">
-        <v>93.70999999999999</v>
+        <v>93.63</v>
       </c>
       <c r="C224">
         <v>123.92</v>
       </c>
       <c r="D224">
-        <v>-24.38</v>
+        <v>-24.44</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3742,13 +3759,13 @@
         <v>44085</v>
       </c>
       <c r="B225">
-        <v>92.52</v>
+        <v>92.72</v>
       </c>
       <c r="C225">
         <v>123.92</v>
       </c>
       <c r="D225">
-        <v>-25.34</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3756,13 +3773,13 @@
         <v>44086</v>
       </c>
       <c r="B226">
-        <v>93.54000000000001</v>
+        <v>93.17</v>
       </c>
       <c r="C226">
         <v>123.92</v>
       </c>
       <c r="D226">
-        <v>-24.51</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3770,13 +3787,13 @@
         <v>44087</v>
       </c>
       <c r="B227">
-        <v>90.90000000000001</v>
+        <v>90.61</v>
       </c>
       <c r="C227">
         <v>123.92</v>
       </c>
       <c r="D227">
-        <v>-26.65</v>
+        <v>-26.87</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3784,13 +3801,13 @@
         <v>44088</v>
       </c>
       <c r="B228">
-        <v>89.23999999999999</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="C228">
         <v>123.92</v>
       </c>
       <c r="D228">
-        <v>-27.98</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3798,13 +3815,13 @@
         <v>44089</v>
       </c>
       <c r="B229">
-        <v>89.88</v>
+        <v>89.72</v>
       </c>
       <c r="C229">
         <v>123.92</v>
       </c>
       <c r="D229">
-        <v>-27.47</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3812,13 +3829,13 @@
         <v>44090</v>
       </c>
       <c r="B230">
-        <v>88.8</v>
+        <v>88.73</v>
       </c>
       <c r="C230">
         <v>123.92</v>
       </c>
       <c r="D230">
-        <v>-28.34</v>
+        <v>-28.39</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3826,13 +3843,13 @@
         <v>44091</v>
       </c>
       <c r="B231">
-        <v>88.20999999999999</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="C231">
         <v>123.92</v>
       </c>
       <c r="D231">
-        <v>-28.81</v>
+        <v>-29.01</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3840,13 +3857,13 @@
         <v>44092</v>
       </c>
       <c r="B232">
-        <v>85.75</v>
+        <v>85.38</v>
       </c>
       <c r="C232">
         <v>123.92</v>
       </c>
       <c r="D232">
-        <v>-30.8</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3854,13 +3871,13 @@
         <v>44093</v>
       </c>
       <c r="B233">
-        <v>86.56</v>
+        <v>87.05</v>
       </c>
       <c r="C233">
         <v>123.92</v>
       </c>
       <c r="D233">
-        <v>-30.15</v>
+        <v>-29.75</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3868,13 +3885,13 @@
         <v>44094</v>
       </c>
       <c r="B234">
-        <v>87.2</v>
+        <v>86.89</v>
       </c>
       <c r="C234">
         <v>123.92</v>
       </c>
       <c r="D234">
-        <v>-29.63</v>
+        <v>-29.88</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3882,13 +3899,13 @@
         <v>44095</v>
       </c>
       <c r="B235">
-        <v>84.45</v>
+        <v>84.27</v>
       </c>
       <c r="C235">
         <v>123.92</v>
       </c>
       <c r="D235">
-        <v>-31.85</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3896,13 +3913,13 @@
         <v>44096</v>
       </c>
       <c r="B236">
-        <v>83.56</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="C236">
         <v>123.92</v>
       </c>
       <c r="D236">
-        <v>-32.57</v>
+        <v>-32.67</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3910,13 +3927,13 @@
         <v>44097</v>
       </c>
       <c r="B237">
-        <v>83</v>
+        <v>83.17</v>
       </c>
       <c r="C237">
         <v>123.92</v>
       </c>
       <c r="D237">
-        <v>-33.02</v>
+        <v>-32.88</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3924,13 +3941,13 @@
         <v>44098</v>
       </c>
       <c r="B238">
-        <v>81.90000000000001</v>
+        <v>81.73</v>
       </c>
       <c r="C238">
         <v>123.92</v>
       </c>
       <c r="D238">
-        <v>-33.91</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3938,13 +3955,13 @@
         <v>44099</v>
       </c>
       <c r="B239">
-        <v>81.36</v>
+        <v>81.02</v>
       </c>
       <c r="C239">
         <v>123.92</v>
       </c>
       <c r="D239">
-        <v>-34.34</v>
+        <v>-34.62</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3952,13 +3969,13 @@
         <v>44100</v>
       </c>
       <c r="B240">
-        <v>81.66</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C240">
         <v>123.92</v>
       </c>
       <c r="D240">
-        <v>-34.1</v>
+        <v>-34.09</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3966,13 +3983,13 @@
         <v>44101</v>
       </c>
       <c r="B241">
-        <v>79.54000000000001</v>
+        <v>79.48</v>
       </c>
       <c r="C241">
         <v>123.92</v>
       </c>
       <c r="D241">
-        <v>-35.81</v>
+        <v>-35.86</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3980,13 +3997,13 @@
         <v>44102</v>
       </c>
       <c r="B242">
-        <v>81.08</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="C242">
         <v>123.92</v>
       </c>
       <c r="D242">
-        <v>-34.56</v>
+        <v>-34.35</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3994,13 +4011,13 @@
         <v>44103</v>
       </c>
       <c r="B243">
-        <v>85.40000000000001</v>
+        <v>86.38</v>
       </c>
       <c r="C243">
         <v>123.92</v>
       </c>
       <c r="D243">
-        <v>-31.08</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4008,13 +4025,13 @@
         <v>44104</v>
       </c>
       <c r="B244">
-        <v>88.48999999999999</v>
+        <v>87.86</v>
       </c>
       <c r="C244">
         <v>123.92</v>
       </c>
       <c r="D244">
-        <v>-28.59</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4022,13 +4039,13 @@
         <v>44105</v>
       </c>
       <c r="B245">
-        <v>85.11</v>
+        <v>84.78</v>
       </c>
       <c r="C245">
         <v>150.79</v>
       </c>
       <c r="D245">
-        <v>-43.56</v>
+        <v>-43.78</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4036,13 +4053,13 @@
         <v>44106</v>
       </c>
       <c r="B246">
-        <v>81.94</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C246">
         <v>150.79</v>
       </c>
       <c r="D246">
-        <v>-45.66</v>
+        <v>-45.69</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4050,13 +4067,13 @@
         <v>44107</v>
       </c>
       <c r="B247">
-        <v>81.20999999999999</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="C247">
         <v>150.79</v>
       </c>
       <c r="D247">
-        <v>-46.15</v>
+        <v>-46.33</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4064,13 +4081,13 @@
         <v>44108</v>
       </c>
       <c r="B248">
-        <v>79.08</v>
+        <v>78.66</v>
       </c>
       <c r="C248">
         <v>150.79</v>
       </c>
       <c r="D248">
-        <v>-47.56</v>
+        <v>-47.84</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4078,13 +4095,13 @@
         <v>44109</v>
       </c>
       <c r="B249">
-        <v>77.2</v>
+        <v>77.03</v>
       </c>
       <c r="C249">
         <v>150.79</v>
       </c>
       <c r="D249">
-        <v>-48.81</v>
+        <v>-48.92</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4092,13 +4109,13 @@
         <v>44110</v>
       </c>
       <c r="B250">
-        <v>75.48999999999999</v>
+        <v>75.28</v>
       </c>
       <c r="C250">
         <v>150.79</v>
       </c>
       <c r="D250">
-        <v>-49.94</v>
+        <v>-50.08</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4106,13 +4123,13 @@
         <v>44111</v>
       </c>
       <c r="B251">
-        <v>73.41</v>
+        <v>73.61</v>
       </c>
       <c r="C251">
         <v>150.79</v>
       </c>
       <c r="D251">
-        <v>-51.32</v>
+        <v>-51.18</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4120,13 +4137,13 @@
         <v>44112</v>
       </c>
       <c r="B252">
-        <v>78.95</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C252">
         <v>150.79</v>
       </c>
       <c r="D252">
-        <v>-47.64</v>
+        <v>-47.23</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4134,13 +4151,13 @@
         <v>44113</v>
       </c>
       <c r="B253">
-        <v>83.36</v>
+        <v>83.61</v>
       </c>
       <c r="C253">
         <v>150.79</v>
       </c>
       <c r="D253">
-        <v>-44.72</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4148,13 +4165,13 @@
         <v>44114</v>
       </c>
       <c r="B254">
-        <v>85.59999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="C254">
         <v>150.79</v>
       </c>
       <c r="D254">
-        <v>-43.23</v>
+        <v>-42.84</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4162,13 +4179,13 @@
         <v>44115</v>
       </c>
       <c r="B255">
-        <v>85.34</v>
+        <v>84.88</v>
       </c>
       <c r="C255">
         <v>150.79</v>
       </c>
       <c r="D255">
-        <v>-43.4</v>
+        <v>-43.71</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4176,13 +4193,13 @@
         <v>44116</v>
       </c>
       <c r="B256">
-        <v>83.09999999999999</v>
+        <v>82.75</v>
       </c>
       <c r="C256">
         <v>150.79</v>
       </c>
       <c r="D256">
-        <v>-44.89</v>
+        <v>-45.12</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4190,13 +4207,13 @@
         <v>44117</v>
       </c>
       <c r="B257">
-        <v>81.05</v>
+        <v>81.17</v>
       </c>
       <c r="C257">
         <v>150.79</v>
       </c>
       <c r="D257">
-        <v>-46.25</v>
+        <v>-46.17</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4204,13 +4221,13 @@
         <v>44118</v>
       </c>
       <c r="B258">
-        <v>81.98999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C258">
         <v>150.79</v>
       </c>
       <c r="D258">
-        <v>-45.63</v>
+        <v>-45.29</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4218,13 +4235,13 @@
         <v>44119</v>
       </c>
       <c r="B259">
-        <v>85.15000000000001</v>
+        <v>84.88</v>
       </c>
       <c r="C259">
         <v>150.79</v>
       </c>
       <c r="D259">
-        <v>-43.53</v>
+        <v>-43.71</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4232,13 +4249,13 @@
         <v>44120</v>
       </c>
       <c r="B260">
-        <v>84.45999999999999</v>
+        <v>84.42</v>
       </c>
       <c r="C260">
         <v>150.79</v>
       </c>
       <c r="D260">
-        <v>-43.99</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4246,13 +4263,13 @@
         <v>44121</v>
       </c>
       <c r="B261">
-        <v>82.84</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="C261">
         <v>150.79</v>
       </c>
       <c r="D261">
-        <v>-45.06</v>
+        <v>-45.32</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4260,13 +4277,13 @@
         <v>44122</v>
       </c>
       <c r="B262">
-        <v>79.81999999999999</v>
+        <v>79.84</v>
       </c>
       <c r="C262">
         <v>150.79</v>
       </c>
       <c r="D262">
-        <v>-47.06</v>
+        <v>-47.05</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4274,13 +4291,13 @@
         <v>44123</v>
       </c>
       <c r="B263">
-        <v>79.48999999999999</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="C263">
         <v>150.79</v>
       </c>
       <c r="D263">
-        <v>-47.29</v>
+        <v>-47.51</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4288,13 +4305,13 @@
         <v>44124</v>
       </c>
       <c r="B264">
-        <v>75.75</v>
+        <v>75.25</v>
       </c>
       <c r="C264">
         <v>150.79</v>
       </c>
       <c r="D264">
-        <v>-49.77</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4316,13 +4333,13 @@
         <v>44126</v>
       </c>
       <c r="B266">
-        <v>73.27</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="C266">
         <v>150.79</v>
       </c>
       <c r="D266">
-        <v>-51.41</v>
+        <v>-51.42</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4330,13 +4347,13 @@
         <v>44127</v>
       </c>
       <c r="B267">
-        <v>74.39</v>
+        <v>74.41</v>
       </c>
       <c r="C267">
         <v>150.79</v>
       </c>
       <c r="D267">
-        <v>-50.67</v>
+        <v>-50.66</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4344,13 +4361,13 @@
         <v>44128</v>
       </c>
       <c r="B268">
-        <v>72.90000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="C268">
         <v>150.79</v>
       </c>
       <c r="D268">
-        <v>-51.66</v>
+        <v>-51.87</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4358,13 +4375,13 @@
         <v>44129</v>
       </c>
       <c r="B269">
-        <v>71.67</v>
+        <v>71.72</v>
       </c>
       <c r="C269">
         <v>150.79</v>
       </c>
       <c r="D269">
-        <v>-52.47</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4372,13 +4389,13 @@
         <v>44130</v>
       </c>
       <c r="B270">
-        <v>70.88</v>
+        <v>71.03</v>
       </c>
       <c r="C270">
         <v>150.79</v>
       </c>
       <c r="D270">
-        <v>-53</v>
+        <v>-52.89</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4386,13 +4403,13 @@
         <v>44131</v>
       </c>
       <c r="B271">
-        <v>73.23</v>
+        <v>72.92</v>
       </c>
       <c r="C271">
         <v>150.79</v>
       </c>
       <c r="D271">
-        <v>-51.44</v>
+        <v>-51.64</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4400,13 +4417,13 @@
         <v>44132</v>
       </c>
       <c r="B272">
-        <v>70.06999999999999</v>
+        <v>69.98</v>
       </c>
       <c r="C272">
         <v>150.79</v>
       </c>
       <c r="D272">
-        <v>-53.53</v>
+        <v>-53.59</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4414,13 +4431,13 @@
         <v>44133</v>
       </c>
       <c r="B273">
-        <v>71.47</v>
+        <v>71.72</v>
       </c>
       <c r="C273">
         <v>150.79</v>
       </c>
       <c r="D273">
-        <v>-52.6</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4428,13 +4445,13 @@
         <v>44134</v>
       </c>
       <c r="B274">
-        <v>70.26000000000001</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C274">
         <v>150.79</v>
       </c>
       <c r="D274">
-        <v>-53.41</v>
+        <v>-53.57</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4442,13 +4459,13 @@
         <v>44135</v>
       </c>
       <c r="B275">
-        <v>70.65000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C275">
         <v>150.79</v>
       </c>
       <c r="D275">
-        <v>-53.15</v>
+        <v>-53.07</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4456,13 +4473,13 @@
         <v>44136</v>
       </c>
       <c r="B276">
-        <v>70.31</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C276">
         <v>140.62</v>
       </c>
       <c r="D276">
-        <v>-50</v>
+        <v>-50.17</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4470,13 +4487,13 @@
         <v>44137</v>
       </c>
       <c r="B277">
-        <v>69.23999999999999</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C277">
         <v>140.62</v>
       </c>
       <c r="D277">
-        <v>-50.76</v>
+        <v>-50.68</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4484,7 +4501,7 @@
         <v>44138</v>
       </c>
       <c r="B278">
-        <v>69.66</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="C278">
         <v>140.62</v>
@@ -4498,13 +4515,13 @@
         <v>44139</v>
       </c>
       <c r="B279">
-        <v>69.95</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C279">
         <v>140.62</v>
       </c>
       <c r="D279">
-        <v>-50.26</v>
+        <v>-50.37</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4512,13 +4529,13 @@
         <v>44140</v>
       </c>
       <c r="B280">
-        <v>67.93000000000001</v>
+        <v>67.7</v>
       </c>
       <c r="C280">
         <v>140.62</v>
       </c>
       <c r="D280">
-        <v>-51.7</v>
+        <v>-51.86</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4526,13 +4543,13 @@
         <v>44141</v>
       </c>
       <c r="B281">
-        <v>67.36</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C281">
         <v>140.62</v>
       </c>
       <c r="D281">
-        <v>-52.1</v>
+        <v>-52.07</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4540,13 +4557,13 @@
         <v>44142</v>
       </c>
       <c r="B282">
-        <v>66.19</v>
+        <v>66.06</v>
       </c>
       <c r="C282">
         <v>140.62</v>
       </c>
       <c r="D282">
-        <v>-52.93</v>
+        <v>-53.02</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4554,13 +4571,13 @@
         <v>44143</v>
       </c>
       <c r="B283">
-        <v>65.41</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C283">
         <v>140.62</v>
       </c>
       <c r="D283">
-        <v>-53.49</v>
+        <v>-53.45</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4568,13 +4585,13 @@
         <v>44144</v>
       </c>
       <c r="B284">
-        <v>68.23999999999999</v>
+        <v>68.44</v>
       </c>
       <c r="C284">
         <v>140.62</v>
       </c>
       <c r="D284">
-        <v>-51.47</v>
+        <v>-51.33</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4582,13 +4599,13 @@
         <v>44145</v>
       </c>
       <c r="B285">
-        <v>66.95</v>
+        <v>66.91</v>
       </c>
       <c r="C285">
         <v>140.62</v>
       </c>
       <c r="D285">
-        <v>-52.39</v>
+        <v>-52.42</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4596,13 +4613,13 @@
         <v>44146</v>
       </c>
       <c r="B286">
-        <v>67.65000000000001</v>
+        <v>68.06</v>
       </c>
       <c r="C286">
         <v>140.62</v>
       </c>
       <c r="D286">
-        <v>-51.9</v>
+        <v>-51.6</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4610,13 +4627,13 @@
         <v>44147</v>
       </c>
       <c r="B287">
-        <v>70.76000000000001</v>
+        <v>70.59</v>
       </c>
       <c r="C287">
         <v>140.62</v>
       </c>
       <c r="D287">
-        <v>-49.68</v>
+        <v>-49.8</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4624,13 +4641,13 @@
         <v>44148</v>
       </c>
       <c r="B288">
-        <v>70.52</v>
+        <v>70.69</v>
       </c>
       <c r="C288">
         <v>140.62</v>
       </c>
       <c r="D288">
-        <v>-49.85</v>
+        <v>-49.73</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4638,13 +4655,13 @@
         <v>44149</v>
       </c>
       <c r="B289">
-        <v>71.98</v>
+        <v>72.23</v>
       </c>
       <c r="C289">
         <v>140.62</v>
       </c>
       <c r="D289">
-        <v>-48.81</v>
+        <v>-48.64</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4666,13 +4683,13 @@
         <v>44151</v>
       </c>
       <c r="B291">
-        <v>73.65000000000001</v>
+        <v>73.64</v>
       </c>
       <c r="C291">
         <v>140.62</v>
       </c>
       <c r="D291">
-        <v>-47.63</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4680,13 +4697,13 @@
         <v>44152</v>
       </c>
       <c r="B292">
-        <v>74.09</v>
+        <v>74.59</v>
       </c>
       <c r="C292">
         <v>140.62</v>
       </c>
       <c r="D292">
-        <v>-47.31</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4694,13 +4711,13 @@
         <v>44153</v>
       </c>
       <c r="B293">
-        <v>78</v>
+        <v>78.14</v>
       </c>
       <c r="C293">
         <v>140.62</v>
       </c>
       <c r="D293">
-        <v>-44.53</v>
+        <v>-44.44</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4722,13 +4739,13 @@
         <v>44155</v>
       </c>
       <c r="B295">
-        <v>75.48</v>
+        <v>74.98</v>
       </c>
       <c r="C295">
         <v>140.62</v>
       </c>
       <c r="D295">
-        <v>-46.33</v>
+        <v>-46.68</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4736,13 +4753,13 @@
         <v>44156</v>
       </c>
       <c r="B296">
-        <v>72.61</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="C296">
         <v>140.62</v>
       </c>
       <c r="D296">
-        <v>-48.36</v>
+        <v>-48.63</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4750,13 +4767,13 @@
         <v>44157</v>
       </c>
       <c r="B297">
-        <v>70.62</v>
+        <v>70.88</v>
       </c>
       <c r="C297">
         <v>140.62</v>
       </c>
       <c r="D297">
-        <v>-49.78</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4764,13 +4781,13 @@
         <v>44158</v>
       </c>
       <c r="B298">
-        <v>72.51000000000001</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="C298">
         <v>140.62</v>
       </c>
       <c r="D298">
-        <v>-48.44</v>
+        <v>-48.39</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4778,13 +4795,13 @@
         <v>44159</v>
       </c>
       <c r="B299">
-        <v>72.83</v>
+        <v>72.47</v>
       </c>
       <c r="C299">
         <v>140.62</v>
       </c>
       <c r="D299">
-        <v>-48.21</v>
+        <v>-48.46</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4792,13 +4809,13 @@
         <v>44160</v>
       </c>
       <c r="B300">
-        <v>69.14</v>
+        <v>68.83</v>
       </c>
       <c r="C300">
         <v>140.62</v>
       </c>
       <c r="D300">
-        <v>-50.84</v>
+        <v>-51.05</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4806,13 +4823,13 @@
         <v>44161</v>
       </c>
       <c r="B301">
-        <v>66.26000000000001</v>
+        <v>65.81</v>
       </c>
       <c r="C301">
         <v>140.62</v>
       </c>
       <c r="D301">
-        <v>-52.88</v>
+        <v>-53.2</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4820,13 +4837,13 @@
         <v>44162</v>
       </c>
       <c r="B302">
-        <v>66.76000000000001</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C302">
         <v>140.62</v>
       </c>
       <c r="D302">
-        <v>-52.53</v>
+        <v>-52.05</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4834,13 +4851,13 @@
         <v>44163</v>
       </c>
       <c r="B303">
-        <v>68.23</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="C303">
         <v>140.62</v>
       </c>
       <c r="D303">
-        <v>-51.48</v>
+        <v>-51.75</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4848,13 +4865,13 @@
         <v>44164</v>
       </c>
       <c r="B304">
-        <v>66.03</v>
+        <v>66.41</v>
       </c>
       <c r="C304">
         <v>140.62</v>
       </c>
       <c r="D304">
-        <v>-53.04</v>
+        <v>-52.78</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4862,13 +4879,13 @@
         <v>44165</v>
       </c>
       <c r="B305">
-        <v>73.44</v>
+        <v>74.45</v>
       </c>
       <c r="C305">
         <v>140.62</v>
       </c>
       <c r="D305">
-        <v>-47.78</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4876,13 +4893,13 @@
         <v>44166</v>
       </c>
       <c r="B306">
-        <v>78.08</v>
+        <v>77.95</v>
       </c>
       <c r="C306">
         <v>121.66</v>
       </c>
       <c r="D306">
-        <v>-35.82</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4890,13 +4907,13 @@
         <v>44167</v>
       </c>
       <c r="B307">
-        <v>78.43000000000001</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="C307">
         <v>121.66</v>
       </c>
       <c r="D307">
-        <v>-35.53</v>
+        <v>-35.21</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4904,13 +4921,13 @@
         <v>44168</v>
       </c>
       <c r="B308">
-        <v>95.66</v>
+        <v>99.06</v>
       </c>
       <c r="C308">
         <v>121.66</v>
       </c>
       <c r="D308">
-        <v>-21.37</v>
+        <v>-18.57</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4918,13 +4935,13 @@
         <v>44169</v>
       </c>
       <c r="B309">
-        <v>115.23</v>
+        <v>116.44</v>
       </c>
       <c r="C309">
         <v>121.66</v>
       </c>
       <c r="D309">
-        <v>-5.28</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4932,13 +4949,13 @@
         <v>44170</v>
       </c>
       <c r="B310">
-        <v>122.95</v>
+        <v>125.54</v>
       </c>
       <c r="C310">
         <v>121.66</v>
       </c>
       <c r="D310">
-        <v>1.06</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4946,13 +4963,13 @@
         <v>44171</v>
       </c>
       <c r="B311">
-        <v>142.25</v>
+        <v>142.73</v>
       </c>
       <c r="C311">
         <v>121.66</v>
       </c>
       <c r="D311">
-        <v>16.93</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4960,13 +4977,13 @@
         <v>44172</v>
       </c>
       <c r="B312">
-        <v>135.89</v>
+        <v>134.19</v>
       </c>
       <c r="C312">
         <v>121.66</v>
       </c>
       <c r="D312">
-        <v>11.7</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4974,13 +4991,13 @@
         <v>44173</v>
       </c>
       <c r="B313">
-        <v>122.79</v>
+        <v>121.62</v>
       </c>
       <c r="C313">
         <v>121.66</v>
       </c>
       <c r="D313">
-        <v>0.93</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4988,13 +5005,13 @@
         <v>44174</v>
       </c>
       <c r="B314">
-        <v>115.17</v>
+        <v>114.09</v>
       </c>
       <c r="C314">
         <v>121.66</v>
       </c>
       <c r="D314">
-        <v>-5.33</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5002,13 +5019,13 @@
         <v>44175</v>
       </c>
       <c r="B315">
-        <v>107.43</v>
+        <v>106.4</v>
       </c>
       <c r="C315">
         <v>121.66</v>
       </c>
       <c r="D315">
-        <v>-11.7</v>
+        <v>-12.54</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5016,13 +5033,13 @@
         <v>44176</v>
       </c>
       <c r="B316">
-        <v>100.91</v>
+        <v>100.42</v>
       </c>
       <c r="C316">
         <v>121.66</v>
       </c>
       <c r="D316">
-        <v>-17.06</v>
+        <v>-17.46</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5030,13 +5047,13 @@
         <v>44177</v>
       </c>
       <c r="B317">
-        <v>96.31999999999999</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="C317">
         <v>121.66</v>
       </c>
       <c r="D317">
-        <v>-20.82</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5044,13 +5061,13 @@
         <v>44178</v>
       </c>
       <c r="B318">
-        <v>92.23</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C318">
         <v>121.66</v>
       </c>
       <c r="D318">
-        <v>-24.19</v>
+        <v>-24.05</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5058,13 +5075,13 @@
         <v>44179</v>
       </c>
       <c r="B319">
-        <v>92.42</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C319">
         <v>121.66</v>
       </c>
       <c r="D319">
-        <v>-24.03</v>
+        <v>-24.23</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5072,13 +5089,13 @@
         <v>44180</v>
       </c>
       <c r="B320">
-        <v>90.61</v>
+        <v>90.59</v>
       </c>
       <c r="C320">
         <v>121.66</v>
       </c>
       <c r="D320">
-        <v>-25.52</v>
+        <v>-25.53</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5086,13 +5103,13 @@
         <v>44181</v>
       </c>
       <c r="B321">
-        <v>90.79000000000001</v>
+        <v>90.69</v>
       </c>
       <c r="C321">
         <v>121.66</v>
       </c>
       <c r="D321">
-        <v>-25.37</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5100,13 +5117,13 @@
         <v>44182</v>
       </c>
       <c r="B322">
-        <v>91.48999999999999</v>
+        <v>91.47</v>
       </c>
       <c r="C322">
         <v>121.66</v>
       </c>
       <c r="D322">
-        <v>-24.8</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -5114,13 +5131,13 @@
         <v>44183</v>
       </c>
       <c r="B323">
-        <v>92.98</v>
+        <v>93.12</v>
       </c>
       <c r="C323">
         <v>121.66</v>
       </c>
       <c r="D323">
-        <v>-23.57</v>
+        <v>-23.45</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -5128,13 +5145,13 @@
         <v>44184</v>
       </c>
       <c r="B324">
-        <v>90.91</v>
+        <v>90.66</v>
       </c>
       <c r="C324">
         <v>121.66</v>
       </c>
       <c r="D324">
-        <v>-25.28</v>
+        <v>-25.48</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5142,13 +5159,13 @@
         <v>44185</v>
       </c>
       <c r="B325">
-        <v>89.09</v>
+        <v>89.34</v>
       </c>
       <c r="C325">
         <v>121.66</v>
       </c>
       <c r="D325">
-        <v>-26.77</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -5156,13 +5173,13 @@
         <v>44186</v>
       </c>
       <c r="B326">
-        <v>97.3</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="C326">
         <v>121.66</v>
       </c>
       <c r="D326">
-        <v>-20.02</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -5170,13 +5187,13 @@
         <v>44187</v>
       </c>
       <c r="B327">
-        <v>133.65</v>
+        <v>143.66</v>
       </c>
       <c r="C327">
         <v>121.66</v>
       </c>
       <c r="D327">
-        <v>9.859999999999999</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -5184,13 +5201,13 @@
         <v>44188</v>
       </c>
       <c r="B328">
-        <v>172.9</v>
+        <v>167.78</v>
       </c>
       <c r="C328">
         <v>121.66</v>
       </c>
       <c r="D328">
-        <v>42.12</v>
+        <v>37.91</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -5198,13 +5215,13 @@
         <v>44189</v>
       </c>
       <c r="B329">
-        <v>137</v>
+        <v>134.15</v>
       </c>
       <c r="C329">
         <v>121.66</v>
       </c>
       <c r="D329">
-        <v>12.61</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5212,13 +5229,13 @@
         <v>44190</v>
       </c>
       <c r="B330">
-        <v>119.89</v>
+        <v>118.24</v>
       </c>
       <c r="C330">
         <v>121.66</v>
       </c>
       <c r="D330">
-        <v>-1.46</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5226,13 +5243,13 @@
         <v>44191</v>
       </c>
       <c r="B331">
-        <v>109.28</v>
+        <v>108.11</v>
       </c>
       <c r="C331">
         <v>121.66</v>
       </c>
       <c r="D331">
-        <v>-10.17</v>
+        <v>-11.13</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5240,13 +5257,13 @@
         <v>44192</v>
       </c>
       <c r="B332">
-        <v>101.94</v>
+        <v>101.25</v>
       </c>
       <c r="C332">
         <v>121.66</v>
       </c>
       <c r="D332">
-        <v>-16.21</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5254,13 +5271,13 @@
         <v>44193</v>
       </c>
       <c r="B333">
-        <v>97.55</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="C333">
         <v>121.66</v>
       </c>
       <c r="D333">
-        <v>-19.81</v>
+        <v>-20.05</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5268,13 +5285,13 @@
         <v>44194</v>
       </c>
       <c r="B334">
-        <v>94.14</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="C334">
         <v>121.66</v>
       </c>
       <c r="D334">
-        <v>-22.62</v>
+        <v>-22.77</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5282,13 +5299,13 @@
         <v>44195</v>
       </c>
       <c r="B335">
-        <v>96.26000000000001</v>
+        <v>97.34</v>
       </c>
       <c r="C335">
         <v>121.66</v>
       </c>
       <c r="D335">
-        <v>-20.88</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5296,13 +5313,13 @@
         <v>44196</v>
       </c>
       <c r="B336">
-        <v>104.03</v>
+        <v>104.28</v>
       </c>
       <c r="C336">
         <v>121.66</v>
       </c>
       <c r="D336">
-        <v>-14.49</v>
+        <v>-14.28</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5310,13 +5327,13 @@
         <v>44197</v>
       </c>
       <c r="B337">
-        <v>100.2</v>
+        <v>99.16</v>
       </c>
       <c r="C337">
         <v>114.72</v>
       </c>
       <c r="D337">
-        <v>-12.66</v>
+        <v>-13.57</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5324,13 +5341,13 @@
         <v>44198</v>
       </c>
       <c r="B338">
-        <v>97.20999999999999</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="C338">
         <v>114.72</v>
       </c>
       <c r="D338">
-        <v>-15.26</v>
+        <v>-15.41</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5338,13 +5355,13 @@
         <v>44199</v>
       </c>
       <c r="B339">
-        <v>99</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C339">
         <v>114.72</v>
       </c>
       <c r="D339">
-        <v>-13.7</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5352,13 +5369,13 @@
         <v>44200</v>
       </c>
       <c r="B340">
-        <v>98.55</v>
+        <v>98.12</v>
       </c>
       <c r="C340">
         <v>114.72</v>
       </c>
       <c r="D340">
-        <v>-14.09</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5366,13 +5383,13 @@
         <v>44201</v>
       </c>
       <c r="B341">
-        <v>95.48</v>
+        <v>95.66</v>
       </c>
       <c r="C341">
         <v>114.72</v>
       </c>
       <c r="D341">
-        <v>-16.77</v>
+        <v>-16.62</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5380,13 +5397,13 @@
         <v>44202</v>
       </c>
       <c r="B342">
-        <v>99.95</v>
+        <v>100.31</v>
       </c>
       <c r="C342">
         <v>114.72</v>
       </c>
       <c r="D342">
-        <v>-12.88</v>
+        <v>-12.56</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5394,13 +5411,13 @@
         <v>44203</v>
       </c>
       <c r="B343">
-        <v>101.69</v>
+        <v>101.52</v>
       </c>
       <c r="C343">
         <v>114.72</v>
       </c>
       <c r="D343">
-        <v>-11.36</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5408,13 +5425,13 @@
         <v>44204</v>
       </c>
       <c r="B344">
-        <v>104.56</v>
+        <v>105.19</v>
       </c>
       <c r="C344">
         <v>114.72</v>
       </c>
       <c r="D344">
-        <v>-8.85</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5422,13 +5439,13 @@
         <v>44205</v>
       </c>
       <c r="B345">
-        <v>107.21</v>
+        <v>107.33</v>
       </c>
       <c r="C345">
         <v>114.72</v>
       </c>
       <c r="D345">
-        <v>-6.55</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5436,13 +5453,13 @@
         <v>44206</v>
       </c>
       <c r="B346">
-        <v>102.62</v>
+        <v>101.44</v>
       </c>
       <c r="C346">
         <v>114.72</v>
       </c>
       <c r="D346">
-        <v>-10.54</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5450,13 +5467,13 @@
         <v>44207</v>
       </c>
       <c r="B347">
-        <v>96.44</v>
+        <v>96.28</v>
       </c>
       <c r="C347">
         <v>114.72</v>
       </c>
       <c r="D347">
-        <v>-15.94</v>
+        <v>-16.07</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5464,13 +5481,13 @@
         <v>44208</v>
       </c>
       <c r="B348">
-        <v>99.79000000000001</v>
+        <v>101.62</v>
       </c>
       <c r="C348">
         <v>114.72</v>
       </c>
       <c r="D348">
-        <v>-13.01</v>
+        <v>-11.41</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5478,13 +5495,13 @@
         <v>44209</v>
       </c>
       <c r="B349">
-        <v>104.5</v>
+        <v>102.96</v>
       </c>
       <c r="C349">
         <v>114.72</v>
       </c>
       <c r="D349">
-        <v>-8.91</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5492,13 +5509,13 @@
         <v>44210</v>
       </c>
       <c r="B350">
-        <v>97.34999999999999</v>
+        <v>96.89</v>
       </c>
       <c r="C350">
         <v>114.72</v>
       </c>
       <c r="D350">
-        <v>-15.14</v>
+        <v>-15.55</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5506,13 +5523,13 @@
         <v>44211</v>
       </c>
       <c r="B351">
-        <v>96.18000000000001</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="C351">
         <v>114.72</v>
       </c>
       <c r="D351">
-        <v>-16.16</v>
+        <v>-16.01</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5520,13 +5537,13 @@
         <v>44212</v>
       </c>
       <c r="B352">
-        <v>93.02</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C352">
         <v>114.72</v>
       </c>
       <c r="D352">
-        <v>-18.91</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5534,13 +5551,13 @@
         <v>44213</v>
       </c>
       <c r="B353">
-        <v>94.15000000000001</v>
+        <v>94.72</v>
       </c>
       <c r="C353">
         <v>114.72</v>
       </c>
       <c r="D353">
-        <v>-17.93</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5548,13 +5565,13 @@
         <v>44214</v>
       </c>
       <c r="B354">
-        <v>98.08</v>
+        <v>98.83</v>
       </c>
       <c r="C354">
         <v>114.72</v>
       </c>
       <c r="D354">
-        <v>-14.5</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5562,13 +5579,13 @@
         <v>44215</v>
       </c>
       <c r="B355">
-        <v>105.72</v>
+        <v>107.27</v>
       </c>
       <c r="C355">
         <v>114.72</v>
       </c>
       <c r="D355">
-        <v>-7.85</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5576,13 +5593,13 @@
         <v>44216</v>
       </c>
       <c r="B356">
-        <v>116.24</v>
+        <v>117.28</v>
       </c>
       <c r="C356">
         <v>114.72</v>
       </c>
       <c r="D356">
-        <v>1.33</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5590,13 +5607,13 @@
         <v>44217</v>
       </c>
       <c r="B357">
-        <v>135.23</v>
+        <v>138.02</v>
       </c>
       <c r="C357">
         <v>114.72</v>
       </c>
       <c r="D357">
-        <v>17.88</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5604,13 +5621,13 @@
         <v>44218</v>
       </c>
       <c r="B358">
-        <v>146.02</v>
+        <v>146.55</v>
       </c>
       <c r="C358">
         <v>114.72</v>
       </c>
       <c r="D358">
-        <v>27.29</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5618,13 +5635,13 @@
         <v>44219</v>
       </c>
       <c r="B359">
-        <v>150.61</v>
+        <v>152.69</v>
       </c>
       <c r="C359">
         <v>114.72</v>
       </c>
       <c r="D359">
-        <v>31.29</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5632,13 +5649,13 @@
         <v>44220</v>
       </c>
       <c r="B360">
-        <v>169.72</v>
+        <v>170.98</v>
       </c>
       <c r="C360">
         <v>114.72</v>
       </c>
       <c r="D360">
-        <v>47.94</v>
+        <v>49.04</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5646,13 +5663,13 @@
         <v>44221</v>
       </c>
       <c r="B361">
-        <v>188.6</v>
+        <v>196.91</v>
       </c>
       <c r="C361">
         <v>114.72</v>
       </c>
       <c r="D361">
-        <v>64.41</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5660,13 +5677,13 @@
         <v>44222</v>
       </c>
       <c r="B362">
-        <v>267.25</v>
+        <v>271.82</v>
       </c>
       <c r="C362">
         <v>114.72</v>
       </c>
       <c r="D362">
-        <v>132.96</v>
+        <v>136.95</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5674,13 +5691,13 @@
         <v>44223</v>
       </c>
       <c r="B363">
-        <v>267.93</v>
+        <v>263.88</v>
       </c>
       <c r="C363">
         <v>114.72</v>
       </c>
       <c r="D363">
-        <v>133.55</v>
+        <v>130.02</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5688,13 +5705,13 @@
         <v>44224</v>
       </c>
       <c r="B364">
-        <v>225.1</v>
+        <v>219.91</v>
       </c>
       <c r="C364">
         <v>114.72</v>
       </c>
       <c r="D364">
-        <v>96.22</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5702,13 +5719,13 @@
         <v>44225</v>
       </c>
       <c r="B365">
-        <v>225.34</v>
+        <v>233.49</v>
       </c>
       <c r="C365">
         <v>114.72</v>
       </c>
       <c r="D365">
-        <v>96.43000000000001</v>
+        <v>103.54</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5716,13 +5733,13 @@
         <v>44226</v>
       </c>
       <c r="B366">
-        <v>308.57</v>
+        <v>315.97</v>
       </c>
       <c r="C366">
         <v>114.72</v>
       </c>
       <c r="D366">
-        <v>168.98</v>
+        <v>175.43</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -5730,13 +5747,223 @@
         <v>44227</v>
       </c>
       <c r="B367">
-        <v>323.99</v>
+        <v>323.51</v>
       </c>
       <c r="C367">
         <v>114.72</v>
       </c>
       <c r="D367">
-        <v>182.42</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
+        <v>44228</v>
+      </c>
+      <c r="B368">
+        <v>304.64</v>
+      </c>
+      <c r="C368">
+        <v>115.81</v>
+      </c>
+      <c r="D368">
+        <v>163.05</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
+        <v>44229</v>
+      </c>
+      <c r="B369">
+        <v>279.2</v>
+      </c>
+      <c r="C369">
+        <v>115.81</v>
+      </c>
+      <c r="D369">
+        <v>141.08</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
+        <v>44230</v>
+      </c>
+      <c r="B370">
+        <v>241.17</v>
+      </c>
+      <c r="C370">
+        <v>115.81</v>
+      </c>
+      <c r="D370">
+        <v>108.24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
+        <v>44231</v>
+      </c>
+      <c r="B371">
+        <v>217.73</v>
+      </c>
+      <c r="C371">
+        <v>115.81</v>
+      </c>
+      <c r="D371">
+        <v>88.01000000000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
+        <v>44232</v>
+      </c>
+      <c r="B372">
+        <v>201.85</v>
+      </c>
+      <c r="C372">
+        <v>115.81</v>
+      </c>
+      <c r="D372">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
+        <v>44233</v>
+      </c>
+      <c r="B373">
+        <v>187.12</v>
+      </c>
+      <c r="C373">
+        <v>115.81</v>
+      </c>
+      <c r="D373">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
+        <v>44234</v>
+      </c>
+      <c r="B374">
+        <v>176.22</v>
+      </c>
+      <c r="C374">
+        <v>115.81</v>
+      </c>
+      <c r="D374">
+        <v>52.16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
+        <v>44235</v>
+      </c>
+      <c r="B375">
+        <v>167.47</v>
+      </c>
+      <c r="C375">
+        <v>115.81</v>
+      </c>
+      <c r="D375">
+        <v>44.61</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
+        <v>44236</v>
+      </c>
+      <c r="B376">
+        <v>158.85</v>
+      </c>
+      <c r="C376">
+        <v>115.81</v>
+      </c>
+      <c r="D376">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
+        <v>44237</v>
+      </c>
+      <c r="B377">
+        <v>149.56</v>
+      </c>
+      <c r="C377">
+        <v>115.81</v>
+      </c>
+      <c r="D377">
+        <v>29.14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
+        <v>44238</v>
+      </c>
+      <c r="B378">
+        <v>148.33</v>
+      </c>
+      <c r="C378">
+        <v>115.81</v>
+      </c>
+      <c r="D378">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
+        <v>44239</v>
+      </c>
+      <c r="B379" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379">
+        <v>115.81</v>
+      </c>
+      <c r="D379" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
+        <v>44240</v>
+      </c>
+      <c r="B380" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380">
+        <v>115.81</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
+        <v>44241</v>
+      </c>
+      <c r="B381" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381">
+        <v>115.81</v>
+      </c>
+      <c r="D381" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
+        <v>44242</v>
+      </c>
+      <c r="B382" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382">
+        <v>115.81</v>
+      </c>
+      <c r="D382" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -393,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -420,184 +420,170 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43890</v>
+        <v>44012</v>
       </c>
       <c r="B2">
-        <v>94.27</v>
+        <v>151.35</v>
       </c>
       <c r="C2">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D2">
-        <v>-18.6</v>
+        <v>9.380000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43921</v>
+        <v>44043</v>
       </c>
       <c r="B3">
-        <v>78.61</v>
+        <v>125.37</v>
       </c>
       <c r="C3">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D3">
-        <v>-26.72</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43951</v>
+        <v>44074</v>
       </c>
       <c r="B4">
-        <v>64.18000000000001</v>
+        <v>120.31</v>
       </c>
       <c r="C4">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D4">
-        <v>-41.18</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43982</v>
+        <v>44104</v>
       </c>
       <c r="B5">
-        <v>89.97</v>
+        <v>90.39</v>
       </c>
       <c r="C5">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D5">
-        <v>-29.71</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44012</v>
+        <v>44135</v>
       </c>
       <c r="B6">
-        <v>151.35</v>
+        <v>77.77</v>
       </c>
       <c r="C6">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D6">
-        <v>9.380000000000001</v>
+        <v>-48.42</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44043</v>
+        <v>44165</v>
       </c>
       <c r="B7">
-        <v>125.37</v>
+        <v>70.45</v>
       </c>
       <c r="C7">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D7">
-        <v>-4.75</v>
+        <v>-49.9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44074</v>
+        <v>44196</v>
       </c>
       <c r="B8">
-        <v>120.31</v>
+        <v>106.74</v>
       </c>
       <c r="C8">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D8">
-        <v>1.33</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44104</v>
+        <v>44227</v>
       </c>
       <c r="B9">
-        <v>90.39</v>
+        <v>143.35</v>
       </c>
       <c r="C9">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D9">
-        <v>-27.05</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44135</v>
+        <v>44255</v>
       </c>
       <c r="B10">
-        <v>77.77</v>
+        <v>202.92</v>
       </c>
       <c r="C10">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D10">
-        <v>-48.42</v>
+        <v>75.22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B11">
-        <v>70.45</v>
+        <v>44286</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>140.62</v>
-      </c>
-      <c r="D11">
-        <v>-49.9</v>
+        <v>107.27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B12">
-        <v>106.74</v>
+        <v>44316</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>121.66</v>
-      </c>
-      <c r="D12">
-        <v>-12.26</v>
+        <v>109.11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B13">
-        <v>143.35</v>
+        <v>44347</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>114.72</v>
-      </c>
-      <c r="D13">
-        <v>24.96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B14">
-        <v>202.92</v>
-      </c>
-      <c r="C14">
-        <v>115.81</v>
-      </c>
-      <c r="D14">
-        <v>75.22</v>
+        <v>128</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -607,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D382"/>
+  <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -634,5335 +620,5111 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43862</v>
+        <v>43983</v>
       </c>
       <c r="B2">
-        <v>122.73</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="C2">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D2">
-        <v>5.97</v>
+        <v>-31.45</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43863</v>
+        <v>43984</v>
       </c>
       <c r="B3">
-        <v>119.35</v>
+        <v>93.45</v>
       </c>
       <c r="C3">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D3">
-        <v>3.06</v>
+        <v>-32.47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43864</v>
+        <v>43985</v>
       </c>
       <c r="B4">
-        <v>119.62</v>
+        <v>91.22</v>
       </c>
       <c r="C4">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D4">
-        <v>3.29</v>
+        <v>-34.08</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43865</v>
+        <v>43986</v>
       </c>
       <c r="B5">
-        <v>113.86</v>
+        <v>97.05</v>
       </c>
       <c r="C5">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D5">
-        <v>-1.68</v>
+        <v>-29.86</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43866</v>
+        <v>43987</v>
       </c>
       <c r="B6">
-        <v>106.22</v>
+        <v>130.35</v>
       </c>
       <c r="C6">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D6">
-        <v>-8.279999999999999</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43867</v>
+        <v>43988</v>
       </c>
       <c r="B7">
-        <v>99.83</v>
+        <v>155.75</v>
       </c>
       <c r="C7">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D7">
-        <v>-13.8</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43868</v>
+        <v>43989</v>
       </c>
       <c r="B8">
-        <v>94.65000000000001</v>
+        <v>162.36</v>
       </c>
       <c r="C8">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D8">
-        <v>-18.27</v>
+        <v>17.34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43869</v>
+        <v>43990</v>
       </c>
       <c r="B9">
-        <v>88.81999999999999</v>
+        <v>145.77</v>
       </c>
       <c r="C9">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D9">
-        <v>-23.3</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43870</v>
+        <v>43991</v>
       </c>
       <c r="B10">
-        <v>87.56</v>
+        <v>149.22</v>
       </c>
       <c r="C10">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D10">
-        <v>-24.39</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43871</v>
+        <v>43992</v>
       </c>
       <c r="B11">
-        <v>87.95</v>
+        <v>280.96</v>
       </c>
       <c r="C11">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D11">
-        <v>-24.06</v>
+        <v>103.05</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43872</v>
+        <v>43993</v>
       </c>
       <c r="B12">
-        <v>89.93000000000001</v>
+        <v>255.56</v>
       </c>
       <c r="C12">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D12">
-        <v>-22.35</v>
+        <v>84.69</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43873</v>
+        <v>43994</v>
       </c>
       <c r="B13">
-        <v>91.23</v>
+        <v>250.56</v>
       </c>
       <c r="C13">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D13">
-        <v>-21.23</v>
+        <v>81.08</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43874</v>
+        <v>43995</v>
       </c>
       <c r="B14">
-        <v>85.52</v>
+        <v>222.59</v>
       </c>
       <c r="C14">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D14">
-        <v>-26.15</v>
+        <v>60.87</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43875</v>
+        <v>43996</v>
       </c>
       <c r="B15">
-        <v>82.42</v>
+        <v>204.24</v>
       </c>
       <c r="C15">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D15">
-        <v>-28.83</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43876</v>
+        <v>43997</v>
       </c>
       <c r="B16">
-        <v>80.64</v>
+        <v>188.28</v>
       </c>
       <c r="C16">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D16">
-        <v>-30.37</v>
+        <v>36.07</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43877</v>
+        <v>43998</v>
       </c>
       <c r="B17">
-        <v>78.42</v>
+        <v>174.54</v>
       </c>
       <c r="C17">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D17">
-        <v>-32.29</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43878</v>
+        <v>43999</v>
       </c>
       <c r="B18">
-        <v>74.18000000000001</v>
+        <v>162.07</v>
       </c>
       <c r="C18">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D18">
-        <v>-35.95</v>
+        <v>17.13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>43879</v>
+        <v>44000</v>
       </c>
       <c r="B19">
-        <v>77.29000000000001</v>
+        <v>152.71</v>
       </c>
       <c r="C19">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D19">
-        <v>-33.26</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>43880</v>
+        <v>44001</v>
       </c>
       <c r="B20">
-        <v>78.34999999999999</v>
+        <v>145.79</v>
       </c>
       <c r="C20">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D20">
-        <v>-32.34</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>43881</v>
+        <v>44002</v>
       </c>
       <c r="B21">
-        <v>76.77</v>
+        <v>139.61</v>
       </c>
       <c r="C21">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D21">
-        <v>-33.71</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>43882</v>
+        <v>44003</v>
       </c>
       <c r="B22">
-        <v>73.79000000000001</v>
+        <v>134.19</v>
       </c>
       <c r="C22">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D22">
-        <v>-36.28</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>43883</v>
+        <v>44004</v>
       </c>
       <c r="B23">
-        <v>69.17</v>
+        <v>129.51</v>
       </c>
       <c r="C23">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D23">
-        <v>-40.28</v>
+        <v>-6.4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>43884</v>
+        <v>44005</v>
       </c>
       <c r="B24">
-        <v>73.09999999999999</v>
+        <v>125.72</v>
       </c>
       <c r="C24">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D24">
-        <v>-36.88</v>
+        <v>-9.140000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>43885</v>
+        <v>44006</v>
       </c>
       <c r="B25">
-        <v>70.45999999999999</v>
+        <v>122.71</v>
       </c>
       <c r="C25">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D25">
-        <v>-39.16</v>
+        <v>-11.32</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>43886</v>
+        <v>44007</v>
       </c>
       <c r="B26">
-        <v>72.78</v>
+        <v>120.06</v>
       </c>
       <c r="C26">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D26">
-        <v>-37.15</v>
+        <v>-13.23</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>43887</v>
+        <v>44008</v>
       </c>
       <c r="B27">
-        <v>131.66</v>
+        <v>123.74</v>
       </c>
       <c r="C27">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D27">
-        <v>13.68</v>
+        <v>-10.57</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>43888</v>
+        <v>44009</v>
       </c>
       <c r="B28">
-        <v>151.41</v>
+        <v>124.93</v>
       </c>
       <c r="C28">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D28">
-        <v>30.74</v>
+        <v>-9.720000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>43889</v>
+        <v>44010</v>
       </c>
       <c r="B29">
-        <v>125.11</v>
+        <v>122.84</v>
       </c>
       <c r="C29">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D29">
-        <v>8.029999999999999</v>
+        <v>-11.22</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>43890</v>
+        <v>44011</v>
       </c>
       <c r="B30">
-        <v>111.05</v>
+        <v>119.72</v>
       </c>
       <c r="C30">
-        <v>115.81</v>
+        <v>138.37</v>
       </c>
       <c r="D30">
-        <v>-4.11</v>
+        <v>-13.48</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>43891</v>
+        <v>44012</v>
       </c>
       <c r="B31">
-        <v>103.91</v>
+        <v>120.27</v>
       </c>
       <c r="C31">
-        <v>107.27</v>
+        <v>138.37</v>
       </c>
       <c r="D31">
-        <v>-3.14</v>
+        <v>-13.08</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>43892</v>
+        <v>44013</v>
       </c>
       <c r="B32">
-        <v>97.15000000000001</v>
+        <v>139.58</v>
       </c>
       <c r="C32">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D32">
-        <v>-9.44</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>43893</v>
+        <v>44014</v>
       </c>
       <c r="B33">
-        <v>92.8</v>
+        <v>157.79</v>
       </c>
       <c r="C33">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D33">
-        <v>-13.49</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>43894</v>
+        <v>44015</v>
       </c>
       <c r="B34">
-        <v>90.86</v>
+        <v>145.82</v>
       </c>
       <c r="C34">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D34">
-        <v>-15.3</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>43895</v>
+        <v>44016</v>
       </c>
       <c r="B35">
-        <v>86.16</v>
+        <v>135.96</v>
       </c>
       <c r="C35">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D35">
-        <v>-19.69</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>43896</v>
+        <v>44017</v>
       </c>
       <c r="B36">
-        <v>83.89</v>
+        <v>127.46</v>
       </c>
       <c r="C36">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D36">
-        <v>-21.8</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>43897</v>
+        <v>44018</v>
       </c>
       <c r="B37">
-        <v>82.01000000000001</v>
+        <v>122.11</v>
       </c>
       <c r="C37">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D37">
-        <v>-23.55</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>43898</v>
+        <v>44019</v>
       </c>
       <c r="B38">
-        <v>80.52</v>
+        <v>124.35</v>
       </c>
       <c r="C38">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D38">
-        <v>-24.94</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>43899</v>
+        <v>44020</v>
       </c>
       <c r="B39">
-        <v>81.45</v>
+        <v>141.34</v>
       </c>
       <c r="C39">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D39">
-        <v>-24.08</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>43900</v>
+        <v>44021</v>
       </c>
       <c r="B40">
-        <v>78.34</v>
+        <v>161.7</v>
       </c>
       <c r="C40">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D40">
-        <v>-26.97</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>43901</v>
+        <v>44022</v>
       </c>
       <c r="B41">
-        <v>79.90000000000001</v>
+        <v>168.71</v>
       </c>
       <c r="C41">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D41">
-        <v>-25.52</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>43902</v>
+        <v>44023</v>
       </c>
       <c r="B42">
-        <v>76.91</v>
+        <v>155.47</v>
       </c>
       <c r="C42">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D42">
-        <v>-28.31</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>43903</v>
+        <v>44024</v>
       </c>
       <c r="B43">
-        <v>74.36</v>
+        <v>145.78</v>
       </c>
       <c r="C43">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D43">
-        <v>-30.68</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>43904</v>
+        <v>44025</v>
       </c>
       <c r="B44">
-        <v>76.66</v>
+        <v>139.44</v>
       </c>
       <c r="C44">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D44">
-        <v>-28.54</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>43905</v>
+        <v>44026</v>
       </c>
       <c r="B45">
-        <v>74.09999999999999</v>
+        <v>134.04</v>
       </c>
       <c r="C45">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D45">
-        <v>-30.92</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>43906</v>
+        <v>44027</v>
       </c>
       <c r="B46">
-        <v>70.52</v>
+        <v>129.23</v>
       </c>
       <c r="C46">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D46">
-        <v>-34.26</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>43907</v>
+        <v>44028</v>
       </c>
       <c r="B47">
-        <v>69.8</v>
+        <v>124.51</v>
       </c>
       <c r="C47">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D47">
-        <v>-34.93</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>43908</v>
+        <v>44029</v>
       </c>
       <c r="B48">
-        <v>70.40000000000001</v>
+        <v>121.2</v>
       </c>
       <c r="C48">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D48">
-        <v>-34.38</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>43909</v>
+        <v>44030</v>
       </c>
       <c r="B49">
-        <v>78.06999999999999</v>
+        <v>119</v>
       </c>
       <c r="C49">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D49">
-        <v>-27.22</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>43910</v>
+        <v>44031</v>
       </c>
       <c r="B50">
-        <v>85.83</v>
+        <v>115.81</v>
       </c>
       <c r="C50">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D50">
-        <v>-19.99</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>43911</v>
+        <v>44032</v>
       </c>
       <c r="B51">
-        <v>88.34999999999999</v>
+        <v>113.72</v>
       </c>
       <c r="C51">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D51">
-        <v>-17.64</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>43912</v>
+        <v>44033</v>
       </c>
       <c r="B52">
-        <v>81.90000000000001</v>
+        <v>111.56</v>
       </c>
       <c r="C52">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D52">
-        <v>-23.66</v>
+        <v>-15.24</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>43913</v>
+        <v>44034</v>
       </c>
       <c r="B53">
-        <v>76.64</v>
+        <v>110.03</v>
       </c>
       <c r="C53">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D53">
-        <v>-28.56</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>43914</v>
+        <v>44035</v>
       </c>
       <c r="B54">
-        <v>74.65000000000001</v>
+        <v>108.77</v>
       </c>
       <c r="C54">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D54">
-        <v>-30.42</v>
+        <v>-17.36</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>43915</v>
+        <v>44036</v>
       </c>
       <c r="B55">
-        <v>74.04000000000001</v>
+        <v>106.08</v>
       </c>
       <c r="C55">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D55">
-        <v>-30.98</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>43916</v>
+        <v>44037</v>
       </c>
       <c r="B56">
-        <v>71.48999999999999</v>
+        <v>104.48</v>
       </c>
       <c r="C56">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D56">
-        <v>-33.36</v>
+        <v>-20.62</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>43917</v>
+        <v>44038</v>
       </c>
       <c r="B57">
-        <v>70.94</v>
+        <v>104.69</v>
       </c>
       <c r="C57">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D57">
-        <v>-33.87</v>
+        <v>-20.46</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>43918</v>
+        <v>44039</v>
       </c>
       <c r="B58">
-        <v>68.72</v>
+        <v>103.12</v>
       </c>
       <c r="C58">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D58">
-        <v>-35.94</v>
+        <v>-21.65</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>43919</v>
+        <v>44040</v>
       </c>
       <c r="B59">
-        <v>65.73</v>
+        <v>101.46</v>
       </c>
       <c r="C59">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D59">
-        <v>-38.73</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>43920</v>
+        <v>44041</v>
       </c>
       <c r="B60">
-        <v>64.18000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="C60">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D60">
-        <v>-40.17</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>43921</v>
+        <v>44042</v>
       </c>
       <c r="B61">
-        <v>66.77</v>
+        <v>106.25</v>
       </c>
       <c r="C61">
-        <v>107.27</v>
+        <v>131.62</v>
       </c>
       <c r="D61">
-        <v>-37.76</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>43922</v>
+        <v>44043</v>
       </c>
       <c r="B62">
-        <v>65.83</v>
+        <v>105.6</v>
       </c>
       <c r="C62">
-        <v>109.11</v>
+        <v>131.62</v>
       </c>
       <c r="D62">
-        <v>-39.66</v>
+        <v>-19.77</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>43923</v>
+        <v>44044</v>
       </c>
       <c r="B63">
-        <v>68.31999999999999</v>
+        <v>100.94</v>
       </c>
       <c r="C63">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D63">
-        <v>-37.38</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>43924</v>
+        <v>44045</v>
       </c>
       <c r="B64">
-        <v>64.73</v>
+        <v>100.17</v>
       </c>
       <c r="C64">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D64">
-        <v>-40.68</v>
+        <v>-15.64</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>43925</v>
+        <v>44046</v>
       </c>
       <c r="B65">
-        <v>63.17</v>
+        <v>97.37</v>
       </c>
       <c r="C65">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D65">
-        <v>-42.11</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>43926</v>
+        <v>44047</v>
       </c>
       <c r="B66">
-        <v>62.53</v>
+        <v>96.39</v>
       </c>
       <c r="C66">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D66">
-        <v>-42.69</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>43927</v>
+        <v>44048</v>
       </c>
       <c r="B67">
-        <v>66.29000000000001</v>
+        <v>93.48</v>
       </c>
       <c r="C67">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D67">
-        <v>-39.24</v>
+        <v>-21.26</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>43928</v>
+        <v>44049</v>
       </c>
       <c r="B68">
-        <v>67.34</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="C68">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D68">
-        <v>-38.28</v>
+        <v>-23.35</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>43929</v>
+        <v>44050</v>
       </c>
       <c r="B69">
-        <v>70.22</v>
+        <v>92.81</v>
       </c>
       <c r="C69">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D69">
-        <v>-35.65</v>
+        <v>-21.83</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>43930</v>
+        <v>44051</v>
       </c>
       <c r="B70">
-        <v>70.76000000000001</v>
+        <v>92.11</v>
       </c>
       <c r="C70">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D70">
-        <v>-35.15</v>
+        <v>-22.42</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>43931</v>
+        <v>44052</v>
       </c>
       <c r="B71">
-        <v>69.52</v>
+        <v>90.12</v>
       </c>
       <c r="C71">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D71">
-        <v>-36.28</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>43932</v>
+        <v>44053</v>
       </c>
       <c r="B72">
-        <v>67.84999999999999</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="C72">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D72">
-        <v>-37.81</v>
+        <v>-24.61</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>43933</v>
+        <v>44054</v>
       </c>
       <c r="B73">
-        <v>65.08</v>
+        <v>87.06</v>
       </c>
       <c r="C73">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D73">
-        <v>-40.35</v>
+        <v>-26.67</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>43934</v>
+        <v>44055</v>
       </c>
       <c r="B74">
-        <v>62.92</v>
+        <v>89.5</v>
       </c>
       <c r="C74">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D74">
-        <v>-42.34</v>
+        <v>-24.62</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>43935</v>
+        <v>44056</v>
       </c>
       <c r="B75">
-        <v>70.16</v>
+        <v>103.19</v>
       </c>
       <c r="C75">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D75">
-        <v>-35.7</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>43936</v>
+        <v>44057</v>
       </c>
       <c r="B76">
-        <v>69.8</v>
+        <v>126.78</v>
       </c>
       <c r="C76">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D76">
-        <v>-36.03</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>43937</v>
+        <v>44058</v>
       </c>
       <c r="B77">
-        <v>66.59</v>
+        <v>130.44</v>
       </c>
       <c r="C77">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D77">
-        <v>-38.97</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>43938</v>
+        <v>44059</v>
       </c>
       <c r="B78">
-        <v>66.54000000000001</v>
+        <v>147.31</v>
       </c>
       <c r="C78">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D78">
-        <v>-39.02</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>43939</v>
+        <v>44060</v>
       </c>
       <c r="B79">
-        <v>65.61</v>
+        <v>153.32</v>
       </c>
       <c r="C79">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D79">
-        <v>-39.86</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>43940</v>
+        <v>44061</v>
       </c>
       <c r="B80">
-        <v>65.56</v>
+        <v>161.42</v>
       </c>
       <c r="C80">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D80">
-        <v>-39.91</v>
+        <v>35.95</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>43941</v>
+        <v>44062</v>
       </c>
       <c r="B81">
-        <v>63.29</v>
+        <v>178.33</v>
       </c>
       <c r="C81">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D81">
-        <v>-41.99</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>43942</v>
+        <v>44063</v>
       </c>
       <c r="B82">
-        <v>63.78</v>
+        <v>183.23</v>
       </c>
       <c r="C82">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D82">
-        <v>-41.55</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>43943</v>
+        <v>44064</v>
       </c>
       <c r="B83">
-        <v>61.65</v>
+        <v>174.01</v>
       </c>
       <c r="C83">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D83">
-        <v>-43.5</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>43944</v>
+        <v>44065</v>
       </c>
       <c r="B84">
-        <v>60.36</v>
+        <v>157.53</v>
       </c>
       <c r="C84">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D84">
-        <v>-44.68</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>43945</v>
+        <v>44066</v>
       </c>
       <c r="B85">
-        <v>60.42</v>
+        <v>144.66</v>
       </c>
       <c r="C85">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D85">
-        <v>-44.63</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>43946</v>
+        <v>44067</v>
       </c>
       <c r="B86">
-        <v>59.48</v>
+        <v>135</v>
       </c>
       <c r="C86">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D86">
-        <v>-45.49</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>43947</v>
+        <v>44068</v>
       </c>
       <c r="B87">
-        <v>59.92</v>
+        <v>127.99</v>
       </c>
       <c r="C87">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D87">
-        <v>-45.09</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>43948</v>
+        <v>44069</v>
       </c>
       <c r="B88">
-        <v>60.38</v>
+        <v>123.23</v>
       </c>
       <c r="C88">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D88">
-        <v>-44.67</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>43949</v>
+        <v>44070</v>
       </c>
       <c r="B89">
-        <v>57.56</v>
+        <v>118.66</v>
       </c>
       <c r="C89">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D89">
-        <v>-47.24</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>43950</v>
+        <v>44071</v>
       </c>
       <c r="B90">
-        <v>56.06</v>
+        <v>115.66</v>
       </c>
       <c r="C90">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D90">
-        <v>-48.62</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>43951</v>
+        <v>44072</v>
       </c>
       <c r="B91">
-        <v>53.72</v>
+        <v>112.79</v>
       </c>
       <c r="C91">
-        <v>109.11</v>
+        <v>118.73</v>
       </c>
       <c r="D91">
-        <v>-50.76</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>43952</v>
+        <v>44073</v>
       </c>
       <c r="B92">
-        <v>54.05</v>
+        <v>108.73</v>
       </c>
       <c r="C92">
-        <v>128</v>
+        <v>118.73</v>
       </c>
       <c r="D92">
-        <v>-57.77</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>43953</v>
+        <v>44074</v>
       </c>
       <c r="B93">
-        <v>54.46</v>
+        <v>106.92</v>
       </c>
       <c r="C93">
-        <v>128</v>
+        <v>118.73</v>
       </c>
       <c r="D93">
-        <v>-57.46</v>
+        <v>-9.949999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>43954</v>
+        <v>44075</v>
       </c>
       <c r="B94">
-        <v>54.49</v>
+        <v>105.34</v>
       </c>
       <c r="C94">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D94">
-        <v>-57.43</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>43955</v>
+        <v>44076</v>
       </c>
       <c r="B95">
-        <v>54.02</v>
+        <v>102.17</v>
       </c>
       <c r="C95">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D95">
-        <v>-57.8</v>
+        <v>-17.55</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>43956</v>
+        <v>44077</v>
       </c>
       <c r="B96">
-        <v>55.33</v>
+        <v>102.73</v>
       </c>
       <c r="C96">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D96">
-        <v>-56.77</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>43957</v>
+        <v>44078</v>
       </c>
       <c r="B97">
-        <v>60.95</v>
+        <v>101.86</v>
       </c>
       <c r="C97">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D97">
-        <v>-52.39</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>43958</v>
+        <v>44079</v>
       </c>
       <c r="B98">
-        <v>69.61</v>
+        <v>97.95</v>
       </c>
       <c r="C98">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D98">
-        <v>-45.62</v>
+        <v>-20.96</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>43959</v>
+        <v>44080</v>
       </c>
       <c r="B99">
-        <v>72.43000000000001</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="C99">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D99">
-        <v>-43.42</v>
+        <v>-20.54</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>43960</v>
+        <v>44081</v>
       </c>
       <c r="B100">
-        <v>70.11</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C100">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D100">
-        <v>-45.22</v>
+        <v>-22.52</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>43961</v>
+        <v>44082</v>
       </c>
       <c r="B101">
-        <v>69.25</v>
+        <v>96.89</v>
       </c>
       <c r="C101">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D101">
-        <v>-45.9</v>
+        <v>-21.81</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>43962</v>
+        <v>44083</v>
       </c>
       <c r="B102">
-        <v>69.01000000000001</v>
+        <v>94.87</v>
       </c>
       <c r="C102">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D102">
-        <v>-46.09</v>
+        <v>-23.44</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>43963</v>
+        <v>44084</v>
       </c>
       <c r="B103">
-        <v>67</v>
+        <v>93.63</v>
       </c>
       <c r="C103">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D103">
-        <v>-47.66</v>
+        <v>-24.44</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>43964</v>
+        <v>44085</v>
       </c>
       <c r="B104">
-        <v>85.70999999999999</v>
+        <v>92.72</v>
       </c>
       <c r="C104">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D104">
-        <v>-33.04</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>43965</v>
+        <v>44086</v>
       </c>
       <c r="B105">
-        <v>95.59999999999999</v>
+        <v>93.17</v>
       </c>
       <c r="C105">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D105">
-        <v>-25.31</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>43966</v>
+        <v>44087</v>
       </c>
       <c r="B106">
-        <v>102.78</v>
+        <v>90.61</v>
       </c>
       <c r="C106">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D106">
-        <v>-19.7</v>
+        <v>-26.87</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>43967</v>
+        <v>44088</v>
       </c>
       <c r="B107">
-        <v>95.17</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="C107">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D107">
-        <v>-25.65</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>43968</v>
+        <v>44089</v>
       </c>
       <c r="B108">
-        <v>87.12</v>
+        <v>89.72</v>
       </c>
       <c r="C108">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D108">
-        <v>-31.94</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>43969</v>
+        <v>44090</v>
       </c>
       <c r="B109">
-        <v>81.39</v>
+        <v>88.73</v>
       </c>
       <c r="C109">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D109">
-        <v>-36.42</v>
+        <v>-28.39</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>43970</v>
+        <v>44091</v>
       </c>
       <c r="B110">
-        <v>77.38</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="C110">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D110">
-        <v>-39.55</v>
+        <v>-29.01</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>43971</v>
+        <v>44092</v>
       </c>
       <c r="B111">
-        <v>76.31999999999999</v>
+        <v>85.38</v>
       </c>
       <c r="C111">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D111">
-        <v>-40.37</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>43972</v>
+        <v>44093</v>
       </c>
       <c r="B112">
-        <v>73.47</v>
+        <v>87.05</v>
       </c>
       <c r="C112">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D112">
-        <v>-42.6</v>
+        <v>-29.75</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>43973</v>
+        <v>44094</v>
       </c>
       <c r="B113">
-        <v>121.47</v>
+        <v>86.89</v>
       </c>
       <c r="C113">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D113">
-        <v>-5.11</v>
+        <v>-29.88</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>43974</v>
+        <v>44095</v>
       </c>
       <c r="B114">
-        <v>158.4</v>
+        <v>84.27</v>
       </c>
       <c r="C114">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D114">
-        <v>23.74</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>43975</v>
+        <v>44096</v>
       </c>
       <c r="B115">
-        <v>167.32</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="C115">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D115">
-        <v>30.72</v>
+        <v>-32.67</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>43976</v>
+        <v>44097</v>
       </c>
       <c r="B116">
-        <v>150.76</v>
+        <v>83.17</v>
       </c>
       <c r="C116">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D116">
-        <v>17.78</v>
+        <v>-32.88</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>43977</v>
+        <v>44098</v>
       </c>
       <c r="B117">
-        <v>133.4</v>
+        <v>81.73</v>
       </c>
       <c r="C117">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D117">
-        <v>4.21</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>43978</v>
+        <v>44099</v>
       </c>
       <c r="B118">
-        <v>120.84</v>
+        <v>81.02</v>
       </c>
       <c r="C118">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D118">
-        <v>-5.59</v>
+        <v>-34.62</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>43979</v>
+        <v>44100</v>
       </c>
       <c r="B119">
-        <v>110.6</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C119">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D119">
-        <v>-13.59</v>
+        <v>-34.09</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>43980</v>
+        <v>44101</v>
       </c>
       <c r="B120">
-        <v>104.27</v>
+        <v>79.48</v>
       </c>
       <c r="C120">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D120">
-        <v>-18.54</v>
+        <v>-35.86</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>43981</v>
+        <v>44102</v>
       </c>
       <c r="B121">
-        <v>99.59</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="C121">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D121">
-        <v>-22.19</v>
+        <v>-34.35</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>43982</v>
+        <v>44103</v>
       </c>
       <c r="B122">
-        <v>96.76000000000001</v>
+        <v>86.38</v>
       </c>
       <c r="C122">
-        <v>128</v>
+        <v>123.92</v>
       </c>
       <c r="D122">
-        <v>-24.41</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>43983</v>
+        <v>44104</v>
       </c>
       <c r="B123">
-        <v>94.84999999999999</v>
+        <v>87.86</v>
       </c>
       <c r="C123">
-        <v>138.37</v>
+        <v>123.92</v>
       </c>
       <c r="D123">
-        <v>-31.45</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>43984</v>
+        <v>44105</v>
       </c>
       <c r="B124">
-        <v>93.45</v>
+        <v>84.78</v>
       </c>
       <c r="C124">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D124">
-        <v>-32.47</v>
+        <v>-43.78</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>43985</v>
+        <v>44106</v>
       </c>
       <c r="B125">
-        <v>91.22</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C125">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D125">
-        <v>-34.08</v>
+        <v>-45.69</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>43986</v>
+        <v>44107</v>
       </c>
       <c r="B126">
-        <v>97.05</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="C126">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D126">
-        <v>-29.86</v>
+        <v>-46.33</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>43987</v>
+        <v>44108</v>
       </c>
       <c r="B127">
-        <v>130.35</v>
+        <v>78.66</v>
       </c>
       <c r="C127">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D127">
-        <v>-5.79</v>
+        <v>-47.84</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>43988</v>
+        <v>44109</v>
       </c>
       <c r="B128">
-        <v>155.75</v>
+        <v>77.03</v>
       </c>
       <c r="C128">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D128">
-        <v>12.56</v>
+        <v>-48.92</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>43989</v>
+        <v>44110</v>
       </c>
       <c r="B129">
-        <v>162.36</v>
+        <v>75.28</v>
       </c>
       <c r="C129">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D129">
-        <v>17.34</v>
+        <v>-50.08</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>43990</v>
+        <v>44111</v>
       </c>
       <c r="B130">
-        <v>145.77</v>
+        <v>73.61</v>
       </c>
       <c r="C130">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D130">
-        <v>5.35</v>
+        <v>-51.18</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>43991</v>
+        <v>44112</v>
       </c>
       <c r="B131">
-        <v>149.22</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C131">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D131">
-        <v>7.84</v>
+        <v>-47.23</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>43992</v>
+        <v>44113</v>
       </c>
       <c r="B132">
-        <v>280.96</v>
+        <v>83.61</v>
       </c>
       <c r="C132">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D132">
-        <v>103.05</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>43993</v>
+        <v>44114</v>
       </c>
       <c r="B133">
-        <v>255.56</v>
+        <v>86.2</v>
       </c>
       <c r="C133">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D133">
-        <v>84.69</v>
+        <v>-42.84</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>43994</v>
+        <v>44115</v>
       </c>
       <c r="B134">
-        <v>250.56</v>
+        <v>84.88</v>
       </c>
       <c r="C134">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D134">
-        <v>81.08</v>
+        <v>-43.71</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>43995</v>
+        <v>44116</v>
       </c>
       <c r="B135">
-        <v>222.59</v>
+        <v>82.75</v>
       </c>
       <c r="C135">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D135">
-        <v>60.87</v>
+        <v>-45.12</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>43996</v>
+        <v>44117</v>
       </c>
       <c r="B136">
-        <v>204.24</v>
+        <v>81.17</v>
       </c>
       <c r="C136">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D136">
-        <v>47.6</v>
+        <v>-46.17</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>43997</v>
+        <v>44118</v>
       </c>
       <c r="B137">
-        <v>188.28</v>
+        <v>82.5</v>
       </c>
       <c r="C137">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D137">
-        <v>36.07</v>
+        <v>-45.29</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>43998</v>
+        <v>44119</v>
       </c>
       <c r="B138">
-        <v>174.54</v>
+        <v>84.88</v>
       </c>
       <c r="C138">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D138">
-        <v>26.14</v>
+        <v>-43.71</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>43999</v>
+        <v>44120</v>
       </c>
       <c r="B139">
-        <v>162.07</v>
+        <v>84.42</v>
       </c>
       <c r="C139">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D139">
-        <v>17.13</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44000</v>
+        <v>44121</v>
       </c>
       <c r="B140">
-        <v>152.71</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="C140">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D140">
-        <v>10.36</v>
+        <v>-45.32</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44001</v>
+        <v>44122</v>
       </c>
       <c r="B141">
-        <v>145.79</v>
+        <v>79.84</v>
       </c>
       <c r="C141">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D141">
-        <v>5.36</v>
+        <v>-47.05</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44002</v>
+        <v>44123</v>
       </c>
       <c r="B142">
-        <v>139.61</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="C142">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D142">
-        <v>0.9</v>
+        <v>-47.51</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44003</v>
+        <v>44124</v>
       </c>
       <c r="B143">
-        <v>134.19</v>
+        <v>75.25</v>
       </c>
       <c r="C143">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D143">
-        <v>-3.02</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44004</v>
+        <v>44125</v>
       </c>
       <c r="B144">
-        <v>129.51</v>
+        <v>73.7</v>
       </c>
       <c r="C144">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D144">
-        <v>-6.4</v>
+        <v>-51.13</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44005</v>
+        <v>44126</v>
       </c>
       <c r="B145">
-        <v>125.72</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="C145">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D145">
-        <v>-9.140000000000001</v>
+        <v>-51.42</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44006</v>
+        <v>44127</v>
       </c>
       <c r="B146">
-        <v>122.71</v>
+        <v>74.41</v>
       </c>
       <c r="C146">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D146">
-        <v>-11.32</v>
+        <v>-50.66</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44007</v>
+        <v>44128</v>
       </c>
       <c r="B147">
-        <v>120.06</v>
+        <v>72.58</v>
       </c>
       <c r="C147">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D147">
-        <v>-13.23</v>
+        <v>-51.87</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44008</v>
+        <v>44129</v>
       </c>
       <c r="B148">
-        <v>123.74</v>
+        <v>71.72</v>
       </c>
       <c r="C148">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D148">
-        <v>-10.57</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44009</v>
+        <v>44130</v>
       </c>
       <c r="B149">
-        <v>124.93</v>
+        <v>71.03</v>
       </c>
       <c r="C149">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D149">
-        <v>-9.720000000000001</v>
+        <v>-52.89</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44010</v>
+        <v>44131</v>
       </c>
       <c r="B150">
-        <v>122.84</v>
+        <v>72.92</v>
       </c>
       <c r="C150">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D150">
-        <v>-11.22</v>
+        <v>-51.64</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44011</v>
+        <v>44132</v>
       </c>
       <c r="B151">
-        <v>119.72</v>
+        <v>69.98</v>
       </c>
       <c r="C151">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D151">
-        <v>-13.48</v>
+        <v>-53.59</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44012</v>
+        <v>44133</v>
       </c>
       <c r="B152">
-        <v>120.27</v>
+        <v>71.72</v>
       </c>
       <c r="C152">
-        <v>138.37</v>
+        <v>150.79</v>
       </c>
       <c r="D152">
-        <v>-13.08</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44013</v>
+        <v>44134</v>
       </c>
       <c r="B153">
-        <v>139.58</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C153">
-        <v>131.62</v>
+        <v>150.79</v>
       </c>
       <c r="D153">
-        <v>6.05</v>
+        <v>-53.57</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44014</v>
+        <v>44135</v>
       </c>
       <c r="B154">
-        <v>157.79</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C154">
-        <v>131.62</v>
+        <v>150.79</v>
       </c>
       <c r="D154">
-        <v>19.88</v>
+        <v>-53.07</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44015</v>
+        <v>44136</v>
       </c>
       <c r="B155">
-        <v>145.82</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C155">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D155">
-        <v>10.79</v>
+        <v>-50.17</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44016</v>
+        <v>44137</v>
       </c>
       <c r="B156">
-        <v>135.96</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C156">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D156">
-        <v>3.29</v>
+        <v>-50.68</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44017</v>
+        <v>44138</v>
       </c>
       <c r="B157">
-        <v>127.46</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="C157">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D157">
-        <v>-3.16</v>
+        <v>-50.47</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44018</v>
+        <v>44139</v>
       </c>
       <c r="B158">
-        <v>122.11</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C158">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D158">
-        <v>-7.22</v>
+        <v>-50.37</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44019</v>
+        <v>44140</v>
       </c>
       <c r="B159">
-        <v>124.35</v>
+        <v>67.7</v>
       </c>
       <c r="C159">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D159">
-        <v>-5.52</v>
+        <v>-51.86</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44020</v>
+        <v>44141</v>
       </c>
       <c r="B160">
-        <v>141.34</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C160">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D160">
-        <v>7.39</v>
+        <v>-52.07</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44021</v>
+        <v>44142</v>
       </c>
       <c r="B161">
-        <v>161.7</v>
+        <v>66.06</v>
       </c>
       <c r="C161">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D161">
-        <v>22.85</v>
+        <v>-53.02</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44022</v>
+        <v>44143</v>
       </c>
       <c r="B162">
-        <v>168.71</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C162">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D162">
-        <v>28.18</v>
+        <v>-53.45</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44023</v>
+        <v>44144</v>
       </c>
       <c r="B163">
-        <v>155.47</v>
+        <v>68.44</v>
       </c>
       <c r="C163">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D163">
-        <v>18.12</v>
+        <v>-51.33</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44024</v>
+        <v>44145</v>
       </c>
       <c r="B164">
-        <v>145.78</v>
+        <v>66.91</v>
       </c>
       <c r="C164">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D164">
-        <v>10.76</v>
+        <v>-52.42</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44025</v>
+        <v>44146</v>
       </c>
       <c r="B165">
-        <v>139.44</v>
+        <v>68.06</v>
       </c>
       <c r="C165">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D165">
-        <v>5.94</v>
+        <v>-51.6</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44026</v>
+        <v>44147</v>
       </c>
       <c r="B166">
-        <v>134.04</v>
+        <v>70.59</v>
       </c>
       <c r="C166">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D166">
-        <v>1.84</v>
+        <v>-49.8</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44027</v>
+        <v>44148</v>
       </c>
       <c r="B167">
-        <v>129.23</v>
+        <v>70.69</v>
       </c>
       <c r="C167">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D167">
-        <v>-1.82</v>
+        <v>-49.73</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44028</v>
+        <v>44149</v>
       </c>
       <c r="B168">
-        <v>124.51</v>
+        <v>72.23</v>
       </c>
       <c r="C168">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D168">
-        <v>-5.4</v>
+        <v>-48.64</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44029</v>
+        <v>44150</v>
       </c>
       <c r="B169">
-        <v>121.2</v>
+        <v>73.11</v>
       </c>
       <c r="C169">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D169">
-        <v>-7.92</v>
+        <v>-48.01</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44030</v>
+        <v>44151</v>
       </c>
       <c r="B170">
-        <v>119</v>
+        <v>73.64</v>
       </c>
       <c r="C170">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D170">
-        <v>-9.59</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44031</v>
+        <v>44152</v>
       </c>
       <c r="B171">
-        <v>115.81</v>
+        <v>74.59</v>
       </c>
       <c r="C171">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D171">
-        <v>-12.01</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44032</v>
+        <v>44153</v>
       </c>
       <c r="B172">
-        <v>113.72</v>
+        <v>78.14</v>
       </c>
       <c r="C172">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D172">
-        <v>-13.6</v>
+        <v>-44.44</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44033</v>
+        <v>44154</v>
       </c>
       <c r="B173">
-        <v>111.56</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="C173">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D173">
-        <v>-15.24</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44034</v>
+        <v>44155</v>
       </c>
       <c r="B174">
-        <v>110.03</v>
+        <v>74.98</v>
       </c>
       <c r="C174">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D174">
-        <v>-16.4</v>
+        <v>-46.68</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44035</v>
+        <v>44156</v>
       </c>
       <c r="B175">
-        <v>108.77</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="C175">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D175">
-        <v>-17.36</v>
+        <v>-48.63</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44036</v>
+        <v>44157</v>
       </c>
       <c r="B176">
-        <v>106.08</v>
+        <v>70.88</v>
       </c>
       <c r="C176">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D176">
-        <v>-19.4</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44037</v>
+        <v>44158</v>
       </c>
       <c r="B177">
-        <v>104.48</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="C177">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D177">
-        <v>-20.62</v>
+        <v>-48.39</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44038</v>
+        <v>44159</v>
       </c>
       <c r="B178">
-        <v>104.69</v>
+        <v>72.47</v>
       </c>
       <c r="C178">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D178">
-        <v>-20.46</v>
+        <v>-48.46</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44039</v>
+        <v>44160</v>
       </c>
       <c r="B179">
-        <v>103.12</v>
+        <v>68.83</v>
       </c>
       <c r="C179">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D179">
-        <v>-21.65</v>
+        <v>-51.05</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44040</v>
+        <v>44161</v>
       </c>
       <c r="B180">
-        <v>101.46</v>
+        <v>65.81</v>
       </c>
       <c r="C180">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D180">
-        <v>-22.92</v>
+        <v>-53.2</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44041</v>
+        <v>44162</v>
       </c>
       <c r="B181">
-        <v>101.3</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C181">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D181">
-        <v>-23.04</v>
+        <v>-52.05</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44042</v>
+        <v>44163</v>
       </c>
       <c r="B182">
-        <v>106.25</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="C182">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D182">
-        <v>-19.28</v>
+        <v>-51.75</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44043</v>
+        <v>44164</v>
       </c>
       <c r="B183">
-        <v>105.6</v>
+        <v>66.41</v>
       </c>
       <c r="C183">
-        <v>131.62</v>
+        <v>140.62</v>
       </c>
       <c r="D183">
-        <v>-19.77</v>
+        <v>-52.78</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44044</v>
+        <v>44165</v>
       </c>
       <c r="B184">
-        <v>100.94</v>
+        <v>74.45</v>
       </c>
       <c r="C184">
-        <v>118.73</v>
+        <v>140.62</v>
       </c>
       <c r="D184">
-        <v>-14.99</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44045</v>
+        <v>44166</v>
       </c>
       <c r="B185">
-        <v>100.17</v>
+        <v>77.95</v>
       </c>
       <c r="C185">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D185">
-        <v>-15.64</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44046</v>
+        <v>44167</v>
       </c>
       <c r="B186">
-        <v>97.37</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="C186">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D186">
-        <v>-18</v>
+        <v>-35.21</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44047</v>
+        <v>44168</v>
       </c>
       <c r="B187">
-        <v>96.39</v>
+        <v>99.06</v>
       </c>
       <c r="C187">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D187">
-        <v>-18.82</v>
+        <v>-18.57</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44048</v>
+        <v>44169</v>
       </c>
       <c r="B188">
-        <v>93.48</v>
+        <v>116.44</v>
       </c>
       <c r="C188">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D188">
-        <v>-21.26</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44049</v>
+        <v>44170</v>
       </c>
       <c r="B189">
-        <v>91.01000000000001</v>
+        <v>125.54</v>
       </c>
       <c r="C189">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D189">
-        <v>-23.35</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44050</v>
+        <v>44171</v>
       </c>
       <c r="B190">
-        <v>92.81</v>
+        <v>142.73</v>
       </c>
       <c r="C190">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D190">
-        <v>-21.83</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44051</v>
+        <v>44172</v>
       </c>
       <c r="B191">
-        <v>92.11</v>
+        <v>134.19</v>
       </c>
       <c r="C191">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D191">
-        <v>-22.42</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44052</v>
+        <v>44173</v>
       </c>
       <c r="B192">
-        <v>90.12</v>
+        <v>121.62</v>
       </c>
       <c r="C192">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D192">
-        <v>-24.09</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44053</v>
+        <v>44174</v>
       </c>
       <c r="B193">
-        <v>89.51000000000001</v>
+        <v>114.09</v>
       </c>
       <c r="C193">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D193">
-        <v>-24.61</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44054</v>
+        <v>44175</v>
       </c>
       <c r="B194">
-        <v>87.06</v>
+        <v>106.4</v>
       </c>
       <c r="C194">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D194">
-        <v>-26.67</v>
+        <v>-12.54</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44055</v>
+        <v>44176</v>
       </c>
       <c r="B195">
-        <v>89.5</v>
+        <v>100.42</v>
       </c>
       <c r="C195">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D195">
-        <v>-24.62</v>
+        <v>-17.46</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44056</v>
+        <v>44177</v>
       </c>
       <c r="B196">
-        <v>103.19</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="C196">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D196">
-        <v>-13.09</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44057</v>
+        <v>44178</v>
       </c>
       <c r="B197">
-        <v>126.78</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C197">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D197">
-        <v>6.78</v>
+        <v>-24.05</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44058</v>
+        <v>44179</v>
       </c>
       <c r="B198">
-        <v>130.44</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C198">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D198">
-        <v>9.859999999999999</v>
+        <v>-24.23</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44059</v>
+        <v>44180</v>
       </c>
       <c r="B199">
-        <v>147.31</v>
+        <v>90.59</v>
       </c>
       <c r="C199">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D199">
-        <v>24.07</v>
+        <v>-25.53</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44060</v>
+        <v>44181</v>
       </c>
       <c r="B200">
-        <v>153.32</v>
+        <v>90.69</v>
       </c>
       <c r="C200">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D200">
-        <v>29.13</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44061</v>
+        <v>44182</v>
       </c>
       <c r="B201">
-        <v>161.42</v>
+        <v>91.47</v>
       </c>
       <c r="C201">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D201">
-        <v>35.95</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44062</v>
+        <v>44183</v>
       </c>
       <c r="B202">
-        <v>178.33</v>
+        <v>93.12</v>
       </c>
       <c r="C202">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D202">
-        <v>50.2</v>
+        <v>-23.45</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44063</v>
+        <v>44184</v>
       </c>
       <c r="B203">
-        <v>183.23</v>
+        <v>90.66</v>
       </c>
       <c r="C203">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D203">
-        <v>54.32</v>
+        <v>-25.48</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44064</v>
+        <v>44185</v>
       </c>
       <c r="B204">
-        <v>174.01</v>
+        <v>89.34</v>
       </c>
       <c r="C204">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D204">
-        <v>46.56</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44065</v>
+        <v>44186</v>
       </c>
       <c r="B205">
-        <v>157.53</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="C205">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D205">
-        <v>32.68</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44066</v>
+        <v>44187</v>
       </c>
       <c r="B206">
-        <v>144.66</v>
+        <v>143.66</v>
       </c>
       <c r="C206">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D206">
-        <v>21.83</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44067</v>
+        <v>44188</v>
       </c>
       <c r="B207">
-        <v>135</v>
+        <v>167.78</v>
       </c>
       <c r="C207">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D207">
-        <v>13.7</v>
+        <v>37.91</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44068</v>
+        <v>44189</v>
       </c>
       <c r="B208">
-        <v>127.99</v>
+        <v>134.15</v>
       </c>
       <c r="C208">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D208">
-        <v>7.8</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44069</v>
+        <v>44190</v>
       </c>
       <c r="B209">
-        <v>123.23</v>
+        <v>118.24</v>
       </c>
       <c r="C209">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D209">
-        <v>3.79</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44070</v>
+        <v>44191</v>
       </c>
       <c r="B210">
-        <v>118.66</v>
+        <v>108.11</v>
       </c>
       <c r="C210">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D210">
-        <v>-0.06</v>
+        <v>-11.13</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44071</v>
+        <v>44192</v>
       </c>
       <c r="B211">
-        <v>115.66</v>
+        <v>101.25</v>
       </c>
       <c r="C211">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D211">
-        <v>-2.59</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44072</v>
+        <v>44193</v>
       </c>
       <c r="B212">
-        <v>112.79</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="C212">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D212">
-        <v>-5</v>
+        <v>-20.05</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44073</v>
+        <v>44194</v>
       </c>
       <c r="B213">
-        <v>108.73</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="C213">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D213">
-        <v>-8.42</v>
+        <v>-22.77</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44074</v>
+        <v>44195</v>
       </c>
       <c r="B214">
-        <v>106.92</v>
+        <v>97.34</v>
       </c>
       <c r="C214">
-        <v>118.73</v>
+        <v>121.66</v>
       </c>
       <c r="D214">
-        <v>-9.949999999999999</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44075</v>
+        <v>44196</v>
       </c>
       <c r="B215">
-        <v>105.34</v>
+        <v>104.28</v>
       </c>
       <c r="C215">
-        <v>123.92</v>
+        <v>121.66</v>
       </c>
       <c r="D215">
-        <v>-14.99</v>
+        <v>-14.28</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44076</v>
+        <v>44197</v>
       </c>
       <c r="B216">
-        <v>102.17</v>
+        <v>99.16</v>
       </c>
       <c r="C216">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D216">
-        <v>-17.55</v>
+        <v>-13.57</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44077</v>
+        <v>44198</v>
       </c>
       <c r="B217">
-        <v>102.73</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="C217">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D217">
-        <v>-17.1</v>
+        <v>-15.41</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44078</v>
+        <v>44199</v>
       </c>
       <c r="B218">
-        <v>101.86</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C218">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D218">
-        <v>-17.8</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44079</v>
+        <v>44200</v>
       </c>
       <c r="B219">
-        <v>97.95</v>
+        <v>98.12</v>
       </c>
       <c r="C219">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D219">
-        <v>-20.96</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44080</v>
+        <v>44201</v>
       </c>
       <c r="B220">
-        <v>98.45999999999999</v>
+        <v>95.66</v>
       </c>
       <c r="C220">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D220">
-        <v>-20.54</v>
+        <v>-16.62</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44081</v>
+        <v>44202</v>
       </c>
       <c r="B221">
-        <v>96.01000000000001</v>
+        <v>100.31</v>
       </c>
       <c r="C221">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D221">
-        <v>-22.52</v>
+        <v>-12.56</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44082</v>
+        <v>44203</v>
       </c>
       <c r="B222">
-        <v>96.89</v>
+        <v>101.52</v>
       </c>
       <c r="C222">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D222">
-        <v>-21.81</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44083</v>
+        <v>44204</v>
       </c>
       <c r="B223">
-        <v>94.87</v>
+        <v>105.19</v>
       </c>
       <c r="C223">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D223">
-        <v>-23.44</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44084</v>
+        <v>44205</v>
       </c>
       <c r="B224">
-        <v>93.63</v>
+        <v>107.33</v>
       </c>
       <c r="C224">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D224">
-        <v>-24.44</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44085</v>
+        <v>44206</v>
       </c>
       <c r="B225">
-        <v>92.72</v>
+        <v>101.44</v>
       </c>
       <c r="C225">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D225">
-        <v>-25.18</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44086</v>
+        <v>44207</v>
       </c>
       <c r="B226">
-        <v>93.17</v>
+        <v>96.28</v>
       </c>
       <c r="C226">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D226">
-        <v>-24.81</v>
+        <v>-16.07</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44087</v>
+        <v>44208</v>
       </c>
       <c r="B227">
-        <v>90.61</v>
+        <v>101.62</v>
       </c>
       <c r="C227">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D227">
-        <v>-26.87</v>
+        <v>-11.41</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44088</v>
+        <v>44209</v>
       </c>
       <c r="B228">
-        <v>89.31999999999999</v>
+        <v>102.96</v>
       </c>
       <c r="C228">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D228">
-        <v>-27.92</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44089</v>
+        <v>44210</v>
       </c>
       <c r="B229">
-        <v>89.72</v>
+        <v>96.89</v>
       </c>
       <c r="C229">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D229">
-        <v>-27.6</v>
+        <v>-15.55</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44090</v>
+        <v>44211</v>
       </c>
       <c r="B230">
-        <v>88.73</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="C230">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D230">
-        <v>-28.39</v>
+        <v>-16.01</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44091</v>
+        <v>44212</v>
       </c>
       <c r="B231">
-        <v>87.95999999999999</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C231">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D231">
-        <v>-29.01</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44092</v>
+        <v>44213</v>
       </c>
       <c r="B232">
-        <v>85.38</v>
+        <v>94.72</v>
       </c>
       <c r="C232">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D232">
-        <v>-31.1</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44093</v>
+        <v>44214</v>
       </c>
       <c r="B233">
-        <v>87.05</v>
+        <v>98.83</v>
       </c>
       <c r="C233">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D233">
-        <v>-29.75</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44094</v>
+        <v>44215</v>
       </c>
       <c r="B234">
-        <v>86.89</v>
+        <v>107.27</v>
       </c>
       <c r="C234">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D234">
-        <v>-29.88</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44095</v>
+        <v>44216</v>
       </c>
       <c r="B235">
-        <v>84.27</v>
+        <v>117.28</v>
       </c>
       <c r="C235">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D235">
-        <v>-32</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44096</v>
+        <v>44217</v>
       </c>
       <c r="B236">
-        <v>83.43000000000001</v>
+        <v>138.02</v>
       </c>
       <c r="C236">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D236">
-        <v>-32.67</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44097</v>
+        <v>44218</v>
       </c>
       <c r="B237">
-        <v>83.17</v>
+        <v>146.55</v>
       </c>
       <c r="C237">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D237">
-        <v>-32.88</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44098</v>
+        <v>44219</v>
       </c>
       <c r="B238">
-        <v>81.73</v>
+        <v>152.69</v>
       </c>
       <c r="C238">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D238">
-        <v>-34.04</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44099</v>
+        <v>44220</v>
       </c>
       <c r="B239">
-        <v>81.02</v>
+        <v>170.98</v>
       </c>
       <c r="C239">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D239">
-        <v>-34.62</v>
+        <v>49.04</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44100</v>
+        <v>44221</v>
       </c>
       <c r="B240">
-        <v>81.68000000000001</v>
+        <v>196.91</v>
       </c>
       <c r="C240">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D240">
-        <v>-34.09</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44101</v>
+        <v>44222</v>
       </c>
       <c r="B241">
-        <v>79.48</v>
+        <v>271.82</v>
       </c>
       <c r="C241">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D241">
-        <v>-35.86</v>
+        <v>136.95</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44102</v>
+        <v>44223</v>
       </c>
       <c r="B242">
-        <v>81.34999999999999</v>
+        <v>263.88</v>
       </c>
       <c r="C242">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D242">
-        <v>-34.35</v>
+        <v>130.02</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44103</v>
+        <v>44224</v>
       </c>
       <c r="B243">
-        <v>86.38</v>
+        <v>219.91</v>
       </c>
       <c r="C243">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D243">
-        <v>-30.3</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44104</v>
+        <v>44225</v>
       </c>
       <c r="B244">
-        <v>87.86</v>
+        <v>233.49</v>
       </c>
       <c r="C244">
-        <v>123.92</v>
+        <v>114.72</v>
       </c>
       <c r="D244">
-        <v>-29.09</v>
+        <v>103.54</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44105</v>
+        <v>44226</v>
       </c>
       <c r="B245">
-        <v>84.78</v>
+        <v>315.97</v>
       </c>
       <c r="C245">
-        <v>150.79</v>
+        <v>114.72</v>
       </c>
       <c r="D245">
-        <v>-43.78</v>
+        <v>175.43</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44106</v>
+        <v>44227</v>
       </c>
       <c r="B246">
-        <v>81.90000000000001</v>
+        <v>323.51</v>
       </c>
       <c r="C246">
-        <v>150.79</v>
+        <v>114.72</v>
       </c>
       <c r="D246">
-        <v>-45.69</v>
+        <v>182</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44107</v>
+        <v>44228</v>
       </c>
       <c r="B247">
-        <v>80.93000000000001</v>
+        <v>304.64</v>
       </c>
       <c r="C247">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D247">
-        <v>-46.33</v>
+        <v>163.05</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44108</v>
+        <v>44229</v>
       </c>
       <c r="B248">
-        <v>78.66</v>
+        <v>279.2</v>
       </c>
       <c r="C248">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D248">
-        <v>-47.84</v>
+        <v>141.08</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44109</v>
+        <v>44230</v>
       </c>
       <c r="B249">
-        <v>77.03</v>
+        <v>241.17</v>
       </c>
       <c r="C249">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D249">
-        <v>-48.92</v>
+        <v>108.24</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44110</v>
+        <v>44231</v>
       </c>
       <c r="B250">
-        <v>75.28</v>
+        <v>217.73</v>
       </c>
       <c r="C250">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D250">
-        <v>-50.08</v>
+        <v>88.01000000000001</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44111</v>
+        <v>44232</v>
       </c>
       <c r="B251">
-        <v>73.61</v>
+        <v>201.85</v>
       </c>
       <c r="C251">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D251">
-        <v>-51.18</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44112</v>
+        <v>44233</v>
       </c>
       <c r="B252">
-        <v>79.56999999999999</v>
+        <v>187.12</v>
       </c>
       <c r="C252">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D252">
-        <v>-47.23</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44113</v>
+        <v>44234</v>
       </c>
       <c r="B253">
-        <v>83.61</v>
+        <v>176.22</v>
       </c>
       <c r="C253">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D253">
-        <v>-44.55</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44114</v>
+        <v>44235</v>
       </c>
       <c r="B254">
-        <v>86.2</v>
+        <v>167.47</v>
       </c>
       <c r="C254">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D254">
-        <v>-42.84</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44115</v>
+        <v>44236</v>
       </c>
       <c r="B255">
-        <v>84.88</v>
+        <v>158.85</v>
       </c>
       <c r="C255">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D255">
-        <v>-43.71</v>
+        <v>37.17</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44116</v>
+        <v>44237</v>
       </c>
       <c r="B256">
-        <v>82.75</v>
+        <v>149.56</v>
       </c>
       <c r="C256">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D256">
-        <v>-45.12</v>
+        <v>29.14</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44117</v>
+        <v>44238</v>
       </c>
       <c r="B257">
-        <v>81.17</v>
+        <v>148.33</v>
       </c>
       <c r="C257">
-        <v>150.79</v>
+        <v>115.81</v>
       </c>
       <c r="D257">
-        <v>-46.17</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44118</v>
-      </c>
-      <c r="B258">
-        <v>82.5</v>
+        <v>44239</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
       </c>
       <c r="C258">
-        <v>150.79</v>
-      </c>
-      <c r="D258">
-        <v>-45.29</v>
+        <v>115.81</v>
+      </c>
+      <c r="D258" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44119</v>
-      </c>
-      <c r="B259">
-        <v>84.88</v>
+        <v>44240</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
       </c>
       <c r="C259">
-        <v>150.79</v>
-      </c>
-      <c r="D259">
-        <v>-43.71</v>
+        <v>115.81</v>
+      </c>
+      <c r="D259" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44120</v>
-      </c>
-      <c r="B260">
-        <v>84.42</v>
+        <v>44241</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
       </c>
       <c r="C260">
-        <v>150.79</v>
-      </c>
-      <c r="D260">
-        <v>-44.02</v>
+        <v>115.81</v>
+      </c>
+      <c r="D260" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44121</v>
-      </c>
-      <c r="B261">
-        <v>82.45999999999999</v>
+        <v>44242</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
       </c>
       <c r="C261">
-        <v>150.79</v>
-      </c>
-      <c r="D261">
-        <v>-45.32</v>
+        <v>115.81</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44122</v>
-      </c>
-      <c r="B262">
-        <v>79.84</v>
+        <v>44243</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
       </c>
       <c r="C262">
-        <v>150.79</v>
-      </c>
-      <c r="D262">
-        <v>-47.05</v>
+        <v>115.81</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44123</v>
-      </c>
-      <c r="B263">
-        <v>79.15000000000001</v>
+        <v>44244</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
       </c>
       <c r="C263">
-        <v>150.79</v>
-      </c>
-      <c r="D263">
-        <v>-47.51</v>
+        <v>115.81</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44124</v>
-      </c>
-      <c r="B264">
-        <v>75.25</v>
+        <v>44245</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
       </c>
       <c r="C264">
-        <v>150.79</v>
-      </c>
-      <c r="D264">
-        <v>-50.1</v>
+        <v>115.81</v>
+      </c>
+      <c r="D264" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44125</v>
-      </c>
-      <c r="B265">
-        <v>73.7</v>
+        <v>44246</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
       </c>
       <c r="C265">
-        <v>150.79</v>
-      </c>
-      <c r="D265">
-        <v>-51.13</v>
+        <v>115.81</v>
+      </c>
+      <c r="D265" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44126</v>
-      </c>
-      <c r="B266">
-        <v>73.26000000000001</v>
+        <v>44247</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
       </c>
       <c r="C266">
-        <v>150.79</v>
-      </c>
-      <c r="D266">
-        <v>-51.42</v>
+        <v>115.81</v>
+      </c>
+      <c r="D266" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44127</v>
-      </c>
-      <c r="B267">
-        <v>74.41</v>
+        <v>44248</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
       </c>
       <c r="C267">
-        <v>150.79</v>
-      </c>
-      <c r="D267">
-        <v>-50.66</v>
+        <v>115.81</v>
+      </c>
+      <c r="D267" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44128</v>
-      </c>
-      <c r="B268">
-        <v>72.58</v>
+        <v>44249</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
       </c>
       <c r="C268">
-        <v>150.79</v>
-      </c>
-      <c r="D268">
-        <v>-51.87</v>
+        <v>115.81</v>
+      </c>
+      <c r="D268" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44129</v>
-      </c>
-      <c r="B269">
-        <v>71.72</v>
+        <v>44250</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
       </c>
       <c r="C269">
-        <v>150.79</v>
-      </c>
-      <c r="D269">
-        <v>-52.44</v>
+        <v>115.81</v>
+      </c>
+      <c r="D269" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44130</v>
-      </c>
-      <c r="B270">
-        <v>71.03</v>
+        <v>44251</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
       </c>
       <c r="C270">
-        <v>150.79</v>
-      </c>
-      <c r="D270">
-        <v>-52.89</v>
+        <v>115.81</v>
+      </c>
+      <c r="D270" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44131</v>
-      </c>
-      <c r="B271">
-        <v>72.92</v>
+        <v>44252</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
       </c>
       <c r="C271">
-        <v>150.79</v>
-      </c>
-      <c r="D271">
-        <v>-51.64</v>
+        <v>115.81</v>
+      </c>
+      <c r="D271" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44132</v>
-      </c>
-      <c r="B272">
-        <v>69.98</v>
+        <v>44253</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
       </c>
       <c r="C272">
-        <v>150.79</v>
-      </c>
-      <c r="D272">
-        <v>-53.59</v>
+        <v>115.81</v>
+      </c>
+      <c r="D272" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44133</v>
-      </c>
-      <c r="B273">
-        <v>71.72</v>
+        <v>44254</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
       </c>
       <c r="C273">
-        <v>150.79</v>
-      </c>
-      <c r="D273">
-        <v>-52.44</v>
+        <v>115.81</v>
+      </c>
+      <c r="D273" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44134</v>
-      </c>
-      <c r="B274">
-        <v>70.01000000000001</v>
+        <v>44255</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
       </c>
       <c r="C274">
-        <v>150.79</v>
-      </c>
-      <c r="D274">
-        <v>-53.57</v>
+        <v>115.81</v>
+      </c>
+      <c r="D274" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44135</v>
-      </c>
-      <c r="B275">
-        <v>70.76000000000001</v>
+        <v>44256</v>
+      </c>
+      <c r="B275" t="s">
+        <v>4</v>
       </c>
       <c r="C275">
-        <v>150.79</v>
-      </c>
-      <c r="D275">
-        <v>-53.07</v>
+        <v>107.27</v>
+      </c>
+      <c r="D275" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44136</v>
-      </c>
-      <c r="B276">
-        <v>70.06999999999999</v>
+        <v>44257</v>
+      </c>
+      <c r="B276" t="s">
+        <v>4</v>
       </c>
       <c r="C276">
-        <v>140.62</v>
-      </c>
-      <c r="D276">
-        <v>-50.17</v>
+        <v>107.27</v>
+      </c>
+      <c r="D276" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44137</v>
-      </c>
-      <c r="B277">
-        <v>69.34999999999999</v>
+        <v>44258</v>
+      </c>
+      <c r="B277" t="s">
+        <v>4</v>
       </c>
       <c r="C277">
-        <v>140.62</v>
-      </c>
-      <c r="D277">
-        <v>-50.68</v>
+        <v>107.27</v>
+      </c>
+      <c r="D277" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44138</v>
-      </c>
-      <c r="B278">
-        <v>69.65000000000001</v>
+        <v>44259</v>
+      </c>
+      <c r="B278" t="s">
+        <v>4</v>
       </c>
       <c r="C278">
-        <v>140.62</v>
-      </c>
-      <c r="D278">
-        <v>-50.47</v>
+        <v>107.27</v>
+      </c>
+      <c r="D278" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44139</v>
-      </c>
-      <c r="B279">
-        <v>69.79000000000001</v>
+        <v>44260</v>
+      </c>
+      <c r="B279" t="s">
+        <v>4</v>
       </c>
       <c r="C279">
-        <v>140.62</v>
-      </c>
-      <c r="D279">
-        <v>-50.37</v>
+        <v>107.27</v>
+      </c>
+      <c r="D279" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44140</v>
-      </c>
-      <c r="B280">
-        <v>67.7</v>
+        <v>44261</v>
+      </c>
+      <c r="B280" t="s">
+        <v>4</v>
       </c>
       <c r="C280">
-        <v>140.62</v>
-      </c>
-      <c r="D280">
-        <v>-51.86</v>
+        <v>107.27</v>
+      </c>
+      <c r="D280" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44141</v>
-      </c>
-      <c r="B281">
-        <v>67.40000000000001</v>
+        <v>44262</v>
+      </c>
+      <c r="B281" t="s">
+        <v>4</v>
       </c>
       <c r="C281">
-        <v>140.62</v>
-      </c>
-      <c r="D281">
-        <v>-52.07</v>
+        <v>107.27</v>
+      </c>
+      <c r="D281" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44142</v>
-      </c>
-      <c r="B282">
-        <v>66.06</v>
+        <v>44263</v>
+      </c>
+      <c r="B282" t="s">
+        <v>4</v>
       </c>
       <c r="C282">
-        <v>140.62</v>
-      </c>
-      <c r="D282">
-        <v>-53.02</v>
+        <v>107.27</v>
+      </c>
+      <c r="D282" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44143</v>
-      </c>
-      <c r="B283">
-        <v>65.45999999999999</v>
+        <v>44264</v>
+      </c>
+      <c r="B283" t="s">
+        <v>4</v>
       </c>
       <c r="C283">
-        <v>140.62</v>
-      </c>
-      <c r="D283">
-        <v>-53.45</v>
+        <v>107.27</v>
+      </c>
+      <c r="D283" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44144</v>
-      </c>
-      <c r="B284">
-        <v>68.44</v>
+        <v>44265</v>
+      </c>
+      <c r="B284" t="s">
+        <v>4</v>
       </c>
       <c r="C284">
-        <v>140.62</v>
-      </c>
-      <c r="D284">
-        <v>-51.33</v>
+        <v>107.27</v>
+      </c>
+      <c r="D284" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44145</v>
-      </c>
-      <c r="B285">
-        <v>66.91</v>
+        <v>44266</v>
+      </c>
+      <c r="B285" t="s">
+        <v>4</v>
       </c>
       <c r="C285">
-        <v>140.62</v>
-      </c>
-      <c r="D285">
-        <v>-52.42</v>
+        <v>107.27</v>
+      </c>
+      <c r="D285" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44146</v>
-      </c>
-      <c r="B286">
-        <v>68.06</v>
+        <v>44267</v>
+      </c>
+      <c r="B286" t="s">
+        <v>4</v>
       </c>
       <c r="C286">
-        <v>140.62</v>
-      </c>
-      <c r="D286">
-        <v>-51.6</v>
+        <v>107.27</v>
+      </c>
+      <c r="D286" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44147</v>
-      </c>
-      <c r="B287">
-        <v>70.59</v>
+        <v>44268</v>
+      </c>
+      <c r="B287" t="s">
+        <v>4</v>
       </c>
       <c r="C287">
-        <v>140.62</v>
-      </c>
-      <c r="D287">
-        <v>-49.8</v>
+        <v>107.27</v>
+      </c>
+      <c r="D287" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44148</v>
-      </c>
-      <c r="B288">
-        <v>70.69</v>
+        <v>44269</v>
+      </c>
+      <c r="B288" t="s">
+        <v>4</v>
       </c>
       <c r="C288">
-        <v>140.62</v>
-      </c>
-      <c r="D288">
-        <v>-49.73</v>
+        <v>107.27</v>
+      </c>
+      <c r="D288" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44149</v>
-      </c>
-      <c r="B289">
-        <v>72.23</v>
+        <v>44270</v>
+      </c>
+      <c r="B289" t="s">
+        <v>4</v>
       </c>
       <c r="C289">
-        <v>140.62</v>
-      </c>
-      <c r="D289">
-        <v>-48.64</v>
+        <v>107.27</v>
+      </c>
+      <c r="D289" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44150</v>
-      </c>
-      <c r="B290">
-        <v>73.11</v>
+        <v>44271</v>
+      </c>
+      <c r="B290" t="s">
+        <v>4</v>
       </c>
       <c r="C290">
-        <v>140.62</v>
-      </c>
-      <c r="D290">
-        <v>-48.01</v>
+        <v>107.27</v>
+      </c>
+      <c r="D290" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44151</v>
-      </c>
-      <c r="B291">
-        <v>73.64</v>
+        <v>44272</v>
+      </c>
+      <c r="B291" t="s">
+        <v>4</v>
       </c>
       <c r="C291">
-        <v>140.62</v>
-      </c>
-      <c r="D291">
-        <v>-47.64</v>
+        <v>107.27</v>
+      </c>
+      <c r="D291" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44152</v>
-      </c>
-      <c r="B292">
-        <v>74.59</v>
+        <v>44273</v>
+      </c>
+      <c r="B292" t="s">
+        <v>4</v>
       </c>
       <c r="C292">
-        <v>140.62</v>
-      </c>
-      <c r="D292">
-        <v>-46.96</v>
+        <v>107.27</v>
+      </c>
+      <c r="D292" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44153</v>
-      </c>
-      <c r="B293">
-        <v>78.14</v>
+        <v>44274</v>
+      </c>
+      <c r="B293" t="s">
+        <v>4</v>
       </c>
       <c r="C293">
-        <v>140.62</v>
-      </c>
-      <c r="D293">
-        <v>-44.44</v>
+        <v>107.27</v>
+      </c>
+      <c r="D293" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44154</v>
-      </c>
-      <c r="B294">
-        <v>77.68000000000001</v>
+        <v>44275</v>
+      </c>
+      <c r="B294" t="s">
+        <v>4</v>
       </c>
       <c r="C294">
-        <v>140.62</v>
-      </c>
-      <c r="D294">
-        <v>-44.76</v>
+        <v>107.27</v>
+      </c>
+      <c r="D294" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44155</v>
-      </c>
-      <c r="B295">
-        <v>74.98</v>
+        <v>44276</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
       </c>
       <c r="C295">
-        <v>140.62</v>
-      </c>
-      <c r="D295">
-        <v>-46.68</v>
+        <v>107.27</v>
+      </c>
+      <c r="D295" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44156</v>
-      </c>
-      <c r="B296">
-        <v>72.23999999999999</v>
+        <v>44277</v>
+      </c>
+      <c r="B296" t="s">
+        <v>4</v>
       </c>
       <c r="C296">
-        <v>140.62</v>
-      </c>
-      <c r="D296">
-        <v>-48.63</v>
+        <v>107.27</v>
+      </c>
+      <c r="D296" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44157</v>
-      </c>
-      <c r="B297">
-        <v>70.88</v>
+        <v>44278</v>
+      </c>
+      <c r="B297" t="s">
+        <v>4</v>
       </c>
       <c r="C297">
-        <v>140.62</v>
-      </c>
-      <c r="D297">
-        <v>-49.6</v>
+        <v>107.27</v>
+      </c>
+      <c r="D297" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44158</v>
-      </c>
-      <c r="B298">
-        <v>72.56999999999999</v>
+        <v>44279</v>
+      </c>
+      <c r="B298" t="s">
+        <v>4</v>
       </c>
       <c r="C298">
-        <v>140.62</v>
-      </c>
-      <c r="D298">
-        <v>-48.39</v>
+        <v>107.27</v>
+      </c>
+      <c r="D298" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44159</v>
-      </c>
-      <c r="B299">
-        <v>72.47</v>
+        <v>44280</v>
+      </c>
+      <c r="B299" t="s">
+        <v>4</v>
       </c>
       <c r="C299">
-        <v>140.62</v>
-      </c>
-      <c r="D299">
-        <v>-48.46</v>
+        <v>107.27</v>
+      </c>
+      <c r="D299" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44160</v>
-      </c>
-      <c r="B300">
-        <v>68.83</v>
+        <v>44281</v>
+      </c>
+      <c r="B300" t="s">
+        <v>4</v>
       </c>
       <c r="C300">
-        <v>140.62</v>
-      </c>
-      <c r="D300">
-        <v>-51.05</v>
+        <v>107.27</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44161</v>
-      </c>
-      <c r="B301">
-        <v>65.81</v>
+        <v>44282</v>
+      </c>
+      <c r="B301" t="s">
+        <v>4</v>
       </c>
       <c r="C301">
-        <v>140.62</v>
-      </c>
-      <c r="D301">
-        <v>-53.2</v>
+        <v>107.27</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44162</v>
-      </c>
-      <c r="B302">
-        <v>67.43000000000001</v>
+        <v>44283</v>
+      </c>
+      <c r="B302" t="s">
+        <v>4</v>
       </c>
       <c r="C302">
-        <v>140.62</v>
-      </c>
-      <c r="D302">
-        <v>-52.05</v>
+        <v>107.27</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44163</v>
-      </c>
-      <c r="B303">
-        <v>67.84999999999999</v>
+        <v>44284</v>
+      </c>
+      <c r="B303" t="s">
+        <v>4</v>
       </c>
       <c r="C303">
-        <v>140.62</v>
-      </c>
-      <c r="D303">
-        <v>-51.75</v>
+        <v>107.27</v>
+      </c>
+      <c r="D303" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44164</v>
-      </c>
-      <c r="B304">
-        <v>66.41</v>
+        <v>44285</v>
+      </c>
+      <c r="B304" t="s">
+        <v>4</v>
       </c>
       <c r="C304">
-        <v>140.62</v>
-      </c>
-      <c r="D304">
-        <v>-52.78</v>
+        <v>107.27</v>
+      </c>
+      <c r="D304" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44165</v>
-      </c>
-      <c r="B305">
-        <v>74.45</v>
+        <v>44286</v>
+      </c>
+      <c r="B305" t="s">
+        <v>4</v>
       </c>
       <c r="C305">
-        <v>140.62</v>
-      </c>
-      <c r="D305">
-        <v>-47.06</v>
+        <v>107.27</v>
+      </c>
+      <c r="D305" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44166</v>
-      </c>
-      <c r="B306">
-        <v>77.95</v>
+        <v>44287</v>
+      </c>
+      <c r="B306" t="s">
+        <v>4</v>
       </c>
       <c r="C306">
-        <v>121.66</v>
-      </c>
-      <c r="D306">
-        <v>-35.93</v>
+        <v>109.11</v>
+      </c>
+      <c r="D306" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44167</v>
-      </c>
-      <c r="B307">
-        <v>78.81999999999999</v>
+        <v>44288</v>
+      </c>
+      <c r="B307" t="s">
+        <v>4</v>
       </c>
       <c r="C307">
-        <v>121.66</v>
-      </c>
-      <c r="D307">
-        <v>-35.21</v>
+        <v>109.11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44168</v>
-      </c>
-      <c r="B308">
-        <v>99.06</v>
+        <v>44289</v>
+      </c>
+      <c r="B308" t="s">
+        <v>4</v>
       </c>
       <c r="C308">
-        <v>121.66</v>
-      </c>
-      <c r="D308">
-        <v>-18.57</v>
+        <v>109.11</v>
+      </c>
+      <c r="D308" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44169</v>
-      </c>
-      <c r="B309">
-        <v>116.44</v>
+        <v>44290</v>
+      </c>
+      <c r="B309" t="s">
+        <v>4</v>
       </c>
       <c r="C309">
-        <v>121.66</v>
-      </c>
-      <c r="D309">
-        <v>-4.29</v>
+        <v>109.11</v>
+      </c>
+      <c r="D309" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44170</v>
-      </c>
-      <c r="B310">
-        <v>125.54</v>
+        <v>44291</v>
+      </c>
+      <c r="B310" t="s">
+        <v>4</v>
       </c>
       <c r="C310">
-        <v>121.66</v>
-      </c>
-      <c r="D310">
-        <v>3.19</v>
+        <v>109.11</v>
+      </c>
+      <c r="D310" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44171</v>
-      </c>
-      <c r="B311">
-        <v>142.73</v>
+        <v>44292</v>
+      </c>
+      <c r="B311" t="s">
+        <v>4</v>
       </c>
       <c r="C311">
-        <v>121.66</v>
-      </c>
-      <c r="D311">
-        <v>17.32</v>
+        <v>109.11</v>
+      </c>
+      <c r="D311" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44172</v>
-      </c>
-      <c r="B312">
-        <v>134.19</v>
+        <v>44293</v>
+      </c>
+      <c r="B312" t="s">
+        <v>4</v>
       </c>
       <c r="C312">
-        <v>121.66</v>
-      </c>
-      <c r="D312">
-        <v>10.3</v>
+        <v>109.11</v>
+      </c>
+      <c r="D312" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44173</v>
-      </c>
-      <c r="B313">
-        <v>121.62</v>
+        <v>44294</v>
+      </c>
+      <c r="B313" t="s">
+        <v>4</v>
       </c>
       <c r="C313">
-        <v>121.66</v>
-      </c>
-      <c r="D313">
-        <v>-0.03</v>
+        <v>109.11</v>
+      </c>
+      <c r="D313" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44174</v>
-      </c>
-      <c r="B314">
-        <v>114.09</v>
+        <v>44295</v>
+      </c>
+      <c r="B314" t="s">
+        <v>4</v>
       </c>
       <c r="C314">
-        <v>121.66</v>
-      </c>
-      <c r="D314">
-        <v>-6.22</v>
+        <v>109.11</v>
+      </c>
+      <c r="D314" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44175</v>
-      </c>
-      <c r="B315">
-        <v>106.4</v>
+        <v>44296</v>
+      </c>
+      <c r="B315" t="s">
+        <v>4</v>
       </c>
       <c r="C315">
-        <v>121.66</v>
-      </c>
-      <c r="D315">
-        <v>-12.54</v>
+        <v>109.11</v>
+      </c>
+      <c r="D315" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44176</v>
-      </c>
-      <c r="B316">
-        <v>100.42</v>
+        <v>44297</v>
+      </c>
+      <c r="B316" t="s">
+        <v>4</v>
       </c>
       <c r="C316">
-        <v>121.66</v>
-      </c>
-      <c r="D316">
-        <v>-17.46</v>
+        <v>109.11</v>
+      </c>
+      <c r="D316" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44177</v>
-      </c>
-      <c r="B317">
-        <v>95.65000000000001</v>
+        <v>44298</v>
+      </c>
+      <c r="B317" t="s">
+        <v>4</v>
       </c>
       <c r="C317">
-        <v>121.66</v>
-      </c>
-      <c r="D317">
-        <v>-21.38</v>
+        <v>109.11</v>
+      </c>
+      <c r="D317" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44178</v>
-      </c>
-      <c r="B318">
-        <v>92.40000000000001</v>
+        <v>44299</v>
+      </c>
+      <c r="B318" t="s">
+        <v>4</v>
       </c>
       <c r="C318">
-        <v>121.66</v>
-      </c>
-      <c r="D318">
-        <v>-24.05</v>
+        <v>109.11</v>
+      </c>
+      <c r="D318" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44179</v>
-      </c>
-      <c r="B319">
-        <v>92.18000000000001</v>
+        <v>44300</v>
+      </c>
+      <c r="B319" t="s">
+        <v>4</v>
       </c>
       <c r="C319">
-        <v>121.66</v>
-      </c>
-      <c r="D319">
-        <v>-24.23</v>
+        <v>109.11</v>
+      </c>
+      <c r="D319" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44180</v>
-      </c>
-      <c r="B320">
-        <v>90.59</v>
+        <v>44301</v>
+      </c>
+      <c r="B320" t="s">
+        <v>4</v>
       </c>
       <c r="C320">
-        <v>121.66</v>
-      </c>
-      <c r="D320">
-        <v>-25.53</v>
+        <v>109.11</v>
+      </c>
+      <c r="D320" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44181</v>
-      </c>
-      <c r="B321">
-        <v>90.69</v>
+        <v>44302</v>
+      </c>
+      <c r="B321" t="s">
+        <v>4</v>
       </c>
       <c r="C321">
-        <v>121.66</v>
-      </c>
-      <c r="D321">
-        <v>-25.46</v>
+        <v>109.11</v>
+      </c>
+      <c r="D321" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44182</v>
-      </c>
-      <c r="B322">
-        <v>91.47</v>
+        <v>44303</v>
+      </c>
+      <c r="B322" t="s">
+        <v>4</v>
       </c>
       <c r="C322">
-        <v>121.66</v>
-      </c>
-      <c r="D322">
-        <v>-24.81</v>
+        <v>109.11</v>
+      </c>
+      <c r="D322" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44183</v>
-      </c>
-      <c r="B323">
-        <v>93.12</v>
+        <v>44304</v>
+      </c>
+      <c r="B323" t="s">
+        <v>4</v>
       </c>
       <c r="C323">
-        <v>121.66</v>
-      </c>
-      <c r="D323">
-        <v>-23.45</v>
+        <v>109.11</v>
+      </c>
+      <c r="D323" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44184</v>
-      </c>
-      <c r="B324">
-        <v>90.66</v>
+        <v>44305</v>
+      </c>
+      <c r="B324" t="s">
+        <v>4</v>
       </c>
       <c r="C324">
-        <v>121.66</v>
-      </c>
-      <c r="D324">
-        <v>-25.48</v>
+        <v>109.11</v>
+      </c>
+      <c r="D324" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44185</v>
-      </c>
-      <c r="B325">
-        <v>89.34</v>
+        <v>44306</v>
+      </c>
+      <c r="B325" t="s">
+        <v>4</v>
       </c>
       <c r="C325">
-        <v>121.66</v>
-      </c>
-      <c r="D325">
-        <v>-26.56</v>
+        <v>109.11</v>
+      </c>
+      <c r="D325" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44186</v>
-      </c>
-      <c r="B326">
-        <v>99.51000000000001</v>
+        <v>44307</v>
+      </c>
+      <c r="B326" t="s">
+        <v>4</v>
       </c>
       <c r="C326">
-        <v>121.66</v>
-      </c>
-      <c r="D326">
-        <v>-18.2</v>
+        <v>109.11</v>
+      </c>
+      <c r="D326" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44187</v>
-      </c>
-      <c r="B327">
-        <v>143.66</v>
+        <v>44308</v>
+      </c>
+      <c r="B327" t="s">
+        <v>4</v>
       </c>
       <c r="C327">
-        <v>121.66</v>
-      </c>
-      <c r="D327">
-        <v>18.08</v>
+        <v>109.11</v>
+      </c>
+      <c r="D327" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44188</v>
-      </c>
-      <c r="B328">
-        <v>167.78</v>
+        <v>44309</v>
+      </c>
+      <c r="B328" t="s">
+        <v>4</v>
       </c>
       <c r="C328">
-        <v>121.66</v>
-      </c>
-      <c r="D328">
-        <v>37.91</v>
+        <v>109.11</v>
+      </c>
+      <c r="D328" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44189</v>
-      </c>
-      <c r="B329">
-        <v>134.15</v>
+        <v>44310</v>
+      </c>
+      <c r="B329" t="s">
+        <v>4</v>
       </c>
       <c r="C329">
-        <v>121.66</v>
-      </c>
-      <c r="D329">
-        <v>10.27</v>
+        <v>109.11</v>
+      </c>
+      <c r="D329" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44190</v>
-      </c>
-      <c r="B330">
-        <v>118.24</v>
+        <v>44311</v>
+      </c>
+      <c r="B330" t="s">
+        <v>4</v>
       </c>
       <c r="C330">
-        <v>121.66</v>
-      </c>
-      <c r="D330">
-        <v>-2.81</v>
+        <v>109.11</v>
+      </c>
+      <c r="D330" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44191</v>
-      </c>
-      <c r="B331">
-        <v>108.11</v>
+        <v>44312</v>
+      </c>
+      <c r="B331" t="s">
+        <v>4</v>
       </c>
       <c r="C331">
-        <v>121.66</v>
-      </c>
-      <c r="D331">
-        <v>-11.13</v>
+        <v>109.11</v>
+      </c>
+      <c r="D331" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44192</v>
-      </c>
-      <c r="B332">
-        <v>101.25</v>
+        <v>44313</v>
+      </c>
+      <c r="B332" t="s">
+        <v>4</v>
       </c>
       <c r="C332">
-        <v>121.66</v>
-      </c>
-      <c r="D332">
-        <v>-16.77</v>
+        <v>109.11</v>
+      </c>
+      <c r="D332" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44193</v>
-      </c>
-      <c r="B333">
-        <v>97.26000000000001</v>
+        <v>44314</v>
+      </c>
+      <c r="B333" t="s">
+        <v>4</v>
       </c>
       <c r="C333">
-        <v>121.66</v>
-      </c>
-      <c r="D333">
-        <v>-20.05</v>
+        <v>109.11</v>
+      </c>
+      <c r="D333" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44194</v>
-      </c>
-      <c r="B334">
-        <v>93.95999999999999</v>
+        <v>44315</v>
+      </c>
+      <c r="B334" t="s">
+        <v>4</v>
       </c>
       <c r="C334">
-        <v>121.66</v>
-      </c>
-      <c r="D334">
-        <v>-22.77</v>
+        <v>109.11</v>
+      </c>
+      <c r="D334" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44195</v>
-      </c>
-      <c r="B335">
-        <v>97.34</v>
+        <v>44316</v>
+      </c>
+      <c r="B335" t="s">
+        <v>4</v>
       </c>
       <c r="C335">
-        <v>121.66</v>
-      </c>
-      <c r="D335">
-        <v>-19.98</v>
+        <v>109.11</v>
+      </c>
+      <c r="D335" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44196</v>
-      </c>
-      <c r="B336">
-        <v>104.28</v>
+        <v>44317</v>
+      </c>
+      <c r="B336" t="s">
+        <v>4</v>
       </c>
       <c r="C336">
-        <v>121.66</v>
-      </c>
-      <c r="D336">
-        <v>-14.28</v>
+        <v>128</v>
+      </c>
+      <c r="D336" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44197</v>
-      </c>
-      <c r="B337">
-        <v>99.16</v>
+        <v>44318</v>
+      </c>
+      <c r="B337" t="s">
+        <v>4</v>
       </c>
       <c r="C337">
-        <v>114.72</v>
-      </c>
-      <c r="D337">
-        <v>-13.57</v>
+        <v>128</v>
+      </c>
+      <c r="D337" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44198</v>
-      </c>
-      <c r="B338">
-        <v>97.04000000000001</v>
+        <v>44319</v>
+      </c>
+      <c r="B338" t="s">
+        <v>4</v>
       </c>
       <c r="C338">
-        <v>114.72</v>
-      </c>
-      <c r="D338">
-        <v>-15.41</v>
+        <v>128</v>
+      </c>
+      <c r="D338" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44199</v>
-      </c>
-      <c r="B339">
-        <v>99.73999999999999</v>
+        <v>44320</v>
+      </c>
+      <c r="B339" t="s">
+        <v>4</v>
       </c>
       <c r="C339">
-        <v>114.72</v>
-      </c>
-      <c r="D339">
-        <v>-13.06</v>
+        <v>128</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44200</v>
-      </c>
-      <c r="B340">
-        <v>98.12</v>
+        <v>44321</v>
+      </c>
+      <c r="B340" t="s">
+        <v>4</v>
       </c>
       <c r="C340">
-        <v>114.72</v>
-      </c>
-      <c r="D340">
-        <v>-14.46</v>
+        <v>128</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44201</v>
-      </c>
-      <c r="B341">
-        <v>95.66</v>
+        <v>44322</v>
+      </c>
+      <c r="B341" t="s">
+        <v>4</v>
       </c>
       <c r="C341">
-        <v>114.72</v>
-      </c>
-      <c r="D341">
-        <v>-16.62</v>
+        <v>128</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44202</v>
-      </c>
-      <c r="B342">
-        <v>100.31</v>
+        <v>44323</v>
+      </c>
+      <c r="B342" t="s">
+        <v>4</v>
       </c>
       <c r="C342">
-        <v>114.72</v>
-      </c>
-      <c r="D342">
-        <v>-12.56</v>
+        <v>128</v>
+      </c>
+      <c r="D342" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44203</v>
-      </c>
-      <c r="B343">
-        <v>101.52</v>
+        <v>44324</v>
+      </c>
+      <c r="B343" t="s">
+        <v>4</v>
       </c>
       <c r="C343">
-        <v>114.72</v>
-      </c>
-      <c r="D343">
-        <v>-11.5</v>
+        <v>128</v>
+      </c>
+      <c r="D343" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44204</v>
-      </c>
-      <c r="B344">
-        <v>105.19</v>
+        <v>44325</v>
+      </c>
+      <c r="B344" t="s">
+        <v>4</v>
       </c>
       <c r="C344">
-        <v>114.72</v>
-      </c>
-      <c r="D344">
-        <v>-8.31</v>
+        <v>128</v>
+      </c>
+      <c r="D344" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44205</v>
-      </c>
-      <c r="B345">
-        <v>107.33</v>
+        <v>44326</v>
+      </c>
+      <c r="B345" t="s">
+        <v>4</v>
       </c>
       <c r="C345">
-        <v>114.72</v>
-      </c>
-      <c r="D345">
-        <v>-6.44</v>
+        <v>128</v>
+      </c>
+      <c r="D345" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44206</v>
-      </c>
-      <c r="B346">
-        <v>101.44</v>
+        <v>44327</v>
+      </c>
+      <c r="B346" t="s">
+        <v>4</v>
       </c>
       <c r="C346">
-        <v>114.72</v>
-      </c>
-      <c r="D346">
-        <v>-11.58</v>
+        <v>128</v>
+      </c>
+      <c r="D346" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44207</v>
-      </c>
-      <c r="B347">
-        <v>96.28</v>
+        <v>44328</v>
+      </c>
+      <c r="B347" t="s">
+        <v>4</v>
       </c>
       <c r="C347">
-        <v>114.72</v>
-      </c>
-      <c r="D347">
-        <v>-16.07</v>
+        <v>128</v>
+      </c>
+      <c r="D347" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44208</v>
-      </c>
-      <c r="B348">
-        <v>101.62</v>
+        <v>44329</v>
+      </c>
+      <c r="B348" t="s">
+        <v>4</v>
       </c>
       <c r="C348">
-        <v>114.72</v>
-      </c>
-      <c r="D348">
-        <v>-11.41</v>
+        <v>128</v>
+      </c>
+      <c r="D348" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B349">
-        <v>102.96</v>
+        <v>44330</v>
+      </c>
+      <c r="B349" t="s">
+        <v>4</v>
       </c>
       <c r="C349">
-        <v>114.72</v>
-      </c>
-      <c r="D349">
-        <v>-10.25</v>
+        <v>128</v>
+      </c>
+      <c r="D349" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B350">
-        <v>96.89</v>
+        <v>44331</v>
+      </c>
+      <c r="B350" t="s">
+        <v>4</v>
       </c>
       <c r="C350">
-        <v>114.72</v>
-      </c>
-      <c r="D350">
-        <v>-15.55</v>
+        <v>128</v>
+      </c>
+      <c r="D350" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B351">
-        <v>96.34999999999999</v>
+        <v>44332</v>
+      </c>
+      <c r="B351" t="s">
+        <v>4</v>
       </c>
       <c r="C351">
-        <v>114.72</v>
-      </c>
-      <c r="D351">
-        <v>-16.01</v>
+        <v>128</v>
+      </c>
+      <c r="D351" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44212</v>
-      </c>
-      <c r="B352">
-        <v>92.34999999999999</v>
+        <v>44333</v>
+      </c>
+      <c r="B352" t="s">
+        <v>4</v>
       </c>
       <c r="C352">
-        <v>114.72</v>
-      </c>
-      <c r="D352">
-        <v>-19.5</v>
+        <v>128</v>
+      </c>
+      <c r="D352" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44213</v>
-      </c>
-      <c r="B353">
-        <v>94.72</v>
+        <v>44334</v>
+      </c>
+      <c r="B353" t="s">
+        <v>4</v>
       </c>
       <c r="C353">
-        <v>114.72</v>
-      </c>
-      <c r="D353">
-        <v>-17.43</v>
+        <v>128</v>
+      </c>
+      <c r="D353" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44214</v>
-      </c>
-      <c r="B354">
-        <v>98.83</v>
+        <v>44335</v>
+      </c>
+      <c r="B354" t="s">
+        <v>4</v>
       </c>
       <c r="C354">
-        <v>114.72</v>
-      </c>
-      <c r="D354">
-        <v>-13.85</v>
+        <v>128</v>
+      </c>
+      <c r="D354" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44215</v>
-      </c>
-      <c r="B355">
-        <v>107.27</v>
+        <v>44336</v>
+      </c>
+      <c r="B355" t="s">
+        <v>4</v>
       </c>
       <c r="C355">
-        <v>114.72</v>
-      </c>
-      <c r="D355">
-        <v>-6.49</v>
+        <v>128</v>
+      </c>
+      <c r="D355" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44216</v>
-      </c>
-      <c r="B356">
-        <v>117.28</v>
+        <v>44337</v>
+      </c>
+      <c r="B356" t="s">
+        <v>4</v>
       </c>
       <c r="C356">
-        <v>114.72</v>
-      </c>
-      <c r="D356">
-        <v>2.23</v>
+        <v>128</v>
+      </c>
+      <c r="D356" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44217</v>
-      </c>
-      <c r="B357">
-        <v>138.02</v>
+        <v>44338</v>
+      </c>
+      <c r="B357" t="s">
+        <v>4</v>
       </c>
       <c r="C357">
-        <v>114.72</v>
-      </c>
-      <c r="D357">
-        <v>20.31</v>
+        <v>128</v>
+      </c>
+      <c r="D357" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44218</v>
-      </c>
-      <c r="B358">
-        <v>146.55</v>
+        <v>44339</v>
+      </c>
+      <c r="B358" t="s">
+        <v>4</v>
       </c>
       <c r="C358">
-        <v>114.72</v>
-      </c>
-      <c r="D358">
-        <v>27.75</v>
+        <v>128</v>
+      </c>
+      <c r="D358" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44219</v>
-      </c>
-      <c r="B359">
-        <v>152.69</v>
+        <v>44340</v>
+      </c>
+      <c r="B359" t="s">
+        <v>4</v>
       </c>
       <c r="C359">
-        <v>114.72</v>
-      </c>
-      <c r="D359">
-        <v>33.1</v>
+        <v>128</v>
+      </c>
+      <c r="D359" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44220</v>
-      </c>
-      <c r="B360">
-        <v>170.98</v>
+        <v>44341</v>
+      </c>
+      <c r="B360" t="s">
+        <v>4</v>
       </c>
       <c r="C360">
-        <v>114.72</v>
-      </c>
-      <c r="D360">
-        <v>49.04</v>
+        <v>128</v>
+      </c>
+      <c r="D360" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44221</v>
-      </c>
-      <c r="B361">
-        <v>196.91</v>
+        <v>44342</v>
+      </c>
+      <c r="B361" t="s">
+        <v>4</v>
       </c>
       <c r="C361">
-        <v>114.72</v>
-      </c>
-      <c r="D361">
-        <v>71.64</v>
+        <v>128</v>
+      </c>
+      <c r="D361" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44222</v>
-      </c>
-      <c r="B362">
-        <v>271.82</v>
+        <v>44343</v>
+      </c>
+      <c r="B362" t="s">
+        <v>4</v>
       </c>
       <c r="C362">
-        <v>114.72</v>
-      </c>
-      <c r="D362">
-        <v>136.95</v>
+        <v>128</v>
+      </c>
+      <c r="D362" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44223</v>
-      </c>
-      <c r="B363">
-        <v>263.88</v>
+        <v>44344</v>
+      </c>
+      <c r="B363" t="s">
+        <v>4</v>
       </c>
       <c r="C363">
-        <v>114.72</v>
-      </c>
-      <c r="D363">
-        <v>130.02</v>
+        <v>128</v>
+      </c>
+      <c r="D363" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44224</v>
-      </c>
-      <c r="B364">
-        <v>219.91</v>
+        <v>44345</v>
+      </c>
+      <c r="B364" t="s">
+        <v>4</v>
       </c>
       <c r="C364">
-        <v>114.72</v>
-      </c>
-      <c r="D364">
-        <v>91.7</v>
+        <v>128</v>
+      </c>
+      <c r="D364" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44225</v>
-      </c>
-      <c r="B365">
-        <v>233.49</v>
+        <v>44346</v>
+      </c>
+      <c r="B365" t="s">
+        <v>4</v>
       </c>
       <c r="C365">
-        <v>114.72</v>
-      </c>
-      <c r="D365">
-        <v>103.54</v>
+        <v>128</v>
+      </c>
+      <c r="D365" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B366">
-        <v>315.97</v>
+        <v>44347</v>
+      </c>
+      <c r="B366" t="s">
+        <v>4</v>
       </c>
       <c r="C366">
-        <v>114.72</v>
-      </c>
-      <c r="D366">
-        <v>175.43</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B367">
-        <v>323.51</v>
-      </c>
-      <c r="C367">
-        <v>114.72</v>
-      </c>
-      <c r="D367">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B368">
-        <v>304.64</v>
-      </c>
-      <c r="C368">
-        <v>115.81</v>
-      </c>
-      <c r="D368">
-        <v>163.05</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
-        <v>44229</v>
-      </c>
-      <c r="B369">
-        <v>279.2</v>
-      </c>
-      <c r="C369">
-        <v>115.81</v>
-      </c>
-      <c r="D369">
-        <v>141.08</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
-        <v>44230</v>
-      </c>
-      <c r="B370">
-        <v>241.17</v>
-      </c>
-      <c r="C370">
-        <v>115.81</v>
-      </c>
-      <c r="D370">
-        <v>108.24</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B371">
-        <v>217.73</v>
-      </c>
-      <c r="C371">
-        <v>115.81</v>
-      </c>
-      <c r="D371">
-        <v>88.01000000000001</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
-        <v>44232</v>
-      </c>
-      <c r="B372">
-        <v>201.85</v>
-      </c>
-      <c r="C372">
-        <v>115.81</v>
-      </c>
-      <c r="D372">
-        <v>74.3</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
-        <v>44233</v>
-      </c>
-      <c r="B373">
-        <v>187.12</v>
-      </c>
-      <c r="C373">
-        <v>115.81</v>
-      </c>
-      <c r="D373">
-        <v>61.58</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
-        <v>44234</v>
-      </c>
-      <c r="B374">
-        <v>176.22</v>
-      </c>
-      <c r="C374">
-        <v>115.81</v>
-      </c>
-      <c r="D374">
-        <v>52.16</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B375">
-        <v>167.47</v>
-      </c>
-      <c r="C375">
-        <v>115.81</v>
-      </c>
-      <c r="D375">
-        <v>44.61</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
-        <v>44236</v>
-      </c>
-      <c r="B376">
-        <v>158.85</v>
-      </c>
-      <c r="C376">
-        <v>115.81</v>
-      </c>
-      <c r="D376">
-        <v>37.17</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
-        <v>44237</v>
-      </c>
-      <c r="B377">
-        <v>149.56</v>
-      </c>
-      <c r="C377">
-        <v>115.81</v>
-      </c>
-      <c r="D377">
-        <v>29.14</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B378">
-        <v>148.33</v>
-      </c>
-      <c r="C378">
-        <v>115.81</v>
-      </c>
-      <c r="D378">
-        <v>28.08</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
-        <v>44239</v>
-      </c>
-      <c r="B379" t="s">
-        <v>4</v>
-      </c>
-      <c r="C379">
-        <v>115.81</v>
-      </c>
-      <c r="D379" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
-        <v>44240</v>
-      </c>
-      <c r="B380" t="s">
-        <v>4</v>
-      </c>
-      <c r="C380">
-        <v>115.81</v>
-      </c>
-      <c r="D380" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
-        <v>44241</v>
-      </c>
-      <c r="B381" t="s">
-        <v>4</v>
-      </c>
-      <c r="C381">
-        <v>115.81</v>
-      </c>
-      <c r="D381" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
-        <v>44242</v>
-      </c>
-      <c r="B382" t="s">
-        <v>4</v>
-      </c>
-      <c r="C382">
-        <v>115.81</v>
-      </c>
-      <c r="D382" t="s">
+        <v>128</v>
+      </c>
+      <c r="D366" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
+++ b/Sistema-Operacional/Saidas/Dados-Postos/65962000_pch_arturo_andreoli_flor_da_serra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="5">
   <si>
     <t>cota_obs_cm</t>
   </si>
@@ -420,139 +420,139 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>44012</v>
+        <v>44043</v>
       </c>
       <c r="B2">
-        <v>151.35</v>
+        <v>125.37</v>
       </c>
       <c r="C2">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D2">
-        <v>9.380000000000001</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>44043</v>
+        <v>44074</v>
       </c>
       <c r="B3">
-        <v>125.37</v>
+        <v>120.31</v>
       </c>
       <c r="C3">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D3">
-        <v>-4.75</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B4">
-        <v>120.31</v>
+        <v>90.39</v>
       </c>
       <c r="C4">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D4">
-        <v>1.33</v>
+        <v>-27.05</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>44104</v>
+        <v>44135</v>
       </c>
       <c r="B5">
-        <v>90.39</v>
+        <v>77.77</v>
       </c>
       <c r="C5">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D5">
-        <v>-27.05</v>
+        <v>-48.42</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B6">
-        <v>77.77</v>
+        <v>70.45</v>
       </c>
       <c r="C6">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D6">
-        <v>-48.42</v>
+        <v>-49.9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>44165</v>
+        <v>44196</v>
       </c>
       <c r="B7">
-        <v>70.45</v>
+        <v>106.74</v>
       </c>
       <c r="C7">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D7">
-        <v>-49.9</v>
+        <v>-12.26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>44196</v>
+        <v>44227</v>
       </c>
       <c r="B8">
-        <v>106.74</v>
+        <v>143.35</v>
       </c>
       <c r="C8">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D8">
-        <v>-12.26</v>
+        <v>24.96</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>44227</v>
+        <v>44255</v>
       </c>
       <c r="B9">
-        <v>143.35</v>
+        <v>202.92</v>
       </c>
       <c r="C9">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D9">
-        <v>24.96</v>
+        <v>75.22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>44255</v>
-      </c>
-      <c r="B10">
-        <v>202.92</v>
+        <v>44286</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>115.81</v>
-      </c>
-      <c r="D10">
-        <v>75.22</v>
+        <v>107.27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
       <c r="C11">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
@@ -560,13 +560,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>44316</v>
+        <v>44347</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
         <v>4</v>
@@ -574,13 +574,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
       <c r="C13">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
@@ -620,3597 +620,3597 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B2">
-        <v>94.84999999999999</v>
+        <v>139.58</v>
       </c>
       <c r="C2">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D2">
-        <v>-31.45</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>43984</v>
+        <v>44014</v>
       </c>
       <c r="B3">
-        <v>93.45</v>
+        <v>157.79</v>
       </c>
       <c r="C3">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D3">
-        <v>-32.47</v>
+        <v>19.88</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>43985</v>
+        <v>44015</v>
       </c>
       <c r="B4">
-        <v>91.22</v>
+        <v>145.82</v>
       </c>
       <c r="C4">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D4">
-        <v>-34.08</v>
+        <v>10.79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>43986</v>
+        <v>44016</v>
       </c>
       <c r="B5">
-        <v>97.05</v>
+        <v>135.96</v>
       </c>
       <c r="C5">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D5">
-        <v>-29.86</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>43987</v>
+        <v>44017</v>
       </c>
       <c r="B6">
-        <v>130.35</v>
+        <v>127.46</v>
       </c>
       <c r="C6">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D6">
-        <v>-5.79</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>43988</v>
+        <v>44018</v>
       </c>
       <c r="B7">
-        <v>155.75</v>
+        <v>122.11</v>
       </c>
       <c r="C7">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D7">
-        <v>12.56</v>
+        <v>-7.22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>43989</v>
+        <v>44019</v>
       </c>
       <c r="B8">
-        <v>162.36</v>
+        <v>124.35</v>
       </c>
       <c r="C8">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D8">
-        <v>17.34</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>43990</v>
+        <v>44020</v>
       </c>
       <c r="B9">
-        <v>145.77</v>
+        <v>141.34</v>
       </c>
       <c r="C9">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D9">
-        <v>5.35</v>
+        <v>7.39</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>43991</v>
+        <v>44021</v>
       </c>
       <c r="B10">
-        <v>149.22</v>
+        <v>161.7</v>
       </c>
       <c r="C10">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D10">
-        <v>7.84</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>43992</v>
+        <v>44022</v>
       </c>
       <c r="B11">
-        <v>280.96</v>
+        <v>168.71</v>
       </c>
       <c r="C11">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D11">
-        <v>103.05</v>
+        <v>28.18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>43993</v>
+        <v>44023</v>
       </c>
       <c r="B12">
-        <v>255.56</v>
+        <v>155.47</v>
       </c>
       <c r="C12">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D12">
-        <v>84.69</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>43994</v>
+        <v>44024</v>
       </c>
       <c r="B13">
-        <v>250.56</v>
+        <v>145.78</v>
       </c>
       <c r="C13">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D13">
-        <v>81.08</v>
+        <v>10.76</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>43995</v>
+        <v>44025</v>
       </c>
       <c r="B14">
-        <v>222.59</v>
+        <v>139.44</v>
       </c>
       <c r="C14">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D14">
-        <v>60.87</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>43996</v>
+        <v>44026</v>
       </c>
       <c r="B15">
-        <v>204.24</v>
+        <v>134.04</v>
       </c>
       <c r="C15">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D15">
-        <v>47.6</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>43997</v>
+        <v>44027</v>
       </c>
       <c r="B16">
-        <v>188.28</v>
+        <v>129.23</v>
       </c>
       <c r="C16">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D16">
-        <v>36.07</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2">
-        <v>43998</v>
+        <v>44028</v>
       </c>
       <c r="B17">
-        <v>174.54</v>
+        <v>124.51</v>
       </c>
       <c r="C17">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D17">
-        <v>26.14</v>
+        <v>-5.4</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2">
-        <v>43999</v>
+        <v>44029</v>
       </c>
       <c r="B18">
-        <v>162.07</v>
+        <v>121.2</v>
       </c>
       <c r="C18">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D18">
-        <v>17.13</v>
+        <v>-7.92</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2">
-        <v>44000</v>
+        <v>44030</v>
       </c>
       <c r="B19">
-        <v>152.71</v>
+        <v>119</v>
       </c>
       <c r="C19">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D19">
-        <v>10.36</v>
+        <v>-9.59</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2">
-        <v>44001</v>
+        <v>44031</v>
       </c>
       <c r="B20">
-        <v>145.79</v>
+        <v>115.81</v>
       </c>
       <c r="C20">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D20">
-        <v>5.36</v>
+        <v>-12.01</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2">
-        <v>44002</v>
+        <v>44032</v>
       </c>
       <c r="B21">
-        <v>139.61</v>
+        <v>113.72</v>
       </c>
       <c r="C21">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D21">
-        <v>0.9</v>
+        <v>-13.6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2">
-        <v>44003</v>
+        <v>44033</v>
       </c>
       <c r="B22">
-        <v>134.19</v>
+        <v>111.56</v>
       </c>
       <c r="C22">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D22">
-        <v>-3.02</v>
+        <v>-15.24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2">
-        <v>44004</v>
+        <v>44034</v>
       </c>
       <c r="B23">
-        <v>129.51</v>
+        <v>110.03</v>
       </c>
       <c r="C23">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D23">
-        <v>-6.4</v>
+        <v>-16.4</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2">
-        <v>44005</v>
+        <v>44035</v>
       </c>
       <c r="B24">
-        <v>125.72</v>
+        <v>108.77</v>
       </c>
       <c r="C24">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D24">
-        <v>-9.140000000000001</v>
+        <v>-17.36</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2">
-        <v>44006</v>
+        <v>44036</v>
       </c>
       <c r="B25">
-        <v>122.71</v>
+        <v>106.08</v>
       </c>
       <c r="C25">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D25">
-        <v>-11.32</v>
+        <v>-19.4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2">
-        <v>44007</v>
+        <v>44037</v>
       </c>
       <c r="B26">
-        <v>120.06</v>
+        <v>104.48</v>
       </c>
       <c r="C26">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D26">
-        <v>-13.23</v>
+        <v>-20.62</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2">
-        <v>44008</v>
+        <v>44038</v>
       </c>
       <c r="B27">
-        <v>123.74</v>
+        <v>104.69</v>
       </c>
       <c r="C27">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D27">
-        <v>-10.57</v>
+        <v>-20.46</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2">
-        <v>44009</v>
+        <v>44039</v>
       </c>
       <c r="B28">
-        <v>124.93</v>
+        <v>103.12</v>
       </c>
       <c r="C28">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D28">
-        <v>-9.720000000000001</v>
+        <v>-21.65</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2">
-        <v>44010</v>
+        <v>44040</v>
       </c>
       <c r="B29">
-        <v>122.84</v>
+        <v>101.46</v>
       </c>
       <c r="C29">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D29">
-        <v>-11.22</v>
+        <v>-22.92</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="2">
-        <v>44011</v>
+        <v>44041</v>
       </c>
       <c r="B30">
-        <v>119.72</v>
+        <v>101.3</v>
       </c>
       <c r="C30">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D30">
-        <v>-13.48</v>
+        <v>-23.04</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="2">
-        <v>44012</v>
+        <v>44042</v>
       </c>
       <c r="B31">
-        <v>120.27</v>
+        <v>106.25</v>
       </c>
       <c r="C31">
-        <v>138.37</v>
+        <v>131.62</v>
       </c>
       <c r="D31">
-        <v>-13.08</v>
+        <v>-19.28</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="2">
-        <v>44013</v>
+        <v>44043</v>
       </c>
       <c r="B32">
-        <v>139.58</v>
+        <v>105.6</v>
       </c>
       <c r="C32">
         <v>131.62</v>
       </c>
       <c r="D32">
-        <v>6.05</v>
+        <v>-19.77</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="2">
-        <v>44014</v>
+        <v>44044</v>
       </c>
       <c r="B33">
-        <v>157.79</v>
+        <v>100.94</v>
       </c>
       <c r="C33">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D33">
-        <v>19.88</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="2">
-        <v>44015</v>
+        <v>44045</v>
       </c>
       <c r="B34">
-        <v>145.82</v>
+        <v>100.17</v>
       </c>
       <c r="C34">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D34">
-        <v>10.79</v>
+        <v>-15.64</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="2">
-        <v>44016</v>
+        <v>44046</v>
       </c>
       <c r="B35">
-        <v>135.96</v>
+        <v>97.37</v>
       </c>
       <c r="C35">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D35">
-        <v>3.29</v>
+        <v>-18</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="2">
-        <v>44017</v>
+        <v>44047</v>
       </c>
       <c r="B36">
-        <v>127.46</v>
+        <v>96.39</v>
       </c>
       <c r="C36">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D36">
-        <v>-3.16</v>
+        <v>-18.82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="2">
-        <v>44018</v>
+        <v>44048</v>
       </c>
       <c r="B37">
-        <v>122.11</v>
+        <v>93.48</v>
       </c>
       <c r="C37">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D37">
-        <v>-7.22</v>
+        <v>-21.26</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="2">
-        <v>44019</v>
+        <v>44049</v>
       </c>
       <c r="B38">
-        <v>124.35</v>
+        <v>91.01000000000001</v>
       </c>
       <c r="C38">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D38">
-        <v>-5.52</v>
+        <v>-23.35</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2">
-        <v>44020</v>
+        <v>44050</v>
       </c>
       <c r="B39">
-        <v>141.34</v>
+        <v>92.81</v>
       </c>
       <c r="C39">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D39">
-        <v>7.39</v>
+        <v>-21.83</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="2">
-        <v>44021</v>
+        <v>44051</v>
       </c>
       <c r="B40">
-        <v>161.7</v>
+        <v>92.11</v>
       </c>
       <c r="C40">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D40">
-        <v>22.85</v>
+        <v>-22.42</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2">
-        <v>44022</v>
+        <v>44052</v>
       </c>
       <c r="B41">
-        <v>168.71</v>
+        <v>90.12</v>
       </c>
       <c r="C41">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D41">
-        <v>28.18</v>
+        <v>-24.09</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2">
-        <v>44023</v>
+        <v>44053</v>
       </c>
       <c r="B42">
-        <v>155.47</v>
+        <v>89.51000000000001</v>
       </c>
       <c r="C42">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D42">
-        <v>18.12</v>
+        <v>-24.61</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="2">
-        <v>44024</v>
+        <v>44054</v>
       </c>
       <c r="B43">
-        <v>145.78</v>
+        <v>87.06</v>
       </c>
       <c r="C43">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D43">
-        <v>10.76</v>
+        <v>-26.67</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2">
-        <v>44025</v>
+        <v>44055</v>
       </c>
       <c r="B44">
-        <v>139.44</v>
+        <v>89.5</v>
       </c>
       <c r="C44">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D44">
-        <v>5.94</v>
+        <v>-24.62</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2">
-        <v>44026</v>
+        <v>44056</v>
       </c>
       <c r="B45">
-        <v>134.04</v>
+        <v>103.19</v>
       </c>
       <c r="C45">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D45">
-        <v>1.84</v>
+        <v>-13.09</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2">
-        <v>44027</v>
+        <v>44057</v>
       </c>
       <c r="B46">
-        <v>129.23</v>
+        <v>126.78</v>
       </c>
       <c r="C46">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D46">
-        <v>-1.82</v>
+        <v>6.78</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2">
-        <v>44028</v>
+        <v>44058</v>
       </c>
       <c r="B47">
-        <v>124.51</v>
+        <v>130.44</v>
       </c>
       <c r="C47">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D47">
-        <v>-5.4</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2">
-        <v>44029</v>
+        <v>44059</v>
       </c>
       <c r="B48">
-        <v>121.2</v>
+        <v>147.31</v>
       </c>
       <c r="C48">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D48">
-        <v>-7.92</v>
+        <v>24.07</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>44030</v>
+        <v>44060</v>
       </c>
       <c r="B49">
-        <v>119</v>
+        <v>153.32</v>
       </c>
       <c r="C49">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D49">
-        <v>-9.59</v>
+        <v>29.13</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>44031</v>
+        <v>44061</v>
       </c>
       <c r="B50">
-        <v>115.81</v>
+        <v>161.42</v>
       </c>
       <c r="C50">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D50">
-        <v>-12.01</v>
+        <v>35.95</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>44032</v>
+        <v>44062</v>
       </c>
       <c r="B51">
-        <v>113.72</v>
+        <v>178.33</v>
       </c>
       <c r="C51">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D51">
-        <v>-13.6</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>44033</v>
+        <v>44063</v>
       </c>
       <c r="B52">
-        <v>111.56</v>
+        <v>183.23</v>
       </c>
       <c r="C52">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D52">
-        <v>-15.24</v>
+        <v>54.32</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>44034</v>
+        <v>44064</v>
       </c>
       <c r="B53">
-        <v>110.03</v>
+        <v>174.01</v>
       </c>
       <c r="C53">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D53">
-        <v>-16.4</v>
+        <v>46.56</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>44035</v>
+        <v>44065</v>
       </c>
       <c r="B54">
-        <v>108.77</v>
+        <v>157.53</v>
       </c>
       <c r="C54">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D54">
-        <v>-17.36</v>
+        <v>32.68</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>44036</v>
+        <v>44066</v>
       </c>
       <c r="B55">
-        <v>106.08</v>
+        <v>144.66</v>
       </c>
       <c r="C55">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D55">
-        <v>-19.4</v>
+        <v>21.83</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>44037</v>
+        <v>44067</v>
       </c>
       <c r="B56">
-        <v>104.48</v>
+        <v>135</v>
       </c>
       <c r="C56">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D56">
-        <v>-20.62</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>44038</v>
+        <v>44068</v>
       </c>
       <c r="B57">
-        <v>104.69</v>
+        <v>127.99</v>
       </c>
       <c r="C57">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D57">
-        <v>-20.46</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>44039</v>
+        <v>44069</v>
       </c>
       <c r="B58">
-        <v>103.12</v>
+        <v>123.23</v>
       </c>
       <c r="C58">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D58">
-        <v>-21.65</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>44040</v>
+        <v>44070</v>
       </c>
       <c r="B59">
-        <v>101.46</v>
+        <v>118.66</v>
       </c>
       <c r="C59">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D59">
-        <v>-22.92</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>44041</v>
+        <v>44071</v>
       </c>
       <c r="B60">
-        <v>101.3</v>
+        <v>115.66</v>
       </c>
       <c r="C60">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D60">
-        <v>-23.04</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>44042</v>
+        <v>44072</v>
       </c>
       <c r="B61">
-        <v>106.25</v>
+        <v>112.79</v>
       </c>
       <c r="C61">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D61">
-        <v>-19.28</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>44043</v>
+        <v>44073</v>
       </c>
       <c r="B62">
-        <v>105.6</v>
+        <v>108.73</v>
       </c>
       <c r="C62">
-        <v>131.62</v>
+        <v>118.73</v>
       </c>
       <c r="D62">
-        <v>-19.77</v>
+        <v>-8.42</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>44044</v>
+        <v>44074</v>
       </c>
       <c r="B63">
-        <v>100.94</v>
+        <v>106.92</v>
       </c>
       <c r="C63">
         <v>118.73</v>
       </c>
       <c r="D63">
-        <v>-14.99</v>
+        <v>-9.949999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>44045</v>
+        <v>44075</v>
       </c>
       <c r="B64">
-        <v>100.17</v>
+        <v>105.34</v>
       </c>
       <c r="C64">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D64">
-        <v>-15.64</v>
+        <v>-14.99</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>44046</v>
+        <v>44076</v>
       </c>
       <c r="B65">
-        <v>97.37</v>
+        <v>102.17</v>
       </c>
       <c r="C65">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D65">
-        <v>-18</v>
+        <v>-17.55</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>44047</v>
+        <v>44077</v>
       </c>
       <c r="B66">
-        <v>96.39</v>
+        <v>102.73</v>
       </c>
       <c r="C66">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D66">
-        <v>-18.82</v>
+        <v>-17.1</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>44048</v>
+        <v>44078</v>
       </c>
       <c r="B67">
-        <v>93.48</v>
+        <v>101.86</v>
       </c>
       <c r="C67">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D67">
-        <v>-21.26</v>
+        <v>-17.8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>44049</v>
+        <v>44079</v>
       </c>
       <c r="B68">
-        <v>91.01000000000001</v>
+        <v>97.95</v>
       </c>
       <c r="C68">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D68">
-        <v>-23.35</v>
+        <v>-20.96</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>44050</v>
+        <v>44080</v>
       </c>
       <c r="B69">
-        <v>92.81</v>
+        <v>98.45999999999999</v>
       </c>
       <c r="C69">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D69">
-        <v>-21.83</v>
+        <v>-20.54</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>44051</v>
+        <v>44081</v>
       </c>
       <c r="B70">
-        <v>92.11</v>
+        <v>96.01000000000001</v>
       </c>
       <c r="C70">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D70">
-        <v>-22.42</v>
+        <v>-22.52</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>44052</v>
+        <v>44082</v>
       </c>
       <c r="B71">
-        <v>90.12</v>
+        <v>96.89</v>
       </c>
       <c r="C71">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D71">
-        <v>-24.09</v>
+        <v>-21.81</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>44053</v>
+        <v>44083</v>
       </c>
       <c r="B72">
-        <v>89.51000000000001</v>
+        <v>94.87</v>
       </c>
       <c r="C72">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D72">
-        <v>-24.61</v>
+        <v>-23.44</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>44054</v>
+        <v>44084</v>
       </c>
       <c r="B73">
-        <v>87.06</v>
+        <v>93.63</v>
       </c>
       <c r="C73">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D73">
-        <v>-26.67</v>
+        <v>-24.44</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>44055</v>
+        <v>44085</v>
       </c>
       <c r="B74">
-        <v>89.5</v>
+        <v>92.72</v>
       </c>
       <c r="C74">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D74">
-        <v>-24.62</v>
+        <v>-25.18</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>44056</v>
+        <v>44086</v>
       </c>
       <c r="B75">
-        <v>103.19</v>
+        <v>93.17</v>
       </c>
       <c r="C75">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D75">
-        <v>-13.09</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>44057</v>
+        <v>44087</v>
       </c>
       <c r="B76">
-        <v>126.78</v>
+        <v>90.61</v>
       </c>
       <c r="C76">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D76">
-        <v>6.78</v>
+        <v>-26.87</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>44058</v>
+        <v>44088</v>
       </c>
       <c r="B77">
-        <v>130.44</v>
+        <v>89.31999999999999</v>
       </c>
       <c r="C77">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D77">
-        <v>9.859999999999999</v>
+        <v>-27.92</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>44059</v>
+        <v>44089</v>
       </c>
       <c r="B78">
-        <v>147.31</v>
+        <v>89.72</v>
       </c>
       <c r="C78">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D78">
-        <v>24.07</v>
+        <v>-27.6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>44060</v>
+        <v>44090</v>
       </c>
       <c r="B79">
-        <v>153.32</v>
+        <v>88.73</v>
       </c>
       <c r="C79">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D79">
-        <v>29.13</v>
+        <v>-28.39</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>44061</v>
+        <v>44091</v>
       </c>
       <c r="B80">
-        <v>161.42</v>
+        <v>87.95999999999999</v>
       </c>
       <c r="C80">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D80">
-        <v>35.95</v>
+        <v>-29.01</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>44062</v>
+        <v>44092</v>
       </c>
       <c r="B81">
-        <v>178.33</v>
+        <v>85.38</v>
       </c>
       <c r="C81">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D81">
-        <v>50.2</v>
+        <v>-31.1</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>44063</v>
+        <v>44093</v>
       </c>
       <c r="B82">
-        <v>183.23</v>
+        <v>87.05</v>
       </c>
       <c r="C82">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D82">
-        <v>54.32</v>
+        <v>-29.75</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>44064</v>
+        <v>44094</v>
       </c>
       <c r="B83">
-        <v>174.01</v>
+        <v>86.89</v>
       </c>
       <c r="C83">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D83">
-        <v>46.56</v>
+        <v>-29.88</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>44065</v>
+        <v>44095</v>
       </c>
       <c r="B84">
-        <v>157.53</v>
+        <v>84.27</v>
       </c>
       <c r="C84">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D84">
-        <v>32.68</v>
+        <v>-32</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>44066</v>
+        <v>44096</v>
       </c>
       <c r="B85">
-        <v>144.66</v>
+        <v>83.43000000000001</v>
       </c>
       <c r="C85">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D85">
-        <v>21.83</v>
+        <v>-32.67</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>44067</v>
+        <v>44097</v>
       </c>
       <c r="B86">
-        <v>135</v>
+        <v>83.17</v>
       </c>
       <c r="C86">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D86">
-        <v>13.7</v>
+        <v>-32.88</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>44068</v>
+        <v>44098</v>
       </c>
       <c r="B87">
-        <v>127.99</v>
+        <v>81.73</v>
       </c>
       <c r="C87">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D87">
-        <v>7.8</v>
+        <v>-34.04</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>44069</v>
+        <v>44099</v>
       </c>
       <c r="B88">
-        <v>123.23</v>
+        <v>81.02</v>
       </c>
       <c r="C88">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D88">
-        <v>3.79</v>
+        <v>-34.62</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>44070</v>
+        <v>44100</v>
       </c>
       <c r="B89">
-        <v>118.66</v>
+        <v>81.68000000000001</v>
       </c>
       <c r="C89">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D89">
-        <v>-0.06</v>
+        <v>-34.09</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>44071</v>
+        <v>44101</v>
       </c>
       <c r="B90">
-        <v>115.66</v>
+        <v>79.48</v>
       </c>
       <c r="C90">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D90">
-        <v>-2.59</v>
+        <v>-35.86</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>44072</v>
+        <v>44102</v>
       </c>
       <c r="B91">
-        <v>112.79</v>
+        <v>81.34999999999999</v>
       </c>
       <c r="C91">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D91">
-        <v>-5</v>
+        <v>-34.35</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>44073</v>
+        <v>44103</v>
       </c>
       <c r="B92">
-        <v>108.73</v>
+        <v>86.38</v>
       </c>
       <c r="C92">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D92">
-        <v>-8.42</v>
+        <v>-30.3</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>44074</v>
+        <v>44104</v>
       </c>
       <c r="B93">
-        <v>106.92</v>
+        <v>87.86</v>
       </c>
       <c r="C93">
-        <v>118.73</v>
+        <v>123.92</v>
       </c>
       <c r="D93">
-        <v>-9.949999999999999</v>
+        <v>-29.09</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B94">
-        <v>105.34</v>
+        <v>84.78</v>
       </c>
       <c r="C94">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D94">
-        <v>-14.99</v>
+        <v>-43.78</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>44076</v>
+        <v>44106</v>
       </c>
       <c r="B95">
-        <v>102.17</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="C95">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D95">
-        <v>-17.55</v>
+        <v>-45.69</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>44077</v>
+        <v>44107</v>
       </c>
       <c r="B96">
-        <v>102.73</v>
+        <v>80.93000000000001</v>
       </c>
       <c r="C96">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D96">
-        <v>-17.1</v>
+        <v>-46.33</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>44078</v>
+        <v>44108</v>
       </c>
       <c r="B97">
-        <v>101.86</v>
+        <v>78.66</v>
       </c>
       <c r="C97">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D97">
-        <v>-17.8</v>
+        <v>-47.84</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>44079</v>
+        <v>44109</v>
       </c>
       <c r="B98">
-        <v>97.95</v>
+        <v>77.03</v>
       </c>
       <c r="C98">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D98">
-        <v>-20.96</v>
+        <v>-48.92</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>44080</v>
+        <v>44110</v>
       </c>
       <c r="B99">
-        <v>98.45999999999999</v>
+        <v>75.28</v>
       </c>
       <c r="C99">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D99">
-        <v>-20.54</v>
+        <v>-50.08</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>44081</v>
+        <v>44111</v>
       </c>
       <c r="B100">
-        <v>96.01000000000001</v>
+        <v>73.61</v>
       </c>
       <c r="C100">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D100">
-        <v>-22.52</v>
+        <v>-51.18</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>44082</v>
+        <v>44112</v>
       </c>
       <c r="B101">
-        <v>96.89</v>
+        <v>79.56999999999999</v>
       </c>
       <c r="C101">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D101">
-        <v>-21.81</v>
+        <v>-47.23</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>44083</v>
+        <v>44113</v>
       </c>
       <c r="B102">
-        <v>94.87</v>
+        <v>83.61</v>
       </c>
       <c r="C102">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D102">
-        <v>-23.44</v>
+        <v>-44.55</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>44084</v>
+        <v>44114</v>
       </c>
       <c r="B103">
-        <v>93.63</v>
+        <v>86.2</v>
       </c>
       <c r="C103">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D103">
-        <v>-24.44</v>
+        <v>-42.84</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>44085</v>
+        <v>44115</v>
       </c>
       <c r="B104">
-        <v>92.72</v>
+        <v>84.88</v>
       </c>
       <c r="C104">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D104">
-        <v>-25.18</v>
+        <v>-43.71</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>44086</v>
+        <v>44116</v>
       </c>
       <c r="B105">
-        <v>93.17</v>
+        <v>82.75</v>
       </c>
       <c r="C105">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D105">
-        <v>-24.81</v>
+        <v>-45.12</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>44087</v>
+        <v>44117</v>
       </c>
       <c r="B106">
-        <v>90.61</v>
+        <v>81.17</v>
       </c>
       <c r="C106">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D106">
-        <v>-26.87</v>
+        <v>-46.17</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>44088</v>
+        <v>44118</v>
       </c>
       <c r="B107">
-        <v>89.31999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="C107">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D107">
-        <v>-27.92</v>
+        <v>-45.29</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>44089</v>
+        <v>44119</v>
       </c>
       <c r="B108">
-        <v>89.72</v>
+        <v>84.88</v>
       </c>
       <c r="C108">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D108">
-        <v>-27.6</v>
+        <v>-43.71</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>44090</v>
+        <v>44120</v>
       </c>
       <c r="B109">
-        <v>88.73</v>
+        <v>84.42</v>
       </c>
       <c r="C109">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D109">
-        <v>-28.39</v>
+        <v>-44.02</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>44091</v>
+        <v>44121</v>
       </c>
       <c r="B110">
-        <v>87.95999999999999</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="C110">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D110">
-        <v>-29.01</v>
+        <v>-45.32</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>44092</v>
+        <v>44122</v>
       </c>
       <c r="B111">
-        <v>85.38</v>
+        <v>79.84</v>
       </c>
       <c r="C111">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D111">
-        <v>-31.1</v>
+        <v>-47.05</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>44093</v>
+        <v>44123</v>
       </c>
       <c r="B112">
-        <v>87.05</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="C112">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D112">
-        <v>-29.75</v>
+        <v>-47.51</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>44094</v>
+        <v>44124</v>
       </c>
       <c r="B113">
-        <v>86.89</v>
+        <v>75.25</v>
       </c>
       <c r="C113">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D113">
-        <v>-29.88</v>
+        <v>-50.1</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>44095</v>
+        <v>44125</v>
       </c>
       <c r="B114">
-        <v>84.27</v>
+        <v>73.7</v>
       </c>
       <c r="C114">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D114">
-        <v>-32</v>
+        <v>-51.13</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>44096</v>
+        <v>44126</v>
       </c>
       <c r="B115">
-        <v>83.43000000000001</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="C115">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D115">
-        <v>-32.67</v>
+        <v>-51.42</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>44097</v>
+        <v>44127</v>
       </c>
       <c r="B116">
-        <v>83.17</v>
+        <v>74.41</v>
       </c>
       <c r="C116">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D116">
-        <v>-32.88</v>
+        <v>-50.66</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>44098</v>
+        <v>44128</v>
       </c>
       <c r="B117">
-        <v>81.73</v>
+        <v>72.58</v>
       </c>
       <c r="C117">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D117">
-        <v>-34.04</v>
+        <v>-51.87</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>44099</v>
+        <v>44129</v>
       </c>
       <c r="B118">
-        <v>81.02</v>
+        <v>71.72</v>
       </c>
       <c r="C118">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D118">
-        <v>-34.62</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>44100</v>
+        <v>44130</v>
       </c>
       <c r="B119">
-        <v>81.68000000000001</v>
+        <v>71.03</v>
       </c>
       <c r="C119">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D119">
-        <v>-34.09</v>
+        <v>-52.89</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>44101</v>
+        <v>44131</v>
       </c>
       <c r="B120">
-        <v>79.48</v>
+        <v>72.92</v>
       </c>
       <c r="C120">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D120">
-        <v>-35.86</v>
+        <v>-51.64</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>44102</v>
+        <v>44132</v>
       </c>
       <c r="B121">
-        <v>81.34999999999999</v>
+        <v>69.98</v>
       </c>
       <c r="C121">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D121">
-        <v>-34.35</v>
+        <v>-53.59</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>44103</v>
+        <v>44133</v>
       </c>
       <c r="B122">
-        <v>86.38</v>
+        <v>71.72</v>
       </c>
       <c r="C122">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D122">
-        <v>-30.3</v>
+        <v>-52.44</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>44104</v>
+        <v>44134</v>
       </c>
       <c r="B123">
-        <v>87.86</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="C123">
-        <v>123.92</v>
+        <v>150.79</v>
       </c>
       <c r="D123">
-        <v>-29.09</v>
+        <v>-53.57</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>44105</v>
+        <v>44135</v>
       </c>
       <c r="B124">
-        <v>84.78</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C124">
         <v>150.79</v>
       </c>
       <c r="D124">
-        <v>-43.78</v>
+        <v>-53.07</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>44106</v>
+        <v>44136</v>
       </c>
       <c r="B125">
-        <v>81.90000000000001</v>
+        <v>70.06999999999999</v>
       </c>
       <c r="C125">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D125">
-        <v>-45.69</v>
+        <v>-50.17</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>44107</v>
+        <v>44137</v>
       </c>
       <c r="B126">
-        <v>80.93000000000001</v>
+        <v>69.34999999999999</v>
       </c>
       <c r="C126">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D126">
-        <v>-46.33</v>
+        <v>-50.68</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>44108</v>
+        <v>44138</v>
       </c>
       <c r="B127">
-        <v>78.66</v>
+        <v>69.65000000000001</v>
       </c>
       <c r="C127">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D127">
-        <v>-47.84</v>
+        <v>-50.47</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>44109</v>
+        <v>44139</v>
       </c>
       <c r="B128">
-        <v>77.03</v>
+        <v>69.79000000000001</v>
       </c>
       <c r="C128">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D128">
-        <v>-48.92</v>
+        <v>-50.37</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>44110</v>
+        <v>44140</v>
       </c>
       <c r="B129">
-        <v>75.28</v>
+        <v>67.7</v>
       </c>
       <c r="C129">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D129">
-        <v>-50.08</v>
+        <v>-51.86</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>44111</v>
+        <v>44141</v>
       </c>
       <c r="B130">
-        <v>73.61</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C130">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D130">
-        <v>-51.18</v>
+        <v>-52.07</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>44112</v>
+        <v>44142</v>
       </c>
       <c r="B131">
-        <v>79.56999999999999</v>
+        <v>66.06</v>
       </c>
       <c r="C131">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D131">
-        <v>-47.23</v>
+        <v>-53.02</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>44113</v>
+        <v>44143</v>
       </c>
       <c r="B132">
-        <v>83.61</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C132">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D132">
-        <v>-44.55</v>
+        <v>-53.45</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>44114</v>
+        <v>44144</v>
       </c>
       <c r="B133">
-        <v>86.2</v>
+        <v>68.44</v>
       </c>
       <c r="C133">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D133">
-        <v>-42.84</v>
+        <v>-51.33</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>44115</v>
+        <v>44145</v>
       </c>
       <c r="B134">
-        <v>84.88</v>
+        <v>66.91</v>
       </c>
       <c r="C134">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D134">
-        <v>-43.71</v>
+        <v>-52.42</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>44116</v>
+        <v>44146</v>
       </c>
       <c r="B135">
-        <v>82.75</v>
+        <v>68.06</v>
       </c>
       <c r="C135">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D135">
-        <v>-45.12</v>
+        <v>-51.6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>44117</v>
+        <v>44147</v>
       </c>
       <c r="B136">
-        <v>81.17</v>
+        <v>70.59</v>
       </c>
       <c r="C136">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D136">
-        <v>-46.17</v>
+        <v>-49.8</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>44118</v>
+        <v>44148</v>
       </c>
       <c r="B137">
-        <v>82.5</v>
+        <v>70.69</v>
       </c>
       <c r="C137">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D137">
-        <v>-45.29</v>
+        <v>-49.73</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>44119</v>
+        <v>44149</v>
       </c>
       <c r="B138">
-        <v>84.88</v>
+        <v>72.23</v>
       </c>
       <c r="C138">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D138">
-        <v>-43.71</v>
+        <v>-48.64</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>44120</v>
+        <v>44150</v>
       </c>
       <c r="B139">
-        <v>84.42</v>
+        <v>73.11</v>
       </c>
       <c r="C139">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D139">
-        <v>-44.02</v>
+        <v>-48.01</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>44121</v>
+        <v>44151</v>
       </c>
       <c r="B140">
-        <v>82.45999999999999</v>
+        <v>73.64</v>
       </c>
       <c r="C140">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D140">
-        <v>-45.32</v>
+        <v>-47.64</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>44122</v>
+        <v>44152</v>
       </c>
       <c r="B141">
-        <v>79.84</v>
+        <v>74.59</v>
       </c>
       <c r="C141">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D141">
-        <v>-47.05</v>
+        <v>-46.96</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>44123</v>
+        <v>44153</v>
       </c>
       <c r="B142">
-        <v>79.15000000000001</v>
+        <v>78.14</v>
       </c>
       <c r="C142">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D142">
-        <v>-47.51</v>
+        <v>-44.44</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>44124</v>
+        <v>44154</v>
       </c>
       <c r="B143">
-        <v>75.25</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="C143">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D143">
-        <v>-50.1</v>
+        <v>-44.76</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>44125</v>
+        <v>44155</v>
       </c>
       <c r="B144">
-        <v>73.7</v>
+        <v>74.98</v>
       </c>
       <c r="C144">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D144">
-        <v>-51.13</v>
+        <v>-46.68</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>44126</v>
+        <v>44156</v>
       </c>
       <c r="B145">
-        <v>73.26000000000001</v>
+        <v>72.23999999999999</v>
       </c>
       <c r="C145">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D145">
-        <v>-51.42</v>
+        <v>-48.63</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>44127</v>
+        <v>44157</v>
       </c>
       <c r="B146">
-        <v>74.41</v>
+        <v>70.88</v>
       </c>
       <c r="C146">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D146">
-        <v>-50.66</v>
+        <v>-49.6</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>44128</v>
+        <v>44158</v>
       </c>
       <c r="B147">
-        <v>72.58</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="C147">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D147">
-        <v>-51.87</v>
+        <v>-48.39</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>44129</v>
+        <v>44159</v>
       </c>
       <c r="B148">
-        <v>71.72</v>
+        <v>72.47</v>
       </c>
       <c r="C148">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D148">
-        <v>-52.44</v>
+        <v>-48.46</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>44130</v>
+        <v>44160</v>
       </c>
       <c r="B149">
-        <v>71.03</v>
+        <v>68.83</v>
       </c>
       <c r="C149">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D149">
-        <v>-52.89</v>
+        <v>-51.05</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>44131</v>
+        <v>44161</v>
       </c>
       <c r="B150">
-        <v>72.92</v>
+        <v>65.81</v>
       </c>
       <c r="C150">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D150">
-        <v>-51.64</v>
+        <v>-53.2</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>44132</v>
+        <v>44162</v>
       </c>
       <c r="B151">
-        <v>69.98</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C151">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D151">
-        <v>-53.59</v>
+        <v>-52.05</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>44133</v>
+        <v>44163</v>
       </c>
       <c r="B152">
-        <v>71.72</v>
+        <v>67.84999999999999</v>
       </c>
       <c r="C152">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D152">
-        <v>-52.44</v>
+        <v>-51.75</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>44134</v>
+        <v>44164</v>
       </c>
       <c r="B153">
-        <v>70.01000000000001</v>
+        <v>66.41</v>
       </c>
       <c r="C153">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D153">
-        <v>-53.57</v>
+        <v>-52.78</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>44135</v>
+        <v>44165</v>
       </c>
       <c r="B154">
-        <v>70.76000000000001</v>
+        <v>74.45</v>
       </c>
       <c r="C154">
-        <v>150.79</v>
+        <v>140.62</v>
       </c>
       <c r="D154">
-        <v>-53.07</v>
+        <v>-47.06</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B155">
-        <v>70.06999999999999</v>
+        <v>77.95</v>
       </c>
       <c r="C155">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D155">
-        <v>-50.17</v>
+        <v>-35.93</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>44137</v>
+        <v>44167</v>
       </c>
       <c r="B156">
-        <v>69.34999999999999</v>
+        <v>78.81999999999999</v>
       </c>
       <c r="C156">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D156">
-        <v>-50.68</v>
+        <v>-35.21</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>44138</v>
+        <v>44168</v>
       </c>
       <c r="B157">
-        <v>69.65000000000001</v>
+        <v>99.06</v>
       </c>
       <c r="C157">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D157">
-        <v>-50.47</v>
+        <v>-18.57</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>44139</v>
+        <v>44169</v>
       </c>
       <c r="B158">
-        <v>69.79000000000001</v>
+        <v>116.44</v>
       </c>
       <c r="C158">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D158">
-        <v>-50.37</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>44140</v>
+        <v>44170</v>
       </c>
       <c r="B159">
-        <v>67.7</v>
+        <v>125.54</v>
       </c>
       <c r="C159">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D159">
-        <v>-51.86</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>44141</v>
+        <v>44171</v>
       </c>
       <c r="B160">
-        <v>67.40000000000001</v>
+        <v>142.73</v>
       </c>
       <c r="C160">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D160">
-        <v>-52.07</v>
+        <v>17.32</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>44142</v>
+        <v>44172</v>
       </c>
       <c r="B161">
-        <v>66.06</v>
+        <v>134.19</v>
       </c>
       <c r="C161">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D161">
-        <v>-53.02</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>44143</v>
+        <v>44173</v>
       </c>
       <c r="B162">
-        <v>65.45999999999999</v>
+        <v>121.62</v>
       </c>
       <c r="C162">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D162">
-        <v>-53.45</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>44144</v>
+        <v>44174</v>
       </c>
       <c r="B163">
-        <v>68.44</v>
+        <v>114.09</v>
       </c>
       <c r="C163">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D163">
-        <v>-51.33</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>44145</v>
+        <v>44175</v>
       </c>
       <c r="B164">
-        <v>66.91</v>
+        <v>106.4</v>
       </c>
       <c r="C164">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D164">
-        <v>-52.42</v>
+        <v>-12.54</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>44146</v>
+        <v>44176</v>
       </c>
       <c r="B165">
-        <v>68.06</v>
+        <v>100.42</v>
       </c>
       <c r="C165">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D165">
-        <v>-51.6</v>
+        <v>-17.46</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>44147</v>
+        <v>44177</v>
       </c>
       <c r="B166">
-        <v>70.59</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="C166">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D166">
-        <v>-49.8</v>
+        <v>-21.38</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>44148</v>
+        <v>44178</v>
       </c>
       <c r="B167">
-        <v>70.69</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C167">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D167">
-        <v>-49.73</v>
+        <v>-24.05</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>44149</v>
+        <v>44179</v>
       </c>
       <c r="B168">
-        <v>72.23</v>
+        <v>92.18000000000001</v>
       </c>
       <c r="C168">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D168">
-        <v>-48.64</v>
+        <v>-24.23</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>44150</v>
+        <v>44180</v>
       </c>
       <c r="B169">
-        <v>73.11</v>
+        <v>90.59</v>
       </c>
       <c r="C169">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D169">
-        <v>-48.01</v>
+        <v>-25.53</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>44151</v>
+        <v>44181</v>
       </c>
       <c r="B170">
-        <v>73.64</v>
+        <v>90.69</v>
       </c>
       <c r="C170">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D170">
-        <v>-47.64</v>
+        <v>-25.46</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>44152</v>
+        <v>44182</v>
       </c>
       <c r="B171">
-        <v>74.59</v>
+        <v>91.47</v>
       </c>
       <c r="C171">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D171">
-        <v>-46.96</v>
+        <v>-24.81</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>44153</v>
+        <v>44183</v>
       </c>
       <c r="B172">
-        <v>78.14</v>
+        <v>93.12</v>
       </c>
       <c r="C172">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D172">
-        <v>-44.44</v>
+        <v>-23.45</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>44154</v>
+        <v>44184</v>
       </c>
       <c r="B173">
-        <v>77.68000000000001</v>
+        <v>90.66</v>
       </c>
       <c r="C173">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D173">
-        <v>-44.76</v>
+        <v>-25.48</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>44155</v>
+        <v>44185</v>
       </c>
       <c r="B174">
-        <v>74.98</v>
+        <v>89.34</v>
       </c>
       <c r="C174">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D174">
-        <v>-46.68</v>
+        <v>-26.56</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>44156</v>
+        <v>44186</v>
       </c>
       <c r="B175">
-        <v>72.23999999999999</v>
+        <v>99.51000000000001</v>
       </c>
       <c r="C175">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D175">
-        <v>-48.63</v>
+        <v>-18.2</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>44157</v>
+        <v>44187</v>
       </c>
       <c r="B176">
-        <v>70.88</v>
+        <v>143.66</v>
       </c>
       <c r="C176">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D176">
-        <v>-49.6</v>
+        <v>18.08</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>44158</v>
+        <v>44188</v>
       </c>
       <c r="B177">
-        <v>72.56999999999999</v>
+        <v>167.78</v>
       </c>
       <c r="C177">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D177">
-        <v>-48.39</v>
+        <v>37.91</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>44159</v>
+        <v>44189</v>
       </c>
       <c r="B178">
-        <v>72.47</v>
+        <v>134.15</v>
       </c>
       <c r="C178">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D178">
-        <v>-48.46</v>
+        <v>10.27</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>44160</v>
+        <v>44190</v>
       </c>
       <c r="B179">
-        <v>68.83</v>
+        <v>118.24</v>
       </c>
       <c r="C179">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D179">
-        <v>-51.05</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>44161</v>
+        <v>44191</v>
       </c>
       <c r="B180">
-        <v>65.81</v>
+        <v>108.11</v>
       </c>
       <c r="C180">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D180">
-        <v>-53.2</v>
+        <v>-11.13</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>44162</v>
+        <v>44192</v>
       </c>
       <c r="B181">
-        <v>67.43000000000001</v>
+        <v>101.25</v>
       </c>
       <c r="C181">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D181">
-        <v>-52.05</v>
+        <v>-16.77</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>44163</v>
+        <v>44193</v>
       </c>
       <c r="B182">
-        <v>67.84999999999999</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="C182">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D182">
-        <v>-51.75</v>
+        <v>-20.05</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>44164</v>
+        <v>44194</v>
       </c>
       <c r="B183">
-        <v>66.41</v>
+        <v>93.95999999999999</v>
       </c>
       <c r="C183">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D183">
-        <v>-52.78</v>
+        <v>-22.77</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>44165</v>
+        <v>44195</v>
       </c>
       <c r="B184">
-        <v>74.45</v>
+        <v>97.34</v>
       </c>
       <c r="C184">
-        <v>140.62</v>
+        <v>121.66</v>
       </c>
       <c r="D184">
-        <v>-47.06</v>
+        <v>-19.98</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>44166</v>
+        <v>44196</v>
       </c>
       <c r="B185">
-        <v>77.95</v>
+        <v>104.28</v>
       </c>
       <c r="C185">
         <v>121.66</v>
       </c>
       <c r="D185">
-        <v>-35.93</v>
+        <v>-14.28</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>44167</v>
+        <v>44197</v>
       </c>
       <c r="B186">
-        <v>78.81999999999999</v>
+        <v>99.16</v>
       </c>
       <c r="C186">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D186">
-        <v>-35.21</v>
+        <v>-13.57</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>44168</v>
+        <v>44198</v>
       </c>
       <c r="B187">
-        <v>99.06</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="C187">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D187">
-        <v>-18.57</v>
+        <v>-15.41</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>44169</v>
+        <v>44199</v>
       </c>
       <c r="B188">
-        <v>116.44</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C188">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D188">
-        <v>-4.29</v>
+        <v>-13.06</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>44170</v>
+        <v>44200</v>
       </c>
       <c r="B189">
-        <v>125.54</v>
+        <v>98.12</v>
       </c>
       <c r="C189">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D189">
-        <v>3.19</v>
+        <v>-14.46</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>44171</v>
+        <v>44201</v>
       </c>
       <c r="B190">
-        <v>142.73</v>
+        <v>95.66</v>
       </c>
       <c r="C190">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D190">
-        <v>17.32</v>
+        <v>-16.62</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>44172</v>
+        <v>44202</v>
       </c>
       <c r="B191">
-        <v>134.19</v>
+        <v>100.31</v>
       </c>
       <c r="C191">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D191">
-        <v>10.3</v>
+        <v>-12.56</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>44173</v>
+        <v>44203</v>
       </c>
       <c r="B192">
-        <v>121.62</v>
+        <v>101.52</v>
       </c>
       <c r="C192">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D192">
-        <v>-0.03</v>
+        <v>-11.5</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>44174</v>
+        <v>44204</v>
       </c>
       <c r="B193">
-        <v>114.09</v>
+        <v>105.19</v>
       </c>
       <c r="C193">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D193">
-        <v>-6.22</v>
+        <v>-8.31</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>44175</v>
+        <v>44205</v>
       </c>
       <c r="B194">
-        <v>106.4</v>
+        <v>107.33</v>
       </c>
       <c r="C194">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D194">
-        <v>-12.54</v>
+        <v>-6.44</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>44176</v>
+        <v>44206</v>
       </c>
       <c r="B195">
-        <v>100.42</v>
+        <v>101.44</v>
       </c>
       <c r="C195">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D195">
-        <v>-17.46</v>
+        <v>-11.58</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>44177</v>
+        <v>44207</v>
       </c>
       <c r="B196">
-        <v>95.65000000000001</v>
+        <v>96.28</v>
       </c>
       <c r="C196">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D196">
-        <v>-21.38</v>
+        <v>-16.07</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>44178</v>
+        <v>44208</v>
       </c>
       <c r="B197">
-        <v>92.40000000000001</v>
+        <v>101.62</v>
       </c>
       <c r="C197">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D197">
-        <v>-24.05</v>
+        <v>-11.41</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>44179</v>
+        <v>44209</v>
       </c>
       <c r="B198">
-        <v>92.18000000000001</v>
+        <v>102.96</v>
       </c>
       <c r="C198">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D198">
-        <v>-24.23</v>
+        <v>-10.25</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>44180</v>
+        <v>44210</v>
       </c>
       <c r="B199">
-        <v>90.59</v>
+        <v>96.89</v>
       </c>
       <c r="C199">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D199">
-        <v>-25.53</v>
+        <v>-15.55</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>44181</v>
+        <v>44211</v>
       </c>
       <c r="B200">
-        <v>90.69</v>
+        <v>96.34999999999999</v>
       </c>
       <c r="C200">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D200">
-        <v>-25.46</v>
+        <v>-16.01</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>44182</v>
+        <v>44212</v>
       </c>
       <c r="B201">
-        <v>91.47</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C201">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D201">
-        <v>-24.81</v>
+        <v>-19.5</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>44183</v>
+        <v>44213</v>
       </c>
       <c r="B202">
-        <v>93.12</v>
+        <v>94.72</v>
       </c>
       <c r="C202">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D202">
-        <v>-23.45</v>
+        <v>-17.43</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>44184</v>
+        <v>44214</v>
       </c>
       <c r="B203">
-        <v>90.66</v>
+        <v>98.83</v>
       </c>
       <c r="C203">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D203">
-        <v>-25.48</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>44185</v>
+        <v>44215</v>
       </c>
       <c r="B204">
-        <v>89.34</v>
+        <v>107.27</v>
       </c>
       <c r="C204">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D204">
-        <v>-26.56</v>
+        <v>-6.49</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>44186</v>
+        <v>44216</v>
       </c>
       <c r="B205">
-        <v>99.51000000000001</v>
+        <v>117.28</v>
       </c>
       <c r="C205">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D205">
-        <v>-18.2</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>44187</v>
+        <v>44217</v>
       </c>
       <c r="B206">
-        <v>143.66</v>
+        <v>138.02</v>
       </c>
       <c r="C206">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D206">
-        <v>18.08</v>
+        <v>20.31</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>44188</v>
+        <v>44218</v>
       </c>
       <c r="B207">
-        <v>167.78</v>
+        <v>146.55</v>
       </c>
       <c r="C207">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D207">
-        <v>37.91</v>
+        <v>27.75</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>44189</v>
+        <v>44219</v>
       </c>
       <c r="B208">
-        <v>134.15</v>
+        <v>152.69</v>
       </c>
       <c r="C208">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D208">
-        <v>10.27</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>44190</v>
+        <v>44220</v>
       </c>
       <c r="B209">
-        <v>118.24</v>
+        <v>170.98</v>
       </c>
       <c r="C209">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D209">
-        <v>-2.81</v>
+        <v>49.04</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>44191</v>
+        <v>44221</v>
       </c>
       <c r="B210">
-        <v>108.11</v>
+        <v>196.91</v>
       </c>
       <c r="C210">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D210">
-        <v>-11.13</v>
+        <v>71.64</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>44192</v>
+        <v>44222</v>
       </c>
       <c r="B211">
-        <v>101.25</v>
+        <v>271.82</v>
       </c>
       <c r="C211">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D211">
-        <v>-16.77</v>
+        <v>136.95</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>44193</v>
+        <v>44223</v>
       </c>
       <c r="B212">
-        <v>97.26000000000001</v>
+        <v>263.88</v>
       </c>
       <c r="C212">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D212">
-        <v>-20.05</v>
+        <v>130.02</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>44194</v>
+        <v>44224</v>
       </c>
       <c r="B213">
-        <v>93.95999999999999</v>
+        <v>219.91</v>
       </c>
       <c r="C213">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D213">
-        <v>-22.77</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>44195</v>
+        <v>44225</v>
       </c>
       <c r="B214">
-        <v>97.34</v>
+        <v>233.49</v>
       </c>
       <c r="C214">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D214">
-        <v>-19.98</v>
+        <v>103.54</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>44196</v>
+        <v>44226</v>
       </c>
       <c r="B215">
-        <v>104.28</v>
+        <v>315.97</v>
       </c>
       <c r="C215">
-        <v>121.66</v>
+        <v>114.72</v>
       </c>
       <c r="D215">
-        <v>-14.28</v>
+        <v>175.43</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>44197</v>
+        <v>44227</v>
       </c>
       <c r="B216">
-        <v>99.16</v>
+        <v>323.51</v>
       </c>
       <c r="C216">
         <v>114.72</v>
       </c>
       <c r="D216">
-        <v>-13.57</v>
+        <v>182</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>44198</v>
+        <v>44228</v>
       </c>
       <c r="B217">
-        <v>97.04000000000001</v>
+        <v>304.64</v>
       </c>
       <c r="C217">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D217">
-        <v>-15.41</v>
+        <v>163.05</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>44199</v>
+        <v>44229</v>
       </c>
       <c r="B218">
-        <v>99.73999999999999</v>
+        <v>279.2</v>
       </c>
       <c r="C218">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D218">
-        <v>-13.06</v>
+        <v>141.08</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>44200</v>
+        <v>44230</v>
       </c>
       <c r="B219">
-        <v>98.12</v>
+        <v>241.17</v>
       </c>
       <c r="C219">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D219">
-        <v>-14.46</v>
+        <v>108.24</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>44201</v>
+        <v>44231</v>
       </c>
       <c r="B220">
-        <v>95.66</v>
+        <v>217.73</v>
       </c>
       <c r="C220">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D220">
-        <v>-16.62</v>
+        <v>88.01000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>44202</v>
+        <v>44232</v>
       </c>
       <c r="B221">
-        <v>100.31</v>
+        <v>201.85</v>
       </c>
       <c r="C221">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D221">
-        <v>-12.56</v>
+        <v>74.3</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>44203</v>
+        <v>44233</v>
       </c>
       <c r="B222">
-        <v>101.52</v>
+        <v>187.12</v>
       </c>
       <c r="C222">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D222">
-        <v>-11.5</v>
+        <v>61.58</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>44204</v>
+        <v>44234</v>
       </c>
       <c r="B223">
-        <v>105.19</v>
+        <v>176.22</v>
       </c>
       <c r="C223">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D223">
-        <v>-8.31</v>
+        <v>52.16</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>44205</v>
+        <v>44235</v>
       </c>
       <c r="B224">
-        <v>107.33</v>
+        <v>167.47</v>
       </c>
       <c r="C224">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D224">
-        <v>-6.44</v>
+        <v>44.61</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>44206</v>
+        <v>44236</v>
       </c>
       <c r="B225">
-        <v>101.44</v>
+        <v>158.85</v>
       </c>
       <c r="C225">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D225">
-        <v>-11.58</v>
+        <v>37.17</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>44207</v>
+        <v>44237</v>
       </c>
       <c r="B226">
-        <v>96.28</v>
+        <v>149.56</v>
       </c>
       <c r="C226">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D226">
-        <v>-16.07</v>
+        <v>29.14</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>44208</v>
+        <v>44238</v>
       </c>
       <c r="B227">
-        <v>101.62</v>
+        <v>148.33</v>
       </c>
       <c r="C227">
-        <v>114.72</v>
+        <v>115.81</v>
       </c>
       <c r="D227">
-        <v>-11.41</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>44209</v>
-      </c>
-      <c r="B228">
-        <v>102.96</v>
+        <v>44239</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
       </c>
       <c r="C228">
-        <v>114.72</v>
-      </c>
-      <c r="D228">
-        <v>-10.25</v>
+        <v>115.81</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>44210</v>
-      </c>
-      <c r="B229">
-        <v>96.89</v>
+        <v>44240</v>
+      </c>
+      <c r="B229" t="s">
+        <v>4</v>
       </c>
       <c r="C229">
-        <v>114.72</v>
-      </c>
-      <c r="D229">
-        <v>-15.55</v>
+        <v>115.81</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>44211</v>
-      </c>
-      <c r="B230">
-        <v>96.34999999999999</v>
+        <v>44241</v>
+      </c>
+      <c r="B230" t="s">
+        <v>4</v>
       </c>
       <c r="C230">
-        <v>114.72</v>
-      </c>
-      <c r="D230">
-        <v>-16.01</v>
+        <v>115.81</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>44212</v>
-      </c>
-      <c r="B231">
-        <v>92.34999999999999</v>
+        <v>44242</v>
+      </c>
+      <c r="B231" t="s">
+        <v>4</v>
       </c>
       <c r="C231">
-        <v>114.72</v>
-      </c>
-      <c r="D231">
-        <v>-19.5</v>
+        <v>115.81</v>
+      </c>
+      <c r="D231" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>44213</v>
-      </c>
-      <c r="B232">
-        <v>94.72</v>
+        <v>44243</v>
+      </c>
+      <c r="B232" t="s">
+        <v>4</v>
       </c>
       <c r="C232">
-        <v>114.72</v>
-      </c>
-      <c r="D232">
-        <v>-17.43</v>
+        <v>115.81</v>
+      </c>
+      <c r="D232" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>44214</v>
-      </c>
-      <c r="B233">
-        <v>98.83</v>
+        <v>44244</v>
+      </c>
+      <c r="B233" t="s">
+        <v>4</v>
       </c>
       <c r="C233">
-        <v>114.72</v>
-      </c>
-      <c r="D233">
-        <v>-13.85</v>
+        <v>115.81</v>
+      </c>
+      <c r="D233" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>44215</v>
-      </c>
-      <c r="B234">
-        <v>107.27</v>
+        <v>44245</v>
+      </c>
+      <c r="B234" t="s">
+        <v>4</v>
       </c>
       <c r="C234">
-        <v>114.72</v>
-      </c>
-      <c r="D234">
-        <v>-6.49</v>
+        <v>115.81</v>
+      </c>
+      <c r="D234" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>44216</v>
-      </c>
-      <c r="B235">
-        <v>117.28</v>
+        <v>44246</v>
+      </c>
+      <c r="B235" t="s">
+        <v>4</v>
       </c>
       <c r="C235">
-        <v>114.72</v>
-      </c>
-      <c r="D235">
-        <v>2.23</v>
+        <v>115.81</v>
+      </c>
+      <c r="D235" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>44217</v>
-      </c>
-      <c r="B236">
-        <v>138.02</v>
+        <v>44247</v>
+      </c>
+      <c r="B236" t="s">
+        <v>4</v>
       </c>
       <c r="C236">
-        <v>114.72</v>
-      </c>
-      <c r="D236">
-        <v>20.31</v>
+        <v>115.81</v>
+      </c>
+      <c r="D236" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>44218</v>
-      </c>
-      <c r="B237">
-        <v>146.55</v>
+        <v>44248</v>
+      </c>
+      <c r="B237" t="s">
+        <v>4</v>
       </c>
       <c r="C237">
-        <v>114.72</v>
-      </c>
-      <c r="D237">
-        <v>27.75</v>
+        <v>115.81</v>
+      </c>
+      <c r="D237" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>44219</v>
-      </c>
-      <c r="B238">
-        <v>152.69</v>
+        <v>44249</v>
+      </c>
+      <c r="B238" t="s">
+        <v>4</v>
       </c>
       <c r="C238">
-        <v>114.72</v>
-      </c>
-      <c r="D238">
-        <v>33.1</v>
+        <v>115.81</v>
+      </c>
+      <c r="D238" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>44220</v>
-      </c>
-      <c r="B239">
-        <v>170.98</v>
+        <v>44250</v>
+      </c>
+      <c r="B239" t="s">
+        <v>4</v>
       </c>
       <c r="C239">
-        <v>114.72</v>
-      </c>
-      <c r="D239">
-        <v>49.04</v>
+        <v>115.81</v>
+      </c>
+      <c r="D239" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>44221</v>
-      </c>
-      <c r="B240">
-        <v>196.91</v>
+        <v>44251</v>
+      </c>
+      <c r="B240" t="s">
+        <v>4</v>
       </c>
       <c r="C240">
-        <v>114.72</v>
-      </c>
-      <c r="D240">
-        <v>71.64</v>
+        <v>115.81</v>
+      </c>
+      <c r="D240" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>44222</v>
-      </c>
-      <c r="B241">
-        <v>271.82</v>
+        <v>44252</v>
+      </c>
+      <c r="B241" t="s">
+        <v>4</v>
       </c>
       <c r="C241">
-        <v>114.72</v>
-      </c>
-      <c r="D241">
-        <v>136.95</v>
+        <v>115.81</v>
+      </c>
+      <c r="D241" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>44223</v>
-      </c>
-      <c r="B242">
-        <v>263.88</v>
+        <v>44253</v>
+      </c>
+      <c r="B242" t="s">
+        <v>4</v>
       </c>
       <c r="C242">
-        <v>114.72</v>
-      </c>
-      <c r="D242">
-        <v>130.02</v>
+        <v>115.81</v>
+      </c>
+      <c r="D242" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>44224</v>
-      </c>
-      <c r="B243">
-        <v>219.91</v>
+        <v>44254</v>
+      </c>
+      <c r="B243" t="s">
+        <v>4</v>
       </c>
       <c r="C243">
-        <v>114.72</v>
-      </c>
-      <c r="D243">
-        <v>91.7</v>
+        <v>115.81</v>
+      </c>
+      <c r="D243" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>44225</v>
-      </c>
-      <c r="B244">
-        <v>233.49</v>
+        <v>44255</v>
+      </c>
+      <c r="B244" t="s">
+        <v>4</v>
       </c>
       <c r="C244">
-        <v>114.72</v>
-      </c>
-      <c r="D244">
-        <v>103.54</v>
+        <v>115.81</v>
+      </c>
+      <c r="D244" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>44226</v>
-      </c>
-      <c r="B245">
-        <v>315.97</v>
+        <v>44256</v>
+      </c>
+      <c r="B245" t="s">
+        <v>4</v>
       </c>
       <c r="C245">
-        <v>114.72</v>
-      </c>
-      <c r="D245">
-        <v>175.43</v>
+        <v>107.27</v>
+      </c>
+      <c r="D245" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>44227</v>
-      </c>
-      <c r="B246">
-        <v>323.51</v>
+        <v>44257</v>
+      </c>
+      <c r="B246" t="s">
+        <v>4</v>
       </c>
       <c r="C246">
-        <v>114.72</v>
-      </c>
-      <c r="D246">
-        <v>182</v>
+        <v>107.27</v>
+      </c>
+      <c r="D246" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>44228</v>
-      </c>
-      <c r="B247">
-        <v>304.64</v>
+        <v>44258</v>
+      </c>
+      <c r="B247" t="s">
+        <v>4</v>
       </c>
       <c r="C247">
-        <v>115.81</v>
-      </c>
-      <c r="D247">
-        <v>163.05</v>
+        <v>107.27</v>
+      </c>
+      <c r="D247" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>44229</v>
-      </c>
-      <c r="B248">
-        <v>279.2</v>
+        <v>44259</v>
+      </c>
+      <c r="B248" t="s">
+        <v>4</v>
       </c>
       <c r="C248">
-        <v>115.81</v>
-      </c>
-      <c r="D248">
-        <v>141.08</v>
+        <v>107.27</v>
+      </c>
+      <c r="D248" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>44230</v>
-      </c>
-      <c r="B249">
-        <v>241.17</v>
+        <v>44260</v>
+      </c>
+      <c r="B249" t="s">
+        <v>4</v>
       </c>
       <c r="C249">
-        <v>115.81</v>
-      </c>
-      <c r="D249">
-        <v>108.24</v>
+        <v>107.27</v>
+      </c>
+      <c r="D249" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>44231</v>
-      </c>
-      <c r="B250">
-        <v>217.73</v>
+        <v>44261</v>
+      </c>
+      <c r="B250" t="s">
+        <v>4</v>
       </c>
       <c r="C250">
-        <v>115.81</v>
-      </c>
-      <c r="D250">
-        <v>88.01000000000001</v>
+        <v>107.27</v>
+      </c>
+      <c r="D250" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>44232</v>
-      </c>
-      <c r="B251">
-        <v>201.85</v>
+        <v>44262</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
       </c>
       <c r="C251">
-        <v>115.81</v>
-      </c>
-      <c r="D251">
-        <v>74.3</v>
+        <v>107.27</v>
+      </c>
+      <c r="D251" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>44233</v>
-      </c>
-      <c r="B252">
-        <v>187.12</v>
+        <v>44263</v>
+      </c>
+      <c r="B252" t="s">
+        <v>4</v>
       </c>
       <c r="C252">
-        <v>115.81</v>
-      </c>
-      <c r="D252">
-        <v>61.58</v>
+        <v>107.27</v>
+      </c>
+      <c r="D252" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>44234</v>
-      </c>
-      <c r="B253">
-        <v>176.22</v>
+        <v>44264</v>
+      </c>
+      <c r="B253" t="s">
+        <v>4</v>
       </c>
       <c r="C253">
-        <v>115.81</v>
-      </c>
-      <c r="D253">
-        <v>52.16</v>
+        <v>107.27</v>
+      </c>
+      <c r="D253" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>44235</v>
-      </c>
-      <c r="B254">
-        <v>167.47</v>
+        <v>44265</v>
+      </c>
+      <c r="B254" t="s">
+        <v>4</v>
       </c>
       <c r="C254">
-        <v>115.81</v>
-      </c>
-      <c r="D254">
-        <v>44.61</v>
+        <v>107.27</v>
+      </c>
+      <c r="D254" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>44236</v>
-      </c>
-      <c r="B255">
-        <v>158.85</v>
+        <v>44266</v>
+      </c>
+      <c r="B255" t="s">
+        <v>4</v>
       </c>
       <c r="C255">
-        <v>115.81</v>
-      </c>
-      <c r="D255">
-        <v>37.17</v>
+        <v>107.27</v>
+      </c>
+      <c r="D255" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>44237</v>
-      </c>
-      <c r="B256">
-        <v>149.56</v>
+        <v>44267</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
       </c>
       <c r="C256">
-        <v>115.81</v>
-      </c>
-      <c r="D256">
-        <v>29.14</v>
+        <v>107.27</v>
+      </c>
+      <c r="D256" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>44238</v>
-      </c>
-      <c r="B257">
-        <v>148.33</v>
+        <v>44268</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
       </c>
       <c r="C257">
-        <v>115.81</v>
-      </c>
-      <c r="D257">
-        <v>28.08</v>
+        <v>107.27</v>
+      </c>
+      <c r="D257" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>44239</v>
+        <v>44269</v>
       </c>
       <c r="B258" t="s">
         <v>4</v>
       </c>
       <c r="C258">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D258" t="s">
         <v>4</v>
@@ -4218,13 +4218,13 @@
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>44240</v>
+        <v>44270</v>
       </c>
       <c r="B259" t="s">
         <v>4</v>
       </c>
       <c r="C259">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D259" t="s">
         <v>4</v>
@@ -4232,13 +4232,13 @@
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>44241</v>
+        <v>44271</v>
       </c>
       <c r="B260" t="s">
         <v>4</v>
       </c>
       <c r="C260">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D260" t="s">
         <v>4</v>
@@ -4246,13 +4246,13 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>44242</v>
+        <v>44272</v>
       </c>
       <c r="B261" t="s">
         <v>4</v>
       </c>
       <c r="C261">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D261" t="s">
         <v>4</v>
@@ -4260,13 +4260,13 @@
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>44243</v>
+        <v>44273</v>
       </c>
       <c r="B262" t="s">
         <v>4</v>
       </c>
       <c r="C262">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D262" t="s">
         <v>4</v>
@@ -4274,13 +4274,13 @@
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>44244</v>
+        <v>44274</v>
       </c>
       <c r="B263" t="s">
         <v>4</v>
       </c>
       <c r="C263">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D263" t="s">
         <v>4</v>
@@ -4288,13 +4288,13 @@
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>44245</v>
+        <v>44275</v>
       </c>
       <c r="B264" t="s">
         <v>4</v>
       </c>
       <c r="C264">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D264" t="s">
         <v>4</v>
@@ -4302,13 +4302,13 @@
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>44246</v>
+        <v>44276</v>
       </c>
       <c r="B265" t="s">
         <v>4</v>
       </c>
       <c r="C265">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D265" t="s">
         <v>4</v>
@@ -4316,13 +4316,13 @@
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>44247</v>
+        <v>44277</v>
       </c>
       <c r="B266" t="s">
         <v>4</v>
       </c>
       <c r="C266">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D266" t="s">
         <v>4</v>
@@ -4330,13 +4330,13 @@
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>44248</v>
+        <v>44278</v>
       </c>
       <c r="B267" t="s">
         <v>4</v>
       </c>
       <c r="C267">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D267" t="s">
         <v>4</v>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>44249</v>
+        <v>44279</v>
       </c>
       <c r="B268" t="s">
         <v>4</v>
       </c>
       <c r="C268">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D268" t="s">
         <v>4</v>
@@ -4358,13 +4358,13 @@
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>44250</v>
+        <v>44280</v>
       </c>
       <c r="B269" t="s">
         <v>4</v>
       </c>
       <c r="C269">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D269" t="s">
         <v>4</v>
@@ -4372,13 +4372,13 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>44251</v>
+        <v>44281</v>
       </c>
       <c r="B270" t="s">
         <v>4</v>
       </c>
       <c r="C270">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D270" t="s">
         <v>4</v>
@@ -4386,13 +4386,13 @@
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>44252</v>
+        <v>44282</v>
       </c>
       <c r="B271" t="s">
         <v>4</v>
       </c>
       <c r="C271">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D271" t="s">
         <v>4</v>
@@ -4400,13 +4400,13 @@
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>44253</v>
+        <v>44283</v>
       </c>
       <c r="B272" t="s">
         <v>4</v>
       </c>
       <c r="C272">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D272" t="s">
         <v>4</v>
@@ -4414,13 +4414,13 @@
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>44254</v>
+        <v>44284</v>
       </c>
       <c r="B273" t="s">
         <v>4</v>
       </c>
       <c r="C273">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D273" t="s">
         <v>4</v>
@@ -4428,13 +4428,13 @@
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>44255</v>
+        <v>44285</v>
       </c>
       <c r="B274" t="s">
         <v>4</v>
       </c>
       <c r="C274">
-        <v>115.81</v>
+        <v>107.27</v>
       </c>
       <c r="D274" t="s">
         <v>4</v>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>44256</v>
+        <v>44286</v>
       </c>
       <c r="B275" t="s">
         <v>4</v>
@@ -4456,13 +4456,13 @@
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>44257</v>
+        <v>44287</v>
       </c>
       <c r="B276" t="s">
         <v>4</v>
       </c>
       <c r="C276">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D276" t="s">
         <v>4</v>
@@ -4470,13 +4470,13 @@
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>44258</v>
+        <v>44288</v>
       </c>
       <c r="B277" t="s">
         <v>4</v>
       </c>
       <c r="C277">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D277" t="s">
         <v>4</v>
@@ -4484,13 +4484,13 @@
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>44259</v>
+        <v>44289</v>
       </c>
       <c r="B278" t="s">
         <v>4</v>
       </c>
       <c r="C278">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D278" t="s">
         <v>4</v>
@@ -4498,13 +4498,13 @@
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>44260</v>
+        <v>44290</v>
       </c>
       <c r="B279" t="s">
         <v>4</v>
       </c>
       <c r="C279">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D279" t="s">
         <v>4</v>
@@ -4512,13 +4512,13 @@
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>44261</v>
+        <v>44291</v>
       </c>
       <c r="B280" t="s">
         <v>4</v>
       </c>
       <c r="C280">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D280" t="s">
         <v>4</v>
@@ -4526,13 +4526,13 @@
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>44262</v>
+        <v>44292</v>
       </c>
       <c r="B281" t="s">
         <v>4</v>
       </c>
       <c r="C281">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D281" t="s">
         <v>4</v>
@@ -4540,13 +4540,13 @@
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>44263</v>
+        <v>44293</v>
       </c>
       <c r="B282" t="s">
         <v>4</v>
       </c>
       <c r="C282">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D282" t="s">
         <v>4</v>
@@ -4554,13 +4554,13 @@
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>44264</v>
+        <v>44294</v>
       </c>
       <c r="B283" t="s">
         <v>4</v>
       </c>
       <c r="C283">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D283" t="s">
         <v>4</v>
@@ -4568,13 +4568,13 @@
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>44265</v>
+        <v>44295</v>
       </c>
       <c r="B284" t="s">
         <v>4</v>
       </c>
       <c r="C284">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D284" t="s">
         <v>4</v>
@@ -4582,13 +4582,13 @@
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>44266</v>
+        <v>44296</v>
       </c>
       <c r="B285" t="s">
         <v>4</v>
       </c>
       <c r="C285">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D285" t="s">
         <v>4</v>
@@ -4596,13 +4596,13 @@
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>44267</v>
+        <v>44297</v>
       </c>
       <c r="B286" t="s">
         <v>4</v>
       </c>
       <c r="C286">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D286" t="s">
         <v>4</v>
@@ -4610,13 +4610,13 @@
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>44268</v>
+        <v>44298</v>
       </c>
       <c r="B287" t="s">
         <v>4</v>
       </c>
       <c r="C287">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D287" t="s">
         <v>4</v>
@@ -4624,13 +4624,13 @@
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>44269</v>
+        <v>44299</v>
       </c>
       <c r="B288" t="s">
         <v>4</v>
       </c>
       <c r="C288">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D288" t="s">
         <v>4</v>
@@ -4638,13 +4638,13 @@
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>44270</v>
+        <v>44300</v>
       </c>
       <c r="B289" t="s">
         <v>4</v>
       </c>
       <c r="C289">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D289" t="s">
         <v>4</v>
@@ -4652,13 +4652,13 @@
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>44271</v>
+        <v>44301</v>
       </c>
       <c r="B290" t="s">
         <v>4</v>
       </c>
       <c r="C290">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D290" t="s">
         <v>4</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>44272</v>
+        <v>44302</v>
       </c>
       <c r="B291" t="s">
         <v>4</v>
       </c>
       <c r="C291">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D291" t="s">
         <v>4</v>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>44273</v>
+        <v>44303</v>
       </c>
       <c r="B292" t="s">
         <v>4</v>
       </c>
       <c r="C292">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D292" t="s">
         <v>4</v>
@@ -4694,13 +4694,13 @@
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>44274</v>
+        <v>44304</v>
       </c>
       <c r="B293" t="s">
         <v>4</v>
       </c>
       <c r="C293">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D293" t="s">
         <v>4</v>
@@ -4708,13 +4708,13 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>44275</v>
+        <v>44305</v>
       </c>
       <c r="B294" t="s">
         <v>4</v>
       </c>
       <c r="C294">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D294" t="s">
         <v>4</v>
@@ -4722,13 +4722,13 @@
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>44276</v>
+        <v>44306</v>
       </c>
       <c r="B295" t="s">
         <v>4</v>
       </c>
       <c r="C295">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D295" t="s">
         <v>4</v>
@@ -4736,13 +4736,13 @@
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>44277</v>
+        <v>44307</v>
       </c>
       <c r="B296" t="s">
         <v>4</v>
       </c>
       <c r="C296">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D296" t="s">
         <v>4</v>
@@ -4750,13 +4750,13 @@
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>44278</v>
+        <v>44308</v>
       </c>
       <c r="B297" t="s">
         <v>4</v>
       </c>
       <c r="C297">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D297" t="s">
         <v>4</v>
@@ -4764,13 +4764,13 @@
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>44279</v>
+        <v>44309</v>
       </c>
       <c r="B298" t="s">
         <v>4</v>
       </c>
       <c r="C298">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D298" t="s">
         <v>4</v>
@@ -4778,13 +4778,13 @@
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>44280</v>
+        <v>44310</v>
       </c>
       <c r="B299" t="s">
         <v>4</v>
       </c>
       <c r="C299">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D299" t="s">
         <v>4</v>
@@ -4792,13 +4792,13 @@
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>44281</v>
+        <v>44311</v>
       </c>
       <c r="B300" t="s">
         <v>4</v>
       </c>
       <c r="C300">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D300" t="s">
         <v>4</v>
@@ -4806,13 +4806,13 @@
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>44282</v>
+        <v>44312</v>
       </c>
       <c r="B301" t="s">
         <v>4</v>
       </c>
       <c r="C301">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D301" t="s">
         <v>4</v>
@@ -4820,13 +4820,13 @@
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>44283</v>
+        <v>44313</v>
       </c>
       <c r="B302" t="s">
         <v>4</v>
       </c>
       <c r="C302">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D302" t="s">
         <v>4</v>
@@ -4834,13 +4834,13 @@
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>44284</v>
+        <v>44314</v>
       </c>
       <c r="B303" t="s">
         <v>4</v>
       </c>
       <c r="C303">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D303" t="s">
         <v>4</v>
@@ -4848,13 +4848,13 @@
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>44285</v>
+        <v>44315</v>
       </c>
       <c r="B304" t="s">
         <v>4</v>
       </c>
       <c r="C304">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D304" t="s">
         <v>4</v>
@@ -4862,13 +4862,13 @@
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>44286</v>
+        <v>44316</v>
       </c>
       <c r="B305" t="s">
         <v>4</v>
       </c>
       <c r="C305">
-        <v>107.27</v>
+        <v>109.11</v>
       </c>
       <c r="D305" t="s">
         <v>4</v>
@@ -4876,13 +4876,13 @@
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B306" t="s">
         <v>4</v>
       </c>
       <c r="C306">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D306" t="s">
         <v>4</v>
@@ -4890,13 +4890,13 @@
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>44288</v>
+        <v>44318</v>
       </c>
       <c r="B307" t="s">
         <v>4</v>
       </c>
       <c r="C307">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D307" t="s">
         <v>4</v>
@@ -4904,13 +4904,13 @@
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>44289</v>
+        <v>44319</v>
       </c>
       <c r="B308" t="s">
         <v>4</v>
       </c>
       <c r="C308">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D308" t="s">
         <v>4</v>
@@ -4918,13 +4918,13 @@
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>44290</v>
+        <v>44320</v>
       </c>
       <c r="B309" t="s">
         <v>4</v>
       </c>
       <c r="C309">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D309" t="s">
         <v>4</v>
@@ -4932,13 +4932,13 @@
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="B310" t="s">
         <v>4</v>
       </c>
       <c r="C310">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D310" t="s">
         <v>4</v>
@@ -4946,13 +4946,13 @@
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>44292</v>
+        <v>44322</v>
       </c>
       <c r="B311" t="s">
         <v>4</v>
       </c>
       <c r="C311">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D311" t="s">
         <v>4</v>
@@ -4960,13 +4960,13 @@
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>44293</v>
+        <v>44323</v>
       </c>
       <c r="B312" t="s">
         <v>4</v>
       </c>
       <c r="C312">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D312" t="s">
         <v>4</v>
@@ -4974,13 +4974,13 @@
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>44294</v>
+        <v>44324</v>
       </c>
       <c r="B313" t="s">
         <v>4</v>
       </c>
       <c r="C313">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D313" t="s">
         <v>4</v>
@@ -4988,13 +4988,13 @@
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>44295</v>
+        <v>44325</v>
       </c>
       <c r="B314" t="s">
         <v>4</v>
       </c>
       <c r="C314">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D314" t="s">
         <v>4</v>
@@ -5002,13 +5002,13 @@
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>44296</v>
+        <v>44326</v>
       </c>
       <c r="B315" t="s">
         <v>4</v>
       </c>
       <c r="C315">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D315" t="s">
         <v>4</v>
@@ -5016,13 +5016,13 @@
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>44297</v>
+        <v>44327</v>
       </c>
       <c r="B316" t="s">
         <v>4</v>
       </c>
       <c r="C316">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D316" t="s">
         <v>4</v>
@@ -5030,13 +5030,13 @@
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>44298</v>
+        <v>44328</v>
       </c>
       <c r="B317" t="s">
         <v>4</v>
       </c>
       <c r="C317">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D317" t="s">
         <v>4</v>
@@ -5044,13 +5044,13 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>44299</v>
+        <v>44329</v>
       </c>
       <c r="B318" t="s">
         <v>4</v>
       </c>
       <c r="C318">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D318" t="s">
         <v>4</v>
@@ -5058,13 +5058,13 @@
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>44300</v>
+        <v>44330</v>
       </c>
       <c r="B319" t="s">
         <v>4</v>
       </c>
       <c r="C319">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D319" t="s">
         <v>4</v>
@@ -5072,13 +5072,13 @@
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>44301</v>
+        <v>44331</v>
       </c>
       <c r="B320" t="s">
         <v>4</v>
       </c>
       <c r="C320">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D320" t="s">
         <v>4</v>
@@ -5086,13 +5086,13 @@
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>44302</v>
+        <v>44332</v>
       </c>
       <c r="B321" t="s">
         <v>4</v>
       </c>
       <c r="C321">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D321" t="s">
         <v>4</v>
@@ -5100,13 +5100,13 @@
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>44303</v>
+        <v>44333</v>
       </c>
       <c r="B322" t="s">
         <v>4</v>
       </c>
       <c r="C322">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D322" t="s">
         <v>4</v>
@@ -5114,13 +5114,13 @@
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>44304</v>
+        <v>44334</v>
       </c>
       <c r="B323" t="s">
         <v>4</v>
       </c>
       <c r="C323">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D323" t="s">
         <v>4</v>
@@ -5128,13 +5128,13 @@
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>44305</v>
+        <v>44335</v>
       </c>
       <c r="B324" t="s">
         <v>4</v>
       </c>
       <c r="C324">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D324" t="s">
         <v>4</v>
@@ -5142,13 +5142,13 @@
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>44306</v>
+        <v>44336</v>
       </c>
       <c r="B325" t="s">
         <v>4</v>
       </c>
       <c r="C325">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D325" t="s">
         <v>4</v>
@@ -5156,13 +5156,13 @@
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>44307</v>
+        <v>44337</v>
       </c>
       <c r="B326" t="s">
         <v>4</v>
       </c>
       <c r="C326">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D326" t="s">
         <v>4</v>
@@ -5170,13 +5170,13 @@
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>44308</v>
+        <v>44338</v>
       </c>
       <c r="B327" t="s">
         <v>4</v>
       </c>
       <c r="C327">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D327" t="s">
         <v>4</v>
@@ -5184,13 +5184,13 @@
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>44309</v>
+        <v>44339</v>
       </c>
       <c r="B328" t="s">
         <v>4</v>
       </c>
       <c r="C328">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D328" t="s">
         <v>4</v>
@@ -5198,13 +5198,13 @@
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>44310</v>
+        <v>44340</v>
       </c>
       <c r="B329" t="s">
         <v>4</v>
       </c>
       <c r="C329">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D329" t="s">
         <v>4</v>
@@ -5212,13 +5212,13 @@
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>44311</v>
+        <v>44341</v>
       </c>
       <c r="B330" t="s">
         <v>4</v>
       </c>
       <c r="C330">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D330" t="s">
         <v>4</v>
@@ -5226,13 +5226,13 @@
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>44312</v>
+        <v>44342</v>
       </c>
       <c r="B331" t="s">
         <v>4</v>
       </c>
       <c r="C331">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D331" t="s">
         <v>4</v>
@@ -5240,13 +5240,13 @@
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>44313</v>
+        <v>44343</v>
       </c>
       <c r="B332" t="s">
         <v>4</v>
       </c>
       <c r="C332">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D332" t="s">
         <v>4</v>
@@ -5254,13 +5254,13 @@
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>44314</v>
+        <v>44344</v>
       </c>
       <c r="B333" t="s">
         <v>4</v>
       </c>
       <c r="C333">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D333" t="s">
         <v>4</v>
@@ -5268,13 +5268,13 @@
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>44315</v>
+        <v>44345</v>
       </c>
       <c r="B334" t="s">
         <v>4</v>
       </c>
       <c r="C334">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D334" t="s">
         <v>4</v>
@@ -5282,13 +5282,13 @@
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>44316</v>
+        <v>44346</v>
       </c>
       <c r="B335" t="s">
         <v>4</v>
       </c>
       <c r="C335">
-        <v>109.11</v>
+        <v>128</v>
       </c>
       <c r="D335" t="s">
         <v>4</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>44317</v>
+        <v>44347</v>
       </c>
       <c r="B336" t="s">
         <v>4</v>
@@ -5310,13 +5310,13 @@
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>44318</v>
+        <v>44348</v>
       </c>
       <c r="B337" t="s">
         <v>4</v>
       </c>
       <c r="C337">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D337" t="s">
         <v>4</v>
@@ -5324,13 +5324,13 @@
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>44319</v>
+        <v>44349</v>
       </c>
       <c r="B338" t="s">
         <v>4</v>
       </c>
       <c r="C338">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D338" t="s">
         <v>4</v>
@@ -5338,13 +5338,13 @@
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>44320</v>
+        <v>44350</v>
       </c>
       <c r="B339" t="s">
         <v>4</v>
       </c>
       <c r="C339">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D339" t="s">
         <v>4</v>
@@ -5352,13 +5352,13 @@
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>44321</v>
+        <v>44351</v>
       </c>
       <c r="B340" t="s">
         <v>4</v>
       </c>
       <c r="C340">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D340" t="s">
         <v>4</v>
@@ -5366,13 +5366,13 @@
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>44322</v>
+        <v>44352</v>
       </c>
       <c r="B341" t="s">
         <v>4</v>
       </c>
       <c r="C341">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D341" t="s">
         <v>4</v>
@@ -5380,13 +5380,13 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>44323</v>
+        <v>44353</v>
       </c>
       <c r="B342" t="s">
         <v>4</v>
       </c>
       <c r="C342">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D342" t="s">
         <v>4</v>
@@ -5394,13 +5394,13 @@
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>44324</v>
+        <v>44354</v>
       </c>
       <c r="B343" t="s">
         <v>4</v>
       </c>
       <c r="C343">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D343" t="s">
         <v>4</v>
@@ -5408,13 +5408,13 @@
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>44325</v>
+        <v>44355</v>
       </c>
       <c r="B344" t="s">
         <v>4</v>
       </c>
       <c r="C344">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D344" t="s">
         <v>4</v>
@@ -5422,13 +5422,13 @@
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>44326</v>
+        <v>44356</v>
       </c>
       <c r="B345" t="s">
         <v>4</v>
       </c>
       <c r="C345">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D345" t="s">
         <v>4</v>
@@ -5436,13 +5436,13 @@
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>44327</v>
+        <v>44357</v>
       </c>
       <c r="B346" t="s">
         <v>4</v>
       </c>
       <c r="C346">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D346" t="s">
         <v>4</v>
@@ -5450,13 +5450,13 @@
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>44328</v>
+        <v>44358</v>
       </c>
       <c r="B347" t="s">
         <v>4</v>
       </c>
       <c r="C347">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D347" t="s">
         <v>4</v>
@@ -5464,13 +5464,13 @@
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>44329</v>
+        <v>44359</v>
       </c>
       <c r="B348" t="s">
         <v>4</v>
       </c>
       <c r="C348">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D348" t="s">
         <v>4</v>
@@ -5478,13 +5478,13 @@
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>44330</v>
+        <v>44360</v>
       </c>
       <c r="B349" t="s">
         <v>4</v>
       </c>
       <c r="C349">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D349" t="s">
         <v>4</v>
@@ -5492,13 +5492,13 @@
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>44331</v>
+        <v>44361</v>
       </c>
       <c r="B350" t="s">
         <v>4</v>
       </c>
       <c r="C350">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D350" t="s">
         <v>4</v>
@@ -5506,13 +5506,13 @@
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>44332</v>
+        <v>44362</v>
       </c>
       <c r="B351" t="s">
         <v>4</v>
       </c>
       <c r="C351">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D351" t="s">
         <v>4</v>
@@ -5520,13 +5520,13 @@
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>44333</v>
+        <v>44363</v>
       </c>
       <c r="B352" t="s">
         <v>4</v>
       </c>
       <c r="C352">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D352" t="s">
         <v>4</v>
@@ -5534,13 +5534,13 @@
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>44334</v>
+        <v>44364</v>
       </c>
       <c r="B353" t="s">
         <v>4</v>
       </c>
       <c r="C353">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D353" t="s">
         <v>4</v>
@@ -5548,13 +5548,13 @@
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>44335</v>
+        <v>44365</v>
       </c>
       <c r="B354" t="s">
         <v>4</v>
       </c>
       <c r="C354">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D354" t="s">
         <v>4</v>
@@ -5562,13 +5562,13 @@
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>44336</v>
+        <v>44366</v>
       </c>
       <c r="B355" t="s">
         <v>4</v>
       </c>
       <c r="C355">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D355" t="s">
         <v>4</v>
@@ -5576,13 +5576,13 @@
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>44337</v>
+        <v>44367</v>
       </c>
       <c r="B356" t="s">
         <v>4</v>
       </c>
       <c r="C356">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D356" t="s">
         <v>4</v>
@@ -5590,13 +5590,13 @@
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>44338</v>
+        <v>44368</v>
       </c>
       <c r="B357" t="s">
         <v>4</v>
       </c>
       <c r="C357">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D357" t="s">
         <v>4</v>
@@ -5604,13 +5604,13 @@
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>44339</v>
+        <v>44369</v>
       </c>
       <c r="B358" t="s">
         <v>4</v>
       </c>
       <c r="C358">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D358" t="s">
         <v>4</v>
@@ -5618,13 +5618,13 @@
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>44340</v>
+        <v>44370</v>
       </c>
       <c r="B359" t="s">
         <v>4</v>
       </c>
       <c r="C359">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D359" t="s">
         <v>4</v>
@@ -5632,13 +5632,13 @@
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>44341</v>
+        <v>44371</v>
       </c>
       <c r="B360" t="s">
         <v>4</v>
       </c>
       <c r="C360">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D360" t="s">
         <v>4</v>
@@ -5646,13 +5646,13 @@
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>44342</v>
+        <v>44372</v>
       </c>
       <c r="B361" t="s">
         <v>4</v>
       </c>
       <c r="C361">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D361" t="s">
         <v>4</v>
@@ -5660,13 +5660,13 @@
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>44343</v>
+        <v>44373</v>
       </c>
       <c r="B362" t="s">
         <v>4</v>
       </c>
       <c r="C362">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D362" t="s">
         <v>4</v>
@@ -5674,13 +5674,13 @@
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>44344</v>
+        <v>44374</v>
       </c>
       <c r="B363" t="s">
         <v>4</v>
       </c>
       <c r="C363">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D363" t="s">
         <v>4</v>
@@ -5688,13 +5688,13 @@
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>44345</v>
+        <v>44375</v>
       </c>
       <c r="B364" t="s">
         <v>4</v>
       </c>
       <c r="C364">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D364" t="s">
         <v>4</v>
@@ -5702,13 +5702,13 @@
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>44346</v>
+        <v>44376</v>
       </c>
       <c r="B365" t="s">
         <v>4</v>
       </c>
       <c r="C365">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D365" t="s">
         <v>4</v>
@@ -5716,13 +5716,13 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>44347</v>
+        <v>44377</v>
       </c>
       <c r="B366" t="s">
         <v>4</v>
       </c>
       <c r="C366">
-        <v>128</v>
+        <v>138.37</v>
       </c>
       <c r="D366" t="s">
         <v>4</v>
